--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -53,151 +53,145 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>TOP 10 BEST VAPE MODS FOR 2020 - VAPING INSIDER</t>
-  </si>
-  <si>
-    <t>BXPChPavmng</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BXPChPavmng</t>
-  </si>
-  <si>
-    <t>Vaping Insider</t>
+    <t>StarTalk Podcast: The End of The World, with Josh Clark and Neil deGrasse Tyson</t>
+  </si>
+  <si>
+    <t>lljmkWEsH4w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lljmkWEsH4w</t>
+  </si>
+  <si>
+    <t>StarTalk</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>VAPING 101 - CRASH COURSE ☞ Everything You NEED TO KNOW ☜</t>
+  </si>
+  <si>
+    <t>PpwkrKCedGA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PpwkrKCedGA</t>
+  </si>
+  <si>
+    <t>Cloud Theorem</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1 3 4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>The Beginner's Guide To DIY E-Liquid</t>
+  </si>
+  <si>
+    <t>0MgDC7MYqy4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0MgDC7MYqy4</t>
+  </si>
+  <si>
+    <t>Vapable</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>Viewer Feedback  - comparison of some entry level vape/e-cig starter kits</t>
+  </si>
+  <si>
+    <t>wh2GrRrLIGI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wh2GrRrLIGI</t>
+  </si>
+  <si>
+    <t>Timmerz</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>3</t>
+    <t>how-to: disposable cameras 🎞</t>
+  </si>
+  <si>
+    <t>aRBHab3DOu8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aRBHab3DOu8</t>
+  </si>
+  <si>
+    <t>Lucia Violet</t>
+  </si>
+  <si>
+    <t>My Favorite Mods Of 2017! (so far)</t>
+  </si>
+  <si>
+    <t>zC_sXHeF_DM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zC_sXHeF_DM</t>
+  </si>
+  <si>
+    <t>Matt From SMM</t>
+  </si>
+  <si>
+    <t>Chase &amp; Status - End Credits</t>
+  </si>
+  <si>
+    <t>YXIHXQjbtl8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YXIHXQjbtl8</t>
+  </si>
+  <si>
+    <t>ChaseAndStatusVEVO</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>E-Cigarette Update: What to Do about Kids and Vaping?</t>
-  </si>
-  <si>
-    <t>Gqk8tiEHI7A</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Gqk8tiEHI7A</t>
-  </si>
-  <si>
-    <t>Healthcare Triage</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Michael Wolff predicts how Trump's presidency will end</t>
-  </si>
-  <si>
-    <t>uwab38_hINY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uwab38_hINY</t>
-  </si>
-  <si>
-    <t>CNN</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>RAW VIDEO: Police chase across Houston in morning rush hour ends in SWAT take down of suspect</t>
-  </si>
-  <si>
-    <t>S2MfSUaXwMw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=S2MfSUaXwMw</t>
-  </si>
-  <si>
-    <t>ABC13 Houston</t>
-  </si>
-  <si>
-    <t>Sennheiser PC 373D Gaming Headset Review (7.1 surround sound)</t>
-  </si>
-  <si>
-    <t>iOVwp4yQq_A</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iOVwp4yQq_A</t>
-  </si>
-  <si>
-    <t>Rocket Jump Ninja</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>E-Cigarette - Won't the Vapor Condensate in My Lungs?</t>
-  </si>
-  <si>
-    <t>Wykl7Y3iH30</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Wykl7Y3iH30</t>
-  </si>
-  <si>
-    <t>Qorax Stan</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>14-Year-Old Addicted To E-Cigarettes</t>
-  </si>
-  <si>
-    <t>6xc3Tc1adTE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6xc3Tc1adTE</t>
-  </si>
-  <si>
-    <t>Pop Trigger</t>
-  </si>
-  <si>
-    <t>San Rafael '71 Tangerine Dream Disposable Vape Review</t>
-  </si>
-  <si>
-    <t>att-qtXiljo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=att-qtXiljo</t>
-  </si>
-  <si>
-    <t>Kimo's Cannabis Channel</t>
-  </si>
-  <si>
-    <t>Developing Disposable Cameras from Early YouTube Days</t>
-  </si>
-  <si>
-    <t>I2b-euqf6pM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=I2b-euqf6pM</t>
-  </si>
-  <si>
-    <t>Tyler Oakley</t>
-  </si>
-  <si>
-    <t>VAPING VS CIGARETTES: Is The New Techy Trend Really Healthier For You? | David Nutt On London Real</t>
-  </si>
-  <si>
-    <t>cphX_KJjcbs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cphX_KJjcbs</t>
-  </si>
-  <si>
-    <t>London Real</t>
+    <t>NJOY King Review - Disposable NJOY King From My Local Convenience Store</t>
+  </si>
+  <si>
+    <t>BaVGgHo-r8A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BaVGgHo-r8A</t>
+  </si>
+  <si>
+    <t>Martin Lotsberg</t>
+  </si>
+  <si>
+    <t>DeMISTifying Electronic Nicotine Delivery Systems (ENDS) and Their Effects on Hormones (trimmed)</t>
+  </si>
+  <si>
+    <t>Y1jTh8VrsYQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y1jTh8VrsYQ</t>
+  </si>
+  <si>
+    <t>Deanna Doughty</t>
   </si>
 </sst>
 </file>
@@ -550,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,10 +595,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44141.73442485457</v>
+        <v>44141.74870952027</v>
       </c>
       <c r="D2" t="n">
-        <v>773</v>
+        <v>1825</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -639,10 +633,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44141.73524044117</v>
+        <v>44141.75017616058</v>
       </c>
       <c r="D3" t="n">
-        <v>143</v>
+        <v>2502</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -663,10 +657,10 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -677,34 +671,34 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44141.73582527618</v>
+        <v>44141.75214007896</v>
       </c>
       <c r="D4" t="n">
-        <v>2148</v>
+        <v>3245</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -715,34 +709,34 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44141.73627592414</v>
+        <v>44141.75401732369</v>
       </c>
       <c r="D5" t="n">
-        <v>3220</v>
+        <v>3306</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -753,34 +747,34 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44141.73672065438</v>
+        <v>44141.75448042529</v>
       </c>
       <c r="D6" t="n">
-        <v>3087</v>
+        <v>1618</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -791,34 +785,34 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44141.73781819248</v>
+        <v>44141.75542392977</v>
       </c>
       <c r="D7" t="n">
-        <v>155</v>
+        <v>2972</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -829,34 +823,34 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44141.73886215874</v>
+        <v>44141.75575914183</v>
       </c>
       <c r="D8" t="n">
-        <v>171</v>
+        <v>1779</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -867,34 +861,34 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44141.73959946854</v>
+        <v>44141.75700246872</v>
       </c>
       <c r="D9" t="n">
-        <v>2070</v>
+        <v>3315</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -905,72 +899,34 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44141.7401302031</v>
+        <v>44141.75760208171</v>
       </c>
       <c r="D10" t="n">
-        <v>1574</v>
+        <v>2842</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44141.7413936599</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1895</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -53,145 +53,166 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>StarTalk Podcast: The End of The World, with Josh Clark and Neil deGrasse Tyson</t>
-  </si>
-  <si>
-    <t>lljmkWEsH4w</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lljmkWEsH4w</t>
-  </si>
-  <si>
-    <t>StarTalk</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>Peer influences on adolescents’ intentions for future electronic nicotine delivery system use</t>
+  </si>
+  <si>
+    <t>-cOLufeebek</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-cOLufeebek</t>
+  </si>
+  <si>
+    <t>Neuroinformatics Brain Connectivity Lab at FIU</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>VAPING 101 - CRASH COURSE ☞ Everything You NEED TO KNOW ☜</t>
-  </si>
-  <si>
-    <t>PpwkrKCedGA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PpwkrKCedGA</t>
-  </si>
-  <si>
-    <t>Cloud Theorem</t>
+    <t>Help My E-Cig Won't Work- Trouble Shooting- Most Common E-cig Problem</t>
+  </si>
+  <si>
+    <t>maF7PPZi6OU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=maF7PPZi6OU</t>
+  </si>
+  <si>
+    <t>epipemods</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>PUFF BAR VAPE HOTBOX</t>
+  </si>
+  <si>
+    <t>Kxeh3vFgvyk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Kxeh3vFgvyk</t>
+  </si>
+  <si>
+    <t>Nate420</t>
+  </si>
+  <si>
+    <t>3 6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>VUSE e-cigarette TV commercial</t>
+  </si>
+  <si>
+    <t>zzEK7TL-W_o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zzEK7TL-W_o</t>
+  </si>
+  <si>
+    <t>The Salt Lake Tribune</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Vape Pen EXPLODING In Guy’s Pants Caught On Camera!!</t>
+  </si>
+  <si>
+    <t>tmr5pym9TY8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tmr5pym9TY8</t>
+  </si>
+  <si>
+    <t>What's Trending</t>
+  </si>
+  <si>
+    <t>Weird Vape Mods! The most bizarre, odd vapes and pod systems Ep. 2</t>
+  </si>
+  <si>
+    <t>wvHI5lcrGwc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvHI5lcrGwc</t>
+  </si>
+  <si>
+    <t>ZampleBox</t>
+  </si>
+  <si>
+    <t>3 5</t>
+  </si>
+  <si>
+    <t>The BEST Sour Vape! Fresh Farms E-Liquids</t>
+  </si>
+  <si>
+    <t>2FOFWq7WMJc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2FOFWq7WMJc</t>
+  </si>
+  <si>
+    <t>Ryan Hall</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>puff bar SESH + every flavor</t>
+  </si>
+  <si>
+    <t>NFcA1w3ySmA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NFcA1w3ySmA</t>
+  </si>
+  <si>
+    <t>ChaseSmokes</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ECG E-Cigs:  Disposable E-Cig Demonstration Video</t>
+  </si>
+  <si>
+    <t>R2Hd8DxsjlQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R2Hd8DxsjlQ</t>
+  </si>
+  <si>
+    <t>ECGeCigs</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>1 3 4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>The Beginner's Guide To DIY E-Liquid</t>
-  </si>
-  <si>
-    <t>0MgDC7MYqy4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0MgDC7MYqy4</t>
-  </si>
-  <si>
-    <t>Vapable</t>
-  </si>
-  <si>
-    <t>3 7</t>
-  </si>
-  <si>
-    <t>Viewer Feedback  - comparison of some entry level vape/e-cig starter kits</t>
-  </si>
-  <si>
-    <t>wh2GrRrLIGI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wh2GrRrLIGI</t>
-  </si>
-  <si>
-    <t>Timmerz</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>how-to: disposable cameras 🎞</t>
-  </si>
-  <si>
-    <t>aRBHab3DOu8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aRBHab3DOu8</t>
-  </si>
-  <si>
-    <t>Lucia Violet</t>
-  </si>
-  <si>
-    <t>My Favorite Mods Of 2017! (so far)</t>
-  </si>
-  <si>
-    <t>zC_sXHeF_DM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zC_sXHeF_DM</t>
-  </si>
-  <si>
-    <t>Matt From SMM</t>
-  </si>
-  <si>
-    <t>Chase &amp; Status - End Credits</t>
-  </si>
-  <si>
-    <t>YXIHXQjbtl8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YXIHXQjbtl8</t>
-  </si>
-  <si>
-    <t>ChaseAndStatusVEVO</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>NJOY King Review - Disposable NJOY King From My Local Convenience Store</t>
-  </si>
-  <si>
-    <t>BaVGgHo-r8A</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BaVGgHo-r8A</t>
-  </si>
-  <si>
-    <t>Martin Lotsberg</t>
-  </si>
-  <si>
-    <t>DeMISTifying Electronic Nicotine Delivery Systems (ENDS) and Their Effects on Hormones (trimmed)</t>
-  </si>
-  <si>
-    <t>Y1jTh8VrsYQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y1jTh8VrsYQ</t>
-  </si>
-  <si>
-    <t>Deanna Doughty</t>
+    <t>1 6</t>
+  </si>
+  <si>
+    <t>The Apple of Vaping Devices? | Voom Pod Vape System Review</t>
+  </si>
+  <si>
+    <t>ea4nDBjyvdY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ea4nDBjyvdY</t>
+  </si>
+  <si>
+    <t>The Electric Tobacconist UK</t>
+  </si>
+  <si>
+    <t>2 5</t>
   </si>
 </sst>
 </file>
@@ -544,7 +565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44141.74870952027</v>
+        <v>44141.7624476614</v>
       </c>
       <c r="D2" t="n">
-        <v>1825</v>
+        <v>1726</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -622,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -633,34 +654,34 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44141.75017616058</v>
+        <v>44141.76485741736</v>
       </c>
       <c r="D3" t="n">
-        <v>2502</v>
+        <v>2427</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -671,34 +692,34 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44141.75214007896</v>
+        <v>44141.7661593911</v>
       </c>
       <c r="D4" t="n">
-        <v>3245</v>
+        <v>3635</v>
       </c>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -709,34 +730,34 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44141.75401732369</v>
+        <v>44141.76704602921</v>
       </c>
       <c r="D5" t="n">
-        <v>3306</v>
+        <v>3099</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -747,34 +768,34 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44141.75448042529</v>
+        <v>44141.76808870435</v>
       </c>
       <c r="D6" t="n">
-        <v>1618</v>
+        <v>1164</v>
       </c>
       <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
       </c>
       <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
         <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -785,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44141.75542392977</v>
+        <v>44141.7693599432</v>
       </c>
       <c r="D7" t="n">
-        <v>2972</v>
+        <v>832</v>
       </c>
       <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -823,34 +844,34 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44141.75575914183</v>
+        <v>44141.77000597838</v>
       </c>
       <c r="D8" t="n">
-        <v>1779</v>
+        <v>641</v>
       </c>
       <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -861,34 +882,34 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44141.75700246872</v>
+        <v>44141.77095930564</v>
       </c>
       <c r="D9" t="n">
-        <v>3315</v>
+        <v>2760</v>
       </c>
       <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
         <v>51</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>52</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>53</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
         <v>54</v>
       </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -899,10 +920,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44141.75760208171</v>
+        <v>44141.77227181964</v>
       </c>
       <c r="D10" t="n">
-        <v>2842</v>
+        <v>2080</v>
       </c>
       <c r="E10" t="s">
         <v>55</v>
@@ -917,16 +938,54 @@
         <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44141.77339703136</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3266</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -56,49 +56,85 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Pirates of the Caribbean: At World's End (2007) Official Trailer #1 - Johnny Depp Movie HD</t>
-  </si>
-  <si>
-    <t>HKSZtp_OGHY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HKSZtp_OGHY</t>
-  </si>
-  <si>
-    <t>Movieclips Classic Trailers</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>SMOK RPM40: The Real Pod Mod?</t>
+  </si>
+  <si>
+    <t>2tv8YXPGq_4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2tv8YXPGq_4</t>
+  </si>
+  <si>
+    <t>180 SMOKE VAPE STORE</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>test comment</t>
+  </si>
+  <si>
+    <t>How To: Prime and Fill The Uwell Caliburn Pod Vape | Vaporleaf</t>
+  </si>
+  <si>
+    <t>xLYut7QAZak</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xLYut7QAZak</t>
+  </si>
+  <si>
+    <t>Vaporleaf - Online Vape Shop</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>youtube channel for vaping review/information website</t>
+  </si>
+  <si>
+    <t>◀️Best Vapor Mods Under 100$ : Top Box Vape Mods Review (Buying Guide)</t>
+  </si>
+  <si>
+    <t>wZUwgHb6Ztc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wZUwgHb6Ztc</t>
+  </si>
+  <si>
+    <t>5Best Pick</t>
+  </si>
+  <si>
+    <t>Are e-cigarettes harmful?</t>
+  </si>
+  <si>
+    <t>ZhLjTgSueUM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZhLjTgSueUM</t>
+  </si>
+  <si>
+    <t>msdcenter</t>
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movie Trailer, account run by/for fandango </t>
-  </si>
-  <si>
-    <t>Red in Motion: Vaporized E-Cigarette Liquids Induce Ion Transport Dysfunction in Airway Epithelia</t>
-  </si>
-  <si>
-    <t>D1Lnl2PhAQ0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=D1Lnl2PhAQ0</t>
-  </si>
-  <si>
-    <t>American Thoracic Society</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
 </sst>
 </file>
@@ -451,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,10 +541,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44143.71446230536</v>
+        <v>44147.90281010147</v>
       </c>
       <c r="D2" t="n">
-        <v>1776</v>
+        <v>1283</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -546,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44143.71512505714</v>
+        <v>44147.90575298981</v>
       </c>
       <c r="D3" t="n">
-        <v>2387</v>
+        <v>2569</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -570,12 +606,92 @@
         <v>27</v>
       </c>
       <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44147.90636120602</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3552</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M4" t="s"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44147.90702556224</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2926</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s"/>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -56,85 +56,178 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>SMOK RPM40: The Real Pod Mod?</t>
-  </si>
-  <si>
-    <t>2tv8YXPGq_4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2tv8YXPGq_4</t>
+    <t>I made an E-Cig (Box Mod)</t>
+  </si>
+  <si>
+    <t>GP0mOpG0Vck</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GP0mOpG0Vck</t>
+  </si>
+  <si>
+    <t>Simply Electronics</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Which E Cig Is Closest To A Real Tobacco Cigarette? (And Specifically Marlboro Reds)</t>
+  </si>
+  <si>
+    <t>e0vBqKcsTM8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=e0vBqKcsTM8</t>
+  </si>
+  <si>
+    <t>Martin Lotsberg</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>Pepega Edition Finale - HOW will it end?! | NFS MW KuruHS</t>
+  </si>
+  <si>
+    <t>0M4w8ZkAuIg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0M4w8ZkAuIg</t>
+  </si>
+  <si>
+    <t>KuruHS</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaming video </t>
+  </si>
+  <si>
+    <t>50 NEW End Updates we PAID for in Minecraft</t>
+  </si>
+  <si>
+    <t>ToMGTGig15g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ToMGTGig15g</t>
+  </si>
+  <si>
+    <t>Logdotzip</t>
+  </si>
+  <si>
+    <t>Minecraft video (end not ends)</t>
+  </si>
+  <si>
+    <t>iStick D by Eleaf - Best Disposable?</t>
+  </si>
+  <si>
+    <t>s9Y4VxsrrYU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s9Y4VxsrrYU</t>
+  </si>
+  <si>
+    <t>Matt From SMM</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>How to Rewick Smok Infinix Vape Pod</t>
+  </si>
+  <si>
+    <t>DjKGPpJXnYk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DjKGPpJXnYk</t>
+  </si>
+  <si>
+    <t>Pypson</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video is private. Coded from description and channel </t>
+  </si>
+  <si>
+    <t>12 states ban e-cigarettes, health ministry urges all to follow | Doctors claim Its  health risks</t>
+  </si>
+  <si>
+    <t>v-JU3r-lKos</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v-JU3r-lKos</t>
+  </si>
+  <si>
+    <t>WeGYAN</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another unavailable video. coded on description. might want to drop </t>
+  </si>
+  <si>
+    <t>Report Release: Public Health Consequences of E Cigarettes</t>
+  </si>
+  <si>
+    <t>vifAY4YcVbQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vifAY4YcVbQ</t>
+  </si>
+  <si>
+    <t>NASEM Health and Medicine Division</t>
+  </si>
+  <si>
+    <t>Case Closed | Study Shows No Lung Damage from Vaping</t>
+  </si>
+  <si>
+    <t>2hcp6EEC4TM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2hcp6EEC4TM</t>
+  </si>
+  <si>
+    <t>Regulator Watch</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Cigalike E cigs - Using Your Starter Kit Essential - 180 Smoke Visual Help Desk</t>
+  </si>
+  <si>
+    <t>nAWJWWzIiuU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nAWJWWzIiuU</t>
   </si>
   <si>
     <t>180 SMOKE VAPE STORE</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>test comment</t>
-  </si>
-  <si>
-    <t>How To: Prime and Fill The Uwell Caliburn Pod Vape | Vaporleaf</t>
-  </si>
-  <si>
-    <t>xLYut7QAZak</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xLYut7QAZak</t>
-  </si>
-  <si>
-    <t>Vaporleaf - Online Vape Shop</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>youtube channel for vaping review/information website</t>
-  </si>
-  <si>
-    <t>◀️Best Vapor Mods Under 100$ : Top Box Vape Mods Review (Buying Guide)</t>
-  </si>
-  <si>
-    <t>wZUwgHb6Ztc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wZUwgHb6Ztc</t>
-  </si>
-  <si>
-    <t>5Best Pick</t>
-  </si>
-  <si>
-    <t>Are e-cigarettes harmful?</t>
-  </si>
-  <si>
-    <t>ZhLjTgSueUM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZhLjTgSueUM</t>
-  </si>
-  <si>
-    <t>msdcenter</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>0 2</t>
   </si>
 </sst>
 </file>
@@ -487,7 +580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,10 +634,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44147.90281010147</v>
+        <v>44150.91491172801</v>
       </c>
       <c r="D2" t="n">
-        <v>1283</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -562,17 +655,15 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
       <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="M2" t="s"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="n">
@@ -582,38 +673,36 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44147.90575298981</v>
+        <v>44150.91587495893</v>
       </c>
       <c r="D3" t="n">
-        <v>2569</v>
+        <v>3291</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
+      <c r="M3" t="s"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
@@ -623,36 +712,38 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44147.90636120602</v>
+        <v>44150.91647944816</v>
       </c>
       <c r="D4" t="n">
-        <v>3552</v>
+        <v>2337</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="n">
@@ -662,36 +753,276 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44147.90702556224</v>
+        <v>44150.91708795712</v>
       </c>
       <c r="D5" t="n">
-        <v>2926</v>
+        <v>3783</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44150.91861394361</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2088</v>
+      </c>
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s"/>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44150.91975104062</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3686</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44150.92170523974</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2853</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44150.9224604859</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44150.92315710962</v>
+      </c>
+      <c r="D10" t="n">
+        <v>429</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44150.92537696817</v>
+      </c>
+      <c r="D11" t="n">
+        <v>931</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -56,178 +56,151 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>I made an E-Cig (Box Mod)</t>
-  </si>
-  <si>
-    <t>GP0mOpG0Vck</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GP0mOpG0Vck</t>
-  </si>
-  <si>
-    <t>Simply Electronics</t>
+    <t>E-Cigarettes: To Vape or Not To Vape?</t>
+  </si>
+  <si>
+    <t>_wAM3ql4HWs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_wAM3ql4HWs</t>
+  </si>
+  <si>
+    <t>Ontario Tobacco Research Unit</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>Sniper: Assassin's End OFFICIAL TRAILER - Available on Blu-ray &amp; Digital 6/16</t>
+  </si>
+  <si>
+    <t>Ub9EikTkrTk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ub9EikTkrTk</t>
+  </si>
+  <si>
+    <t>Sony Pictures Entertainment</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie trailer. (End not ends) </t>
+  </si>
+  <si>
+    <t>Multi-Level Prevention Strategies to Address Teen E-Cigarette Use</t>
+  </si>
+  <si>
+    <t>QE8QyZW3Jqo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QE8QyZW3Jqo</t>
+  </si>
+  <si>
+    <t>SAMHSA</t>
+  </si>
+  <si>
+    <t>the best supplier for disposable vape pen</t>
+  </si>
+  <si>
+    <t>mi4oX34oGVk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mi4oX34oGVk</t>
+  </si>
+  <si>
+    <t>Tony Chou</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Vapourlites VL Micro Disposable E-Cigarette Review</t>
+  </si>
+  <si>
+    <t>JDfr8MBPaCM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JDfr8MBPaCM</t>
+  </si>
+  <si>
+    <t>TheVapourmists</t>
+  </si>
+  <si>
+    <t>Top E Juice Brands | Top 3 E Juice Brands</t>
+  </si>
+  <si>
+    <t>is4H_Qv7rVs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=is4H_Qv7rVs</t>
+  </si>
+  <si>
+    <t>iknowecigs</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>How The Fed Bubble Ends | What You MUST KNOW</t>
+  </si>
+  <si>
+    <t>sOHA1Y5tjJo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sOHA1Y5tjJo</t>
+  </si>
+  <si>
+    <t>Mark Moss</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>Which E Cig Is Closest To A Real Tobacco Cigarette? (And Specifically Marlboro Reds)</t>
-  </si>
-  <si>
-    <t>e0vBqKcsTM8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=e0vBqKcsTM8</t>
-  </si>
-  <si>
-    <t>Martin Lotsberg</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>Pepega Edition Finale - HOW will it end?! | NFS MW KuruHS</t>
-  </si>
-  <si>
-    <t>0M4w8ZkAuIg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0M4w8ZkAuIg</t>
-  </si>
-  <si>
-    <t>KuruHS</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaming video </t>
-  </si>
-  <si>
-    <t>50 NEW End Updates we PAID for in Minecraft</t>
-  </si>
-  <si>
-    <t>ToMGTGig15g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ToMGTGig15g</t>
-  </si>
-  <si>
-    <t>Logdotzip</t>
-  </si>
-  <si>
-    <t>Minecraft video (end not ends)</t>
-  </si>
-  <si>
-    <t>iStick D by Eleaf - Best Disposable?</t>
-  </si>
-  <si>
-    <t>s9Y4VxsrrYU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s9Y4VxsrrYU</t>
-  </si>
-  <si>
-    <t>Matt From SMM</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>How to Rewick Smok Infinix Vape Pod</t>
-  </si>
-  <si>
-    <t>DjKGPpJXnYk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DjKGPpJXnYk</t>
-  </si>
-  <si>
-    <t>Pypson</t>
-  </si>
-  <si>
-    <t>3 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video is private. Coded from description and channel </t>
-  </si>
-  <si>
-    <t>12 states ban e-cigarettes, health ministry urges all to follow | Doctors claim Its  health risks</t>
-  </si>
-  <si>
-    <t>v-JU3r-lKos</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=v-JU3r-lKos</t>
-  </si>
-  <si>
-    <t>WeGYAN</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another unavailable video. coded on description. might want to drop </t>
-  </si>
-  <si>
-    <t>Report Release: Public Health Consequences of E Cigarettes</t>
-  </si>
-  <si>
-    <t>vifAY4YcVbQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vifAY4YcVbQ</t>
-  </si>
-  <si>
-    <t>NASEM Health and Medicine Division</t>
-  </si>
-  <si>
-    <t>Case Closed | Study Shows No Lung Damage from Vaping</t>
-  </si>
-  <si>
-    <t>2hcp6EEC4TM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2hcp6EEC4TM</t>
-  </si>
-  <si>
-    <t>Regulator Watch</t>
-  </si>
-  <si>
-    <t>1 2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Cigalike E cigs - Using Your Starter Kit Essential - 180 Smoke Visual Help Desk</t>
-  </si>
-  <si>
-    <t>nAWJWWzIiuU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nAWJWWzIiuU</t>
-  </si>
-  <si>
-    <t>180 SMOKE VAPE STORE</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>0 2</t>
+    <t xml:space="preserve">Video about market </t>
+  </si>
+  <si>
+    <t>What is E-Liquid?</t>
+  </si>
+  <si>
+    <t>-gf2xx8lXzE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-gf2xx8lXzE</t>
+  </si>
+  <si>
+    <t>Vaping360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vape review / information website </t>
+  </si>
+  <si>
+    <t>What Is Squonking (bottom feed mods)? A Vape Nerd Squonk Tutorial</t>
+  </si>
+  <si>
+    <t>vIww8ebeSEk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vIww8ebeSEk</t>
+  </si>
+  <si>
+    <t>FlavourVapour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vape review website / channel </t>
   </si>
 </sst>
 </file>
@@ -580,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,10 +607,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44150.91491172801</v>
+        <v>44150.92973521506</v>
       </c>
       <c r="D2" t="n">
-        <v>219</v>
+        <v>3103</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -655,13 +628,13 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s"/>
     </row>
@@ -673,36 +646,38 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44150.91587495893</v>
+        <v>44150.93092240579</v>
       </c>
       <c r="D3" t="n">
-        <v>3291</v>
+        <v>1754</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
@@ -712,38 +687,36 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44150.91647944816</v>
+        <v>44150.93139513</v>
       </c>
       <c r="D4" t="n">
-        <v>2337</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M4" t="s"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="n">
@@ -753,38 +726,36 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44150.91708795712</v>
+        <v>44150.93208030776</v>
       </c>
       <c r="D5" t="n">
-        <v>3783</v>
+        <v>2062</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
       <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M5" t="s"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="n">
@@ -794,34 +765,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44150.91861394361</v>
+        <v>44150.93366618855</v>
       </c>
       <c r="D6" t="n">
-        <v>2088</v>
+        <v>1509</v>
       </c>
       <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s"/>
     </row>
@@ -833,38 +804,36 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44150.91975104062</v>
+        <v>44150.93590909512</v>
       </c>
       <c r="D7" t="n">
-        <v>3686</v>
+        <v>626</v>
       </c>
       <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>45</v>
       </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
       </c>
-      <c r="M7" t="s">
-        <v>48</v>
-      </c>
+      <c r="M7" t="s"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="n">
@@ -874,37 +843,37 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44150.92170523974</v>
+        <v>44150.93629255984</v>
       </c>
       <c r="D8" t="n">
-        <v>2853</v>
+        <v>2214</v>
       </c>
       <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" t="s">
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
         <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -915,36 +884,38 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44150.9224604859</v>
+        <v>44150.93726997889</v>
       </c>
       <c r="D9" t="n">
-        <v>2899</v>
+        <v>638</v>
       </c>
       <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
         <v>56</v>
       </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" t="s"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="n">
@@ -954,75 +925,38 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44150.92315710962</v>
+        <v>44150.93919015244</v>
       </c>
       <c r="D10" t="n">
-        <v>429</v>
+        <v>3128</v>
       </c>
       <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
         <v>59</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>60</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
         <v>61</v>
       </c>
-      <c r="H10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" t="s"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44150.92537696817</v>
-      </c>
-      <c r="D11" t="n">
-        <v>931</v>
-      </c>
-      <c r="E11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -56,151 +56,163 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>E-Cigarettes: To Vape or Not To Vape?</t>
-  </si>
-  <si>
-    <t>_wAM3ql4HWs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_wAM3ql4HWs</t>
-  </si>
-  <si>
-    <t>Ontario Tobacco Research Unit</t>
+    <t>Stratus - I Wonder How It'll End</t>
+  </si>
+  <si>
+    <t>Pwnt8Xj2K0s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pwnt8Xj2K0s</t>
+  </si>
+  <si>
+    <t>Valiant</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>music (end not ends)</t>
+  </si>
+  <si>
+    <t>Smok RPM160 Pod Mod Review</t>
+  </si>
+  <si>
+    <t>50dcs-taIIk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=50dcs-taIIk</t>
+  </si>
+  <si>
+    <t>Mike Vapes</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>SMOK TRINITY ALPHA VAPE / Replace Coils not Pods</t>
+  </si>
+  <si>
+    <t>vrfIcVhOD64</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vrfIcVhOD64</t>
+  </si>
+  <si>
+    <t>Zophie Reviews</t>
+  </si>
+  <si>
+    <t>The Njoy #recharge (for new folks)</t>
+  </si>
+  <si>
+    <t>_TOsaBblSjc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_TOsaBblSjc</t>
+  </si>
+  <si>
+    <t>Collections By Eric</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Sniper: Assassin's End OFFICIAL TRAILER - Available on Blu-ray &amp; Digital 6/16</t>
-  </si>
-  <si>
-    <t>Ub9EikTkrTk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Ub9EikTkrTk</t>
-  </si>
-  <si>
-    <t>Sony Pictures Entertainment</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movie trailer. (End not ends) </t>
-  </si>
-  <si>
-    <t>Multi-Level Prevention Strategies to Address Teen E-Cigarette Use</t>
-  </si>
-  <si>
-    <t>QE8QyZW3Jqo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QE8QyZW3Jqo</t>
-  </si>
-  <si>
-    <t>SAMHSA</t>
-  </si>
-  <si>
-    <t>the best supplier for disposable vape pen</t>
-  </si>
-  <si>
-    <t>mi4oX34oGVk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mi4oX34oGVk</t>
-  </si>
-  <si>
-    <t>Tony Chou</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Vapourlites VL Micro Disposable E-Cigarette Review</t>
-  </si>
-  <si>
-    <t>JDfr8MBPaCM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JDfr8MBPaCM</t>
-  </si>
-  <si>
-    <t>TheVapourmists</t>
-  </si>
-  <si>
-    <t>Top E Juice Brands | Top 3 E Juice Brands</t>
-  </si>
-  <si>
-    <t>is4H_Qv7rVs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=is4H_Qv7rVs</t>
-  </si>
-  <si>
-    <t>iknowecigs</t>
+    <t>Mark Ten xl review also how to refill cartridge</t>
+  </si>
+  <si>
+    <t>03xEUNLz6rM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=03xEUNLz6rM</t>
+  </si>
+  <si>
+    <t>Vapor Aid Channel</t>
+  </si>
+  <si>
+    <t>E-Cigarette Summit 2015 - Theoretical health risks associated with e-cigarettes</t>
+  </si>
+  <si>
+    <t>zpz4C6CjyGw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zpz4C6CjyGw</t>
+  </si>
+  <si>
+    <t>theonlinecitizen toc</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel is not medical community, presenter is </t>
+  </si>
+  <si>
+    <t>How to Switch Flavors in a Tank / Review of Wat A Waffle / Flavor Switch</t>
+  </si>
+  <si>
+    <t>59pwHBGlfsY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=59pwHBGlfsY</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>How The Fed Bubble Ends | What You MUST KNOW</t>
-  </si>
-  <si>
-    <t>sOHA1Y5tjJo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sOHA1Y5tjJo</t>
-  </si>
-  <si>
-    <t>Mark Moss</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video about market </t>
-  </si>
-  <si>
-    <t>What is E-Liquid?</t>
-  </si>
-  <si>
-    <t>-gf2xx8lXzE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-gf2xx8lXzE</t>
-  </si>
-  <si>
-    <t>Vaping360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vape review / information website </t>
-  </si>
-  <si>
-    <t>What Is Squonking (bottom feed mods)? A Vape Nerd Squonk Tutorial</t>
-  </si>
-  <si>
-    <t>vIww8ebeSEk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vIww8ebeSEk</t>
-  </si>
-  <si>
-    <t>FlavourVapour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vape review website / channel </t>
+    <t>1 3</t>
+  </si>
+  <si>
+    <t>How to Clean Your Vape | Vape Mod and Vape Pen</t>
+  </si>
+  <si>
+    <t>CYYHo3XSY48</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CYYHo3XSY48</t>
+  </si>
+  <si>
+    <t>VapeWild</t>
+  </si>
+  <si>
+    <t>3 4</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>about tab: "If you're new to VapeWild, get a 120MLs of E-juice for $4.44 (including shipping)" which seems like a deal but not entirely sure. Store is down so cant check</t>
+  </si>
+  <si>
+    <t>Learning how to JUUL... (Doesn't end well)</t>
+  </si>
+  <si>
+    <t>VlWAGm2ruh4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VlWAGm2ruh4</t>
+  </si>
+  <si>
+    <t>Outlaw</t>
+  </si>
+  <si>
+    <t>7 9</t>
+  </si>
+  <si>
+    <t>4 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedy video / informational? At least trying to be informative. I lost brain cells watching this </t>
   </si>
 </sst>
 </file>
@@ -607,10 +619,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44150.92973521506</v>
+        <v>44151.7201696326</v>
       </c>
       <c r="D2" t="n">
-        <v>3103</v>
+        <v>1835</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -634,9 +646,11 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="n">
@@ -646,38 +660,36 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44150.93092240579</v>
+        <v>44151.72130056166</v>
       </c>
       <c r="D3" t="n">
-        <v>1754</v>
+        <v>1232</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M3" t="s"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
@@ -687,34 +699,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44150.93139513</v>
+        <v>44151.72318013394</v>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>729</v>
       </c>
       <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s"/>
     </row>
@@ -726,34 +738,34 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44150.93208030776</v>
+        <v>44151.72479038616</v>
       </c>
       <c r="D5" t="n">
-        <v>2062</v>
+        <v>980</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
         <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -765,10 +777,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44150.93366618855</v>
+        <v>44151.72624853069</v>
       </c>
       <c r="D6" t="n">
-        <v>1509</v>
+        <v>3296</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
@@ -783,16 +795,16 @@
         <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s"/>
     </row>
@@ -804,10 +816,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44150.93590909512</v>
+        <v>44151.72745343392</v>
       </c>
       <c r="D7" t="n">
-        <v>626</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
@@ -822,18 +834,20 @@
         <v>44</v>
       </c>
       <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
         <v>45</v>
       </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
       <c r="L7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="n">
@@ -843,38 +857,36 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44150.93629255984</v>
+        <v>44151.72884155669</v>
       </c>
       <c r="D8" t="n">
-        <v>2214</v>
+        <v>500</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" t="s">
-        <v>51</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M8" t="s"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
@@ -884,10 +896,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44150.93726997889</v>
+        <v>44151.73146354572</v>
       </c>
       <c r="D9" t="n">
-        <v>638</v>
+        <v>1964</v>
       </c>
       <c r="E9" t="s">
         <v>52</v>
@@ -902,19 +914,19 @@
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -925,37 +937,37 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44150.93919015244</v>
+        <v>44151.7342753835</v>
       </c>
       <c r="D10" t="n">
-        <v>3128</v>
+        <v>321</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
         <v>19</v>
       </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -56,163 +56,67 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Stratus - I Wonder How It'll End</t>
-  </si>
-  <si>
-    <t>Pwnt8Xj2K0s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pwnt8Xj2K0s</t>
-  </si>
-  <si>
-    <t>Valiant</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>E-cigarette explodes on bus</t>
+  </si>
+  <si>
+    <t>EuYtGhLkSKk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuYtGhLkSKk</t>
+  </si>
+  <si>
+    <t>FOX 5 Atlanta</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TUG Boat disposable vape pen</t>
+  </si>
+  <si>
+    <t>znZP0GyDgXM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=znZP0GyDgXM</t>
+  </si>
+  <si>
+    <t>Jeff Xiang</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>only a review in the loosest sense. I would say this is the bare minimum to still be a review</t>
+  </si>
+  <si>
+    <t>DISPOSABLE DAB PEN !?</t>
+  </si>
+  <si>
+    <t>Xq6Qsj-MCeU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Xq6Qsj-MCeU</t>
+  </si>
+  <si>
+    <t>LoudFam Productions</t>
+  </si>
+  <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>music (end not ends)</t>
-  </si>
-  <si>
-    <t>Smok RPM160 Pod Mod Review</t>
-  </si>
-  <si>
-    <t>50dcs-taIIk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=50dcs-taIIk</t>
-  </si>
-  <si>
-    <t>Mike Vapes</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>SMOK TRINITY ALPHA VAPE / Replace Coils not Pods</t>
-  </si>
-  <si>
-    <t>vrfIcVhOD64</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vrfIcVhOD64</t>
-  </si>
-  <si>
-    <t>Zophie Reviews</t>
-  </si>
-  <si>
-    <t>The Njoy #recharge (for new folks)</t>
-  </si>
-  <si>
-    <t>_TOsaBblSjc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_TOsaBblSjc</t>
-  </si>
-  <si>
-    <t>Collections By Eric</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Mark Ten xl review also how to refill cartridge</t>
-  </si>
-  <si>
-    <t>03xEUNLz6rM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=03xEUNLz6rM</t>
-  </si>
-  <si>
-    <t>Vapor Aid Channel</t>
-  </si>
-  <si>
-    <t>E-Cigarette Summit 2015 - Theoretical health risks associated with e-cigarettes</t>
-  </si>
-  <si>
-    <t>zpz4C6CjyGw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zpz4C6CjyGw</t>
-  </si>
-  <si>
-    <t>theonlinecitizen toc</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel is not medical community, presenter is </t>
-  </si>
-  <si>
-    <t>How to Switch Flavors in a Tank / Review of Wat A Waffle / Flavor Switch</t>
-  </si>
-  <si>
-    <t>59pwHBGlfsY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=59pwHBGlfsY</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1 3</t>
-  </si>
-  <si>
-    <t>How to Clean Your Vape | Vape Mod and Vape Pen</t>
-  </si>
-  <si>
-    <t>CYYHo3XSY48</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=CYYHo3XSY48</t>
-  </si>
-  <si>
-    <t>VapeWild</t>
-  </si>
-  <si>
-    <t>3 4</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>about tab: "If you're new to VapeWild, get a 120MLs of E-juice for $4.44 (including shipping)" which seems like a deal but not entirely sure. Store is down so cant check</t>
-  </si>
-  <si>
-    <t>Learning how to JUUL... (Doesn't end well)</t>
-  </si>
-  <si>
-    <t>VlWAGm2ruh4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VlWAGm2ruh4</t>
-  </si>
-  <si>
-    <t>Outlaw</t>
-  </si>
-  <si>
-    <t>7 9</t>
-  </si>
-  <si>
-    <t>4 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedy video / informational? At least trying to be informative. I lost brain cells watching this </t>
   </si>
 </sst>
 </file>
@@ -565,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,10 +523,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44151.7201696326</v>
+        <v>44151.74385678858</v>
       </c>
       <c r="D2" t="n">
-        <v>1835</v>
+        <v>2231</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -648,9 +552,7 @@
       <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
+      <c r="M2" t="s"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="n">
@@ -660,36 +562,38 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44151.72130056166</v>
+        <v>44151.746086949</v>
       </c>
       <c r="D3" t="n">
-        <v>1232</v>
+        <v>2768</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
       <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s"/>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
@@ -699,276 +603,36 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44151.72318013394</v>
+        <v>44151.74719898243</v>
       </c>
       <c r="D4" t="n">
-        <v>729</v>
+        <v>2788</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>44151.72479038616</v>
-      </c>
-      <c r="D5" t="n">
-        <v>980</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>44151.72624853069</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3296</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>44151.72745343392</v>
-      </c>
-      <c r="D7" t="n">
-        <v>142</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>44151.72884155669</v>
-      </c>
-      <c r="D8" t="n">
-        <v>500</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" t="s"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>44151.73146354572</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1964</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>44151.7342753835</v>
-      </c>
-      <c r="D10" t="n">
-        <v>321</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" t="s">
-        <v>65</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -56,67 +56,28 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>E-cigarette explodes on bus</t>
-  </si>
-  <si>
-    <t>EuYtGhLkSKk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuYtGhLkSKk</t>
-  </si>
-  <si>
-    <t>FOX 5 Atlanta</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>Yocan Uni How to / Review</t>
+  </si>
+  <si>
+    <t>24wn0nt93zw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=24wn0nt93zw</t>
+  </si>
+  <si>
+    <t>B2Sqrd</t>
+  </si>
+  <si>
+    <t>0 7</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>TUG Boat disposable vape pen</t>
-  </si>
-  <si>
-    <t>znZP0GyDgXM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=znZP0GyDgXM</t>
-  </si>
-  <si>
-    <t>Jeff Xiang</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>only a review in the loosest sense. I would say this is the bare minimum to still be a review</t>
-  </si>
-  <si>
-    <t>DISPOSABLE DAB PEN !?</t>
-  </si>
-  <si>
-    <t>Xq6Qsj-MCeU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Xq6Qsj-MCeU</t>
-  </si>
-  <si>
-    <t>LoudFam Productions</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>0 1</t>
   </si>
 </sst>
 </file>
@@ -469,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,10 +484,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44151.74385678858</v>
+        <v>44151.82177193619</v>
       </c>
       <c r="D2" t="n">
-        <v>2231</v>
+        <v>3147</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -553,86 +514,6 @@
         <v>20</v>
       </c>
       <c r="M2" t="s"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>44151.746086949</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2768</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>44151.74719898243</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2788</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -56,28 +56,160 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Yocan Uni How to / Review</t>
-  </si>
-  <si>
-    <t>24wn0nt93zw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=24wn0nt93zw</t>
-  </si>
-  <si>
-    <t>B2Sqrd</t>
+    <t>Introducing VAEP archived</t>
+  </si>
+  <si>
+    <t>RMov1zrjW3s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RMov1zrjW3s</t>
+  </si>
+  <si>
+    <t>VAEPworld</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">website that produces content to help people quit smoking by switching to vaping </t>
+  </si>
+  <si>
+    <t>[BASS COVER] Metallica - Disposable Heroes</t>
+  </si>
+  <si>
+    <t>oetsiDKoDUY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oetsiDKoDUY</t>
+  </si>
+  <si>
+    <t>The Bass Channel</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bass video </t>
+  </si>
+  <si>
+    <t>Dinner Lady | Lemon Tart Review ( The Best Dessert E-Juice I Ever Had )</t>
+  </si>
+  <si>
+    <t>bAQMKunBEaI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bAQMKunBEaI</t>
+  </si>
+  <si>
+    <t>SeanTalksVaping</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>GÖST KASH - Vape Disposable Unbox &amp; Review</t>
+  </si>
+  <si>
+    <t>z5s46Ovp5Xs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z5s46Ovp5Xs</t>
+  </si>
+  <si>
+    <t>Teagardins TV</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>Vessel Brand Vape Pen Battery // Unboxing and Overview (featuring the Silver + Walnut Wood Series)</t>
+  </si>
+  <si>
+    <t>Bl1pPtKLkNY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Bl1pPtKLkNY</t>
+  </si>
+  <si>
+    <t>Vessel Brand</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0 1 6</t>
+  </si>
+  <si>
+    <t>in person store, online store, and manufacturer</t>
+  </si>
+  <si>
+    <t>Vaptio AirGo Pod | If Apple Made a Vape...</t>
+  </si>
+  <si>
+    <t>rG7TaSGanOk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rG7TaSGanOk</t>
+  </si>
+  <si>
+    <t>Vaping Bogan</t>
+  </si>
+  <si>
+    <t>How to Use Nicotine (Nic) Shots - Vape School</t>
+  </si>
+  <si>
+    <t>MmGOzS0TNXU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmGOzS0TNXU</t>
+  </si>
+  <si>
+    <t>ZampleBox</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>How to use Smok Vape Pen 22 unboxing, review, how to charge, change coil, load fill tank</t>
+  </si>
+  <si>
+    <t>rUS5486L1kc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rUS5486L1kc</t>
+  </si>
+  <si>
+    <t>HookahTownUSA</t>
   </si>
   <si>
     <t>0 7</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0 1</t>
+    <t>2002 Le Defi Mark Ten Challenge</t>
+  </si>
+  <si>
+    <t>X10fPqJ4hc4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X10fPqJ4hc4</t>
+  </si>
+  <si>
+    <t>HITstrongman</t>
   </si>
 </sst>
 </file>
@@ -430,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,10 +616,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44151.82177193619</v>
+        <v>44151.82759821303</v>
       </c>
       <c r="D2" t="n">
-        <v>3147</v>
+        <v>2868</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -513,7 +645,325 @@
       <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s"/>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44151.82841722089</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1597</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44151.82904937698</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2536</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44151.83006247543</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1443</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44151.83185293891</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2693</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44151.83362222641</v>
+      </c>
+      <c r="D7" t="n">
+        <v>685</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44151.83487902153</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3196</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44151.83624468897</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2029</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44151.83740932738</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -56,160 +56,169 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Introducing VAEP archived</t>
-  </si>
-  <si>
-    <t>RMov1zrjW3s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RMov1zrjW3s</t>
-  </si>
-  <si>
-    <t>VAEPworld</t>
+    <t>TURNING CONCENTRATES (DABS) INTO E-LIQUID!!</t>
+  </si>
+  <si>
+    <t>sNd00S1HX6s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sNd00S1HX6s</t>
+  </si>
+  <si>
+    <t>HighImCody_</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1 8</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t xml:space="preserve">dab rig </t>
+  </si>
+  <si>
+    <t>Beginner's Guide To Making E-Liquid - DIY Tutorial and Cost</t>
+  </si>
+  <si>
+    <t>lURb2gsWdcw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lURb2gsWdcw</t>
+  </si>
+  <si>
+    <t>Titan Vapes</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>INSANE VAPE JUICE EXPERIMENT</t>
+  </si>
+  <si>
+    <t>OBrECm-u_U4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OBrECm-u_U4</t>
+  </si>
+  <si>
+    <t>Ryan Hall</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entertainment, mixing a bunch of eliquids together for fun </t>
+  </si>
+  <si>
+    <t>Easy way to refill NJOY &amp; ALTO vape pods</t>
+  </si>
+  <si>
+    <t>Zqv90OrH5FU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Zqv90OrH5FU</t>
+  </si>
+  <si>
+    <t>MR. GOLD</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>Ordinary People try High-End Headphones - Part 1</t>
+  </si>
+  <si>
+    <t>y6z_nk6IbVo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y6z_nk6IbVo</t>
+  </si>
+  <si>
+    <t>Currawong</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>The BEST Mango E-Liquid? Vape Chemist Philippine Mango Review! VapingwithTwisted420</t>
+  </si>
+  <si>
+    <t>oxhIXVCqK3I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxhIXVCqK3I</t>
+  </si>
+  <si>
+    <t>VapingwithTwisted420</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Odin DNA250c 21700 By Vaping Bogan - Dovpo - Vaperz Cloud</t>
+  </si>
+  <si>
+    <t>cQVHn1AGQpI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cQVHn1AGQpI</t>
+  </si>
+  <si>
+    <t>Mike Vapes</t>
+  </si>
+  <si>
+    <t>VAPORLAX DISPOSABLES Review</t>
+  </si>
+  <si>
+    <t>HQM4P-vYjLc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HQM4P-vYjLc</t>
+  </si>
+  <si>
+    <t>steve's hypebeast and sneaker reviews</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">website that produces content to help people quit smoking by switching to vaping </t>
-  </si>
-  <si>
-    <t>[BASS COVER] Metallica - Disposable Heroes</t>
-  </si>
-  <si>
-    <t>oetsiDKoDUY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oetsiDKoDUY</t>
-  </si>
-  <si>
-    <t>The Bass Channel</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bass video </t>
-  </si>
-  <si>
-    <t>Dinner Lady | Lemon Tart Review ( The Best Dessert E-Juice I Ever Had )</t>
-  </si>
-  <si>
-    <t>bAQMKunBEaI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bAQMKunBEaI</t>
-  </si>
-  <si>
-    <t>SeanTalksVaping</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>GÖST KASH - Vape Disposable Unbox &amp; Review</t>
-  </si>
-  <si>
-    <t>z5s46Ovp5Xs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=z5s46Ovp5Xs</t>
-  </si>
-  <si>
-    <t>Teagardins TV</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>Vessel Brand Vape Pen Battery // Unboxing and Overview (featuring the Silver + Walnut Wood Series)</t>
-  </si>
-  <si>
-    <t>Bl1pPtKLkNY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Bl1pPtKLkNY</t>
-  </si>
-  <si>
-    <t>Vessel Brand</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0 1 6</t>
-  </si>
-  <si>
-    <t>in person store, online store, and manufacturer</t>
-  </si>
-  <si>
-    <t>Vaptio AirGo Pod | If Apple Made a Vape...</t>
-  </si>
-  <si>
-    <t>rG7TaSGanOk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rG7TaSGanOk</t>
-  </si>
-  <si>
-    <t>Vaping Bogan</t>
-  </si>
-  <si>
-    <t>How to Use Nicotine (Nic) Shots - Vape School</t>
-  </si>
-  <si>
-    <t>MmGOzS0TNXU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmGOzS0TNXU</t>
-  </si>
-  <si>
-    <t>ZampleBox</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>How to use Smok Vape Pen 22 unboxing, review, how to charge, change coil, load fill tank</t>
-  </si>
-  <si>
-    <t>rUS5486L1kc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rUS5486L1kc</t>
-  </si>
-  <si>
-    <t>HookahTownUSA</t>
-  </si>
-  <si>
-    <t>0 7</t>
-  </si>
-  <si>
-    <t>2002 Le Defi Mark Ten Challenge</t>
-  </si>
-  <si>
-    <t>X10fPqJ4hc4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=X10fPqJ4hc4</t>
-  </si>
-  <si>
-    <t>HITstrongman</t>
+    <t>Mr Fog Max Blue Raspberry Lemon Disposable Vape Review!</t>
+  </si>
+  <si>
+    <t>dwvDu-mDNjI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dwvDu-mDNjI</t>
+  </si>
+  <si>
+    <t>The CBD Professor</t>
+  </si>
+  <si>
+    <t>Pod Device Vape Hotbox! 💨</t>
+  </si>
+  <si>
+    <t>YbofWOrmBpM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YbofWOrmBpM</t>
+  </si>
+  <si>
+    <t>LiamsGhosts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vape car hotbox </t>
   </si>
 </sst>
 </file>
@@ -562,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,10 +625,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44151.82759821303</v>
+        <v>44151.93301048483</v>
       </c>
       <c r="D2" t="n">
-        <v>2868</v>
+        <v>492</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -657,10 +666,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44151.82841722089</v>
+        <v>44151.93445606962</v>
       </c>
       <c r="D3" t="n">
-        <v>1597</v>
+        <v>447</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -678,17 +687,15 @@
         <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
+      <c r="M3" t="s"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
@@ -698,36 +705,38 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44151.82904937698</v>
+        <v>44151.93638105545</v>
       </c>
       <c r="D4" t="n">
-        <v>2536</v>
+        <v>2815</v>
       </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="n">
@@ -737,10 +746,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44151.83006247543</v>
+        <v>44151.93802754779</v>
       </c>
       <c r="D5" t="n">
-        <v>1443</v>
+        <v>718</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
@@ -755,16 +764,16 @@
         <v>38</v>
       </c>
       <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
         <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -776,10 +785,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44151.83185293891</v>
+        <v>44151.94313411813</v>
       </c>
       <c r="D6" t="n">
-        <v>2693</v>
+        <v>2215</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -794,20 +803,18 @@
         <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" t="s">
-        <v>46</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="M6" t="s"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="n">
@@ -817,34 +824,34 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44151.83362222641</v>
+        <v>44151.94442237922</v>
       </c>
       <c r="D7" t="n">
-        <v>685</v>
+        <v>535</v>
       </c>
       <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>49</v>
       </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
         <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
       </c>
       <c r="M7" t="s"/>
     </row>
@@ -856,34 +863,34 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44151.83487902153</v>
+        <v>44151.94580213275</v>
       </c>
       <c r="D8" t="n">
-        <v>3196</v>
+        <v>806</v>
       </c>
       <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" t="s">
-        <v>54</v>
-      </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s"/>
     </row>
@@ -895,34 +902,34 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44151.83624468897</v>
+        <v>44151.94637683562</v>
       </c>
       <c r="D9" t="n">
-        <v>2029</v>
+        <v>2791</v>
       </c>
       <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
         <v>56</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
         <v>58</v>
       </c>
-      <c r="H9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -934,36 +941,77 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44151.83740932738</v>
+        <v>44151.94748006016</v>
       </c>
       <c r="D10" t="n">
-        <v>1013</v>
+        <v>2766</v>
       </c>
       <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
         <v>61</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>62</v>
       </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
         <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44151.94979227074</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3684</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -56,169 +56,289 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>TURNING CONCENTRATES (DABS) INTO E-LIQUID!!</t>
-  </si>
-  <si>
-    <t>sNd00S1HX6s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sNd00S1HX6s</t>
-  </si>
-  <si>
-    <t>HighImCody_</t>
+    <t>CDC Finds Possible Cause For Vaping Illness | TODAY</t>
+  </si>
+  <si>
+    <t>1SN29DItlzU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1SN29DItlzU</t>
+  </si>
+  <si>
+    <t>TODAY</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Difference PG vs VG Ejuice? Safe? Side Effects?</t>
+  </si>
+  <si>
+    <t>rN4tnJR4BcQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rN4tnJR4BcQ</t>
+  </si>
+  <si>
+    <t>VapePowered</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>vape review / information website (shut down)</t>
+  </si>
+  <si>
+    <t>Vape Dinner Lady Disposable E-Cigarette | Consumer Reactions – Vapers</t>
+  </si>
+  <si>
+    <t>nECVRD9vKow</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nECVRD9vKow</t>
+  </si>
+  <si>
+    <t>Vape Dinner Lady</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1 6</t>
+  </si>
+  <si>
+    <t>ejuice maker</t>
+  </si>
+  <si>
+    <t>How to clean and re-use your sub-ohm e-cig coils</t>
+  </si>
+  <si>
+    <t>IcUA3YmUzpk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IcUA3YmUzpk</t>
+  </si>
+  <si>
+    <t>Mr Baz Reviews</t>
+  </si>
+  <si>
+    <t>3 7</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>1 8</t>
+    <t>DNA250c Passthrough DIY Box Mod Build</t>
+  </si>
+  <si>
+    <t>O47rBfcwyFw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O47rBfcwyFw</t>
+  </si>
+  <si>
+    <t>Analog Box Mods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">also manufactures box mod kits </t>
+  </si>
+  <si>
+    <t>Top 5 Best Oil Vape Pens of 2019</t>
+  </si>
+  <si>
+    <t>OyDk3o2pDSA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OyDk3o2pDSA</t>
+  </si>
+  <si>
+    <t>TVAPE</t>
+  </si>
+  <si>
+    <t>Triple Seven 777 E-cigs: Standard Starter Kit Review</t>
+  </si>
+  <si>
+    <t>Sh-eBMxS8iU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Sh-eBMxS8iU</t>
+  </si>
+  <si>
+    <t>Darth Vapor Reviews</t>
+  </si>
+  <si>
+    <t>2 4</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dab rig </t>
-  </si>
-  <si>
-    <t>Beginner's Guide To Making E-Liquid - DIY Tutorial and Cost</t>
-  </si>
-  <si>
-    <t>lURb2gsWdcw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lURb2gsWdcw</t>
-  </si>
-  <si>
-    <t>Titan Vapes</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>INSANE VAPE JUICE EXPERIMENT</t>
-  </si>
-  <si>
-    <t>OBrECm-u_U4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OBrECm-u_U4</t>
-  </si>
-  <si>
-    <t>Ryan Hall</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>TasteBuddies 42 - The "Future" of Vaping</t>
+  </si>
+  <si>
+    <t>Wha91NtcA78</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wha91NtcA78</t>
+  </si>
+  <si>
+    <t>Jay and Luke are Bored</t>
+  </si>
+  <si>
+    <t>Q&amp;A: Top 7 Questions asked about Cartridge Vape Pens - Know your Oil Battery Better (2020)</t>
+  </si>
+  <si>
+    <t>5i_US9Kd7YI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5i_US9Kd7YI</t>
+  </si>
+  <si>
+    <t>Got Vape</t>
+  </si>
+  <si>
+    <t>What's The BEST Vape Pen Cartridge?</t>
+  </si>
+  <si>
+    <t>mx4TXGv56Ng</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mx4TXGv56Ng</t>
+  </si>
+  <si>
+    <t>That High Couple</t>
+  </si>
+  <si>
+    <t>Loyle Carner, Jorja Smith - Loose Ends (Audio)</t>
+  </si>
+  <si>
+    <t>Cunh5tei4Dg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Cunh5tei4Dg</t>
+  </si>
+  <si>
+    <t>LoyleCarnerVEVO</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">music video </t>
+  </si>
+  <si>
+    <t>Disposable Nano Vape Pod</t>
+  </si>
+  <si>
+    <t>9clMamb0wpI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9clMamb0wpI</t>
+  </si>
+  <si>
+    <t>Green Winch</t>
+  </si>
+  <si>
+    <t>Flavormax Disposable Oil Pen by HoneyStick | Disposable Oil Vaporizer  Features | How To Use</t>
+  </si>
+  <si>
+    <t>fvCQ-DDJT6c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fvCQ-DDJT6c</t>
+  </si>
+  <si>
+    <t>VapeHoneyStick</t>
   </si>
   <si>
     <t>0 1</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entertainment, mixing a bunch of eliquids together for fun </t>
-  </si>
-  <si>
-    <t>Easy way to refill NJOY &amp; ALTO vape pods</t>
-  </si>
-  <si>
-    <t>Zqv90OrH5FU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Zqv90OrH5FU</t>
-  </si>
-  <si>
-    <t>MR. GOLD</t>
-  </si>
-  <si>
-    <t>3 7</t>
-  </si>
-  <si>
-    <t>Ordinary People try High-End Headphones - Part 1</t>
-  </si>
-  <si>
-    <t>y6z_nk6IbVo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y6z_nk6IbVo</t>
-  </si>
-  <si>
-    <t>Currawong</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>The BEST Mango E-Liquid? Vape Chemist Philippine Mango Review! VapingwithTwisted420</t>
-  </si>
-  <si>
-    <t>oxhIXVCqK3I</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxhIXVCqK3I</t>
-  </si>
-  <si>
-    <t>VapingwithTwisted420</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Odin DNA250c 21700 By Vaping Bogan - Dovpo - Vaperz Cloud</t>
-  </si>
-  <si>
-    <t>cQVHn1AGQpI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cQVHn1AGQpI</t>
-  </si>
-  <si>
-    <t>Mike Vapes</t>
-  </si>
-  <si>
-    <t>VAPORLAX DISPOSABLES Review</t>
-  </si>
-  <si>
-    <t>HQM4P-vYjLc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HQM4P-vYjLc</t>
-  </si>
-  <si>
-    <t>steve's hypebeast and sneaker reviews</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Mr Fog Max Blue Raspberry Lemon Disposable Vape Review!</t>
-  </si>
-  <si>
-    <t>dwvDu-mDNjI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dwvDu-mDNjI</t>
-  </si>
-  <si>
-    <t>The CBD Professor</t>
-  </si>
-  <si>
-    <t>Pod Device Vape Hotbox! 💨</t>
-  </si>
-  <si>
-    <t>YbofWOrmBpM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YbofWOrmBpM</t>
-  </si>
-  <si>
-    <t>LiamsGhosts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vape car hotbox </t>
+    <t>SCNDRL Vape Mod Battery Rattle Fix Scoundrel Mechanical Mod Team Knucklehead</t>
+  </si>
+  <si>
+    <t>s3Ho0lZ_6wU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s3Ho0lZ_6wU</t>
+  </si>
+  <si>
+    <t>Ralfy Knucklehead</t>
+  </si>
+  <si>
+    <t>Ohm Vape Ohm AIO Pod System Kit Unboxing&amp;Review (Vapesourcing Review)</t>
+  </si>
+  <si>
+    <t>D-YeaBsyKds</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D-YeaBsyKds</t>
+  </si>
+  <si>
+    <t>Vapesourcing</t>
+  </si>
+  <si>
+    <t>END - Necessary Death [OFFICIAL VIDEO]</t>
+  </si>
+  <si>
+    <t>ymTseMd56x4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ymTseMd56x4</t>
+  </si>
+  <si>
+    <t>Good Fight Music</t>
+  </si>
+  <si>
+    <t>small music conglomorate</t>
+  </si>
+  <si>
+    <t>The Smoker's Halo ECigarette: What's in the box, and how to use it</t>
+  </si>
+  <si>
+    <t>JDuu7LRzs-s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JDuu7LRzs-s</t>
+  </si>
+  <si>
+    <t>ECigaretteDirect</t>
+  </si>
+  <si>
+    <t>0 2</t>
+  </si>
+  <si>
+    <t>Ozzy Osbourne - Today Is The End (Audio)</t>
+  </si>
+  <si>
+    <t>5HFCItyjCig</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5HFCItyjCig</t>
+  </si>
+  <si>
+    <t>OzzyOsbourneVEVO</t>
+  </si>
+  <si>
+    <t>music video / personal music channel</t>
   </si>
 </sst>
 </file>
@@ -571,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,10 +745,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44151.93301048483</v>
+        <v>44152.72548279823</v>
       </c>
       <c r="D2" t="n">
-        <v>492</v>
+        <v>2161</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -654,9 +774,7 @@
       <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
+      <c r="M2" t="s"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="n">
@@ -666,36 +784,38 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44151.93445606962</v>
+        <v>44152.72664764315</v>
       </c>
       <c r="D3" t="n">
-        <v>447</v>
+        <v>543</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s"/>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
@@ -705,37 +825,37 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44151.93638105545</v>
+        <v>44152.72759101521</v>
       </c>
       <c r="D4" t="n">
-        <v>2815</v>
+        <v>1538</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -746,34 +866,34 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44151.93802754779</v>
+        <v>44152.72848204005</v>
       </c>
       <c r="D5" t="n">
-        <v>718</v>
+        <v>2414</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -785,36 +905,38 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44151.94313411813</v>
+        <v>44152.72958726111</v>
       </c>
       <c r="D6" t="n">
-        <v>2215</v>
+        <v>2605</v>
       </c>
       <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="n">
@@ -824,34 +946,34 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44151.94442237922</v>
+        <v>44152.73096271472</v>
       </c>
       <c r="D7" t="n">
-        <v>535</v>
+        <v>1103</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s"/>
     </row>
@@ -863,36 +985,38 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44151.94580213275</v>
+        <v>44152.73173263772</v>
       </c>
       <c r="D8" t="n">
-        <v>806</v>
+        <v>3304</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
@@ -902,34 +1026,34 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44151.94637683562</v>
+        <v>44152.73314684335</v>
       </c>
       <c r="D9" t="n">
-        <v>2791</v>
+        <v>3288</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
         <v>56</v>
       </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -941,34 +1065,34 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44151.94748006016</v>
+        <v>44152.73443137346</v>
       </c>
       <c r="D10" t="n">
-        <v>2766</v>
+        <v>2020</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s"/>
     </row>
@@ -980,37 +1104,353 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44151.94979227074</v>
+        <v>44152.73524858947</v>
       </c>
       <c r="D11" t="n">
-        <v>3684</v>
+        <v>1202</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44152.73578271185</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3204</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44152.7364304142</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2287</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44152.7371413533</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3155</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44152.73811591203</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2602</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
         <v>19</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44152.73865416108</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3122</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" t="s">
         <v>33</v>
       </c>
-      <c r="M11" t="s">
-        <v>67</v>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>44152.73931671747</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1808</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>44152.73997748257</v>
+      </c>
+      <c r="D18" t="n">
+        <v>932</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>44152.74040916075</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -53,55 +53,265 @@
     <t>comment</t>
   </si>
   <si>
-    <t>ALEX</t>
-  </si>
-  <si>
-    <t>G Pen Nova Review: Grenco Science's Latest Vape Pen for Wax</t>
-  </si>
-  <si>
-    <t>_oTXHsNCQCc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_oTXHsNCQCc</t>
-  </si>
-  <si>
-    <t>DabConnection</t>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>POSH PLUS MINTY LYCHEE DISPOSABLE VAPE REVIEW</t>
+  </si>
+  <si>
+    <t>30vI3BkfR0E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=30vI3BkfR0E</t>
+  </si>
+  <si>
+    <t>DisorderVapes</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Nicotine safety and safety of new nicotine delivery devices</t>
+  </si>
+  <si>
+    <t>oYnyHDG_vq8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oYnyHDG_vq8</t>
+  </si>
+  <si>
+    <t>Jon Derricott</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>BOX MODS VS PODS SYSTEMS WHICH ONE IS BETTER?? (EJUICE VS SALT NIXS)</t>
+  </si>
+  <si>
+    <t>DsP_pLKoq6I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DsP_pLKoq6I</t>
+  </si>
+  <si>
+    <t>Riley Lapointe</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3 5</t>
+  </si>
+  <si>
+    <t>Geek Vape Zeus Top Air Mesh Tank &amp; Aegis Legend Special Edition!</t>
+  </si>
+  <si>
+    <t>xlIlPeKZkoM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xlIlPeKZkoM</t>
+  </si>
+  <si>
+    <t>Matt From SMM</t>
+  </si>
+  <si>
+    <t>XTRA ORANGE DISPOSABLE VAPE REVIEW 1500 PUFFS</t>
+  </si>
+  <si>
+    <t>LYkA4AUWZA0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LYkA4AUWZA0</t>
+  </si>
+  <si>
+    <t>Difference of ecig vapor to cigarette smoke. A simple experiment</t>
+  </si>
+  <si>
+    <t>PUtqOMGMrt8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PUtqOMGMrt8</t>
+  </si>
+  <si>
+    <t>alter ego</t>
+  </si>
+  <si>
+    <t>1 7</t>
+  </si>
+  <si>
+    <t>One Of My Favorite Vape Mods! UWELL Crown IV Checkmate Kit!</t>
+  </si>
+  <si>
+    <t>qRMgSh0eq-g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qRMgSh0eq-g</t>
+  </si>
+  <si>
+    <t>RiP Trippers</t>
+  </si>
+  <si>
+    <t>Vape Video: How to refill and rewicking myblu  pod, liquid cartridges</t>
+  </si>
+  <si>
+    <t>CjdHB85S6YY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CjdHB85S6YY</t>
+  </si>
+  <si>
+    <t>The RHINO</t>
+  </si>
+  <si>
+    <t>3 7</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>Vuse vs V2 vs NJOY: Best Most Realistic Cigalike E-Cigarettes</t>
+  </si>
+  <si>
+    <t>wObj-pL_BiE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wObj-pL_BiE</t>
+  </si>
+  <si>
+    <t>Martin Lotsberg</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>TAKE OFF Vape Liquid</t>
+  </si>
+  <si>
+    <t>HLsTYKAfJBU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HLsTYKAfJBU</t>
+  </si>
+  <si>
+    <t>Ryan Hall</t>
+  </si>
+  <si>
+    <t>MARIJUANA ESSENCE! - Cheeba Eliquid Review!</t>
+  </si>
+  <si>
+    <t>F6g-wc8LCb0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F6g-wc8LCb0</t>
+  </si>
+  <si>
+    <t>The Scots Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vape imagery merch </t>
+  </si>
+  <si>
+    <t>Disposable Face Mask instructions</t>
+  </si>
+  <si>
+    <t>fefHQydbpdQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fefHQydbpdQ</t>
+  </si>
+  <si>
+    <t>blueplanetsurf</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>blueplanet earth- makes "green" products</t>
+  </si>
+  <si>
+    <t>CE8 Clearomizer Review - IndoorSmokers</t>
+  </si>
+  <si>
+    <t>12_JkcJD9_0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=12_JkcJD9_0</t>
+  </si>
+  <si>
+    <t>IndoorSmokers</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>0 1 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weed devices review website </t>
-  </si>
-  <si>
-    <t>Man suffers burns after e-cigarette explodes</t>
-  </si>
-  <si>
-    <t>G6EUB9hOn6k</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=G6EUB9hOn6k</t>
-  </si>
-  <si>
-    <t>ABC15 Arizona</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>Unbelievable Magical NIC BARS Flavors (Disposables)</t>
+  </si>
+  <si>
+    <t>-x8z_8AUXZE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-x8z_8AUXZE</t>
+  </si>
+  <si>
+    <t>Aegis Boost By Geek Vape Review (fantastic) - E Cig City Reviews &amp; Tutorials</t>
+  </si>
+  <si>
+    <t>_EdVMHhI450</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_EdVMHhI450</t>
+  </si>
+  <si>
+    <t>E Cig City UK</t>
+  </si>
+  <si>
+    <t>We did it! We Found the Perfect Vape Juice!</t>
+  </si>
+  <si>
+    <t>Cy-xqhsSdGo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Cy-xqhsSdGo</t>
+  </si>
+  <si>
+    <t>How to Clean Vape Pen Contacts &amp; Threads</t>
+  </si>
+  <si>
+    <t>H8wYfgp_YkI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H8wYfgp_YkI</t>
+  </si>
+  <si>
+    <t>VaporWarehouse</t>
+  </si>
+  <si>
+    <t>EON Charge | Smokers are switching to this? | #smartswitch</t>
+  </si>
+  <si>
+    <t>crMvSeeDDd8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=crMvSeeDDd8</t>
+  </si>
+  <si>
+    <t>DivPiv</t>
+  </si>
+  <si>
+    <t>0 7</t>
   </si>
 </sst>
 </file>
@@ -454,7 +664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,10 +718,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44152.9350460642</v>
+        <v>44152.94488611087</v>
       </c>
       <c r="D2" t="n">
-        <v>1211</v>
+        <v>3736</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -537,9 +747,7 @@
       <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
+      <c r="M2" t="s"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="n">
@@ -549,36 +757,664 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44152.93587419215</v>
+        <v>44152.94543058294</v>
       </c>
       <c r="D3" t="n">
-        <v>3133</v>
+        <v>2910</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44152.94605509117</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1014</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44152.94758678785</v>
+      </c>
+      <c r="D5" t="n">
+        <v>867</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44152.94781290205</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3173</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s"/>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44152.94933358913</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2421</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44152.9497333416</v>
+      </c>
+      <c r="D8" t="n">
+        <v>774</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44152.95061331084</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2288</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44152.95138321197</v>
+      </c>
+      <c r="D10" t="n">
+        <v>241</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" t="s"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44152.95234161685</v>
+      </c>
+      <c r="D11" t="n">
+        <v>504</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44152.95328394514</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2960</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44152.95382481284</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2799</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44152.95462496238</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2367</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44152.95536508891</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2789</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44152.95599582139</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2945</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>44152.95623634017</v>
+      </c>
+      <c r="D17" t="n">
+        <v>634</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>44152.9572307054</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2670</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>44152.96033954477</v>
+      </c>
+      <c r="D19" t="n">
+        <v>139</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -56,262 +56,295 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>POSH PLUS MINTY LYCHEE DISPOSABLE VAPE REVIEW</t>
-  </si>
-  <si>
-    <t>30vI3BkfR0E</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=30vI3BkfR0E</t>
-  </si>
-  <si>
-    <t>DisorderVapes</t>
+    <t>How to Use an Electronic Cigarette: ESSENTIAL Information for New ECigarette Users</t>
+  </si>
+  <si>
+    <t>ILYRolepDo0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ILYRolepDo0</t>
+  </si>
+  <si>
+    <t>ECigaretteDirect</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>The Most INSANE Vape Mod That I NEVER Reviewed.....</t>
+  </si>
+  <si>
+    <t>elczjglTnog</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=elczjglTnog</t>
+  </si>
+  <si>
+    <t>VapingwithTwisted420</t>
+  </si>
+  <si>
+    <t>0 3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>VITAMIN VAPE REVIEW - WTF?? Vitamin B12 Vaping</t>
+  </si>
+  <si>
+    <t>0dvi0qupDkk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0dvi0qupDkk</t>
+  </si>
+  <si>
+    <t>Bob Sharpe</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Vitamin vape</t>
+  </si>
+  <si>
+    <t>The most Durable Compact vape mod EVER! Aegis Mini Review</t>
+  </si>
+  <si>
+    <t>QSyC-RYUQMs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QSyC-RYUQMs</t>
+  </si>
+  <si>
+    <t>Anytime Vapors</t>
+  </si>
+  <si>
+    <t>NAKED100 Candy Ejuice Review!</t>
+  </si>
+  <si>
+    <t>UCazmoP033c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UCazmoP033c</t>
+  </si>
+  <si>
+    <t>RiP Trippers</t>
+  </si>
+  <si>
+    <t>How To Vape Heavy VG Ejuice In Your RTA</t>
+  </si>
+  <si>
+    <t>i0g3qXMTYCo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i0g3qXMTYCo</t>
+  </si>
+  <si>
+    <t>Aspire Breeze 2 Review / Pod Style Vape Device</t>
+  </si>
+  <si>
+    <t>uijWp7tHK3U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uijWp7tHK3U</t>
+  </si>
+  <si>
+    <t>Zophie Reviews</t>
+  </si>
+  <si>
+    <t>KODAK VS. FUJIFILM! WHICH DISPOSABLE CAMERA IS BETTER?</t>
+  </si>
+  <si>
+    <t>hE0w-3pUNFU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hE0w-3pUNFU</t>
+  </si>
+  <si>
+    <t>Athina Sonitis</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disposable camera </t>
+  </si>
+  <si>
+    <t>pop disposable nicotine vape lush ice from texas cbd company</t>
+  </si>
+  <si>
+    <t>lfJuTMw_P74</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lfJuTMw_P74</t>
+  </si>
+  <si>
+    <t>joseph Da Realist</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Nicotine safety and safety of new nicotine delivery devices</t>
-  </si>
-  <si>
-    <t>oYnyHDG_vq8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oYnyHDG_vq8</t>
-  </si>
-  <si>
-    <t>Jon Derricott</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>BOX MODS VS PODS SYSTEMS WHICH ONE IS BETTER?? (EJUICE VS SALT NIXS)</t>
-  </si>
-  <si>
-    <t>DsP_pLKoq6I</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DsP_pLKoq6I</t>
-  </si>
-  <si>
-    <t>Riley Lapointe</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3 5</t>
-  </si>
-  <si>
-    <t>Geek Vape Zeus Top Air Mesh Tank &amp; Aegis Legend Special Edition!</t>
-  </si>
-  <si>
-    <t>xlIlPeKZkoM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xlIlPeKZkoM</t>
+    <t>Beginner's Guide To Vaping</t>
+  </si>
+  <si>
+    <t>sa7l1CJDFVE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sa7l1CJDFVE</t>
+  </si>
+  <si>
+    <t>Shanice Shrestha Vlogs</t>
+  </si>
+  <si>
+    <t>How to Clean Your Vape | Sub-Ohm Tank and RBA Tank</t>
+  </si>
+  <si>
+    <t>W9WmGQhZxj0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W9WmGQhZxj0</t>
+  </si>
+  <si>
+    <t>VapeWild</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>Trulieve Co2 O.pen Vape Pen Ccell Cart Cartridge Review</t>
+  </si>
+  <si>
+    <t>4YGrQaN6hBA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4YGrQaN6hBA</t>
+  </si>
+  <si>
+    <t>Marijuana Vlogger</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Toxicant exposure: a comparison between e cigarettes and heat not burn</t>
+  </si>
+  <si>
+    <t>7rHfiochhOg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7rHfiochhOg</t>
+  </si>
+  <si>
+    <t>Global Forum on Nicotine</t>
+  </si>
+  <si>
+    <t>Vinci X Mod Pod by Voopoo - 70w &amp; Replaceable 18650 Batteries!</t>
+  </si>
+  <si>
+    <t>JgptxpCtEh8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JgptxpCtEh8</t>
   </si>
   <si>
     <t>Matt From SMM</t>
   </si>
   <si>
-    <t>XTRA ORANGE DISPOSABLE VAPE REVIEW 1500 PUFFS</t>
-  </si>
-  <si>
-    <t>LYkA4AUWZA0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LYkA4AUWZA0</t>
-  </si>
-  <si>
-    <t>Difference of ecig vapor to cigarette smoke. A simple experiment</t>
-  </si>
-  <si>
-    <t>PUtqOMGMrt8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PUtqOMGMrt8</t>
-  </si>
-  <si>
-    <t>alter ego</t>
-  </si>
-  <si>
-    <t>1 7</t>
-  </si>
-  <si>
-    <t>One Of My Favorite Vape Mods! UWELL Crown IV Checkmate Kit!</t>
-  </si>
-  <si>
-    <t>qRMgSh0eq-g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qRMgSh0eq-g</t>
-  </si>
-  <si>
-    <t>RiP Trippers</t>
-  </si>
-  <si>
-    <t>Vape Video: How to refill and rewicking myblu  pod, liquid cartridges</t>
-  </si>
-  <si>
-    <t>CjdHB85S6YY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=CjdHB85S6YY</t>
-  </si>
-  <si>
-    <t>The RHINO</t>
-  </si>
-  <si>
-    <t>3 7</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Vuse vs V2 vs NJOY: Best Most Realistic Cigalike E-Cigarettes</t>
-  </si>
-  <si>
-    <t>wObj-pL_BiE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wObj-pL_BiE</t>
+    <t>The Best Disposable Vape 2019 | UNO by SKOL</t>
+  </si>
+  <si>
+    <t>jCfOo_TeGLI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jCfOo_TeGLI</t>
+  </si>
+  <si>
+    <t>LiamsGhosts</t>
+  </si>
+  <si>
+    <t>WHICH ONE'S HIS FAVORITE?</t>
+  </si>
+  <si>
+    <t>FM1PFZnlGpE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FM1PFZnlGpE</t>
+  </si>
+  <si>
+    <t>Ryan Hall</t>
+  </si>
+  <si>
+    <t>How to Bane | Vape Tricks 💨 |</t>
+  </si>
+  <si>
+    <t>rqShLnBl0wU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rqShLnBl0wU</t>
+  </si>
+  <si>
+    <t>VapeChilla</t>
+  </si>
+  <si>
+    <t>4 7</t>
+  </si>
+  <si>
+    <t>NJOY Daily: NJOY's Newest Disposable E-Cig, Classic Tobacco Flavor</t>
+  </si>
+  <si>
+    <t>k23LW9HxK-Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k23LW9HxK-Y</t>
   </si>
   <si>
     <t>Martin Lotsberg</t>
   </si>
   <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>TAKE OFF Vape Liquid</t>
-  </si>
-  <si>
-    <t>HLsTYKAfJBU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HLsTYKAfJBU</t>
-  </si>
-  <si>
-    <t>Ryan Hall</t>
-  </si>
-  <si>
-    <t>MARIJUANA ESSENCE! - Cheeba Eliquid Review!</t>
-  </si>
-  <si>
-    <t>F6g-wc8LCb0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F6g-wc8LCb0</t>
-  </si>
-  <si>
-    <t>The Scots Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vape imagery merch </t>
-  </si>
-  <si>
-    <t>Disposable Face Mask instructions</t>
-  </si>
-  <si>
-    <t>fefHQydbpdQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fefHQydbpdQ</t>
-  </si>
-  <si>
-    <t>blueplanetsurf</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>blueplanet earth- makes "green" products</t>
-  </si>
-  <si>
-    <t>CE8 Clearomizer Review - IndoorSmokers</t>
-  </si>
-  <si>
-    <t>12_JkcJD9_0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=12_JkcJD9_0</t>
-  </si>
-  <si>
-    <t>IndoorSmokers</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Unbelievable Magical NIC BARS Flavors (Disposables)</t>
-  </si>
-  <si>
-    <t>-x8z_8AUXZE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-x8z_8AUXZE</t>
-  </si>
-  <si>
-    <t>Aegis Boost By Geek Vape Review (fantastic) - E Cig City Reviews &amp; Tutorials</t>
-  </si>
-  <si>
-    <t>_EdVMHhI450</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_EdVMHhI450</t>
-  </si>
-  <si>
-    <t>E Cig City UK</t>
-  </si>
-  <si>
-    <t>We did it! We Found the Perfect Vape Juice!</t>
-  </si>
-  <si>
-    <t>Cy-xqhsSdGo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Cy-xqhsSdGo</t>
-  </si>
-  <si>
-    <t>How to Clean Vape Pen Contacts &amp; Threads</t>
-  </si>
-  <si>
-    <t>H8wYfgp_YkI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=H8wYfgp_YkI</t>
-  </si>
-  <si>
-    <t>VaporWarehouse</t>
-  </si>
-  <si>
-    <t>EON Charge | Smokers are switching to this? | #smartswitch</t>
-  </si>
-  <si>
-    <t>crMvSeeDDd8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=crMvSeeDDd8</t>
-  </si>
-  <si>
-    <t>DivPiv</t>
-  </si>
-  <si>
-    <t>0 7</t>
+    <t>Yocan UNI Pro Cart Vape Box Mod Review</t>
+  </si>
+  <si>
+    <t>v8Xc56TkAY4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v8Xc56TkAY4</t>
+  </si>
+  <si>
+    <t>ISMOKE</t>
+  </si>
+  <si>
+    <t>cannabis media channel / website</t>
+  </si>
+  <si>
+    <t>BEST SELLER E-LIQUID | PASTRY FLAVORS</t>
+  </si>
+  <si>
+    <t>EtulmxDJN30</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EtulmxDJN30</t>
+  </si>
+  <si>
+    <t>Palaboy TV</t>
+  </si>
+  <si>
+    <t>Not english</t>
   </si>
 </sst>
 </file>
@@ -664,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,10 +751,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44152.94488611087</v>
+        <v>44153.73083323861</v>
       </c>
       <c r="D2" t="n">
-        <v>3736</v>
+        <v>978</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -745,7 +778,7 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s"/>
     </row>
@@ -757,34 +790,34 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44152.94543058294</v>
+        <v>44153.73198074245</v>
       </c>
       <c r="D3" t="n">
-        <v>2910</v>
+        <v>2603</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
       <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s"/>
     </row>
@@ -796,10 +829,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44152.94605509117</v>
+        <v>44153.73316647847</v>
       </c>
       <c r="D4" t="n">
-        <v>1014</v>
+        <v>1139</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -814,18 +847,20 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s"/>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="n">
@@ -835,34 +870,34 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44152.94758678785</v>
+        <v>44153.73419233896</v>
       </c>
       <c r="D5" t="n">
-        <v>867</v>
+        <v>2622</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -874,34 +909,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44152.94781290205</v>
+        <v>44153.73545994078</v>
       </c>
       <c r="D6" t="n">
-        <v>3173</v>
+        <v>576</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s"/>
     </row>
@@ -913,31 +948,31 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44152.94933358913</v>
+        <v>44153.73629712768</v>
       </c>
       <c r="D7" t="n">
-        <v>2421</v>
+        <v>605</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
         <v>41</v>
       </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
         <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
       </c>
       <c r="L7" t="s">
         <v>25</v>
@@ -952,10 +987,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44152.9497333416</v>
+        <v>44153.73668178239</v>
       </c>
       <c r="D8" t="n">
-        <v>774</v>
+        <v>3542</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -970,16 +1005,16 @@
         <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s"/>
     </row>
@@ -991,10 +1026,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44152.95061331084</v>
+        <v>44153.7371616504</v>
       </c>
       <c r="D9" t="n">
-        <v>2288</v>
+        <v>1606</v>
       </c>
       <c r="E9" t="s">
         <v>49</v>
@@ -1015,12 +1050,14 @@
         <v>54</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="n">
@@ -1030,34 +1067,34 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44152.95138321197</v>
+        <v>44153.73779151104</v>
       </c>
       <c r="D10" t="n">
-        <v>241</v>
+        <v>1426</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="M10" t="s"/>
     </row>
@@ -1069,22 +1106,22 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44152.95234161685</v>
+        <v>44153.73848407786</v>
       </c>
       <c r="D11" t="n">
-        <v>504</v>
+        <v>305</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -1093,7 +1130,7 @@
         <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
         <v>25</v>
@@ -1108,25 +1145,25 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44152.95328394514</v>
+        <v>44153.73944045103</v>
       </c>
       <c r="D12" t="n">
-        <v>2960</v>
+        <v>3199</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
         <v>25</v>
@@ -1135,11 +1172,9 @@
         <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" t="s">
-        <v>68</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M12" t="s"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
@@ -1149,38 +1184,36 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44152.95382481284</v>
+        <v>44153.74064794806</v>
       </c>
       <c r="D13" t="n">
-        <v>2799</v>
+        <v>1207</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" t="s">
-        <v>74</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M13" t="s"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="n">
@@ -1190,10 +1223,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44152.95462496238</v>
+        <v>44153.74097492208</v>
       </c>
       <c r="D14" t="n">
-        <v>2367</v>
+        <v>2396</v>
       </c>
       <c r="E14" t="s">
         <v>75</v>
@@ -1208,16 +1241,16 @@
         <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M14" t="s"/>
     </row>
@@ -1229,34 +1262,34 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44152.95536508891</v>
+        <v>44153.7413432983</v>
       </c>
       <c r="D15" t="n">
-        <v>2789</v>
+        <v>1304</v>
       </c>
       <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
         <v>80</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>81</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>82</v>
       </c>
-      <c r="H15" t="s">
-        <v>63</v>
-      </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" t="s"/>
     </row>
@@ -1268,10 +1301,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44152.95599582139</v>
+        <v>44153.74171303675</v>
       </c>
       <c r="D16" t="n">
-        <v>2945</v>
+        <v>1358</v>
       </c>
       <c r="E16" t="s">
         <v>83</v>
@@ -1286,16 +1319,16 @@
         <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M16" t="s"/>
     </row>
@@ -1307,10 +1340,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44152.95623634017</v>
+        <v>44153.74252640384</v>
       </c>
       <c r="D17" t="n">
-        <v>634</v>
+        <v>3756</v>
       </c>
       <c r="E17" t="s">
         <v>87</v>
@@ -1322,19 +1355,19 @@
         <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M17" t="s"/>
     </row>
@@ -1346,31 +1379,31 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44152.9572307054</v>
+        <v>44153.74350120826</v>
       </c>
       <c r="D18" t="n">
-        <v>2670</v>
+        <v>3650</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="J18" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="K18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
         <v>25</v>
@@ -1385,36 +1418,120 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44152.96033954477</v>
+        <v>44153.74438695174</v>
       </c>
       <c r="D19" t="n">
-        <v>139</v>
+        <v>1008</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
         <v>19</v>
       </c>
-      <c r="L19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" t="s"/>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>44153.7456378419</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3697</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>44153.74628238794</v>
+      </c>
+      <c r="D21" t="n">
+        <v>503</v>
+      </c>
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
   <si>
     <t>Name</t>
   </si>
@@ -56,295 +56,499 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>How to Use an Electronic Cigarette: ESSENTIAL Information for New ECigarette Users</t>
-  </si>
-  <si>
-    <t>ILYRolepDo0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ILYRolepDo0</t>
-  </si>
-  <si>
-    <t>ECigaretteDirect</t>
+    <t>How to refil logic compact pod easy</t>
+  </si>
+  <si>
+    <t>B8yQXyBV_bQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B8yQXyBV_bQ</t>
+  </si>
+  <si>
+    <t>legendary_moe 521</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>How Does Vaping Work - Vape School</t>
+  </si>
+  <si>
+    <t>y8NuY_K1qAo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8NuY_K1qAo</t>
+  </si>
+  <si>
+    <t>ZampleBox</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>DIY SKITTLES E-JUICE (EASY WAY TO MAKE IT)</t>
+  </si>
+  <si>
+    <t>YDOm__jauHI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YDOm__jauHI</t>
+  </si>
+  <si>
+    <t>Riley Lapointe</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>MAG P3 230W TC MOD By SMOK ~Vape Mod Review~</t>
+  </si>
+  <si>
+    <t>PdoitgYdJjk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PdoitgYdJjk</t>
+  </si>
+  <si>
+    <t>MyFreedomSmokes</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>The Most INSANE Vape Mod That I NEVER Reviewed.....</t>
-  </si>
-  <si>
-    <t>elczjglTnog</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=elczjglTnog</t>
-  </si>
-  <si>
-    <t>VapingwithTwisted420</t>
+    <t>Building The 62 AUSTIN HEALEY Sprite Front End Is SUPER EASY</t>
+  </si>
+  <si>
+    <t>pYwhH_KkAI8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pYwhH_KkAI8</t>
+  </si>
+  <si>
+    <t>WatchJRGo</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>car build channel</t>
+  </si>
+  <si>
+    <t>How to Use Your Disposable E-Cigarette</t>
+  </si>
+  <si>
+    <t>nG0WkY_tDQQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nG0WkY_tDQQ</t>
+  </si>
+  <si>
+    <t>Brio E-Cigs by Clipper</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ecig manufacturer youtube channel</t>
+  </si>
+  <si>
+    <t>Firefly 2+ Hands-On: A cannabis vape competitor to the Pax 3</t>
+  </si>
+  <si>
+    <t>DS8-cOASH0M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DS8-cOASH0M</t>
+  </si>
+  <si>
+    <t>Engadget</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>dry herb cannabis vape device | technology review website</t>
+  </si>
+  <si>
+    <t>6 Things to Expect When You Start Vaping</t>
+  </si>
+  <si>
+    <t>bu_emEorReE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bu_emEorReE</t>
+  </si>
+  <si>
+    <t>VapeWild</t>
+  </si>
+  <si>
+    <t>THE BIG BEAST custom made DIY four 18650 box mod</t>
+  </si>
+  <si>
+    <t>bWYIwWHepos</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bWYIwWHepos</t>
+  </si>
+  <si>
+    <t>BiLL Ramseyer</t>
   </si>
   <si>
     <t>0 3</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>VITAMIN VAPE REVIEW - WTF?? Vitamin B12 Vaping</t>
-  </si>
-  <si>
-    <t>0dvi0qupDkk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0dvi0qupDkk</t>
-  </si>
-  <si>
-    <t>Bob Sharpe</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Vitamin vape</t>
-  </si>
-  <si>
-    <t>The most Durable Compact vape mod EVER! Aegis Mini Review</t>
-  </si>
-  <si>
-    <t>QSyC-RYUQMs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QSyC-RYUQMs</t>
-  </si>
-  <si>
-    <t>Anytime Vapors</t>
-  </si>
-  <si>
-    <t>NAKED100 Candy Ejuice Review!</t>
-  </si>
-  <si>
-    <t>UCazmoP033c</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UCazmoP033c</t>
-  </si>
-  <si>
-    <t>RiP Trippers</t>
-  </si>
-  <si>
-    <t>How To Vape Heavy VG Ejuice In Your RTA</t>
-  </si>
-  <si>
-    <t>i0g3qXMTYCo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i0g3qXMTYCo</t>
-  </si>
-  <si>
-    <t>Aspire Breeze 2 Review / Pod Style Vape Device</t>
-  </si>
-  <si>
-    <t>uijWp7tHK3U</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uijWp7tHK3U</t>
-  </si>
-  <si>
-    <t>Zophie Reviews</t>
-  </si>
-  <si>
-    <t>KODAK VS. FUJIFILM! WHICH DISPOSABLE CAMERA IS BETTER?</t>
-  </si>
-  <si>
-    <t>hE0w-3pUNFU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hE0w-3pUNFU</t>
-  </si>
-  <si>
-    <t>Athina Sonitis</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disposable camera </t>
-  </si>
-  <si>
-    <t>pop disposable nicotine vape lush ice from texas cbd company</t>
-  </si>
-  <si>
-    <t>lfJuTMw_P74</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lfJuTMw_P74</t>
-  </si>
-  <si>
-    <t>joseph Da Realist</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Beginner's Guide To Vaping</t>
-  </si>
-  <si>
-    <t>sa7l1CJDFVE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sa7l1CJDFVE</t>
-  </si>
-  <si>
-    <t>Shanice Shrestha Vlogs</t>
-  </si>
-  <si>
-    <t>How to Clean Your Vape | Sub-Ohm Tank and RBA Tank</t>
-  </si>
-  <si>
-    <t>W9WmGQhZxj0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=W9WmGQhZxj0</t>
-  </si>
-  <si>
-    <t>VapeWild</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>Trulieve Co2 O.pen Vape Pen Ccell Cart Cartridge Review</t>
-  </si>
-  <si>
-    <t>4YGrQaN6hBA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4YGrQaN6hBA</t>
-  </si>
-  <si>
-    <t>Marijuana Vlogger</t>
+    <t>End to End Encryption (E2EE) - Computerphile</t>
+  </si>
+  <si>
+    <t>jkV1KEJGKRA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jkV1KEJGKRA</t>
+  </si>
+  <si>
+    <t>Computerphile</t>
+  </si>
+  <si>
+    <t>cyber security video</t>
+  </si>
+  <si>
+    <t>How To Use: SToK R2 Series Vape Pen - Waxy Pen vaporizer #This Thing Rips!</t>
+  </si>
+  <si>
+    <t>ySMoOJJvpD0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ySMoOJJvpD0</t>
+  </si>
+  <si>
+    <t>Smokazon</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Toxicant exposure: a comparison between e cigarettes and heat not burn</t>
-  </si>
-  <si>
-    <t>7rHfiochhOg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7rHfiochhOg</t>
-  </si>
-  <si>
-    <t>Global Forum on Nicotine</t>
-  </si>
-  <si>
-    <t>Vinci X Mod Pod by Voopoo - 70w &amp; Replaceable 18650 Batteries!</t>
-  </si>
-  <si>
-    <t>JgptxpCtEh8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JgptxpCtEh8</t>
-  </si>
-  <si>
-    <t>Matt From SMM</t>
-  </si>
-  <si>
-    <t>The Best Disposable Vape 2019 | UNO by SKOL</t>
-  </si>
-  <si>
-    <t>jCfOo_TeGLI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jCfOo_TeGLI</t>
-  </si>
-  <si>
-    <t>LiamsGhosts</t>
-  </si>
-  <si>
-    <t>WHICH ONE'S HIS FAVORITE?</t>
-  </si>
-  <si>
-    <t>FM1PFZnlGpE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=FM1PFZnlGpE</t>
-  </si>
-  <si>
-    <t>Ryan Hall</t>
-  </si>
-  <si>
-    <t>How to Bane | Vape Tricks 💨 |</t>
-  </si>
-  <si>
-    <t>rqShLnBl0wU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rqShLnBl0wU</t>
-  </si>
-  <si>
-    <t>VapeChilla</t>
-  </si>
-  <si>
-    <t>4 7</t>
-  </si>
-  <si>
-    <t>NJOY Daily: NJOY's Newest Disposable E-Cig, Classic Tobacco Flavor</t>
-  </si>
-  <si>
-    <t>k23LW9HxK-Y</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k23LW9HxK-Y</t>
-  </si>
-  <si>
-    <t>Martin Lotsberg</t>
-  </si>
-  <si>
-    <t>Yocan UNI Pro Cart Vape Box Mod Review</t>
-  </si>
-  <si>
-    <t>v8Xc56TkAY4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=v8Xc56TkAY4</t>
-  </si>
-  <si>
-    <t>ISMOKE</t>
-  </si>
-  <si>
-    <t>cannabis media channel / website</t>
-  </si>
-  <si>
-    <t>BEST SELLER E-LIQUID | PASTRY FLAVORS</t>
-  </si>
-  <si>
-    <t>EtulmxDJN30</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EtulmxDJN30</t>
-  </si>
-  <si>
-    <t>Palaboy TV</t>
-  </si>
-  <si>
-    <t>Not english</t>
+    <t>STARTER KITS - Jac Vapour V3i E-Cigarette range review</t>
+  </si>
+  <si>
+    <t>98xR0tp6lMk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=98xR0tp6lMk</t>
+  </si>
+  <si>
+    <t>Vape Don't Smoke</t>
+  </si>
+  <si>
+    <t>2 4</t>
+  </si>
+  <si>
+    <t>Eleaf iJust 2 Unboxing | Vape | E- Cigarette</t>
+  </si>
+  <si>
+    <t>N_l4UhB0grc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N_l4UhB0grc</t>
+  </si>
+  <si>
+    <t>The HirveBaba</t>
+  </si>
+  <si>
+    <t>Honest Review! Ohm Brew (e juice | e liquid)</t>
+  </si>
+  <si>
+    <t>T5j2boGqvVg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=T5j2boGqvVg</t>
+  </si>
+  <si>
+    <t>TNOTPR Vaping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mech store with vaping imagery </t>
+  </si>
+  <si>
+    <t>CBDfx VAPE pen REVIEW/ Demo + Smoke with me 💨 | Lala B</t>
+  </si>
+  <si>
+    <t>tk0v3jDt3bo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tk0v3jDt3bo</t>
+  </si>
+  <si>
+    <t>Lala B</t>
+  </si>
+  <si>
+    <t>Where the Trail Ends - Mountain Bike Full Trailer</t>
+  </si>
+  <si>
+    <t>MZUsc1ewgUQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MZUsc1ewgUQ</t>
+  </si>
+  <si>
+    <t>Red Bull</t>
+  </si>
+  <si>
+    <t>red bull channel (trail ends)</t>
+  </si>
+  <si>
+    <t>Tips &amp; Tutorial for Using Your ProVape Electronic Cigarette</t>
+  </si>
+  <si>
+    <t>K0qjPhMvdJE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=K0qjPhMvdJE</t>
+  </si>
+  <si>
+    <t>ProVape - New Brand Acct</t>
+  </si>
+  <si>
+    <t>The High End Vape Forum back from Hiatus!</t>
+  </si>
+  <si>
+    <t>-fVrdWcRPZA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fVrdWcRPZA</t>
+  </si>
+  <si>
+    <t>TenaciousTX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vape podcast common video on channel which is vape enthusiast type </t>
+  </si>
+  <si>
+    <t>Top 5 Best Budget Vaporizers 2020</t>
+  </si>
+  <si>
+    <t>fOnQ0aUZdCs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fOnQ0aUZdCs</t>
+  </si>
+  <si>
+    <t>TVAPE</t>
+  </si>
+  <si>
+    <t>How to Charge Your Disposable E-Cigarette</t>
+  </si>
+  <si>
+    <t>BYpQLyEx1oU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BYpQLyEx1oU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecig manufacturer brand </t>
+  </si>
+  <si>
+    <t>End of Space – Creating a Prison for Humanity</t>
+  </si>
+  <si>
+    <t>yS1ibDImAYU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yS1ibDImAYU</t>
+  </si>
+  <si>
+    <t>Kurzgesagt – In a Nutshell</t>
+  </si>
+  <si>
+    <t>video about space (end)</t>
+  </si>
+  <si>
+    <t>E-JUICE REVIEW - YOGI E LIQUID (FULL RANGE)</t>
+  </si>
+  <si>
+    <t>UB3DyO7O5uA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UB3DyO7O5uA</t>
+  </si>
+  <si>
+    <t>spit in your dripper reviews</t>
+  </si>
+  <si>
+    <t>electronic E-Cigarette "e-health" - quit smoking now! reviewed</t>
+  </si>
+  <si>
+    <t>sZJwNPvEc2Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sZJwNPvEc2Y</t>
+  </si>
+  <si>
+    <t>Dean Meehan</t>
+  </si>
+  <si>
+    <t>Joyetech CUBOID Lite with EXCEED D22 Tank - Review - Small Vape Box Mod</t>
+  </si>
+  <si>
+    <t>XYLJSCIj6MU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XYLJSCIj6MU</t>
+  </si>
+  <si>
+    <t>ShadyVapes</t>
+  </si>
+  <si>
+    <t>Coronavirus &amp; Vaping | What you need to know.</t>
+  </si>
+  <si>
+    <t>gGTsJDIBu4s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gGTsJDIBu4s</t>
+  </si>
+  <si>
+    <t>DashVapes</t>
+  </si>
+  <si>
+    <t>San Francisco Set to Ban E-Cigs Leaving Traditional Cigarettes Legal</t>
+  </si>
+  <si>
+    <t>wha_fGxEUjs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wha_fGxEUjs</t>
+  </si>
+  <si>
+    <t>Joseph R Nemeth DDS &amp; Associates</t>
+  </si>
+  <si>
+    <t>DIY E-Liquid Recipe 100ml - Sweet Tobacco</t>
+  </si>
+  <si>
+    <t>svsMIzE9_Gs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=svsMIzE9_Gs</t>
+  </si>
+  <si>
+    <t>Make My Vape</t>
+  </si>
+  <si>
+    <t>Changing E Juice Flavors on your atomizer without replacing the coil. Reverse wicking.</t>
+  </si>
+  <si>
+    <t>cgdmCnowneM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cgdmCnowneM</t>
+  </si>
+  <si>
+    <t>Samuel Cabe</t>
+  </si>
+  <si>
+    <t>How to make disposable face mask from paper towel in just 5 minutes | Maison Zizou</t>
+  </si>
+  <si>
+    <t>u9MnDsUyYAA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=u9MnDsUyYAA</t>
+  </si>
+  <si>
+    <t>Maison ZiZou</t>
+  </si>
+  <si>
+    <t>FDA plans to ban e-cigarettes in some stores</t>
+  </si>
+  <si>
+    <t>VCPGS706XQI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VCPGS706XQI</t>
+  </si>
+  <si>
+    <t>KING 5</t>
+  </si>
+  <si>
+    <t>Punyal Mech Mod | BB Box Mods | Full Review | The Vaping Bogan</t>
+  </si>
+  <si>
+    <t>XbuSpy8LX1E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XbuSpy8LX1E</t>
+  </si>
+  <si>
+    <t>Vaping Bogan</t>
+  </si>
+  <si>
+    <t>Tutorial edit foto Disposable Camera Effect using VSCO🎞️</t>
+  </si>
+  <si>
+    <t>qD12mxymWFE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qD12mxymWFE</t>
+  </si>
+  <si>
+    <t>Ida Era</t>
+  </si>
+  <si>
+    <t>video editing to look like disposable camera</t>
+  </si>
+  <si>
+    <t>Nelly Furtado - All Good Things (Come To An End) (US Version)</t>
+  </si>
+  <si>
+    <t>4pBo-GL9SRg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4pBo-GL9SRg</t>
+  </si>
+  <si>
+    <t>NellyFurtadoVEVO</t>
+  </si>
+  <si>
+    <t>music video and artist's channel</t>
+  </si>
+  <si>
+    <t>Smart PWM v2.2 DIY Box Mod Build</t>
+  </si>
+  <si>
+    <t>E_AR-dMJOCA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E_AR-dMJOCA</t>
+  </si>
+  <si>
+    <t>Analog Box Mods</t>
+  </si>
+  <si>
+    <t>How does vaping work? The science and history explained</t>
+  </si>
+  <si>
+    <t>BNQFr2FcJ3k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BNQFr2FcJ3k</t>
+  </si>
+  <si>
+    <t>Yahoo Finance</t>
   </si>
 </sst>
 </file>
@@ -697,7 +901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,10 +955,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44153.73083323861</v>
+        <v>44154.66438097865</v>
       </c>
       <c r="D2" t="n">
-        <v>978</v>
+        <v>2555</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -775,7 +979,7 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
@@ -790,10 +994,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44153.73198074245</v>
+        <v>44154.66514181912</v>
       </c>
       <c r="D3" t="n">
-        <v>2603</v>
+        <v>2501</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -811,13 +1015,13 @@
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
       </c>
       <c r="M3" t="s"/>
     </row>
@@ -829,10 +1033,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44153.73316647847</v>
+        <v>44154.66558745125</v>
       </c>
       <c r="D4" t="n">
-        <v>1139</v>
+        <v>2825</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -847,20 +1051,18 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
         <v>31</v>
       </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
+      <c r="M4" t="s"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="n">
@@ -870,31 +1072,31 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44153.73419233896</v>
+        <v>44154.6663752645</v>
       </c>
       <c r="D5" t="n">
-        <v>2622</v>
+        <v>3460</v>
       </c>
       <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
         <v>25</v>
@@ -909,36 +1111,38 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44153.73545994078</v>
+        <v>44154.66675946829</v>
       </c>
       <c r="D6" t="n">
-        <v>576</v>
+        <v>1777</v>
       </c>
       <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
       <c r="L6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="n">
@@ -948,36 +1152,38 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44153.73629712768</v>
+        <v>44154.66788681217</v>
       </c>
       <c r="D7" t="n">
-        <v>605</v>
+        <v>2772</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="n">
@@ -987,36 +1193,38 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44153.73668178239</v>
+        <v>44154.66935013801</v>
       </c>
       <c r="D8" t="n">
-        <v>3542</v>
+        <v>3641</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
@@ -1026,38 +1234,36 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44153.7371616504</v>
+        <v>44154.67044814547</v>
       </c>
       <c r="D9" t="n">
-        <v>1606</v>
+        <v>2487</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" t="s">
-        <v>55</v>
-      </c>
+      <c r="M9" t="s"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="n">
@@ -1067,34 +1273,34 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44153.73779151104</v>
+        <v>44154.67135246007</v>
       </c>
       <c r="D10" t="n">
-        <v>1426</v>
+        <v>2638</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
         <v>18</v>
       </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M10" t="s"/>
     </row>
@@ -1106,36 +1312,38 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44153.73848407786</v>
+        <v>44154.67172907506</v>
       </c>
       <c r="D11" t="n">
-        <v>305</v>
+        <v>3209</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
@@ -1145,34 +1353,34 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44153.73944045103</v>
+        <v>44154.67312696043</v>
       </c>
       <c r="D12" t="n">
-        <v>3199</v>
+        <v>3711</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="M12" t="s"/>
     </row>
@@ -1184,31 +1392,31 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44153.74064794806</v>
+        <v>44154.67364411418</v>
       </c>
       <c r="D13" t="n">
-        <v>1207</v>
+        <v>3312</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
@@ -1223,31 +1431,31 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44153.74097492208</v>
+        <v>44154.67442512028</v>
       </c>
       <c r="D14" t="n">
-        <v>2396</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L14" t="s">
         <v>25</v>
@@ -1262,36 +1470,38 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44153.7413432983</v>
+        <v>44154.67532738025</v>
       </c>
       <c r="D15" t="n">
-        <v>1304</v>
+        <v>3031</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
         <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="M15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="n">
@@ -1301,31 +1511,31 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44153.74171303675</v>
+        <v>44154.67696158546</v>
       </c>
       <c r="D16" t="n">
-        <v>1358</v>
+        <v>2035</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L16" t="s">
         <v>25</v>
@@ -1340,36 +1550,38 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44153.74252640384</v>
+        <v>44154.67738247298</v>
       </c>
       <c r="D17" t="n">
-        <v>3756</v>
+        <v>1784</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="L17" t="s">
         <v>19</v>
       </c>
-      <c r="M17" t="s"/>
+      <c r="M17" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="n">
@@ -1379,31 +1591,31 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44153.74350120826</v>
+        <v>44154.67845166587</v>
       </c>
       <c r="D18" t="n">
-        <v>3650</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L18" t="s">
         <v>25</v>
@@ -1418,37 +1630,37 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44153.74438695174</v>
+        <v>44154.68068962533</v>
       </c>
       <c r="D19" t="n">
-        <v>1008</v>
+        <v>1882</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1459,38 +1671,36 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44153.7456378419</v>
+        <v>44154.68186581133</v>
       </c>
       <c r="D20" t="n">
-        <v>3697</v>
+        <v>1175</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="L20" t="s">
         <v>25</v>
       </c>
-      <c r="M20" t="s">
-        <v>104</v>
-      </c>
+      <c r="M20" t="s"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="n">
@@ -1500,38 +1710,629 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44153.74628238794</v>
+        <v>44154.6827021211</v>
       </c>
       <c r="D21" t="n">
-        <v>503</v>
+        <v>1528</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>44154.6829627526</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1838</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" t="s">
         <v>18</v>
       </c>
-      <c r="J21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" t="s">
-        <v>109</v>
-      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>44154.68356502741</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1924</v>
+      </c>
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="s"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>44154.68416406009</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3611</v>
+      </c>
+      <c r="E24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" t="s"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>44154.68457054679</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1065</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" t="s"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>44154.68556002568</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2475</v>
+      </c>
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" t="s"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>44154.68630527492</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3042</v>
+      </c>
+      <c r="E27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" t="s"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>44154.68673292911</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1903</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="s"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>44154.68780035542</v>
+      </c>
+      <c r="D29" t="n">
+        <v>615</v>
+      </c>
+      <c r="E29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>44154.68797761508</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3195</v>
+      </c>
+      <c r="E30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" t="s"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>44154.68839364973</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3134</v>
+      </c>
+      <c r="E31" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" t="s"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>44154.68914657631</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" t="s">
+        <v>159</v>
+      </c>
+      <c r="I32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" t="s"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>44154.68949500634</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3395</v>
+      </c>
+      <c r="E33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>44154.68986455681</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1760</v>
+      </c>
+      <c r="E34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" t="s">
+        <v>168</v>
+      </c>
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>44154.69036902675</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E35" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" t="s"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>44154.69077488331</v>
+      </c>
+      <c r="D36" t="n">
+        <v>440</v>
+      </c>
+      <c r="E36" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" t="s">
+        <v>175</v>
+      </c>
+      <c r="G36" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" t="s">
+        <v>177</v>
+      </c>
+      <c r="I36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" t="s">
+        <v>74</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>Name</t>
   </si>
@@ -56,499 +56,505 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>How to refil logic compact pod easy</t>
-  </si>
-  <si>
-    <t>B8yQXyBV_bQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B8yQXyBV_bQ</t>
-  </si>
-  <si>
-    <t>legendary_moe 521</t>
+    <t>The Difference Between AIO &amp; Pod Devices</t>
+  </si>
+  <si>
+    <t>_giONKyyEHQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_giONKyyEHQ</t>
+  </si>
+  <si>
+    <t>FlavourVapour</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3 4 5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>vape review information website</t>
+  </si>
+  <si>
+    <t>Vapevent Brooklyn Vape Expo 2018 | Mike Vapes, Heathen, TVC, Ambitionz Vaper &amp; More!</t>
+  </si>
+  <si>
+    <t>L5QR4uqfNPU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L5QR4uqfNPU</t>
+  </si>
+  <si>
+    <t>Jai Haze</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vape event blog </t>
+  </si>
+  <si>
+    <t>The New MYBLU Pod Kit | The JUUL Killer? | IndoorSmokers</t>
+  </si>
+  <si>
+    <t>a0F_Wtq9WtI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a0F_Wtq9WtI</t>
+  </si>
+  <si>
+    <t>IndoorSmokers</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Prophecy Update End Times News Headlines  - 7/27/20</t>
+  </si>
+  <si>
+    <t>8minmJx5C04</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8minmJx5C04</t>
+  </si>
+  <si>
+    <t>Prophecy Update Videos</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some kind of modern biblical prophecy thing? I don't know </t>
+  </si>
+  <si>
+    <t>Disposable e-cig from Vapor Couture - review | Vapor Navigator</t>
+  </si>
+  <si>
+    <t>vXJpr5siYSE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vXJpr5siYSE</t>
+  </si>
+  <si>
+    <t>Vapor Navigator</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Why are E-Cigarettes exploding?</t>
+  </si>
+  <si>
+    <t>Ww9BlKd0L7M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ww9BlKd0L7M</t>
+  </si>
+  <si>
+    <t>DashVapes</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>UK Official Made the Prettiest Cheapest High End Box Mod | Turnwood FX Cali Custom</t>
+  </si>
+  <si>
+    <t>sMk503mlLQU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sMk503mlLQU</t>
+  </si>
+  <si>
+    <t>JUUL, Vaping, and Electronic Cigarettes: A Public Health Crisis</t>
+  </si>
+  <si>
+    <t>oejwcRVK4yo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oejwcRVK4yo</t>
+  </si>
+  <si>
+    <t>AAPexperience</t>
+  </si>
+  <si>
+    <t>HOW SUSTAINABLE IS PAPER &amp; CARDBOARD? / paper vs plastic disposables</t>
+  </si>
+  <si>
+    <t>-7NuGgM5bLw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-7NuGgM5bLw</t>
+  </si>
+  <si>
+    <t>Gittemary Johansen</t>
+  </si>
+  <si>
+    <t>disposable cameras</t>
+  </si>
+  <si>
+    <t>Njoy disposable e-cig</t>
+  </si>
+  <si>
+    <t>Chfhm2kybi0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Chfhm2kybi0</t>
+  </si>
+  <si>
+    <t>jbanks4life</t>
+  </si>
+  <si>
+    <t>TOP 5 FAVORITE E-JUICE FLAVORS! 😍😍</t>
+  </si>
+  <si>
+    <t>on9QXxuu2T8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=on9QXxuu2T8</t>
+  </si>
+  <si>
+    <t>AVAndy</t>
+  </si>
+  <si>
+    <t>UNO MAS VAPE DISPOSABLE (1200 puffs)</t>
+  </si>
+  <si>
+    <t>ftNCSkZVCVg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ftNCSkZVCVg</t>
+  </si>
+  <si>
+    <t>ChaseSmokes</t>
+  </si>
+  <si>
+    <t>jeremy zucker - end (stripped.)</t>
+  </si>
+  <si>
+    <t>TLeLgq2_B40</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TLeLgq2_B40</t>
+  </si>
+  <si>
+    <t>Jeremy Zucker</t>
+  </si>
+  <si>
+    <t>music video (end in title)</t>
+  </si>
+  <si>
+    <t>Vaping at 190 watts | Kawasaki Update | Vaporesso Luxe Kit Unboxing</t>
+  </si>
+  <si>
+    <t>q8iuVGLh2hU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=q8iuVGLh2hU</t>
+  </si>
+  <si>
+    <t>Armaan Gupta</t>
+  </si>
+  <si>
+    <t>2 3</t>
+  </si>
+  <si>
+    <t>Student in Houston suddenly sick after vaping: Officials l ABC News</t>
+  </si>
+  <si>
+    <t>Fc2B-xh9Y0w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Fc2B-xh9Y0w</t>
+  </si>
+  <si>
+    <t>ABC News</t>
+  </si>
+  <si>
+    <t>2 6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>The Best Fruit Vape of 2019? | SQZD E Liquid Review</t>
+  </si>
+  <si>
+    <t>AETGwMCTpEQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AETGwMCTpEQ</t>
+  </si>
+  <si>
+    <t>vape review webstie</t>
+  </si>
+  <si>
+    <t>My FAVORITE Vape Kit For 2018! The OBS Cube Mod And SubOhm Tank!</t>
+  </si>
+  <si>
+    <t>1RexziRowtg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1RexziRowtg</t>
+  </si>
+  <si>
+    <t>RiP Trippers</t>
+  </si>
+  <si>
+    <t>EASY TO FOLLOW &amp; best way how to make THC vape e-liquid from cannabis buds or weed</t>
+  </si>
+  <si>
+    <t>Yq1AT-2KuxM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yq1AT-2KuxM</t>
+  </si>
+  <si>
+    <t>Golden Vape</t>
+  </si>
+  <si>
+    <t>Is It The Best MTL Eliquid | Dr Frost 50 50 Juice Range Review</t>
+  </si>
+  <si>
+    <t>jMlfodVPe94</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jMlfodVPe94</t>
+  </si>
+  <si>
+    <t>vape review website</t>
+  </si>
+  <si>
+    <t>DIY | How to Make E-Cigarette at Home - Atomizer + Mod</t>
+  </si>
+  <si>
+    <t>aPYWXCKQ5uA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aPYWXCKQ5uA</t>
+  </si>
+  <si>
+    <t>John's Crafting Lab</t>
   </si>
   <si>
     <t>3 7</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>How Does Vaping Work - Vape School</t>
-  </si>
-  <si>
-    <t>y8NuY_K1qAo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8NuY_K1qAo</t>
-  </si>
-  <si>
-    <t>ZampleBox</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>DIY SKITTLES E-JUICE (EASY WAY TO MAKE IT)</t>
-  </si>
-  <si>
-    <t>YDOm__jauHI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YDOm__jauHI</t>
-  </si>
-  <si>
-    <t>Riley Lapointe</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>MAG P3 230W TC MOD By SMOK ~Vape Mod Review~</t>
-  </si>
-  <si>
-    <t>PdoitgYdJjk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PdoitgYdJjk</t>
-  </si>
-  <si>
-    <t>MyFreedomSmokes</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Building The 62 AUSTIN HEALEY Sprite Front End Is SUPER EASY</t>
-  </si>
-  <si>
-    <t>pYwhH_KkAI8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pYwhH_KkAI8</t>
-  </si>
-  <si>
-    <t>WatchJRGo</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>car build channel</t>
-  </si>
-  <si>
-    <t>How to Use Your Disposable E-Cigarette</t>
-  </si>
-  <si>
-    <t>nG0WkY_tDQQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nG0WkY_tDQQ</t>
-  </si>
-  <si>
-    <t>Brio E-Cigs by Clipper</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>ecig manufacturer youtube channel</t>
-  </si>
-  <si>
-    <t>Firefly 2+ Hands-On: A cannabis vape competitor to the Pax 3</t>
-  </si>
-  <si>
-    <t>DS8-cOASH0M</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DS8-cOASH0M</t>
-  </si>
-  <si>
-    <t>Engadget</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>dry herb cannabis vape device | technology review website</t>
-  </si>
-  <si>
-    <t>6 Things to Expect When You Start Vaping</t>
-  </si>
-  <si>
-    <t>bu_emEorReE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bu_emEorReE</t>
-  </si>
-  <si>
-    <t>VapeWild</t>
-  </si>
-  <si>
-    <t>THE BIG BEAST custom made DIY four 18650 box mod</t>
-  </si>
-  <si>
-    <t>bWYIwWHepos</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bWYIwWHepos</t>
-  </si>
-  <si>
-    <t>BiLL Ramseyer</t>
-  </si>
-  <si>
-    <t>0 3</t>
-  </si>
-  <si>
-    <t>End to End Encryption (E2EE) - Computerphile</t>
-  </si>
-  <si>
-    <t>jkV1KEJGKRA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jkV1KEJGKRA</t>
-  </si>
-  <si>
-    <t>Computerphile</t>
-  </si>
-  <si>
-    <t>cyber security video</t>
-  </si>
-  <si>
-    <t>How To Use: SToK R2 Series Vape Pen - Waxy Pen vaporizer #This Thing Rips!</t>
-  </si>
-  <si>
-    <t>ySMoOJJvpD0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ySMoOJJvpD0</t>
-  </si>
-  <si>
-    <t>Smokazon</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>STARTER KITS - Jac Vapour V3i E-Cigarette range review</t>
-  </si>
-  <si>
-    <t>98xR0tp6lMk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=98xR0tp6lMk</t>
-  </si>
-  <si>
-    <t>Vape Don't Smoke</t>
-  </si>
-  <si>
-    <t>2 4</t>
-  </si>
-  <si>
-    <t>Eleaf iJust 2 Unboxing | Vape | E- Cigarette</t>
-  </si>
-  <si>
-    <t>N_l4UhB0grc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=N_l4UhB0grc</t>
-  </si>
-  <si>
-    <t>The HirveBaba</t>
-  </si>
-  <si>
-    <t>Honest Review! Ohm Brew (e juice | e liquid)</t>
-  </si>
-  <si>
-    <t>T5j2boGqvVg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=T5j2boGqvVg</t>
-  </si>
-  <si>
-    <t>TNOTPR Vaping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mech store with vaping imagery </t>
-  </si>
-  <si>
-    <t>CBDfx VAPE pen REVIEW/ Demo + Smoke with me 💨 | Lala B</t>
-  </si>
-  <si>
-    <t>tk0v3jDt3bo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tk0v3jDt3bo</t>
-  </si>
-  <si>
-    <t>Lala B</t>
-  </si>
-  <si>
-    <t>Where the Trail Ends - Mountain Bike Full Trailer</t>
-  </si>
-  <si>
-    <t>MZUsc1ewgUQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MZUsc1ewgUQ</t>
-  </si>
-  <si>
-    <t>Red Bull</t>
-  </si>
-  <si>
-    <t>red bull channel (trail ends)</t>
-  </si>
-  <si>
-    <t>Tips &amp; Tutorial for Using Your ProVape Electronic Cigarette</t>
-  </si>
-  <si>
-    <t>K0qjPhMvdJE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=K0qjPhMvdJE</t>
-  </si>
-  <si>
-    <t>ProVape - New Brand Acct</t>
-  </si>
-  <si>
-    <t>The High End Vape Forum back from Hiatus!</t>
-  </si>
-  <si>
-    <t>-fVrdWcRPZA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fVrdWcRPZA</t>
-  </si>
-  <si>
-    <t>TenaciousTX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vape podcast common video on channel which is vape enthusiast type </t>
-  </si>
-  <si>
-    <t>Top 5 Best Budget Vaporizers 2020</t>
-  </si>
-  <si>
-    <t>fOnQ0aUZdCs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fOnQ0aUZdCs</t>
-  </si>
-  <si>
-    <t>TVAPE</t>
-  </si>
-  <si>
-    <t>How to Charge Your Disposable E-Cigarette</t>
-  </si>
-  <si>
-    <t>BYpQLyEx1oU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BYpQLyEx1oU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecig manufacturer brand </t>
-  </si>
-  <si>
-    <t>End of Space – Creating a Prison for Humanity</t>
-  </si>
-  <si>
-    <t>yS1ibDImAYU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yS1ibDImAYU</t>
-  </si>
-  <si>
-    <t>Kurzgesagt – In a Nutshell</t>
-  </si>
-  <si>
-    <t>video about space (end)</t>
-  </si>
-  <si>
-    <t>E-JUICE REVIEW - YOGI E LIQUID (FULL RANGE)</t>
-  </si>
-  <si>
-    <t>UB3DyO7O5uA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UB3DyO7O5uA</t>
-  </si>
-  <si>
-    <t>spit in your dripper reviews</t>
-  </si>
-  <si>
-    <t>electronic E-Cigarette "e-health" - quit smoking now! reviewed</t>
-  </si>
-  <si>
-    <t>sZJwNPvEc2Y</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sZJwNPvEc2Y</t>
-  </si>
-  <si>
-    <t>Dean Meehan</t>
-  </si>
-  <si>
-    <t>Joyetech CUBOID Lite with EXCEED D22 Tank - Review - Small Vape Box Mod</t>
-  </si>
-  <si>
-    <t>XYLJSCIj6MU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XYLJSCIj6MU</t>
-  </si>
-  <si>
-    <t>ShadyVapes</t>
-  </si>
-  <si>
-    <t>Coronavirus &amp; Vaping | What you need to know.</t>
-  </si>
-  <si>
-    <t>gGTsJDIBu4s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gGTsJDIBu4s</t>
-  </si>
-  <si>
-    <t>DashVapes</t>
-  </si>
-  <si>
-    <t>San Francisco Set to Ban E-Cigs Leaving Traditional Cigarettes Legal</t>
-  </si>
-  <si>
-    <t>wha_fGxEUjs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wha_fGxEUjs</t>
-  </si>
-  <si>
-    <t>Joseph R Nemeth DDS &amp; Associates</t>
-  </si>
-  <si>
-    <t>DIY E-Liquid Recipe 100ml - Sweet Tobacco</t>
-  </si>
-  <si>
-    <t>svsMIzE9_Gs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=svsMIzE9_Gs</t>
-  </si>
-  <si>
-    <t>Make My Vape</t>
-  </si>
-  <si>
-    <t>Changing E Juice Flavors on your atomizer without replacing the coil. Reverse wicking.</t>
-  </si>
-  <si>
-    <t>cgdmCnowneM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cgdmCnowneM</t>
-  </si>
-  <si>
-    <t>Samuel Cabe</t>
-  </si>
-  <si>
-    <t>How to make disposable face mask from paper towel in just 5 minutes | Maison Zizou</t>
-  </si>
-  <si>
-    <t>u9MnDsUyYAA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=u9MnDsUyYAA</t>
-  </si>
-  <si>
-    <t>Maison ZiZou</t>
-  </si>
-  <si>
-    <t>FDA plans to ban e-cigarettes in some stores</t>
-  </si>
-  <si>
-    <t>VCPGS706XQI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VCPGS706XQI</t>
-  </si>
-  <si>
-    <t>KING 5</t>
-  </si>
-  <si>
-    <t>Punyal Mech Mod | BB Box Mods | Full Review | The Vaping Bogan</t>
-  </si>
-  <si>
-    <t>XbuSpy8LX1E</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XbuSpy8LX1E</t>
-  </si>
-  <si>
-    <t>Vaping Bogan</t>
-  </si>
-  <si>
-    <t>Tutorial edit foto Disposable Camera Effect using VSCO🎞️</t>
-  </si>
-  <si>
-    <t>qD12mxymWFE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qD12mxymWFE</t>
-  </si>
-  <si>
-    <t>Ida Era</t>
-  </si>
-  <si>
-    <t>video editing to look like disposable camera</t>
-  </si>
-  <si>
-    <t>Nelly Furtado - All Good Things (Come To An End) (US Version)</t>
-  </si>
-  <si>
-    <t>4pBo-GL9SRg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4pBo-GL9SRg</t>
-  </si>
-  <si>
-    <t>NellyFurtadoVEVO</t>
-  </si>
-  <si>
-    <t>music video and artist's channel</t>
-  </si>
-  <si>
-    <t>Smart PWM v2.2 DIY Box Mod Build</t>
-  </si>
-  <si>
-    <t>E_AR-dMJOCA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=E_AR-dMJOCA</t>
-  </si>
-  <si>
-    <t>Analog Box Mods</t>
-  </si>
-  <si>
-    <t>How does vaping work? The science and history explained</t>
-  </si>
-  <si>
-    <t>BNQFr2FcJ3k</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BNQFr2FcJ3k</t>
+    <t>$600 extended unemployment benefits set to expire at the end of July, some say it's too soon</t>
+  </si>
+  <si>
+    <t>uUqMGlcX4XQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uUqMGlcX4XQ</t>
   </si>
   <si>
     <t>Yahoo Finance</t>
+  </si>
+  <si>
+    <t>about covid unemployment benafits</t>
+  </si>
+  <si>
+    <t>Rythm Vanilla Lavender 1:1 Heal Disposable Pen Vape</t>
+  </si>
+  <si>
+    <t>E4yLIyhZTbA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E4yLIyhZTbA</t>
+  </si>
+  <si>
+    <t>WojySmokes</t>
+  </si>
+  <si>
+    <t>How To Refill A Blu E-Cig Cartridge DIY Vape Cartomizer Disposable E-cigarette Save Money</t>
+  </si>
+  <si>
+    <t>y9DumE7kwzc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y9DumE7kwzc</t>
+  </si>
+  <si>
+    <t>TM R</t>
+  </si>
+  <si>
+    <t>V2 E-Cigs EX Is Big Deal For Cigalike E-Cigs - V2Cigs Leads By A HUGE Margin</t>
+  </si>
+  <si>
+    <t>fPaTH3nr968</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fPaTH3nr968</t>
+  </si>
+  <si>
+    <t>Ian Woods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecig ad of some kind </t>
+  </si>
+  <si>
+    <t>Vapor4Life Disposable E-Cigarette Review</t>
+  </si>
+  <si>
+    <t>9gpPVpIML-4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9gpPVpIML-4</t>
+  </si>
+  <si>
+    <t>Vapor4Life</t>
+  </si>
+  <si>
+    <t>Lost Vape Mirage DNA75C Review and Rundown | 18650/2x700 #simple</t>
+  </si>
+  <si>
+    <t>cAqmHw1npLY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cAqmHw1npLY</t>
+  </si>
+  <si>
+    <t>REVIEW OF THE DISPOSABLE E-CIGAR FROM E-CIGS.CO.UK</t>
+  </si>
+  <si>
+    <t>gC6es8OdYMI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gC6es8OdYMI</t>
+  </si>
+  <si>
+    <t>igetcha69</t>
+  </si>
+  <si>
+    <t>VAPE PEN FOR MARIJUANA WAX, SHATTER, BUTTER, &amp; DABS!</t>
+  </si>
+  <si>
+    <t>g2nIJb0JkrM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=g2nIJb0JkrM</t>
+  </si>
+  <si>
+    <t>Honeybee Vapes</t>
+  </si>
+  <si>
+    <t>10 Important Vaping Facts</t>
+  </si>
+  <si>
+    <t>Ucuw03jJV0c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ucuw03jJV0c</t>
+  </si>
+  <si>
+    <t>Fact Retriever</t>
+  </si>
+  <si>
+    <t>1 7</t>
+  </si>
+  <si>
+    <t>Green Day - Wake Me Up When September Ends (Cover by Dave Winkler)</t>
+  </si>
+  <si>
+    <t>NA7uRIzCygI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NA7uRIzCygI</t>
+  </si>
+  <si>
+    <t>Dave Winkler</t>
+  </si>
+  <si>
+    <t>green day cover</t>
+  </si>
+  <si>
+    <t>Vlog? The Future of Vaping - Rants &amp; Ramblings!</t>
+  </si>
+  <si>
+    <t>FITyxB34k-g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FITyxB34k-g</t>
+  </si>
+  <si>
+    <t>The CloudieVape</t>
+  </si>
+  <si>
+    <t>Vape Review | My Vape Pen Won't Work, Hit, or Heat up. | Fix Vape | Elegant Aware</t>
+  </si>
+  <si>
+    <t>tOEDV6xeSfM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tOEDV6xeSfM</t>
+  </si>
+  <si>
+    <t>Elegant Aware</t>
+  </si>
+  <si>
+    <t>Smoke Free Electronic Cigarette Review</t>
+  </si>
+  <si>
+    <t>r8FYq7FP9Xw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r8FYq7FP9Xw</t>
+  </si>
+  <si>
+    <t>Martin Lotsberg</t>
+  </si>
+  <si>
+    <t>Naked 100 Lava Flow E Liquid Review Saturday Triple Play</t>
+  </si>
+  <si>
+    <t>V0l1998Y8HY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V0l1998Y8HY</t>
+  </si>
+  <si>
+    <t>VapeWithMe</t>
+  </si>
+  <si>
+    <t>The Kind Pen Variable Voltage Vape Battery Unboxing &amp; Review</t>
+  </si>
+  <si>
+    <t>XNhtRXU65js</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XNhtRXU65js</t>
+  </si>
+  <si>
+    <t>Nonya Biz</t>
+  </si>
+  <si>
+    <t>POWERFUL VAPE MOD &amp; RTA (IJOY ZENITH &amp; IJOY MAXO V12)</t>
+  </si>
+  <si>
+    <t>tvSDCowuFvo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tvSDCowuFvo</t>
+  </si>
+  <si>
+    <t>Adrian Lo Dejavu</t>
+  </si>
+  <si>
+    <t>0 7</t>
   </si>
 </sst>
 </file>
@@ -901,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44154.66438097865</v>
+        <v>44154.6981956985</v>
       </c>
       <c r="D2" t="n">
-        <v>2555</v>
+        <v>702</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -979,12 +985,14 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="n">
@@ -994,36 +1002,38 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44154.66514181912</v>
+        <v>44154.69934395586</v>
       </c>
       <c r="D3" t="n">
-        <v>2501</v>
+        <v>423</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
@@ -1033,34 +1043,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44154.66558745125</v>
+        <v>44154.6998759152</v>
       </c>
       <c r="D4" t="n">
-        <v>2825</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s"/>
     </row>
@@ -1072,36 +1082,38 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44154.6663752645</v>
+        <v>44154.70088509866</v>
       </c>
       <c r="D5" t="n">
-        <v>3460</v>
+        <v>3419</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
       <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="n">
@@ -1111,38 +1123,36 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44154.66675946829</v>
+        <v>44154.70140253229</v>
       </c>
       <c r="D6" t="n">
-        <v>1777</v>
+        <v>2074</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s">
-        <v>43</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="M6" t="s"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="n">
@@ -1152,38 +1162,36 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44154.66788681217</v>
+        <v>44154.70263351266</v>
       </c>
       <c r="D7" t="n">
-        <v>2772</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" t="s">
-        <v>49</v>
-      </c>
+      <c r="M7" t="s"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="n">
@@ -1193,38 +1201,36 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44154.66935013801</v>
+        <v>44154.70319071892</v>
       </c>
       <c r="D8" t="n">
-        <v>3641</v>
+        <v>847</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" t="s">
-        <v>55</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M8" t="s"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
@@ -1234,34 +1240,34 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44154.67044814547</v>
+        <v>44154.70363350192</v>
       </c>
       <c r="D9" t="n">
-        <v>2487</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
         <v>56</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
-      </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -1273,36 +1279,38 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44154.67135246007</v>
+        <v>44154.70392996251</v>
       </c>
       <c r="D10" t="n">
-        <v>2638</v>
+        <v>1587</v>
       </c>
       <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>61</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
         <v>62</v>
       </c>
-      <c r="H10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="n">
@@ -1312,38 +1320,36 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44154.67172907506</v>
+        <v>44154.70447648756</v>
       </c>
       <c r="D11" t="n">
-        <v>3209</v>
+        <v>1510</v>
       </c>
       <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
         <v>65</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>66</v>
       </c>
-      <c r="G11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" t="s">
-        <v>68</v>
-      </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" t="s">
-        <v>69</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M11" t="s"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
@@ -1353,34 +1359,34 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44154.67312696043</v>
+        <v>44154.70549010424</v>
       </c>
       <c r="D12" t="n">
-        <v>3711</v>
+        <v>631</v>
       </c>
       <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
         <v>70</v>
       </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" t="s">
-        <v>73</v>
-      </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s"/>
     </row>
@@ -1392,34 +1398,34 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44154.67364411418</v>
+        <v>44154.70597779064</v>
       </c>
       <c r="D13" t="n">
-        <v>3312</v>
+        <v>2198</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s"/>
     </row>
@@ -1431,36 +1437,38 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44154.67442512028</v>
+        <v>44154.70629576244</v>
       </c>
       <c r="D14" t="n">
+        <v>3797</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
         <v>78</v>
       </c>
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" t="s">
-        <v>83</v>
-      </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="n">
@@ -1470,38 +1478,36 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44154.67532738025</v>
+        <v>44154.70677895075</v>
       </c>
       <c r="D15" t="n">
-        <v>3031</v>
+        <v>275</v>
       </c>
       <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s">
         <v>84</v>
       </c>
-      <c r="F15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" t="s">
-        <v>25</v>
-      </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" t="s">
-        <v>88</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M15" t="s"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="n">
@@ -1511,34 +1517,34 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44154.67696158546</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="D16" t="n">
-        <v>2035</v>
+        <v>392</v>
       </c>
       <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" t="s">
         <v>89</v>
       </c>
-      <c r="F16" t="s">
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
         <v>90</v>
       </c>
-      <c r="G16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" t="s">
-        <v>31</v>
-      </c>
       <c r="L16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s"/>
     </row>
@@ -1550,37 +1556,37 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44154.67738247298</v>
+        <v>44154.7073674018</v>
       </c>
       <c r="D17" t="n">
-        <v>1784</v>
+        <v>1906</v>
       </c>
       <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
         <v>93</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" t="s">
         <v>94</v>
-      </c>
-      <c r="G17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1591,34 +1597,34 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44154.67845166587</v>
+        <v>44154.70763553694</v>
       </c>
       <c r="D18" t="n">
-        <v>116</v>
+        <v>2977</v>
       </c>
       <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
         <v>98</v>
       </c>
-      <c r="F18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" t="s">
-        <v>101</v>
-      </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s"/>
     </row>
@@ -1630,38 +1636,36 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44154.68068962533</v>
+        <v>44154.70829785211</v>
       </c>
       <c r="D19" t="n">
-        <v>1882</v>
+        <v>465</v>
       </c>
       <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" t="s">
         <v>102</v>
       </c>
-      <c r="F19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" t="s">
-        <v>105</v>
-      </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="L19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" t="s">
-        <v>106</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M19" t="s"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="n">
@@ -1671,36 +1675,38 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44154.68186581133</v>
+        <v>44154.70866862948</v>
       </c>
       <c r="D20" t="n">
-        <v>1175</v>
+        <v>566</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" t="s">
         <v>19</v>
       </c>
-      <c r="K20" t="s">
-        <v>26</v>
-      </c>
       <c r="L20" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="M20" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="n">
@@ -1710,38 +1716,36 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44154.6827021211</v>
+        <v>44154.70929016179</v>
       </c>
       <c r="D21" t="n">
-        <v>1528</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" t="s">
         <v>111</v>
       </c>
-      <c r="F21" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>24</v>
-      </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" t="s">
-        <v>114</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M21" t="s"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="n">
@@ -1751,37 +1755,37 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>44154.6829627526</v>
+        <v>44154.70976986526</v>
       </c>
       <c r="D22" t="n">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="E22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" t="s">
         <v>115</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
         <v>116</v>
-      </c>
-      <c r="G22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" t="s">
-        <v>118</v>
-      </c>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1792,34 +1796,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>44154.68356502741</v>
+        <v>44154.71052580474</v>
       </c>
       <c r="D23" t="n">
-        <v>1924</v>
+        <v>1446</v>
       </c>
       <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" t="s">
         <v>120</v>
       </c>
-      <c r="F23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" t="s">
-        <v>123</v>
-      </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M23" t="s"/>
     </row>
@@ -1831,34 +1835,34 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>44154.68416406009</v>
+        <v>44154.71083821766</v>
       </c>
       <c r="D24" t="n">
-        <v>3611</v>
+        <v>1516</v>
       </c>
       <c r="E24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" t="s">
         <v>124</v>
       </c>
-      <c r="F24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" t="s">
-        <v>127</v>
-      </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="J24" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K24" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M24" t="s"/>
     </row>
@@ -1870,36 +1874,38 @@
         <v>12</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>44154.68457054679</v>
+        <v>44154.71164582957</v>
       </c>
       <c r="D25" t="n">
-        <v>1065</v>
+        <v>1975</v>
       </c>
       <c r="E25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" t="s">
         <v>128</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" t="s">
         <v>129</v>
       </c>
-      <c r="G25" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" t="s"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="n">
@@ -1909,34 +1915,34 @@
         <v>12</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>44154.68556002568</v>
+        <v>44154.71525582059</v>
       </c>
       <c r="D26" t="n">
-        <v>2475</v>
+        <v>1508</v>
       </c>
       <c r="E26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" t="s">
         <v>132</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>133</v>
       </c>
-      <c r="G26" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" t="s">
-        <v>135</v>
-      </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K26" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L26" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M26" t="s"/>
     </row>
@@ -1948,34 +1954,34 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>44154.68630527492</v>
+        <v>44154.71736768984</v>
       </c>
       <c r="D27" t="n">
-        <v>3042</v>
+        <v>2973</v>
       </c>
       <c r="E27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" t="s">
         <v>136</v>
       </c>
-      <c r="F27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" t="s">
-        <v>138</v>
-      </c>
       <c r="H27" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M27" t="s"/>
     </row>
@@ -1987,34 +1993,34 @@
         <v>12</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>44154.68673292911</v>
+        <v>44154.71784644274</v>
       </c>
       <c r="D28" t="n">
-        <v>1903</v>
+        <v>2202</v>
       </c>
       <c r="E28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" t="s">
         <v>140</v>
       </c>
-      <c r="F28" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" t="s">
-        <v>142</v>
-      </c>
-      <c r="H28" t="s">
-        <v>143</v>
-      </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M28" t="s"/>
     </row>
@@ -2026,34 +2032,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>44154.68780035542</v>
+        <v>44154.71844951768</v>
       </c>
       <c r="D29" t="n">
-        <v>615</v>
+        <v>3156</v>
       </c>
       <c r="E29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" t="s">
         <v>144</v>
       </c>
-      <c r="F29" t="s">
-        <v>145</v>
-      </c>
-      <c r="G29" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" t="s">
-        <v>147</v>
-      </c>
       <c r="I29" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M29" t="s"/>
     </row>
@@ -2065,34 +2071,34 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>44154.68797761508</v>
+        <v>44154.71885400152</v>
       </c>
       <c r="D30" t="n">
-        <v>3195</v>
+        <v>2881</v>
       </c>
       <c r="E30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" t="s">
         <v>148</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
         <v>149</v>
       </c>
-      <c r="G30" t="s">
-        <v>150</v>
-      </c>
-      <c r="H30" t="s">
-        <v>151</v>
-      </c>
-      <c r="I30" t="s">
-        <v>41</v>
-      </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M30" t="s"/>
     </row>
@@ -2104,36 +2110,38 @@
         <v>12</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>44154.68839364973</v>
+        <v>44154.71972351275</v>
       </c>
       <c r="D31" t="n">
-        <v>3134</v>
+        <v>3034</v>
       </c>
       <c r="E31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" t="s">
         <v>152</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>153</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" t="s">
         <v>154</v>
       </c>
-      <c r="H31" t="s">
-        <v>155</v>
-      </c>
-      <c r="I31" t="s">
-        <v>31</v>
-      </c>
-      <c r="J31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31" t="s">
-        <v>74</v>
-      </c>
-      <c r="L31" t="s">
-        <v>19</v>
-      </c>
-      <c r="M31" t="s"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="n">
@@ -2143,34 +2151,34 @@
         <v>12</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>44154.68914657631</v>
+        <v>44154.72165902219</v>
       </c>
       <c r="D32" t="n">
-        <v>1023</v>
+        <v>986</v>
       </c>
       <c r="E32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" t="s">
         <v>156</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>157</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>158</v>
       </c>
-      <c r="H32" t="s">
-        <v>159</v>
-      </c>
       <c r="I32" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M32" t="s"/>
     </row>
@@ -2182,38 +2190,36 @@
         <v>12</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>44154.68949500634</v>
+        <v>44154.72335130918</v>
       </c>
       <c r="D33" t="n">
-        <v>3395</v>
+        <v>2031</v>
       </c>
       <c r="E33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" t="s">
         <v>160</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>161</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>162</v>
       </c>
-      <c r="H33" t="s">
-        <v>163</v>
-      </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="L33" t="s">
-        <v>19</v>
-      </c>
-      <c r="M33" t="s">
-        <v>164</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="M33" t="s"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="n">
@@ -2223,38 +2229,36 @@
         <v>12</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>44154.68986455681</v>
+        <v>44154.72369153163</v>
       </c>
       <c r="D34" t="n">
-        <v>1760</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" t="s">
         <v>165</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>166</v>
       </c>
-      <c r="G34" t="s">
-        <v>167</v>
-      </c>
-      <c r="H34" t="s">
-        <v>168</v>
-      </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L34" t="s">
-        <v>19</v>
-      </c>
-      <c r="M34" t="s">
-        <v>169</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M34" t="s"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="n">
@@ -2264,34 +2268,34 @@
         <v>12</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>44154.69036902675</v>
+        <v>44154.72404719206</v>
       </c>
       <c r="D35" t="n">
-        <v>1995</v>
+        <v>533</v>
       </c>
       <c r="E35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" t="s">
+        <v>169</v>
+      </c>
+      <c r="H35" t="s">
         <v>170</v>
       </c>
-      <c r="F35" t="s">
-        <v>171</v>
-      </c>
-      <c r="G35" t="s">
-        <v>172</v>
-      </c>
-      <c r="H35" t="s">
-        <v>173</v>
-      </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J35" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L35" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M35" t="s"/>
     </row>
@@ -2303,36 +2307,75 @@
         <v>12</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>44154.69077488331</v>
+        <v>44154.72488016787</v>
       </c>
       <c r="D36" t="n">
-        <v>440</v>
+        <v>3716</v>
       </c>
       <c r="E36" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36" t="s">
         <v>174</v>
       </c>
-      <c r="F36" t="s">
+      <c r="I36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" t="s">
+        <v>90</v>
+      </c>
+      <c r="K36" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" t="s">
+        <v>45</v>
+      </c>
+      <c r="M36" t="s"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>44154.72557752616</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2974</v>
+      </c>
+      <c r="E37" t="s">
         <v>175</v>
       </c>
-      <c r="G36" t="s">
+      <c r="F37" t="s">
         <v>176</v>
       </c>
-      <c r="H36" t="s">
+      <c r="G37" t="s">
         <v>177</v>
       </c>
-      <c r="I36" t="s">
-        <v>25</v>
-      </c>
-      <c r="J36" t="s">
-        <v>42</v>
-      </c>
-      <c r="K36" t="s">
-        <v>74</v>
-      </c>
-      <c r="L36" t="s">
-        <v>19</v>
-      </c>
-      <c r="M36" t="s"/>
+      <c r="H37" t="s">
+        <v>178</v>
+      </c>
+      <c r="I37" t="s">
+        <v>179</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -56,355 +56,319 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Green Day “Wake Me Up When September Ends” Live on the Howard Stern Show</t>
-  </si>
-  <si>
-    <t>GRCm6D1YJno</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GRCm6D1YJno</t>
-  </si>
-  <si>
-    <t>The Howard Stern Show</t>
+    <t>Electronic Cigarettes and Vaping</t>
+  </si>
+  <si>
+    <t>9dZS_Rniak0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9dZS_Rniak0</t>
+  </si>
+  <si>
+    <t>David Geffen School of Medicine UCLA</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>My blu rewick refill hack!!my blu refillable pod system hack</t>
+  </si>
+  <si>
+    <t>Ug2to8Kl9Dk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ug2to8Kl9Dk</t>
+  </si>
+  <si>
+    <t>Geremy</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Top 3 Vaping Starter Kits of 2019 For The First Time Vaper</t>
+  </si>
+  <si>
+    <t>95G_S4MGls8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=95G_S4MGls8</t>
+  </si>
+  <si>
+    <t>FlavourVapour</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaping blog </t>
+  </si>
+  <si>
+    <t>Juul Pods vs Jones Pods</t>
+  </si>
+  <si>
+    <t>R6woXxjYdEA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R6woXxjYdEA</t>
+  </si>
+  <si>
+    <t>LiamsGhosts</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Britney Spears - Till The World Ends (Official Video)</t>
+  </si>
+  <si>
+    <t>qzU9OrZlKb8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qzU9OrZlKb8</t>
+  </si>
+  <si>
+    <t>BritneySpearsVEVO</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>9</t>
+    <t xml:space="preserve">britney spears song </t>
+  </si>
+  <si>
+    <t>Michigan Bans Flavored E-Cigarettes, Vaping Products | Morning Joe | MSNBC</t>
+  </si>
+  <si>
+    <t>jEXOyAt36sM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jEXOyAt36sM</t>
+  </si>
+  <si>
+    <t>MSNBC</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green day on howard stern show </t>
-  </si>
-  <si>
-    <t>How To Quit Smoking w/ E-Cigs! (2 months smoke free!)</t>
-  </si>
-  <si>
-    <t>MgsQ0eglX5o</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MgsQ0eglX5o</t>
-  </si>
-  <si>
-    <t>Jacquelyn Lovene</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>flair vapor salt nic disposable</t>
-  </si>
-  <si>
-    <t>_2mJb-XzurI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_2mJb-XzurI</t>
-  </si>
-  <si>
-    <t>Timmerz</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Minecraft: Shulker Box Viewer Tutorial (Mod Showcase)</t>
-  </si>
-  <si>
-    <t>fJgoRbePneE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fJgoRbePneE</t>
-  </si>
-  <si>
-    <t>xisumavoid</t>
-  </si>
-  <si>
-    <t>What's Inside NutroVape Disposable Vape - Does it Work?</t>
-  </si>
-  <si>
-    <t>4ZyF6Pc9PkM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4ZyF6Pc9PkM</t>
-  </si>
-  <si>
-    <t>Brandon Geekabit</t>
-  </si>
-  <si>
-    <t>Are E-Cigs Safer?</t>
-  </si>
-  <si>
-    <t>XvBVevkb5PU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XvBVevkb5PU</t>
-  </si>
-  <si>
-    <t>Seeker</t>
-  </si>
-  <si>
-    <t>Ten Motives Disposable Menthol E-Cig - £2</t>
-  </si>
-  <si>
-    <t>HG95cVn6ggs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HG95cVn6ggs</t>
-  </si>
-  <si>
-    <t>Green Winch</t>
-  </si>
-  <si>
-    <t>Pod Mod for DL? Vaporesso Target PM80 AIO</t>
-  </si>
-  <si>
-    <t>RreIUctjMCY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RreIUctjMCY</t>
-  </si>
-  <si>
-    <t>Wendy Vapes</t>
-  </si>
-  <si>
-    <t>Everything You Need to Know About Vape Pens | The Hist List</t>
-  </si>
-  <si>
-    <t>9wWq-z15MGc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9wWq-z15MGc</t>
-  </si>
-  <si>
-    <t>Civilized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cannabis website reviews and information </t>
-  </si>
-  <si>
-    <t>My New Favorite Pod? The Caliburn Pod Vape By Uwell Review</t>
-  </si>
-  <si>
-    <t>y-c3Kx-MGqY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y-c3Kx-MGqY</t>
-  </si>
-  <si>
-    <t>Mike Vapes</t>
-  </si>
-  <si>
-    <t>TOP 10 BEST VAPE JUICES FOR 2019</t>
-  </si>
-  <si>
-    <t>4ur7HkfdqyQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4ur7HkfdqyQ</t>
-  </si>
-  <si>
-    <t>Vaping Insider</t>
-  </si>
-  <si>
-    <t>vape review website</t>
-  </si>
-  <si>
-    <t>TOP 10 BEST VAPE MODS FOR 2019 - VAPING INSIDER</t>
-  </si>
-  <si>
-    <t>zkQMkvmDFIk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zkQMkvmDFIk</t>
-  </si>
-  <si>
-    <t>A pod that creates no clouds? Smokeless Pod? Lets see!! [Giveaway 3 units Smokeless Pod 1.0]</t>
-  </si>
-  <si>
-    <t>oo_pn-2Laxs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oo_pn-2Laxs</t>
-  </si>
-  <si>
-    <t>Adrian Lo Dejavu</t>
-  </si>
-  <si>
-    <t>giveaway in title</t>
-  </si>
-  <si>
-    <t>DomPen disposable vape review</t>
-  </si>
-  <si>
-    <t>qP1puqKW7Yo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qP1puqKW7Yo</t>
-  </si>
-  <si>
-    <t>Casa de Mota</t>
-  </si>
-  <si>
-    <t>Blu Cig Disposable Review - Good For Last Minute Running Out....</t>
-  </si>
-  <si>
-    <t>NlGb6yJmYb0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NlGb6yJmYb0</t>
-  </si>
-  <si>
-    <t>E Cigarette Now</t>
-  </si>
-  <si>
-    <t>Tobacco Product Compliance Policy: Updates for Importers</t>
-  </si>
-  <si>
-    <t>l8wMPh_jRYY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=l8wMPh_jRYY</t>
-  </si>
-  <si>
-    <t>U.S. Food and Drug Administration</t>
-  </si>
-  <si>
-    <t>US FDA video about importing tobacco products</t>
-  </si>
-  <si>
-    <t>Micro soldering iron made from electronic cigarette</t>
-  </si>
-  <si>
-    <t>-zuaKWpuAfc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-zuaKWpuAfc</t>
-  </si>
-  <si>
-    <t>Kasyan TV</t>
-  </si>
-  <si>
-    <t>3 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turning ecig into soldering iron </t>
-  </si>
-  <si>
-    <t>Hooligan Box Mod ~ Series / unregulated ~ SeamTingleCoil</t>
-  </si>
-  <si>
-    <t>O3oq3rBGK-c</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=O3oq3rBGK-c</t>
-  </si>
-  <si>
-    <t>GrimmGreen</t>
-  </si>
-  <si>
-    <t>TOP 10 BEST SALT NIC JUICES FOR 2020 - [50+ NIC SALT JUICES TESTED]</t>
-  </si>
-  <si>
-    <t>WHFNhOkFh10</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WHFNhOkFh10</t>
-  </si>
-  <si>
-    <t>DMT Vape Pens (Pros &amp; Cons) *My Thoughts*</t>
-  </si>
-  <si>
-    <t>iiMVNYAVfQo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iiMVNYAVfQo</t>
-  </si>
-  <si>
-    <t>DeNightDimension</t>
+    <t>How to make a wood Box mod</t>
+  </si>
+  <si>
+    <t>SumuheWfDkw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SumuheWfDkw</t>
+  </si>
+  <si>
+    <t>How To Do</t>
+  </si>
+  <si>
+    <t>Reloading Kodak Disposable Camera</t>
+  </si>
+  <si>
+    <t>lB8YOEYRGrs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lB8YOEYRGrs</t>
+  </si>
+  <si>
+    <t>Alexander B Spencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disposable camera review </t>
+  </si>
+  <si>
+    <t>Better than the Juul Mango Pods!? | DonnySmokes</t>
+  </si>
+  <si>
+    <t>o4XhZo_425s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o4XhZo_425s</t>
+  </si>
+  <si>
+    <t>Donny Vapes</t>
+  </si>
+  <si>
+    <t>How to Hack a Blu E cigarette if the battery goes out</t>
+  </si>
+  <si>
+    <t>GZLhNcOyOl8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GZLhNcOyOl8</t>
+  </si>
+  <si>
+    <t>Atradies Inc.</t>
+  </si>
+  <si>
+    <t>Let's Mix: Kings Custard (DIY E-liquid Recipes)</t>
+  </si>
+  <si>
+    <t>yJjA8qaxx3A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yJjA8qaxx3A</t>
+  </si>
+  <si>
+    <t>DIY or DIE</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>diy vape juice blog website</t>
+  </si>
+  <si>
+    <t>The BIGGEST and BEST "Pod Mod"?!?! Smok RPM 160 Review! VapingwithTwisted420 (Cloudy)</t>
+  </si>
+  <si>
+    <t>vcSiGxKbfFA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcSiGxKbfFA</t>
+  </si>
+  <si>
+    <t>VapingwithTwisted420</t>
+  </si>
+  <si>
+    <t>BRAND NEW VAPO BY VAPORTECH- DISPOSABLE E-CIG</t>
+  </si>
+  <si>
+    <t>OtjJ_0fX5xc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OtjJ_0fX5xc</t>
+  </si>
+  <si>
+    <t>Sammy Trenser</t>
+  </si>
+  <si>
+    <t>The Frii Disposable Menthol Disposable E-Cig Review</t>
+  </si>
+  <si>
+    <t>QiKfD9hiXgE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QiKfD9hiXgE</t>
+  </si>
+  <si>
+    <t>Bill Prater</t>
+  </si>
+  <si>
+    <t>E-cigarettes are harmful to your immune system and lungs</t>
+  </si>
+  <si>
+    <t>8qp0iqDCP3I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8qp0iqDCP3I</t>
+  </si>
+  <si>
+    <t>Hashem Al-Ghaili</t>
+  </si>
+  <si>
+    <t>What We Don't Know about E-Cigs</t>
+  </si>
+  <si>
+    <t>n6hH-PQ7Ct8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n6hH-PQ7Ct8</t>
+  </si>
+  <si>
+    <t>SciShow</t>
+  </si>
+  <si>
+    <t>science channel (hank green)</t>
+  </si>
+  <si>
+    <t>Questions to ask at the End of an Interview | Career Interview Tips</t>
+  </si>
+  <si>
+    <t>EbA5rzpSWLM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EbA5rzpSWLM</t>
+  </si>
+  <si>
+    <t>Cass Thompson Career Advice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interview help </t>
+  </si>
+  <si>
+    <t>What you need to know about vaping</t>
+  </si>
+  <si>
+    <t>n2ClQtfmk4M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n2ClQtfmk4M</t>
+  </si>
+  <si>
+    <t>UW Medicine</t>
+  </si>
+  <si>
+    <t>Health effects of Vaping and E-cigarette use, what is known thus far</t>
+  </si>
+  <si>
+    <t>AENLOJ6fbFY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AENLOJ6fbFY</t>
+  </si>
+  <si>
+    <t>Distinctive Voices</t>
+  </si>
+  <si>
+    <t>1 6</t>
+  </si>
+  <si>
+    <t>OKR-T30 DIY Box Mod (Passthrough) Build</t>
+  </si>
+  <si>
+    <t>4BMMx6iRyew</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4BMMx6iRyew</t>
+  </si>
+  <si>
+    <t>Analog Box Mods</t>
+  </si>
+  <si>
+    <t>Can a disposable e-cigar be refilled and recharged?</t>
+  </si>
+  <si>
+    <t>G17KPN9Zy5Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G17KPN9Zy5Q</t>
+  </si>
+  <si>
+    <t>bigclivedotcom</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>thoughts about a dmt vape pen</t>
-  </si>
-  <si>
-    <t>Square Smoke's disposable 'XL' ego style ecig!</t>
-  </si>
-  <si>
-    <t>7Ba30CMxmY8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7Ba30CMxmY8</t>
-  </si>
-  <si>
-    <t>E-Cigarette Intelligence</t>
-  </si>
-  <si>
-    <t>Pet Shop Boys - West End Girls (Official Video) [HD REMASTERED]</t>
-  </si>
-  <si>
-    <t>p3j2NYZ8FKs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=p3j2NYZ8FKs</t>
-  </si>
-  <si>
-    <t>PetShopBoys Parlophone</t>
-  </si>
-  <si>
-    <t>Fruit Monster E Liquid Review</t>
-  </si>
-  <si>
-    <t>RhZ0w3VJVrs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RhZ0w3VJVrs</t>
-  </si>
-  <si>
-    <t>FlavourVapour</t>
-  </si>
-  <si>
-    <t>My Favourite Pod System | 2019</t>
-  </si>
-  <si>
-    <t>f0CzTYAQ7bM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f0CzTYAQ7bM</t>
-  </si>
-  <si>
-    <t>Jay Jupiter</t>
-  </si>
-  <si>
-    <t>Rip Trippers Rainbow Nuggets Spotlight Juice Review - E Cig City Reviews &amp; Tutorials</t>
-  </si>
-  <si>
-    <t>XSDQptV4Y5o</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XSDQptV4Y5o</t>
-  </si>
-  <si>
-    <t>E Cig City UK</t>
+    <t>electronic cigar</t>
   </si>
 </sst>
 </file>
@@ -757,7 +721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,10 +775,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44154.77216884616</v>
+        <v>44155.73170660085</v>
       </c>
       <c r="D2" t="n">
-        <v>1765</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -838,11 +802,9 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M2" t="s"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="n">
@@ -852,34 +814,34 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44154.77410749242</v>
+        <v>44155.732383141</v>
       </c>
       <c r="D3" t="n">
-        <v>2940</v>
+        <v>987</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s"/>
     </row>
@@ -891,36 +853,38 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44154.77493980046</v>
+        <v>44155.73315965265</v>
       </c>
       <c r="D4" t="n">
-        <v>3744</v>
+        <v>2249</v>
       </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="n">
@@ -930,34 +894,34 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44154.7754489089</v>
+        <v>44155.73395746105</v>
       </c>
       <c r="D5" t="n">
-        <v>3469</v>
+        <v>666</v>
       </c>
       <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -969,36 +933,38 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44154.77620285247</v>
+        <v>44155.7342548639</v>
       </c>
       <c r="D6" t="n">
-        <v>1419</v>
+        <v>3088</v>
       </c>
       <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="n">
@@ -1008,34 +974,34 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44154.77733230958</v>
+        <v>44155.73473485712</v>
       </c>
       <c r="D7" t="n">
-        <v>2861</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s"/>
     </row>
@@ -1047,34 +1013,34 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44154.77845812363</v>
+        <v>44155.73540617069</v>
       </c>
       <c r="D8" t="n">
-        <v>229</v>
+        <v>864</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" t="s"/>
     </row>
@@ -1086,36 +1052,38 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44154.77909887183</v>
+        <v>44155.73567726698</v>
       </c>
       <c r="D9" t="n">
-        <v>1277</v>
+        <v>1644</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="n">
@@ -1125,38 +1093,36 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44154.78025190128</v>
+        <v>44155.73785228613</v>
       </c>
       <c r="D10" t="n">
-        <v>1136</v>
+        <v>737</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
       <c r="L10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" t="s">
-        <v>60</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="M10" t="s"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="n">
@@ -1166,34 +1132,34 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44154.78865254683</v>
+        <v>44155.73837494401</v>
       </c>
       <c r="D11" t="n">
-        <v>768</v>
+        <v>3379</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s"/>
     </row>
@@ -1205,37 +1171,37 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44154.79067495037</v>
+        <v>44155.73969543621</v>
       </c>
       <c r="D12" t="n">
-        <v>445</v>
+        <v>3246</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="M12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1246,34 +1212,34 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44154.79188466499</v>
+        <v>44155.74013663828</v>
       </c>
       <c r="D13" t="n">
-        <v>794</v>
+        <v>1297</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M13" t="s"/>
     </row>
@@ -1285,38 +1251,36 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44154.79298895962</v>
+        <v>44155.74047944992</v>
       </c>
       <c r="D14" t="n">
-        <v>1948</v>
+        <v>1555</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" t="s">
-        <v>77</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M14" t="s"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="n">
@@ -1326,34 +1290,34 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44154.79340069235</v>
+        <v>44155.74120950996</v>
       </c>
       <c r="D15" t="n">
-        <v>1429</v>
+        <v>1536</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M15" t="s"/>
     </row>
@@ -1365,34 +1329,34 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44154.79398876343</v>
+        <v>44155.74188298043</v>
       </c>
       <c r="D16" t="n">
-        <v>1511</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16" t="s"/>
     </row>
@@ -1404,37 +1368,37 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44154.79457364119</v>
+        <v>44155.74249111758</v>
       </c>
       <c r="D17" t="n">
-        <v>2860</v>
+        <v>222</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
         <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1445,37 +1409,37 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44154.79515041466</v>
+        <v>44155.74277087588</v>
       </c>
       <c r="D18" t="n">
-        <v>2376</v>
+        <v>3216</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1486,34 +1450,34 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44154.79556157749</v>
+        <v>44155.74296745592</v>
       </c>
       <c r="D19" t="n">
-        <v>1997</v>
+        <v>3110</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M19" t="s"/>
     </row>
@@ -1525,38 +1489,36 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44154.79606213693</v>
+        <v>44155.74395903489</v>
       </c>
       <c r="D20" t="n">
-        <v>595</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="J20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" t="s">
-        <v>69</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M20" t="s"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="n">
@@ -1566,38 +1528,36 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44154.79688260754</v>
+        <v>44155.744287699</v>
       </c>
       <c r="D21" t="n">
-        <v>3715</v>
+        <v>1022</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" t="s">
-        <v>109</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="M21" t="s"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="n">
@@ -1607,194 +1567,38 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>44154.79758924521</v>
+        <v>44155.74493397953</v>
       </c>
       <c r="D22" t="n">
-        <v>3369</v>
+        <v>1466</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="K22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" t="s"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>44154.79803196173</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1824</v>
-      </c>
-      <c r="E23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s">
         <v>117</v>
       </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" t="s"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>44154.79845531714</v>
-      </c>
-      <c r="D24" t="n">
-        <v>583</v>
-      </c>
-      <c r="E24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>44154.79909992321</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1271</v>
-      </c>
-      <c r="E25" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" t="s">
-        <v>125</v>
-      </c>
-      <c r="I25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" t="s"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>44154.800077663</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1869</v>
-      </c>
-      <c r="E26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" t="s">
-        <v>127</v>
-      </c>
-      <c r="G26" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" t="s">
-        <v>129</v>
-      </c>
-      <c r="I26" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -56,124 +56,28 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Exploring the secret world of vaporizer tricks and mods</t>
-  </si>
-  <si>
-    <t>wqplhtADAzc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wqplhtADAzc</t>
-  </si>
-  <si>
-    <t>The Verge</t>
-  </si>
-  <si>
-    <t>1 3 7</t>
-  </si>
-  <si>
-    <t>1 3</t>
+    <t>Disposable VapePen Mandarin Cookies Muv Fl Mmj Review</t>
+  </si>
+  <si>
+    <t>0XpLgSjDvvU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0XpLgSjDvvU</t>
+  </si>
+  <si>
+    <t>Tokingtim420</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>tech review conglomorate</t>
-  </si>
-  <si>
-    <t>Vaping Valerian Root in Your Ascent Vaporizer - You Can Vape What?!</t>
-  </si>
-  <si>
-    <t>8t8shEaXkH8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8t8shEaXkH8</t>
-  </si>
-  <si>
-    <t>DaVinci Vaporizer</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>dry herb vape</t>
-  </si>
-  <si>
-    <t>Tutorial - How to Refill your Electronic Cigarette</t>
-  </si>
-  <si>
-    <t>-fPrR_A66vg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fPrR_A66vg</t>
-  </si>
-  <si>
-    <t>blu UK</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>vape pen manufacturer (blu)</t>
-  </si>
-  <si>
-    <t>Elton John - Club At The End Of The Street</t>
-  </si>
-  <si>
-    <t>m34NGreosnE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m34NGreosnE</t>
-  </si>
-  <si>
-    <t>EltonJohnVEVO</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>$15 Vape Juice vs. $500 Vape Juice</t>
-  </si>
-  <si>
-    <t>bWcTXkyEarQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bWcTXkyEarQ</t>
-  </si>
-  <si>
-    <t>Ryan Hall</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>VooPoo Vinci 40W Mod Pod - Unboxing &amp; Review</t>
-  </si>
-  <si>
-    <t>1-8tSpGbYCo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1-8tSpGbYCo</t>
-  </si>
-  <si>
-    <t>180 SMOKE VAPE STORE</t>
   </si>
 </sst>
 </file>
@@ -526,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,10 +484,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44159.74467407673</v>
+        <v>44159.75188457645</v>
       </c>
       <c r="D2" t="n">
-        <v>3276</v>
+        <v>3376</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -609,208 +513,7 @@
       <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>44159.74606818341</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2253</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>44159.74687034133</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3098</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>44159.74722585585</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2345</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>44159.74879220389</v>
-      </c>
-      <c r="D6" t="n">
-        <v>513</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" t="s"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>44159.7493945417</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1256</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" t="s"/>
+      <c r="M2" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -56,28 +56,166 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Disposable VapePen Mandarin Cookies Muv Fl Mmj Review</t>
-  </si>
-  <si>
-    <t>0XpLgSjDvvU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0XpLgSjDvvU</t>
-  </si>
-  <si>
-    <t>Tokingtim420</t>
+    <t>The Dangers of Vaping</t>
+  </si>
+  <si>
+    <t>ud0pkqhxOJY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ud0pkqhxOJY</t>
+  </si>
+  <si>
+    <t>Lee Health</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Disposable Camera Effect - Lightroom Mobile Presets Free DNG</t>
+  </si>
+  <si>
+    <t>NANr3tJ64Qw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NANr3tJ64Qw</t>
+  </si>
+  <si>
+    <t>AR Editing</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Vaping Review of Vaporesso Target 75 VTC electronic cigarette, from Rip</t>
+  </si>
+  <si>
+    <t>t2aNdj8EJJw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t2aNdj8EJJw</t>
+  </si>
+  <si>
+    <t>Vaporesso</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>PURE VAPE FRUIT EXPLOSION DISPOSABLE VAPE PEN REVIEW 2018</t>
+  </si>
+  <si>
+    <t>CqUezg6jj2c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CqUezg6jj2c</t>
+  </si>
+  <si>
+    <t>FIRST TIME PATIENT</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
+    <t>Quit Smoking Cigarettes With An E Cig? Replacing Tobacco</t>
+  </si>
+  <si>
+    <t>SOP-m6qoNUM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SOP-m6qoNUM</t>
+  </si>
+  <si>
+    <t>Cynical Mikey</t>
+  </si>
+  <si>
+    <t>1 7</t>
+  </si>
+  <si>
+    <t>Select Live Resin Desert Lime - Cartridge Review</t>
+  </si>
+  <si>
+    <t>h8XduReVYPA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h8XduReVYPA</t>
+  </si>
+  <si>
+    <t>StonedDumpling</t>
+  </si>
+  <si>
+    <t>0 5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>☁ Alternativ E-liquid line by Marina Vape ☞ Reviewed ☜ by Deviated Septum ☁</t>
+  </si>
+  <si>
+    <t>WXhrcezSM44</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WXhrcezSM44</t>
+  </si>
+  <si>
+    <t>Cloud Theorem</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>E-cigarettes are the best way to quit smoking.</t>
+  </si>
+  <si>
+    <t>lr8PpGHcVm4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lr8PpGHcVm4</t>
+  </si>
+  <si>
+    <t>DashVapes</t>
+  </si>
+  <si>
+    <t>SMOKO Starter Kit</t>
+  </si>
+  <si>
+    <t>mN9fakBpM94</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mN9fakBpM94</t>
+  </si>
+  <si>
+    <t>EcigsUK</t>
+  </si>
+  <si>
+    <t>0 2</t>
+  </si>
+  <si>
+    <t>John Prine - Summer's End Lyric Video</t>
+  </si>
+  <si>
+    <t>9XLaIFTmJF8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9XLaIFTmJF8</t>
+  </si>
+  <si>
+    <t>John Prine</t>
   </si>
 </sst>
 </file>
@@ -430,7 +568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,10 +622,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44159.75188457645</v>
+        <v>44159.75336379648</v>
       </c>
       <c r="D2" t="n">
-        <v>3376</v>
+        <v>3058</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -511,9 +649,360 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44159.75352132169</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2095</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s"/>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44159.75489727724</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2384</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44159.75527634136</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3018</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44159.75629989937</v>
+      </c>
+      <c r="D6" t="n">
+        <v>237</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44159.75682740764</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2378</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44159.7574700803</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3660</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44159.75843941289</v>
+      </c>
+      <c r="D9" t="n">
+        <v>228</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44159.75925945175</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2631</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44159.75952258801</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1821</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -56,166 +56,166 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>The Dangers of Vaping</t>
-  </si>
-  <si>
-    <t>ud0pkqhxOJY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ud0pkqhxOJY</t>
-  </si>
-  <si>
-    <t>Lee Health</t>
+    <t>Pure Vape Raspberry Twist Disposable Review</t>
+  </si>
+  <si>
+    <t>f3EzAhWDQCo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f3EzAhWDQCo</t>
+  </si>
+  <si>
+    <t>Weeats Reviews</t>
+  </si>
+  <si>
+    <t>0 5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>POSH Disposable vape kit review!! Is Vaping better??</t>
+  </si>
+  <si>
+    <t>1A2C6qL7Mt0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1A2C6qL7Mt0</t>
+  </si>
+  <si>
+    <t>DG Amiri</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Best Vape Pen for Nic Salt in 2019? | VapeOnly vPipe Mini</t>
+  </si>
+  <si>
+    <t>3sCCKXpEG8M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3sCCKXpEG8M</t>
+  </si>
+  <si>
+    <t>HeavenGifts Official</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>DIY E-Liquid Recipe Development</t>
+  </si>
+  <si>
+    <t>JDWyw7CIV8g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JDWyw7CIV8g</t>
+  </si>
+  <si>
+    <t>New Amsterdam Vape</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>Waterproof Tube Mod? Trident Kit by Vandy Vape!</t>
+  </si>
+  <si>
+    <t>sRubxCbr9VA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sRubxCbr9VA</t>
+  </si>
+  <si>
+    <t>Matt From SMM</t>
+  </si>
+  <si>
+    <t>2 4</t>
+  </si>
+  <si>
+    <t>E-CIG EXPLOSIONS!!! - What The News Doesn't Tell You</t>
+  </si>
+  <si>
+    <t>hHCHrSKiTFY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hHCHrSKiTFY</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Disposable Camera Effect - Lightroom Mobile Presets Free DNG</t>
-  </si>
-  <si>
-    <t>NANr3tJ64Qw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NANr3tJ64Qw</t>
-  </si>
-  <si>
-    <t>AR Editing</t>
+    <t xml:space="preserve">talking about vape devices blowing up </t>
+  </si>
+  <si>
+    <t>Best Disposable Film Cameras</t>
+  </si>
+  <si>
+    <t>fanjl2McNy0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fanjl2McNy0</t>
+  </si>
+  <si>
+    <t>NegativeFeedback</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Vaping Review of Vaporesso Target 75 VTC electronic cigarette, from Rip</t>
-  </si>
-  <si>
-    <t>t2aNdj8EJJw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t2aNdj8EJJw</t>
-  </si>
-  <si>
-    <t>Vaporesso</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>PURE VAPE FRUIT EXPLOSION DISPOSABLE VAPE PEN REVIEW 2018</t>
-  </si>
-  <si>
-    <t>CqUezg6jj2c</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=CqUezg6jj2c</t>
-  </si>
-  <si>
-    <t>FIRST TIME PATIENT</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Quit Smoking Cigarettes With An E Cig? Replacing Tobacco</t>
-  </si>
-  <si>
-    <t>SOP-m6qoNUM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=SOP-m6qoNUM</t>
-  </si>
-  <si>
-    <t>Cynical Mikey</t>
-  </si>
-  <si>
-    <t>1 7</t>
-  </si>
-  <si>
-    <t>Select Live Resin Desert Lime - Cartridge Review</t>
-  </si>
-  <si>
-    <t>h8XduReVYPA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=h8XduReVYPA</t>
-  </si>
-  <si>
-    <t>StonedDumpling</t>
-  </si>
-  <si>
-    <t>0 5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>☁ Alternativ E-liquid line by Marina Vape ☞ Reviewed ☜ by Deviated Septum ☁</t>
-  </si>
-  <si>
-    <t>WXhrcezSM44</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WXhrcezSM44</t>
-  </si>
-  <si>
-    <t>Cloud Theorem</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>E-cigarettes are the best way to quit smoking.</t>
-  </si>
-  <si>
-    <t>lr8PpGHcVm4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lr8PpGHcVm4</t>
-  </si>
-  <si>
-    <t>DashVapes</t>
-  </si>
-  <si>
-    <t>SMOKO Starter Kit</t>
-  </si>
-  <si>
-    <t>mN9fakBpM94</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mN9fakBpM94</t>
-  </si>
-  <si>
-    <t>EcigsUK</t>
-  </si>
-  <si>
-    <t>0 2</t>
-  </si>
-  <si>
-    <t>John Prine - Summer's End Lyric Video</t>
-  </si>
-  <si>
-    <t>9XLaIFTmJF8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9XLaIFTmJF8</t>
-  </si>
-  <si>
-    <t>John Prine</t>
+    <t>disposable camera</t>
+  </si>
+  <si>
+    <t>Viggo Vape Pods Review</t>
+  </si>
+  <si>
+    <t>2ODFGL5PR7Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2ODFGL5PR7Q</t>
+  </si>
+  <si>
+    <t>Vape Fuse</t>
+  </si>
+  <si>
+    <t>VapeWild Employees Try Vape Pink E-Liquid For The First Time</t>
+  </si>
+  <si>
+    <t>IdOh4KSnlCQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IdOh4KSnlCQ</t>
+  </si>
+  <si>
+    <t>VapeWild</t>
+  </si>
+  <si>
+    <t>Vaping, Marijuana, and the Effects on the Adolescent Brain with Dr. Ruth Potee</t>
+  </si>
+  <si>
+    <t>25mK4yXzOkQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=25mK4yXzOkQ</t>
+  </si>
+  <si>
+    <t>1623 Studios</t>
   </si>
 </sst>
 </file>
@@ -622,10 +622,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44159.75336379648</v>
+        <v>44159.78244555804</v>
       </c>
       <c r="D2" t="n">
-        <v>3058</v>
+        <v>1396</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -649,7 +649,7 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s"/>
     </row>
@@ -661,34 +661,34 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44159.75352132169</v>
+        <v>44159.78293992684</v>
       </c>
       <c r="D3" t="n">
-        <v>2095</v>
+        <v>3171</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s"/>
     </row>
@@ -700,34 +700,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44159.75489727724</v>
+        <v>44159.78447659321</v>
       </c>
       <c r="D4" t="n">
-        <v>2384</v>
+        <v>3338</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s"/>
     </row>
@@ -739,34 +739,34 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44159.75527634136</v>
+        <v>44159.7849043309</v>
       </c>
       <c r="D5" t="n">
-        <v>3018</v>
+        <v>1905</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -778,34 +778,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44159.75629989937</v>
+        <v>44159.78544173385</v>
       </c>
       <c r="D6" t="n">
-        <v>237</v>
+        <v>874</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s"/>
     </row>
@@ -817,36 +817,38 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44159.75682740764</v>
+        <v>44159.78586815737</v>
       </c>
       <c r="D7" t="n">
-        <v>2378</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
         <v>47</v>
       </c>
       <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
         <v>48</v>
       </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" t="s"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="n">
@@ -856,10 +858,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44159.7574700803</v>
+        <v>44159.78620431689</v>
       </c>
       <c r="D8" t="n">
-        <v>3660</v>
+        <v>2096</v>
       </c>
       <c r="E8" t="s">
         <v>49</v>
@@ -874,18 +876,20 @@
         <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
@@ -895,34 +899,34 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44159.75843941289</v>
+        <v>44159.78680747255</v>
       </c>
       <c r="D9" t="n">
-        <v>228</v>
+        <v>669</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -934,34 +938,34 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44159.75925945175</v>
+        <v>44159.78729312109</v>
       </c>
       <c r="D10" t="n">
-        <v>2631</v>
+        <v>3030</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s"/>
     </row>
@@ -973,10 +977,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44159.75952258801</v>
+        <v>44159.78774577091</v>
       </c>
       <c r="D11" t="n">
-        <v>1821</v>
+        <v>403</v>
       </c>
       <c r="E11" t="s">
         <v>63</v>
@@ -991,16 +995,16 @@
         <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s"/>
     </row>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -56,166 +56,208 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Pure Vape Raspberry Twist Disposable Review</t>
-  </si>
-  <si>
-    <t>f3EzAhWDQCo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f3EzAhWDQCo</t>
-  </si>
-  <si>
-    <t>Weeats Reviews</t>
+    <t>Ingredients Used in E-Cigarettes</t>
+  </si>
+  <si>
+    <t>lZV3Zc5HPpM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lZV3Zc5HPpM</t>
+  </si>
+  <si>
+    <t>University of California Television (UCTV)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>GEN by Vaporesso - Mod Of The Year??</t>
+  </si>
+  <si>
+    <t>cmBavaPPj7c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cmBavaPPj7c</t>
+  </si>
+  <si>
+    <t>Matt From SMM</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Social-Lites Disposable E-cigs</t>
+  </si>
+  <si>
+    <t>hs--tLigzQY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hs--tLigzQY</t>
+  </si>
+  <si>
+    <t>Lee O Hare</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>E cigs: Ends, Means &amp; Distractions - Clive Bates</t>
+  </si>
+  <si>
+    <t>B_w7liRcdSI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B_w7liRcdSI</t>
+  </si>
+  <si>
+    <t>Jon Derricott</t>
+  </si>
+  <si>
+    <t>Best Oil Vape Pen &amp; Vapes by HoneyStick How To Chose Best Oil Vaporizer &amp; Oil Cartridge</t>
+  </si>
+  <si>
+    <t>Lok3M6al86Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lok3M6al86Y</t>
+  </si>
+  <si>
+    <t>VapeHoneyStick</t>
+  </si>
+  <si>
+    <t>0 5 7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>Wood Vape Squonk Box Mod Version 1 Full Mechanical (do it yourself)</t>
+  </si>
+  <si>
+    <t>W9FL3_GbawU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W9FL3_GbawU</t>
+  </si>
+  <si>
+    <t>Vapers Mind</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>HEAVYHITTERS DISPOSABLE VAPE PEN || MALIBU OG</t>
+  </si>
+  <si>
+    <t>JxJIoR3LXUI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JxJIoR3LXUI</t>
+  </si>
+  <si>
+    <t>BUD LEGEND</t>
   </si>
   <si>
     <t>0 5</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>POSH Disposable vape kit review!! Is Vaping better??</t>
-  </si>
-  <si>
-    <t>1A2C6qL7Mt0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1A2C6qL7Mt0</t>
-  </si>
-  <si>
-    <t>DG Amiri</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>Best Ecig 2017! The Mig 21Kit | Plus &amp; Purple ADE Ejuice! | IndoorSmokers</t>
+  </si>
+  <si>
+    <t>Qfg9_OmER-4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Qfg9_OmER-4</t>
+  </si>
+  <si>
+    <t>IndoorSmokers</t>
+  </si>
+  <si>
+    <t>2 4</t>
+  </si>
+  <si>
+    <t>FDA Bans Most Flavored E-Cigarette Cartridges | NBC Nightly News</t>
+  </si>
+  <si>
+    <t>pc7Un0WWAjc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pc7Un0WWAjc</t>
+  </si>
+  <si>
+    <t>NBC News</t>
+  </si>
+  <si>
+    <t>ESSENTIALS (Best disposable vape)</t>
+  </si>
+  <si>
+    <t>gYR95A9H8Jo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gYR95A9H8Jo</t>
+  </si>
+  <si>
+    <t>ChaseSmokes</t>
+  </si>
+  <si>
+    <t>How to Vape Trick Like a PRO!  UWELL 👑Crown Pod - Big Clouds</t>
+  </si>
+  <si>
+    <t>eo2KBwq1vbY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eo2KBwq1vbY</t>
+  </si>
+  <si>
+    <t>UWELL</t>
+  </si>
+  <si>
+    <t>4 7</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>Best Vape Pen for Nic Salt in 2019? | VapeOnly vPipe Mini</t>
-  </si>
-  <si>
-    <t>3sCCKXpEG8M</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3sCCKXpEG8M</t>
-  </si>
-  <si>
-    <t>HeavenGifts Official</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>DIY E-Liquid Recipe Development</t>
-  </si>
-  <si>
-    <t>JDWyw7CIV8g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JDWyw7CIV8g</t>
-  </si>
-  <si>
-    <t>New Amsterdam Vape</t>
-  </si>
-  <si>
-    <t>3 7</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>Waterproof Tube Mod? Trident Kit by Vandy Vape!</t>
-  </si>
-  <si>
-    <t>sRubxCbr9VA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sRubxCbr9VA</t>
-  </si>
-  <si>
-    <t>Matt From SMM</t>
-  </si>
-  <si>
-    <t>2 4</t>
-  </si>
-  <si>
-    <t>E-CIG EXPLOSIONS!!! - What The News Doesn't Tell You</t>
-  </si>
-  <si>
-    <t>hHCHrSKiTFY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hHCHrSKiTFY</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talking about vape devices blowing up </t>
-  </si>
-  <si>
-    <t>Best Disposable Film Cameras</t>
-  </si>
-  <si>
-    <t>fanjl2McNy0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fanjl2McNy0</t>
-  </si>
-  <si>
-    <t>NegativeFeedback</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>disposable camera</t>
-  </si>
-  <si>
-    <t>Viggo Vape Pods Review</t>
-  </si>
-  <si>
-    <t>2ODFGL5PR7Q</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2ODFGL5PR7Q</t>
-  </si>
-  <si>
-    <t>Vape Fuse</t>
-  </si>
-  <si>
-    <t>VapeWild Employees Try Vape Pink E-Liquid For The First Time</t>
-  </si>
-  <si>
-    <t>IdOh4KSnlCQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IdOh4KSnlCQ</t>
-  </si>
-  <si>
-    <t>VapeWild</t>
-  </si>
-  <si>
-    <t>Vaping, Marijuana, and the Effects on the Adolescent Brain with Dr. Ruth Potee</t>
-  </si>
-  <si>
-    <t>25mK4yXzOkQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=25mK4yXzOkQ</t>
-  </si>
-  <si>
-    <t>1623 Studios</t>
+    <t>uwell device manufacturer</t>
+  </si>
+  <si>
+    <t>Pilipinas Got Talent 2018 Auditions: JM Bayot - Vape Smoke Tricks</t>
+  </si>
+  <si>
+    <t>shKFOqZpcwc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=shKFOqZpcwc</t>
+  </si>
+  <si>
+    <t>Pilipinas Got Talent</t>
+  </si>
+  <si>
+    <t>talent show</t>
+  </si>
+  <si>
+    <t>VAPECCINO MATE ONE | GOLDEN COILS? BEST POD MOD OF 2017?</t>
+  </si>
+  <si>
+    <t>oHXNpiX3Oq8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oHXNpiX3Oq8</t>
+  </si>
+  <si>
+    <t>AVAndy</t>
   </si>
 </sst>
 </file>
@@ -568,7 +610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,10 +664,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44159.78244555804</v>
+        <v>44160.74067732663</v>
       </c>
       <c r="D2" t="n">
-        <v>1396</v>
+        <v>2364</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -649,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s"/>
     </row>
@@ -661,34 +703,34 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44159.78293992684</v>
+        <v>44160.74148675387</v>
       </c>
       <c r="D3" t="n">
-        <v>3171</v>
+        <v>776</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s"/>
     </row>
@@ -700,34 +742,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44159.78447659321</v>
+        <v>44160.74195029044</v>
       </c>
       <c r="D4" t="n">
-        <v>3338</v>
+        <v>1492</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s"/>
     </row>
@@ -739,34 +781,34 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44159.7849043309</v>
+        <v>44160.74251331812</v>
       </c>
       <c r="D5" t="n">
-        <v>1905</v>
+        <v>3284</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -778,34 +820,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44159.78544173385</v>
+        <v>44160.7437275296</v>
       </c>
       <c r="D6" t="n">
-        <v>874</v>
+        <v>2685</v>
       </c>
       <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
         <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
       </c>
       <c r="M6" t="s"/>
     </row>
@@ -817,38 +859,36 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44159.78586815737</v>
+        <v>44160.74409224457</v>
       </c>
       <c r="D7" t="n">
-        <v>190</v>
+        <v>2995</v>
       </c>
       <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>48</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M7" t="s"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="n">
@@ -858,38 +898,36 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44159.78620431689</v>
+        <v>44160.74450761466</v>
       </c>
       <c r="D8" t="n">
-        <v>2096</v>
+        <v>3737</v>
       </c>
       <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>51</v>
       </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
-      </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M8" t="s"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
@@ -899,34 +937,34 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44159.78680747255</v>
+        <v>44160.74542512543</v>
       </c>
       <c r="D9" t="n">
-        <v>669</v>
+        <v>992</v>
       </c>
       <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
         <v>56</v>
       </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>25</v>
       </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -938,34 +976,34 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44159.78729312109</v>
+        <v>44160.74594708042</v>
       </c>
       <c r="D10" t="n">
-        <v>3030</v>
+        <v>3608</v>
       </c>
       <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
         <v>59</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>62</v>
       </c>
       <c r="I10" t="s">
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M10" t="s"/>
     </row>
@@ -977,36 +1015,157 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44159.78774577091</v>
+        <v>44160.74647416603</v>
       </c>
       <c r="D11" t="n">
-        <v>403</v>
+        <v>2764</v>
       </c>
       <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
         <v>63</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>64</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44160.74758551837</v>
+      </c>
+      <c r="D12" t="n">
+        <v>442</v>
+      </c>
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="H11" t="s">
+      <c r="F12" t="s">
         <v>66</v>
       </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" t="s"/>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44160.74824410024</v>
+      </c>
+      <c r="D13" t="n">
+        <v>367</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44160.74878441598</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3359</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>Name</t>
   </si>
@@ -56,208 +56,382 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Ingredients Used in E-Cigarettes</t>
-  </si>
-  <si>
-    <t>lZV3Zc5HPpM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lZV3Zc5HPpM</t>
-  </si>
-  <si>
-    <t>University of California Television (UCTV)</t>
+    <t>Theo James &amp; Forest Whitaker Discuss The New Netflix Film, "How It Ends"</t>
+  </si>
+  <si>
+    <t>BjCSiTIVADA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BjCSiTIVADA</t>
+  </si>
+  <si>
+    <t>BUILD Series</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yahoo entertainment channel </t>
+  </si>
+  <si>
+    <t>How to RECHARGE Mr. Vapor Disposables (Easy)</t>
+  </si>
+  <si>
+    <t>qoylxiVv4Fc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qoylxiVv4Fc</t>
+  </si>
+  <si>
+    <t>PandaBearHugzz</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Ghostbusters Proton Pack N-Filter Venting Using E-Cig</t>
+  </si>
+  <si>
+    <t>EXkIaewQ1oA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EXkIaewQ1oA</t>
+  </si>
+  <si>
+    <t>Fincher Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uses ecig to make smoke effect in ghostbusters pack build </t>
+  </si>
+  <si>
+    <t>How I SUCCESSFULLY Quit Vaping/Nicotine | The EASY Way!</t>
+  </si>
+  <si>
+    <t>qpRBRNucDoE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qpRBRNucDoE</t>
+  </si>
+  <si>
+    <t>BMAC</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>GEN by Vaporesso - Mod Of The Year??</t>
-  </si>
-  <si>
-    <t>cmBavaPPj7c</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cmBavaPPj7c</t>
+    <t>How to fix Vuse Alto vape burnt pod</t>
+  </si>
+  <si>
+    <t>mRGiLJLCgIM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mRGiLJLCgIM</t>
+  </si>
+  <si>
+    <t>The Nerd Bar</t>
+  </si>
+  <si>
+    <t>What's Inside E-Liquid / E-Juice | NO.1 EJUICE UK</t>
+  </si>
+  <si>
+    <t>-Yulct0yjk8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-Yulct0yjk8</t>
+  </si>
+  <si>
+    <t>No.1 EJuice</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>VooPoo Made a Disposable?? SIXT-Q</t>
+  </si>
+  <si>
+    <t>uPr8_cpCgUI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uPr8_cpCgUI</t>
+  </si>
+  <si>
+    <t>Ryan Hall</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>How-To: Get the Most out of Your Oil Cartridge</t>
+  </si>
+  <si>
+    <t>_vGVnBIqGV8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_vGVnBIqGV8</t>
+  </si>
+  <si>
+    <t>Got Vape</t>
+  </si>
+  <si>
+    <t>5 7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>The Best Mint Disposable? Ono Bars</t>
+  </si>
+  <si>
+    <t>FEisl1GHFio</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FEisl1GHFio</t>
+  </si>
+  <si>
+    <t>Trump plans e-cigarette ban to combat teen vaping</t>
+  </si>
+  <si>
+    <t>jCwi6nDAiRk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jCwi6nDAiRk</t>
+  </si>
+  <si>
+    <t>Guardian News</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Ultrasonic Steeping For E-Liquid</t>
+  </si>
+  <si>
+    <t>6R068nmHyF8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6R068nmHyF8</t>
+  </si>
+  <si>
+    <t>Mike Murphy</t>
+  </si>
+  <si>
+    <t>Making your own E-JUICE!</t>
+  </si>
+  <si>
+    <t>pX2LUZO61rQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pX2LUZO61rQ</t>
+  </si>
+  <si>
+    <t>DashVapes</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>free starter kit</t>
+  </si>
+  <si>
+    <t>If I find another "guy!" the video ends | Mario Kart Wii</t>
+  </si>
+  <si>
+    <t>vDy0vCW7TD4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vDy0vCW7TD4</t>
+  </si>
+  <si>
+    <t>CreepyProduce</t>
+  </si>
+  <si>
+    <t>mario kart video</t>
+  </si>
+  <si>
+    <t>Exclusive Care Strain Review “Relief” 17:1 THC/CBD Disposable Vape Pen</t>
+  </si>
+  <si>
+    <t>IjrSQOmNbdg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IjrSQOmNbdg</t>
+  </si>
+  <si>
+    <t>Exclusive Care</t>
+  </si>
+  <si>
+    <t>0 5</t>
+  </si>
+  <si>
+    <t>C9V Disposable e-cig from Cloud 9 Vaping</t>
+  </si>
+  <si>
+    <t>q4h4ZJDZsEg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=q4h4ZJDZsEg</t>
+  </si>
+  <si>
+    <t>The Happy Vaper</t>
+  </si>
+  <si>
+    <t>How To use a Rechargeable E-Cigarette</t>
+  </si>
+  <si>
+    <t>myErk3-FCLs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=myErk3-FCLs</t>
+  </si>
+  <si>
+    <t>Veppo Vape Shop</t>
+  </si>
+  <si>
+    <t>Ellie Goulding, Juice WRLD - Hate Me (Official Video)</t>
+  </si>
+  <si>
+    <t>UZwi9SHgzGY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UZwi9SHgzGY</t>
+  </si>
+  <si>
+    <t>EllieGouldingVEVO</t>
+  </si>
+  <si>
+    <t>ellie goulding song</t>
+  </si>
+  <si>
+    <t>Aegis Solo by Geek Vape - Are Single 18650 Mods Back??</t>
+  </si>
+  <si>
+    <t>nUUB6GbST1A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nUUB6GbST1A</t>
   </si>
   <si>
     <t>Matt From SMM</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Social-Lites Disposable E-cigs</t>
-  </si>
-  <si>
-    <t>hs--tLigzQY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hs--tLigzQY</t>
-  </si>
-  <si>
-    <t>Lee O Hare</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>E cigs: Ends, Means &amp; Distractions - Clive Bates</t>
-  </si>
-  <si>
-    <t>B_w7liRcdSI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B_w7liRcdSI</t>
-  </si>
-  <si>
-    <t>Jon Derricott</t>
-  </si>
-  <si>
-    <t>Best Oil Vape Pen &amp; Vapes by HoneyStick How To Chose Best Oil Vaporizer &amp; Oil Cartridge</t>
-  </si>
-  <si>
-    <t>Lok3M6al86Y</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Lok3M6al86Y</t>
-  </si>
-  <si>
-    <t>VapeHoneyStick</t>
-  </si>
-  <si>
-    <t>0 5 7</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>Wood Vape Squonk Box Mod Version 1 Full Mechanical (do it yourself)</t>
-  </si>
-  <si>
-    <t>W9FL3_GbawU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=W9FL3_GbawU</t>
-  </si>
-  <si>
-    <t>Vapers Mind</t>
-  </si>
-  <si>
-    <t>3 7</t>
-  </si>
-  <si>
-    <t>HEAVYHITTERS DISPOSABLE VAPE PEN || MALIBU OG</t>
-  </si>
-  <si>
-    <t>JxJIoR3LXUI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JxJIoR3LXUI</t>
-  </si>
-  <si>
-    <t>BUD LEGEND</t>
-  </si>
-  <si>
-    <t>0 5</t>
-  </si>
-  <si>
-    <t>Best Ecig 2017! The Mig 21Kit | Plus &amp; Purple ADE Ejuice! | IndoorSmokers</t>
-  </si>
-  <si>
-    <t>Qfg9_OmER-4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Qfg9_OmER-4</t>
+    <t>Throwback Thursday: The e cig struggle</t>
+  </si>
+  <si>
+    <t>1w11jJLVGV0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1w11jJLVGV0</t>
+  </si>
+  <si>
+    <t>Kriswixx</t>
+  </si>
+  <si>
+    <t>0 7</t>
+  </si>
+  <si>
+    <t>Halo Cigalike Kit</t>
+  </si>
+  <si>
+    <t>rl7vDMwpKXE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rl7vDMwpKXE</t>
+  </si>
+  <si>
+    <t>Chunkmeister</t>
+  </si>
+  <si>
+    <t>0 2</t>
+  </si>
+  <si>
+    <t>MY.Von Erl, Tutorial: How to *Refill the Pods*</t>
+  </si>
+  <si>
+    <t>V7wwIZP38cg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V7wwIZP38cg</t>
+  </si>
+  <si>
+    <t>Qorax Stan</t>
+  </si>
+  <si>
+    <t>The New Smok Fetch 40w Pod Mod! | &amp; Zamplebox! | IndoorSmokers</t>
+  </si>
+  <si>
+    <t>LdnsFWrXBZU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LdnsFWrXBZU</t>
   </si>
   <si>
     <t>IndoorSmokers</t>
   </si>
   <si>
-    <t>2 4</t>
-  </si>
-  <si>
-    <t>FDA Bans Most Flavored E-Cigarette Cartridges | NBC Nightly News</t>
-  </si>
-  <si>
-    <t>pc7Un0WWAjc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pc7Un0WWAjc</t>
-  </si>
-  <si>
-    <t>NBC News</t>
-  </si>
-  <si>
-    <t>ESSENTIALS (Best disposable vape)</t>
-  </si>
-  <si>
-    <t>gYR95A9H8Jo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gYR95A9H8Jo</t>
-  </si>
-  <si>
-    <t>ChaseSmokes</t>
-  </si>
-  <si>
-    <t>How to Vape Trick Like a PRO!  UWELL 👑Crown Pod - Big Clouds</t>
-  </si>
-  <si>
-    <t>eo2KBwq1vbY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eo2KBwq1vbY</t>
-  </si>
-  <si>
-    <t>UWELL</t>
-  </si>
-  <si>
-    <t>4 7</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>uwell device manufacturer</t>
-  </si>
-  <si>
-    <t>Pilipinas Got Talent 2018 Auditions: JM Bayot - Vape Smoke Tricks</t>
-  </si>
-  <si>
-    <t>shKFOqZpcwc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=shKFOqZpcwc</t>
-  </si>
-  <si>
-    <t>Pilipinas Got Talent</t>
-  </si>
-  <si>
-    <t>talent show</t>
-  </si>
-  <si>
-    <t>VAPECCINO MATE ONE | GOLDEN COILS? BEST POD MOD OF 2017?</t>
-  </si>
-  <si>
-    <t>oHXNpiX3Oq8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oHXNpiX3Oq8</t>
-  </si>
-  <si>
-    <t>AVAndy</t>
+    <t>BUYIN MY E-CIG!!</t>
+  </si>
+  <si>
+    <t>53DHxkkmiVI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=53DHxkkmiVI</t>
+  </si>
+  <si>
+    <t>GrandpasCorner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dude buying ecig vlog </t>
+  </si>
+  <si>
+    <t>iPWM, 2x20700, ABM-PWM Enclosure DIY Box Mod Build</t>
+  </si>
+  <si>
+    <t>Yo6xcKPOiOU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yo6xcKPOiOU</t>
+  </si>
+  <si>
+    <t>Analog Box Mods</t>
+  </si>
+  <si>
+    <t>Doctors believe teen's lung failure due to vaping l ABC News</t>
+  </si>
+  <si>
+    <t>im4bTtQ99SY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=im4bTtQ99SY</t>
+  </si>
+  <si>
+    <t>ABC News</t>
+  </si>
+  <si>
+    <t>George HW Bush and the End of the Cold War: Crash Course US History #44</t>
+  </si>
+  <si>
+    <t>L-K19rVDxoM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L-K19rVDxoM</t>
+  </si>
+  <si>
+    <t>CrashCourse</t>
   </si>
 </sst>
 </file>
@@ -610,7 +784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,10 +838,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44160.74067732663</v>
+        <v>44165.05022745783</v>
       </c>
       <c r="D2" t="n">
-        <v>2364</v>
+        <v>1771</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -691,9 +865,11 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="n">
@@ -703,34 +879,34 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44160.74148675387</v>
+        <v>44165.05102810491</v>
       </c>
       <c r="D3" t="n">
-        <v>776</v>
+        <v>1564</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s"/>
     </row>
@@ -742,36 +918,38 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44160.74195029044</v>
+        <v>44165.05172081601</v>
       </c>
       <c r="D4" t="n">
-        <v>1492</v>
+        <v>2436</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
       <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="n">
@@ -781,34 +959,34 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44160.74251331812</v>
+        <v>44165.05260918121</v>
       </c>
       <c r="D5" t="n">
-        <v>3284</v>
+        <v>1860</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -820,34 +998,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44160.7437275296</v>
+        <v>44165.05324083437</v>
       </c>
       <c r="D6" t="n">
-        <v>2685</v>
+        <v>692</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s"/>
     </row>
@@ -859,10 +1037,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44160.74409224457</v>
+        <v>44165.05421487602</v>
       </c>
       <c r="D7" t="n">
-        <v>2995</v>
+        <v>582</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
@@ -880,13 +1058,13 @@
         <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s"/>
     </row>
@@ -898,34 +1076,34 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44160.74450761466</v>
+        <v>44165.0549415416</v>
       </c>
       <c r="D8" t="n">
-        <v>3737</v>
+        <v>2320</v>
       </c>
       <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s"/>
     </row>
@@ -937,34 +1115,34 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44160.74542512543</v>
+        <v>44165.05613304482</v>
       </c>
       <c r="D9" t="n">
-        <v>992</v>
+        <v>1225</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -976,34 +1154,34 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44160.74594708042</v>
+        <v>44165.05639863775</v>
       </c>
       <c r="D10" t="n">
-        <v>3608</v>
+        <v>2809</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s"/>
     </row>
@@ -1015,34 +1193,34 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44160.74647416603</v>
+        <v>44165.05668473332</v>
       </c>
       <c r="D11" t="n">
-        <v>2764</v>
+        <v>1865</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s"/>
     </row>
@@ -1054,38 +1232,36 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44160.74758551837</v>
+        <v>44165.05743502583</v>
       </c>
       <c r="D12" t="n">
-        <v>442</v>
+        <v>596</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
         <v>66</v>
       </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" t="s">
-        <v>30</v>
-      </c>
       <c r="L12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" t="s">
-        <v>71</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M12" t="s"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
@@ -1095,34 +1271,34 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44160.74824410024</v>
+        <v>44165.05796619901</v>
       </c>
       <c r="D13" t="n">
-        <v>367</v>
+        <v>606</v>
       </c>
       <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
         <v>72</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>73</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>74</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" t="s">
         <v>75</v>
-      </c>
-      <c r="I13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
       </c>
       <c r="M13" t="s">
         <v>76</v>
@@ -1136,10 +1312,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44160.74878441598</v>
+        <v>44165.05821225477</v>
       </c>
       <c r="D14" t="n">
-        <v>3359</v>
+        <v>1757</v>
       </c>
       <c r="E14" t="s">
         <v>77</v>
@@ -1154,18 +1330,531 @@
         <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44165.05859255927</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1421</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" t="s">
         <v>19</v>
       </c>
-      <c r="M14" t="s"/>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44165.05914630854</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2079</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" t="s"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>44165.05978751986</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2426</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" t="s"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>44165.06013231262</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3670</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>44165.06053573984</v>
+      </c>
+      <c r="D19" t="n">
+        <v>788</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" t="s"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>44165.0612504423</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3320</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" t="s"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>44165.06184617538</v>
+      </c>
+      <c r="D21" t="n">
+        <v>900</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" t="s"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>44165.06242205892</v>
+      </c>
+      <c r="D22" t="n">
+        <v>966</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>44165.06288086269</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1268</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" t="s"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>44165.06341855367</v>
+      </c>
+      <c r="D24" t="n">
+        <v>201</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>44165.0638835874</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3475</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" t="s"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>44165.06426146952</v>
+      </c>
+      <c r="D26" t="n">
+        <v>402</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" t="s"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>44165.06449530221</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3213</v>
+      </c>
+      <c r="E27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -56,151 +56,355 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>V2 Cigs Red Disposable E-Cig</t>
-  </si>
-  <si>
-    <t>6p7pt6sZp6Y</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6p7pt6sZp6Y</t>
-  </si>
-  <si>
-    <t>E-Cigarette Intelligence</t>
+    <t>Juul Mango Pods Done For? | Off Brand Pods Taste Better Than JUUL Pods! | SKOL PODS!</t>
+  </si>
+  <si>
+    <t>TbgGxpuMf5s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TbgGxpuMf5s</t>
+  </si>
+  <si>
+    <t>Ask Lewie</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Hello Redlands : Review of Litty Disposable Vape Pen</t>
+  </si>
+  <si>
+    <t>fD3tIDRkOoQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fD3tIDRkOoQ</t>
+  </si>
+  <si>
+    <t>AL BIz</t>
+  </si>
+  <si>
+    <t>0 5</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>links to vape coupon website</t>
-  </si>
-  <si>
-    <t>JUUL Pod Compatible! The Pod Mod! Diamond VPC Kit! iJOY!</t>
-  </si>
-  <si>
-    <t>y3tSeyDMgyE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y3tSeyDMgyE</t>
-  </si>
-  <si>
-    <t>RiP Trippers</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>Knight 80 by Smoant - Awesome Pod Mod!</t>
-  </si>
-  <si>
-    <t>-PhsCn1dd_g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-PhsCn1dd_g</t>
-  </si>
-  <si>
-    <t>Matt From SMM</t>
-  </si>
-  <si>
-    <t>G Pen GIO Review  - THC Oil Pod Vape Pen</t>
-  </si>
-  <si>
-    <t>1fL6dIqqG8M</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1fL6dIqqG8M</t>
-  </si>
-  <si>
-    <t>Cewpins</t>
-  </si>
-  <si>
-    <t>0 5</t>
+    <t>BEST JUUL PODS 2019!!! DonnySmokes</t>
+  </si>
+  <si>
+    <t>LyHz0S8UhqY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LyHz0S8UhqY</t>
+  </si>
+  <si>
+    <t>Donny Vapes</t>
+  </si>
+  <si>
+    <t>Could using e-cigarettes damage the heart?</t>
+  </si>
+  <si>
+    <t>nSwPM7-DX_c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nSwPM7-DX_c</t>
+  </si>
+  <si>
+    <t>News 19 WLTX</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Best Cannoli Be One DIY E-liquid Clone?</t>
-  </si>
-  <si>
-    <t>tfnFh2AsPAw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tfnFh2AsPAw</t>
+    <t>SMOK RPM160? The world's first dual batteries pod mod!</t>
+  </si>
+  <si>
+    <t>OfKVG09kjUI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OfKVG09kjUI</t>
+  </si>
+  <si>
+    <t>SMOK Official</t>
+  </si>
+  <si>
+    <t>1 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vape device manufacturer + store, product teaser video </t>
+  </si>
+  <si>
+    <t>Fed up CNN host ENDS interview with top Trump official who can’t control himself on air</t>
+  </si>
+  <si>
+    <t>Ad3tRlawP_s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ad3tRlawP_s</t>
+  </si>
+  <si>
+    <t>Brian Tyler Cohen</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Joyetech eCab Starter Kit - New Electronic Cigarette Model - MyFreedomSmokes.com</t>
+  </si>
+  <si>
+    <t>Shq38r5Hhhk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Shq38r5Hhhk</t>
+  </si>
+  <si>
+    <t>MyFreedomSmokes</t>
+  </si>
+  <si>
+    <t>2 4</t>
+  </si>
+  <si>
+    <t>Dinner Lady Disposable Vape e cig Pod Review. Very good for beginners to break into vaping.</t>
+  </si>
+  <si>
+    <t>ZVHC8Y3jqb0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZVHC8Y3jqb0</t>
+  </si>
+  <si>
+    <t>Vapourettes</t>
+  </si>
+  <si>
+    <t>Top 5 DIY E-liquid Support Bases (Beginner DIY E-liquid Tips)</t>
+  </si>
+  <si>
+    <t>Z1ddtmf2O58</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z1ddtmf2O58</t>
   </si>
   <si>
     <t>DIY or DIE</t>
   </si>
   <si>
-    <t>0 3 7</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>MORPH 219 by Smok - Best Smok Mod Ever??</t>
-  </si>
-  <si>
-    <t>X9QjLd5XNp8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=X9QjLd5XNp8</t>
-  </si>
-  <si>
-    <t>Easy Side Box Mod is All Dave Vapes | Decent &amp; affordable side by side mod</t>
-  </si>
-  <si>
-    <t>QOwDbjOveCg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QOwDbjOveCg</t>
-  </si>
-  <si>
-    <t>All Dave Vapes</t>
-  </si>
-  <si>
-    <t>MOTI PIIN Disposable Vape Device</t>
-  </si>
-  <si>
-    <t>nPIX0cWQ9BA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nPIX0cWQ9BA</t>
-  </si>
-  <si>
-    <t>Green Winch</t>
-  </si>
-  <si>
-    <t>Why Do My Mixes Have NO Flavor? (Beginner DIY E-liquid Tips)</t>
-  </si>
-  <si>
-    <t>AtJ4cQqgA7M</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AtJ4cQqgA7M</t>
+    <t>0 7</t>
+  </si>
+  <si>
+    <t>CIGALIKES which ROCK!</t>
+  </si>
+  <si>
+    <t>y8ElLG_NHFY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8ElLG_NHFY</t>
+  </si>
+  <si>
+    <t>Qorax Stan</t>
+  </si>
+  <si>
+    <t>E-cigarette inventor fights for financial rewards</t>
+  </si>
+  <si>
+    <t>Ps11pc13IB8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ps11pc13IB8</t>
+  </si>
+  <si>
+    <t>AFP News Agency</t>
+  </si>
+  <si>
+    <t>10 Common Myths in DIY E-liquid Mixing</t>
+  </si>
+  <si>
+    <t>bNvgyFNEo5o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bNvgyFNEo5o</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>Vaper's Tongue - why you can't taste your vape - Vape School</t>
-  </si>
-  <si>
-    <t>1T433Hq0i2A</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1T433Hq0i2A</t>
+    <t>Real Cig vs. E-Cig</t>
+  </si>
+  <si>
+    <t>qbDRiOq0mAU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qbDRiOq0mAU</t>
+  </si>
+  <si>
+    <t>omgimtaylor</t>
+  </si>
+  <si>
+    <t>How to Refill a Juul Pod with Vape Juice *SIMPLE*</t>
+  </si>
+  <si>
+    <t>Np65a9MyNHM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Np65a9MyNHM</t>
+  </si>
+  <si>
+    <t>Zach Fryman</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>Disposable Heroes: 5 Things You're Playing Wrong | Metallica lesson | Weekend Wankshop 219</t>
+  </si>
+  <si>
+    <t>4QVvMewmuSI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4QVvMewmuSI</t>
+  </si>
+  <si>
+    <t>Ben Eller</t>
+  </si>
+  <si>
+    <t>Vaping &amp; E-Cigarettes Q&amp;A</t>
+  </si>
+  <si>
+    <t>3IPPJYJhUBE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3IPPJYJhUBE</t>
+  </si>
+  <si>
+    <t>UChicago Medicine</t>
+  </si>
+  <si>
+    <t>Everlast - "Ends" (Acoustic) (from Joe Rogan Experience #456)</t>
+  </si>
+  <si>
+    <t>9G7t5BuXzA0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9G7t5BuXzA0</t>
+  </si>
+  <si>
+    <t>PowerfulJRE</t>
+  </si>
+  <si>
+    <t>How To: Prime and Fill The SMOK Novo 2 Pod Vape | Vaporleaf</t>
+  </si>
+  <si>
+    <t>V3CFhHhR740</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V3CFhHhR740</t>
+  </si>
+  <si>
+    <t>Vaporleaf - Online Vape Shop</t>
+  </si>
+  <si>
+    <t>vape review info website</t>
+  </si>
+  <si>
+    <t>Vaping 100 e-liquids mixed together! 100 vape juices at once</t>
+  </si>
+  <si>
+    <t>5sGCb1MKcO4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5sGCb1MKcO4</t>
   </si>
   <si>
     <t>ZampleBox</t>
   </si>
   <si>
-    <t>9</t>
+    <t>mixing 100 different eliquid flavors</t>
+  </si>
+  <si>
+    <t>E Cigarettes, Vaping and the heart: What we know so far</t>
+  </si>
+  <si>
+    <t>PA5rlu9E8j4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PA5rlu9E8j4</t>
+  </si>
+  <si>
+    <t>York Cardiology</t>
+  </si>
+  <si>
+    <t>How does an E-cigarette work?</t>
+  </si>
+  <si>
+    <t>wPPrRdavC1I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wPPrRdavC1I</t>
+  </si>
+  <si>
+    <t>The Province</t>
+  </si>
+  <si>
+    <t>Top 19 End-To-End Tries 🤩</t>
+  </si>
+  <si>
+    <t>_rfe7ttupa0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_rfe7ttupa0</t>
+  </si>
+  <si>
+    <t>World Rugby</t>
+  </si>
+  <si>
+    <t>rugby channel</t>
+  </si>
+  <si>
+    <t>Let's Mix: My Custard (DIY E-liquid Recipes)</t>
+  </si>
+  <si>
+    <t>IrkTBlWeqVc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IrkTBlWeqVc</t>
+  </si>
+  <si>
+    <t>Surgeon General's Press Conference on E-cigarette Use Among Youth</t>
+  </si>
+  <si>
+    <t>y_Ou2gooyB0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y_Ou2gooyB0</t>
+  </si>
+  <si>
+    <t>U.S. Department of Health and Human Services</t>
+  </si>
+  <si>
+    <t>Trik Vape Warna Terbaik. Amazing Best Colored Vape Tricks</t>
+  </si>
+  <si>
+    <t>ZO0257Ad5YM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0257Ad5YM</t>
+  </si>
+  <si>
+    <t>ARMUL</t>
   </si>
 </sst>
 </file>
@@ -553,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,10 +811,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44165.74000894328</v>
+        <v>44165.94757644019</v>
       </c>
       <c r="D2" t="n">
-        <v>2776</v>
+        <v>3075</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -634,11 +838,9 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M2" t="s"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="n">
@@ -648,10 +850,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44165.7413623088</v>
+        <v>44165.94858394795</v>
       </c>
       <c r="D3" t="n">
-        <v>1266</v>
+        <v>3740</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -666,16 +868,16 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s"/>
     </row>
@@ -687,34 +889,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44165.74209851458</v>
+        <v>44165.94913715871</v>
       </c>
       <c r="D4" t="n">
-        <v>1237</v>
+        <v>3271</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s"/>
     </row>
@@ -726,34 +928,34 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44165.74272058191</v>
+        <v>44165.94954485448</v>
       </c>
       <c r="D5" t="n">
-        <v>2305</v>
+        <v>2386</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -765,36 +967,38 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44165.74428211786</v>
+        <v>44165.95062100275</v>
       </c>
       <c r="D6" t="n">
-        <v>1908</v>
+        <v>1318</v>
       </c>
       <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="n">
@@ -804,34 +1008,34 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44165.74455762992</v>
+        <v>44165.95107546971</v>
       </c>
       <c r="D7" t="n">
-        <v>783</v>
+        <v>3596</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s"/>
     </row>
@@ -843,34 +1047,34 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44165.74486258297</v>
+        <v>44165.95152441994</v>
       </c>
       <c r="D8" t="n">
-        <v>1073</v>
+        <v>1858</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s"/>
     </row>
@@ -882,22 +1086,22 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44165.74519489842</v>
+        <v>44165.95194166544</v>
       </c>
       <c r="D9" t="n">
-        <v>2754</v>
+        <v>1479</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -909,7 +1113,7 @@
         <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -921,34 +1125,34 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44165.74556157308</v>
+        <v>44165.95248198629</v>
       </c>
       <c r="D10" t="n">
-        <v>493</v>
+        <v>3115</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s"/>
     </row>
@@ -960,36 +1164,627 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44165.74606459736</v>
+        <v>44165.95317138348</v>
       </c>
       <c r="D11" t="n">
-        <v>3399</v>
+        <v>897</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44165.95363332811</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2406</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" t="s"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44165.95384499935</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3657</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
         <v>61</v>
       </c>
-      <c r="K11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" t="s"/>
+      <c r="I13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44165.95446595292</v>
+      </c>
+      <c r="D14" t="n">
+        <v>144</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44165.95483844572</v>
+      </c>
+      <c r="D15" t="n">
+        <v>694</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44165.95501849287</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1615</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>44165.95554911802</v>
+      </c>
+      <c r="D17" t="n">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="s"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>44165.95585011475</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1729</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>44165.95650335395</v>
+      </c>
+      <c r="D19" t="n">
+        <v>687</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>44165.96069571086</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3024</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>44165.96102545606</v>
+      </c>
+      <c r="D21" t="n">
+        <v>147</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>44165.96163808433</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2443</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>44165.9618589618</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1805</v>
+      </c>
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>44165.96208985887</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2537</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" t="s"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>44165.96270435508</v>
+      </c>
+      <c r="D25" t="n">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" t="s"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>44165.96312263732</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1877</v>
+      </c>
+      <c r="E26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
   <si>
     <t>Name</t>
   </si>
@@ -56,97 +56,538 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Trickster Pen Vape Review - BestEcigReview.com</t>
-  </si>
-  <si>
-    <t>ab8pGnvCxYY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ab8pGnvCxYY</t>
-  </si>
-  <si>
-    <t>Best Ecig Review</t>
+    <t>How to use an instant Disposable BBQ tray ||Pakistani mom ,Uk vlogs ,London</t>
+  </si>
+  <si>
+    <t>qy42dJ10Jxo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qy42dJ10Jxo</t>
+  </si>
+  <si>
+    <t>Mehvish Tariq</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Looks Familiar? Sense Herakles Pod Mod!</t>
+  </si>
+  <si>
+    <t>-BmeZeiY5s0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-BmeZeiY5s0</t>
+  </si>
+  <si>
+    <t>Mike Vapes</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>HOW TO VAPE! Vape Tutorial! Beginners Guide To Vaping! Inhale/Exhale Vape Techniques!</t>
+  </si>
+  <si>
+    <t>ihUzLO3QsqA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ihUzLO3QsqA</t>
+  </si>
+  <si>
+    <t>RiP Trippers</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>How to Vape with NO Vape device! (Dabbing Vape Juice)</t>
+  </si>
+  <si>
+    <t>QYrDfxlfefo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QYrDfxlfefo</t>
+  </si>
+  <si>
+    <t>Chopped420</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Target PM80 by Vaporesso | Sub Ohm Pod Mod?</t>
+  </si>
+  <si>
+    <t>A78cuxlAE9Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A78cuxlAE9Y</t>
+  </si>
+  <si>
+    <t>Frames Janklin Vapor</t>
+  </si>
+  <si>
+    <t>PUFF BAR by Puff Bar ~Disposable Vape Pod Review~</t>
+  </si>
+  <si>
+    <t>J1GW7aK2ibU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=J1GW7aK2ibU</t>
+  </si>
+  <si>
+    <t>MyFreedomSmokes</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>What is RY4 E-Juice?</t>
+  </si>
+  <si>
+    <t>3R7LN_bYoQE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3R7LN_bYoQE</t>
+  </si>
+  <si>
+    <t>VapePassion</t>
+  </si>
+  <si>
+    <t>vape review and and blog website</t>
+  </si>
+  <si>
+    <t>Ace Valley Indica Disposable Vape Pen Review</t>
+  </si>
+  <si>
+    <t>4F7QkIWrVLs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4F7QkIWrVLs</t>
+  </si>
+  <si>
+    <t>Vaporizer Marijuana Calgary Dispensary Reviews</t>
+  </si>
+  <si>
+    <t>0 5</t>
+  </si>
+  <si>
+    <t>In The End (Official Video) - Linkin Park</t>
+  </si>
+  <si>
+    <t>eVTXPUF4Oz4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eVTXPUF4Oz4</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>3 Temp Setting Vape Pen Instructions &amp; How To, Turn On/Off, Pre-Heat, Change Power</t>
+  </si>
+  <si>
+    <t>mg5CD98xfJs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mg5CD98xfJs</t>
+  </si>
+  <si>
+    <t>HookahTownUSA</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ecig review website</t>
-  </si>
-  <si>
-    <t>Cigarettes Vs E-Cigarettes: An Experiment</t>
-  </si>
-  <si>
-    <t>CryeNdz2Vl0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=CryeNdz2Vl0</t>
-  </si>
-  <si>
-    <t>ScienceC</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>What to do if ur vape pen is blinking!</t>
-  </si>
-  <si>
-    <t>LG1S3vdCCzw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LG1S3vdCCzw</t>
-  </si>
-  <si>
-    <t>Beatmaster FrancisDrake</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>How to change a coil with out losing your juice</t>
-  </si>
-  <si>
-    <t>Xkb53lC97pU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Xkb53lC97pU</t>
-  </si>
-  <si>
-    <t>Legion Vapes!</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>DNA 75 3D Printed Squonk DIY Box Mod Build</t>
-  </si>
-  <si>
-    <t>Yt0fxRRF2Uo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Yt0fxRRF2Uo</t>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>How to Hack Your Own E-Cigarettes | Mashable</t>
+  </si>
+  <si>
+    <t>rmxwnuTRMiw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rmxwnuTRMiw</t>
+  </si>
+  <si>
+    <t>Mashable</t>
+  </si>
+  <si>
+    <t>Best 510 Batteries for Vape Cartridges (Top 5)</t>
+  </si>
+  <si>
+    <t>9lmLkdVVqXM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9lmLkdVVqXM</t>
+  </si>
+  <si>
+    <t>The Vape Critic</t>
+  </si>
+  <si>
+    <t>Whiskey &amp; Vape Juice Pairings / Comparisons #CHADWEEK</t>
+  </si>
+  <si>
+    <t>QAI42GRHBxI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QAI42GRHBxI</t>
+  </si>
+  <si>
+    <t>Whiskey Tribe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trying whiskeys and vapes together vlog </t>
+  </si>
+  <si>
+    <t>WOW Vapor King Disposable E-Cig</t>
+  </si>
+  <si>
+    <t>RyH1mokrmHE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RyH1mokrmHE</t>
+  </si>
+  <si>
+    <t>Vapelaxin'</t>
+  </si>
+  <si>
+    <t>Teens find e-cigarette ban loophole, turn to disposable vapes for nicotine fix</t>
+  </si>
+  <si>
+    <t>SSEUYOhi9wc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SSEUYOhi9wc</t>
+  </si>
+  <si>
+    <t>One America News Network</t>
+  </si>
+  <si>
+    <t>5 Ways to Upcycle Your Old Vape Juice Bottles</t>
+  </si>
+  <si>
+    <t>959U47mJLws</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=959U47mJLws</t>
+  </si>
+  <si>
+    <t>VapeWild</t>
+  </si>
+  <si>
+    <t>vape juice manufacturer</t>
+  </si>
+  <si>
+    <t>Vapor or E Cig  Does Not Work</t>
+  </si>
+  <si>
+    <t>6thfo9pXVeA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6thfo9pXVeA</t>
+  </si>
+  <si>
+    <t>Bill Eaglerunner</t>
+  </si>
+  <si>
+    <t>GAME CHANGER RDA! Smoothest Vape EVER! The Profile By Wotofo And #mrjustright1</t>
+  </si>
+  <si>
+    <t>81irewXA7BQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=81irewXA7BQ</t>
+  </si>
+  <si>
+    <t>Flexplay: The Disposable DVD that Failed (Thankfully)</t>
+  </si>
+  <si>
+    <t>ccneE_gkSAs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ccneE_gkSAs</t>
+  </si>
+  <si>
+    <t>Technology Connections</t>
+  </si>
+  <si>
+    <t>disposable dvd</t>
+  </si>
+  <si>
+    <t>Avida CBD Review (Best CBD Vape Juice)</t>
+  </si>
+  <si>
+    <t>Bf9KDtpNW9I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Bf9KDtpNW9I</t>
+  </si>
+  <si>
+    <t>Premium CBD Products</t>
+  </si>
+  <si>
+    <t>links to coupon website for cbd products</t>
+  </si>
+  <si>
+    <t>Best Vape Pens for 510 Oil Cartridges: Cannabasics #102</t>
+  </si>
+  <si>
+    <t>wGsPh51K65M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wGsPh51K65M</t>
+  </si>
+  <si>
+    <t>RuffHouse Studios</t>
+  </si>
+  <si>
+    <t>cannabis blog info site</t>
+  </si>
+  <si>
+    <t>RPM 40 Pod Mod by Smok!</t>
+  </si>
+  <si>
+    <t>eCfwbU73ajE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eCfwbU73ajE</t>
+  </si>
+  <si>
+    <t>Matt From SMM</t>
+  </si>
+  <si>
+    <t>Candy King | Sour Patch | E-Juice Review</t>
+  </si>
+  <si>
+    <t>l0cHsAiasco</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l0cHsAiasco</t>
+  </si>
+  <si>
+    <t>Northern Cali Vapers</t>
+  </si>
+  <si>
+    <t>2 Chainz Checks Out the Most Expensivest Vape Pens | Most Expensivest | GQ &amp; VICELAND</t>
+  </si>
+  <si>
+    <t>iNcCGMXn2bA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iNcCGMXn2bA</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>2 chainz sampling cbd thc pens</t>
+  </si>
+  <si>
+    <t>THE POD MOD - YOU CAN USE JUUL PODS ON THIS MOD</t>
+  </si>
+  <si>
+    <t>CBXqD2OEeDY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CBXqD2OEeDY</t>
+  </si>
+  <si>
+    <t>Vape Reviews</t>
+  </si>
+  <si>
+    <t>Electronic Cigarettes 101 - What's it like to Quit Smoking with an Ecig?</t>
+  </si>
+  <si>
+    <t>FDjchZpvjKM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FDjchZpvjKM</t>
+  </si>
+  <si>
+    <t>IndoorSmokers</t>
+  </si>
+  <si>
+    <t>1 7</t>
+  </si>
+  <si>
+    <t>BLACK SABBATH  - "War Pigs" from 'The End' (Live Video)</t>
+  </si>
+  <si>
+    <t>zY5nYmTUfnQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zY5nYmTUfnQ</t>
+  </si>
+  <si>
+    <t>Black Sabbath</t>
+  </si>
+  <si>
+    <t>black sabbath song</t>
+  </si>
+  <si>
+    <t>Vape Pen 101: Cleaning and Maintenance</t>
+  </si>
+  <si>
+    <t>TxOw5JLLaQc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TxOw5JLLaQc</t>
+  </si>
+  <si>
+    <t>High Times</t>
+  </si>
+  <si>
+    <t>5 7</t>
+  </si>
+  <si>
+    <t>iJoy Captain X3 Triple 20700 Box Mod Review and Rundown | #defectivedoor</t>
+  </si>
+  <si>
+    <t>mm9DyfA2nuI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mm9DyfA2nuI</t>
+  </si>
+  <si>
+    <t>Jai Haze</t>
+  </si>
+  <si>
+    <t>Local News’ Experiment In Mail-In Voting Ends In Disaster: ‘I Just Don’t Trust The Mail’</t>
+  </si>
+  <si>
+    <t>pPP7Dx8Yq5k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pPP7Dx8Yq5k</t>
+  </si>
+  <si>
+    <t>GOP War Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail in voting </t>
+  </si>
+  <si>
+    <t>E-cigarettes could lead to lung irritation: Study l ABC News</t>
+  </si>
+  <si>
+    <t>AtF00yyP_lk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AtF00yyP_lk</t>
+  </si>
+  <si>
+    <t>ABC News</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>DNA75c, 2x18650, ABM-2-DNAC Enclosure, DIY Box Mod Build</t>
+  </si>
+  <si>
+    <t>QEq6RD_Lr9Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QEq6RD_Lr9Q</t>
   </si>
   <si>
     <t>Analog Box Mods</t>
   </si>
   <si>
-    <t>3 7</t>
+    <t>The Largest Vape Juice Giveaway EVER!!! + Broke Dick's New Magnum Line Review!</t>
+  </si>
+  <si>
+    <t>nxJDyI1_MIQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nxJDyI1_MIQ</t>
+  </si>
+  <si>
+    <t>VapingwithTwisted420</t>
+  </si>
+  <si>
+    <t>video is about a company running giveaway. Not connected to giveaway</t>
+  </si>
+  <si>
+    <t>The Best 18650 Pod Mod? OXVA Origin Review!</t>
+  </si>
+  <si>
+    <t>nCIzNAWmP74</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nCIzNAWmP74</t>
+  </si>
+  <si>
+    <t>TIMELAPSE OF THE FUTURE: A Journey to the End of Time (4K)</t>
+  </si>
+  <si>
+    <t>uD4izuDMUQA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uD4izuDMUQA</t>
+  </si>
+  <si>
+    <t>melodysheep</t>
+  </si>
+  <si>
+    <t>SMOK RPM80 PRO Pod Mod Kit - Review &amp; Tutorial</t>
+  </si>
+  <si>
+    <t>RN2eR4heADA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RN2eR4heADA</t>
+  </si>
+  <si>
+    <t>VaporAuthority.com</t>
+  </si>
+  <si>
+    <t>0 7</t>
+  </si>
+  <si>
+    <t>Trying DIRT CHEAP E-Liquids</t>
+  </si>
+  <si>
+    <t>Ws99LPHHfnM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ws99LPHHfnM</t>
+  </si>
+  <si>
+    <t>Ryan Hall</t>
+  </si>
+  <si>
+    <t>Juul to stop selling flavored e-cigarette pods in stores</t>
+  </si>
+  <si>
+    <t>gX0onG6zVpk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gX0onG6zVpk</t>
+  </si>
+  <si>
+    <t>CBS News</t>
   </si>
 </sst>
 </file>
@@ -499,7 +940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,10 +994,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44166.7475889453</v>
+        <v>44166.94373485079</v>
       </c>
       <c r="D2" t="n">
-        <v>3010</v>
+        <v>1626</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -582,9 +1023,7 @@
       <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
+      <c r="M2" t="s"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="n">
@@ -594,31 +1033,31 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44166.74801923025</v>
+        <v>44166.94423723818</v>
       </c>
       <c r="D3" t="n">
-        <v>2370</v>
+        <v>1264</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -633,31 +1072,31 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44166.74834027047</v>
+        <v>44166.94457889203</v>
       </c>
       <c r="D4" t="n">
-        <v>1156</v>
+        <v>391</v>
       </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
@@ -672,31 +1111,31 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44166.74929721347</v>
+        <v>44166.94641492565</v>
       </c>
       <c r="D5" t="n">
-        <v>1703</v>
+        <v>1672</v>
       </c>
       <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
@@ -711,25 +1150,25 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44166.74964558176</v>
+        <v>44166.94706548889</v>
       </c>
       <c r="D6" t="n">
-        <v>1987</v>
+        <v>2051</v>
       </c>
       <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
@@ -738,9 +1177,1316 @@
         <v>26</v>
       </c>
       <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44166.94743720553</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1368</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44166.9480036906</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1684</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44166.94830572217</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1456</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
         <v>26</v>
       </c>
-      <c r="M6" t="s"/>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44166.948530913</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3770</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44166.94919144335</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1162</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44166.949792999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3619</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44166.95029282918</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44166.95097330802</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3528</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44166.95136161176</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1485</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44166.9518058706</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2781</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>44166.95260770722</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3198</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>44166.95314250713</v>
+      </c>
+      <c r="D18" t="n">
+        <v>172</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>44166.95352652236</v>
+      </c>
+      <c r="D19" t="n">
+        <v>351</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>44166.95374457406</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2796</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>44166.95443434844</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3437</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>44166.95509825008</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>44166.95533352844</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1234</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>44166.95565112168</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1909</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" t="s"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>44166.95679553224</v>
+      </c>
+      <c r="D25" t="n">
+        <v>297</v>
+      </c>
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>44166.95728815845</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1323</v>
+      </c>
+      <c r="E26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" t="s"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>44166.95849638057</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3609</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" t="s"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>44166.95870033102</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3599</v>
+      </c>
+      <c r="E28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>44166.95945341948</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2675</v>
+      </c>
+      <c r="E29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" t="s"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>44166.95980255337</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3330</v>
+      </c>
+      <c r="E30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" t="s"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>44166.96034168224</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2346</v>
+      </c>
+      <c r="E31" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>44166.96070455323</v>
+      </c>
+      <c r="D32" t="n">
+        <v>208</v>
+      </c>
+      <c r="E32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I32" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" t="s"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>44166.96092125545</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3465</v>
+      </c>
+      <c r="E33" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" t="s">
+        <v>165</v>
+      </c>
+      <c r="I33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" t="s"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>44166.96181869887</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2118</v>
+      </c>
+      <c r="E34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" t="s">
+        <v>169</v>
+      </c>
+      <c r="I34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>44166.96213160197</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1243</v>
+      </c>
+      <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" t="s">
+        <v>169</v>
+      </c>
+      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" t="s"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>44166.96235371663</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1731</v>
+      </c>
+      <c r="E36" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" t="s">
+        <v>175</v>
+      </c>
+      <c r="G36" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" t="s">
+        <v>177</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" t="s"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>44166.96314336114</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2705</v>
+      </c>
+      <c r="E37" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" t="s">
+        <v>180</v>
+      </c>
+      <c r="H37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" t="s"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>44166.96327158246</v>
+      </c>
+      <c r="D38" t="n">
+        <v>446</v>
+      </c>
+      <c r="E38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" t="s">
+        <v>184</v>
+      </c>
+      <c r="G38" t="s">
+        <v>185</v>
+      </c>
+      <c r="H38" t="s">
+        <v>186</v>
+      </c>
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" t="s"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>44166.96354393603</v>
+      </c>
+      <c r="D39" t="n">
+        <v>673</v>
+      </c>
+      <c r="E39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>66</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -56,184 +56,310 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>How To Fill Your Electronic Cigarette With E-Juice | Vaping Tips</t>
-  </si>
-  <si>
-    <t>vFtvsSBayKw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vFtvsSBayKw</t>
+    <t>E-Cigarettes: 7,000 Flavors of Addiction</t>
+  </si>
+  <si>
+    <t>3eSKprGuPoc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3eSKprGuPoc</t>
+  </si>
+  <si>
+    <t>Boston University</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>bu youtube channel</t>
+  </si>
+  <si>
+    <t>"Heat, Not Burn" Tobacco - Is it any good?</t>
+  </si>
+  <si>
+    <t>VJ_8BQWyHSc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VJ_8BQWyHSc</t>
+  </si>
+  <si>
+    <t>DashVapes</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>heat not burn tobacco</t>
+  </si>
+  <si>
+    <t>Metallica - Disposable Heroes | REACTION</t>
+  </si>
+  <si>
+    <t>kIty8wJ4HsE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kIty8wJ4HsE</t>
+  </si>
+  <si>
+    <t>Jamel_AKA_Jamal</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>The Future of Vaping - The Vivid E-Cig - Review</t>
+  </si>
+  <si>
+    <t>TdfUsId_7zs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TdfUsId_7zs</t>
+  </si>
+  <si>
+    <t>Richard Vick</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Bazooka Sour Straws eLiquid! | TiaVapes Review</t>
+  </si>
+  <si>
+    <t>CRCO0F9Y37w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CRCO0F9Y37w</t>
+  </si>
+  <si>
+    <t>TiaReviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merch with images of her vaping </t>
+  </si>
+  <si>
+    <t>Another teen "hospitalized from vaping"</t>
+  </si>
+  <si>
+    <t>Hzd8Vz7Rvak</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hzd8Vz7Rvak</t>
+  </si>
+  <si>
+    <t>Smoking vs Vaping</t>
+  </si>
+  <si>
+    <t>haqi4xvjvKo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=haqi4xvjvKo</t>
+  </si>
+  <si>
+    <t>AsapSCIENCE</t>
+  </si>
+  <si>
+    <t>Arsenal but if i lose the video ends, 1 HOUR | ROBLOX</t>
+  </si>
+  <si>
+    <t>oEbs-nS_BCQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oEbs-nS_BCQ</t>
+  </si>
+  <si>
+    <t>GDILIVES</t>
+  </si>
+  <si>
+    <t>VFIRE OIL VAPE PEN REVIEW!</t>
+  </si>
+  <si>
+    <t>65euwNrjDVs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=65euwNrjDVs</t>
+  </si>
+  <si>
+    <t>Deevaology</t>
+  </si>
+  <si>
+    <t>0 5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0 2</t>
+  </si>
+  <si>
+    <t>sells ash trays? and offers discount</t>
+  </si>
+  <si>
+    <t>ASSA Health E-cigarette Double Single Stem 10pcs Cartridges With USB Charger</t>
+  </si>
+  <si>
+    <t>vR84JANQkIU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vR84JANQkIU</t>
+  </si>
+  <si>
+    <t>chinabuye</t>
+  </si>
+  <si>
+    <t>some sort of non vaping online wholesale store</t>
+  </si>
+  <si>
+    <t>Juul Halts Sale Of Fruit-Flavored Vape Pens</t>
+  </si>
+  <si>
+    <t>4CP1T62-YeA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4CP1T62-YeA</t>
+  </si>
+  <si>
+    <t>CBS New York</t>
+  </si>
+  <si>
+    <t>Honest Review! Eclypse E Liquids (e juice | e liquid)</t>
+  </si>
+  <si>
+    <t>OfViQE2pp4g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OfViQE2pp4g</t>
+  </si>
+  <si>
+    <t>TNOTPR Vaping</t>
+  </si>
+  <si>
+    <t>vape related merch (phone cases_</t>
+  </si>
+  <si>
+    <t>HOW TO REFILL JUUL POD: 3 REASONS WHY TO REFILL JUUL VAPE FLAVOR PODS W/ NICOTINE SALTS</t>
+  </si>
+  <si>
+    <t>YW1_eL-L0GQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YW1_eL-L0GQ</t>
+  </si>
+  <si>
+    <t>HookahTownUSA</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>Joyetech AIO Review | The Best Beginners E-Cigarette Of 2016?</t>
+  </si>
+  <si>
+    <t>0UeMc9YCULk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0UeMc9YCULk</t>
   </si>
   <si>
     <t>AVAndy</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Risky Business: Kids, E-cigs, Vaping, and New Tobacco Products</t>
-  </si>
-  <si>
-    <t>OPfOEE0XuDk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OPfOEE0XuDk</t>
-  </si>
-  <si>
-    <t>msdcenter</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Heavy Hitters disposable cannabis vape unboxing</t>
-  </si>
-  <si>
-    <t>gqoRkmXt_vs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gqoRkmXt_vs</t>
-  </si>
-  <si>
-    <t>KUSHS dotcom</t>
-  </si>
-  <si>
-    <t>0 5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>cannabis blog website</t>
-  </si>
-  <si>
-    <t>What is Watt Mode? Vaping 101 Smok Vape Mod: Wattage 1st Time Vape Setup: VapeBrat How to change</t>
-  </si>
-  <si>
-    <t>6yrPMmm6djI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6yrPMmm6djI</t>
-  </si>
-  <si>
-    <t>HookahTownUSA</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>DISPOSABLE VAPE REVIEW BY MICHIGAN VAPE SHOP OWNER !!</t>
-  </si>
-  <si>
-    <t>FA30ezlFino</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=FA30ezlFino</t>
-  </si>
-  <si>
-    <t>The smoke don</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>The Dangers of Vaping</t>
-  </si>
-  <si>
-    <t>fezRbbussBg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fezRbbussBg</t>
-  </si>
-  <si>
-    <t>Michigan Medicine</t>
-  </si>
-  <si>
-    <t>The CITADEL RDA ; Orion Pod Mod [ Review ]</t>
-  </si>
-  <si>
-    <t>GYMvoxDUFJU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GYMvoxDUFJU</t>
-  </si>
-  <si>
-    <t>DIY or DIE</t>
-  </si>
-  <si>
-    <t>ARTISAN MODS - BOX MOD REVIEW - high end custom wooden box mod</t>
-  </si>
-  <si>
-    <t>0yQ25kO_0Po</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0yQ25kO_0Po</t>
-  </si>
-  <si>
-    <t>X1 Vape Reviews</t>
-  </si>
-  <si>
-    <t>Can Vaping Kill You? E-Cigarette Health Dangers Currently in the News</t>
-  </si>
-  <si>
-    <t>ti2jzs7wwSY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ti2jzs7wwSY</t>
-  </si>
-  <si>
-    <t>ZampleBox</t>
-  </si>
-  <si>
-    <t>E-Cig Review: EonSmoke Disposable E-Cig</t>
-  </si>
-  <si>
-    <t>3NyQYIsI_jc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3NyQYIsI_jc</t>
-  </si>
-  <si>
-    <t>Hookah Enthusiasts</t>
-  </si>
-  <si>
-    <t>Vape Etiquette 101</t>
-  </si>
-  <si>
-    <t>wng4GlUeY3g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wng4GlUeY3g</t>
-  </si>
-  <si>
-    <t>DashVapes</t>
-  </si>
-  <si>
-    <t>1 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free starter kit </t>
-  </si>
-  <si>
-    <t>Snoke Disposable</t>
-  </si>
-  <si>
-    <t>mFt_l9cBcSc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mFt_l9cBcSc</t>
-  </si>
-  <si>
-    <t>Chunkmeister</t>
+    <t>Nasty Juice Wicked Haze E-Juice (Taste Test / Review) | Tryout.</t>
+  </si>
+  <si>
+    <t>OLY0ONnrf44</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OLY0ONnrf44</t>
+  </si>
+  <si>
+    <t>TRYOUT</t>
+  </si>
+  <si>
+    <t>DIY Eliquid NADQ Why does my e-juice get cloudy?</t>
+  </si>
+  <si>
+    <t>vw2qGDF4hYM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vw2qGDF4hYM</t>
+  </si>
+  <si>
+    <t>DIY E-juice University</t>
+  </si>
+  <si>
+    <t>Can I Mix e-Liquid Brands, Flavors, and Strengths? Vape Tips and Tricks from Vapor Kings</t>
+  </si>
+  <si>
+    <t>K91rBgG8fDA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=K91rBgG8fDA</t>
+  </si>
+  <si>
+    <t>Vapor Kings</t>
+  </si>
+  <si>
+    <t>My Top 5 E-Liquids Of 2018 So Far! 200th Video!</t>
+  </si>
+  <si>
+    <t>wI_AcH_3__Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wI_AcH_3__Y</t>
+  </si>
+  <si>
+    <t>The Scots Review</t>
+  </si>
+  <si>
+    <t>How to refill and hack Vuse e-cig catridge</t>
+  </si>
+  <si>
+    <t>HAAwRPgvp3A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HAAwRPgvp3A</t>
+  </si>
+  <si>
+    <t>deltaforcemusic</t>
+  </si>
+  <si>
+    <t>MOD TIPS #02: How to Drill Holes for Box Mods</t>
+  </si>
+  <si>
+    <t>EG3D6LtAm6s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EG3D6LtAm6s</t>
+  </si>
+  <si>
+    <t>Find My Vapes</t>
+  </si>
+  <si>
+    <t>vape blog website</t>
   </si>
 </sst>
 </file>
@@ -586,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,10 +766,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44167.72529152627</v>
+        <v>44168.84519353464</v>
       </c>
       <c r="D2" t="n">
-        <v>3232</v>
+        <v>2389</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -669,7 +795,9 @@
       <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s"/>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="n">
@@ -679,36 +807,38 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44167.72566908486</v>
+        <v>44168.84709844571</v>
       </c>
       <c r="D3" t="n">
-        <v>2874</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
@@ -718,38 +848,36 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44167.72622086741</v>
+        <v>44168.84738588319</v>
       </c>
       <c r="D4" t="n">
-        <v>1416</v>
+        <v>3185</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
+      <c r="M4" t="s"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="n">
@@ -759,34 +887,34 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44167.72712981426</v>
+        <v>44168.84860189934</v>
       </c>
       <c r="D5" t="n">
-        <v>1959</v>
+        <v>3289</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
         <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -798,36 +926,38 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44167.72737612052</v>
+        <v>44168.84912799662</v>
       </c>
       <c r="D6" t="n">
-        <v>1348</v>
+        <v>3247</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
         <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="n">
@@ -837,34 +967,34 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44167.7275555223</v>
+        <v>44168.85051164225</v>
       </c>
       <c r="D7" t="n">
-        <v>2954</v>
+        <v>431</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s"/>
     </row>
@@ -876,34 +1006,34 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44167.72784846352</v>
+        <v>44168.85086028413</v>
       </c>
       <c r="D8" t="n">
-        <v>2723</v>
+        <v>384</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
         <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>18</v>
       </c>
       <c r="M8" t="s"/>
     </row>
@@ -915,31 +1045,31 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44167.7281842446</v>
+        <v>44168.85102691739</v>
       </c>
       <c r="D9" t="n">
-        <v>2014</v>
+        <v>1738</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
         <v>20</v>
@@ -954,36 +1084,38 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44167.72854369924</v>
+        <v>44168.85291602455</v>
       </c>
       <c r="D10" t="n">
-        <v>3508</v>
+        <v>1161</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="M10" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="n">
@@ -993,36 +1125,38 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44167.72936560305</v>
+        <v>44168.85405052276</v>
       </c>
       <c r="D11" t="n">
-        <v>1494</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
         <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="M11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
@@ -1032,38 +1166,36 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44167.73009312279</v>
+        <v>44168.85452173904</v>
       </c>
       <c r="D12" t="n">
-        <v>337</v>
+        <v>2679</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
         <v>64</v>
       </c>
-      <c r="G12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" t="s">
-        <v>37</v>
-      </c>
       <c r="L12" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" t="s">
-        <v>68</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M12" t="s"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
@@ -1073,36 +1205,352 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44167.73059751277</v>
+        <v>44168.85537818852</v>
       </c>
       <c r="D13" t="n">
-        <v>974</v>
+        <v>541</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
         <v>42</v>
       </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44168.85630682343</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3260</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44168.85672587973</v>
+      </c>
+      <c r="D15" t="n">
+        <v>993</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44168.85724292058</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2523</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>44168.85782369084</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2819</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" t="s"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>44168.85904448689</v>
+      </c>
+      <c r="D18" t="n">
+        <v>521</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" t="s"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>44168.8593358317</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2533</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>44168.85989986464</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3620</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" t="s"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>44168.86075200704</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1031</v>
+      </c>
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
         <v>19</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L21" t="s">
         <v>20</v>
       </c>
-      <c r="M13" t="s"/>
+      <c r="M21" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
   <si>
     <t>Name</t>
   </si>
@@ -56,310 +56,499 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>E-Cigarettes: 7,000 Flavors of Addiction</t>
-  </si>
-  <si>
-    <t>3eSKprGuPoc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3eSKprGuPoc</t>
-  </si>
-  <si>
-    <t>Boston University</t>
+    <t>CBDfx vs CBDistillery Comparison (Disposable CBD Vape Pens)</t>
+  </si>
+  <si>
+    <t>V7IA75rvRnc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V7IA75rvRnc</t>
+  </si>
+  <si>
+    <t>Premium CBD Products</t>
+  </si>
+  <si>
+    <t>0 5 7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>cannabis review and info website</t>
+  </si>
+  <si>
+    <t>Cigalike comparison vuse vs mark 10 xl</t>
+  </si>
+  <si>
+    <t>EoaSATbBX48</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EoaSATbBX48</t>
+  </si>
+  <si>
+    <t>dj X.A.N.A</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Best Menthol Vape Juice 2020 | Popular Cold Eliquids Top 5</t>
+  </si>
+  <si>
+    <t>wJWt_ipeh7o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wJWt_ipeh7o</t>
+  </si>
+  <si>
+    <t>Vape and Juice TV</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>Vape Mojo Disposable E-Cigarette Menthol</t>
+  </si>
+  <si>
+    <t>IaMaW6XPsLo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IaMaW6XPsLo</t>
+  </si>
+  <si>
+    <t>Mojo Vape</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>bu youtube channel</t>
-  </si>
-  <si>
-    <t>"Heat, Not Burn" Tobacco - Is it any good?</t>
-  </si>
-  <si>
-    <t>VJ_8BQWyHSc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VJ_8BQWyHSc</t>
-  </si>
-  <si>
-    <t>DashVapes</t>
+    <t>vape manufacturer</t>
+  </si>
+  <si>
+    <t>VitaminVape B12 Vape Pen Inhaler: Boost Energy/Mood/Concentration? My Personal Experience &amp; Review</t>
+  </si>
+  <si>
+    <t>Ktgf96kONo0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ktgf96kONo0</t>
+  </si>
+  <si>
+    <t>iLuvTrading</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>vitamin vape, no nic</t>
+  </si>
+  <si>
+    <t>Smok Vape Pen 22 - Review</t>
+  </si>
+  <si>
+    <t>TjcvToiwNEE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TjcvToiwNEE</t>
+  </si>
+  <si>
+    <t>Zona do Vapor</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>North Texas Man Dies After Vape Pen Explodes</t>
+  </si>
+  <si>
+    <t>zxlvhYZ_5vg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zxlvhYZ_5vg</t>
+  </si>
+  <si>
+    <t>CBSDFW</t>
+  </si>
+  <si>
+    <t>Laisimo v80 Mini Box Mod Review and Rundown</t>
+  </si>
+  <si>
+    <t>kLVW7YqBO_A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kLVW7YqBO_A</t>
+  </si>
+  <si>
+    <t>Jai Haze</t>
+  </si>
+  <si>
+    <t>Juul Pods vs Jones Pods!! | DonnyVapes</t>
+  </si>
+  <si>
+    <t>R9TsWbl7zq0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R9TsWbl7zq0</t>
+  </si>
+  <si>
+    <t>Donny Vapes</t>
+  </si>
+  <si>
+    <t>0 7</t>
+  </si>
+  <si>
+    <t>link to store that used to have vape related merch</t>
+  </si>
+  <si>
+    <t>Target 8 undercover: Kids buy e-cigs</t>
+  </si>
+  <si>
+    <t>eGVyAhXHp7A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eGVyAhXHp7A</t>
+  </si>
+  <si>
+    <t>WOOD TV8</t>
+  </si>
+  <si>
+    <t>POD Filters Mythbusted</t>
+  </si>
+  <si>
+    <t>PAIxeQUSg-Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PAIxeQUSg-Q</t>
+  </si>
+  <si>
+    <t>Mighty Car Mods</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>pod filter for cars</t>
+  </si>
+  <si>
+    <t>THC Juul Pods!? | BammerTV</t>
+  </si>
+  <si>
+    <t>PBNEIDnpNwQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PBNEIDnpNwQ</t>
+  </si>
+  <si>
+    <t>Bammer TV</t>
+  </si>
+  <si>
+    <t>5 7</t>
+  </si>
+  <si>
+    <t>Stay AWAY from this Eliquid! 🤮🤢😷 The WORST vape juice EVER</t>
+  </si>
+  <si>
+    <t>gmJ26xAOMUg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gmJ26xAOMUg</t>
+  </si>
+  <si>
+    <t>ShadyVapes</t>
+  </si>
+  <si>
+    <t>Robert Ellis Funny Vaping Compilation</t>
+  </si>
+  <si>
+    <t>39Vr2QKoI14</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=39Vr2QKoI14</t>
+  </si>
+  <si>
+    <t>frick</t>
+  </si>
+  <si>
+    <t>How to make a powerful vape mod</t>
+  </si>
+  <si>
+    <t>a8Q3Oni3bmQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a8Q3Oni3bmQ</t>
+  </si>
+  <si>
+    <t>Make TV</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>Does Vape Juice Expire?</t>
+  </si>
+  <si>
+    <t>tGrI-DobpJQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tGrI-DobpJQ</t>
+  </si>
+  <si>
+    <t>VapeWild</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>0 1</t>
+    <t>KZOR's Juice Review : TKO E-juice Range</t>
+  </si>
+  <si>
+    <t>cD55Cp3XhkY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cD55Cp3XhkY</t>
+  </si>
+  <si>
+    <t>KZOR SA Reviewer</t>
+  </si>
+  <si>
+    <t>Buzz Nic Salt Vape Pen Disposable</t>
+  </si>
+  <si>
+    <t>2DzMZQyBSik</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2DzMZQyBSik</t>
+  </si>
+  <si>
+    <t>Teagardins TV</t>
+  </si>
+  <si>
+    <t>Mi-POD Clone?! The SMOK Mico Pod Kit! Tiny Vape Pod System!</t>
+  </si>
+  <si>
+    <t>zFDnDLLHoJs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zFDnDLLHoJs</t>
+  </si>
+  <si>
+    <t>RiP Trippers</t>
+  </si>
+  <si>
+    <t>How to EASILY open JAM MONSTER bottles (100ml &amp; 120ml Chubby Gorilla Bottles)</t>
+  </si>
+  <si>
+    <t>XAal6VzNRPg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XAal6VzNRPg</t>
+  </si>
+  <si>
+    <t>AVAndy</t>
+  </si>
+  <si>
+    <t>Smok Vape Mod Setup: What should i set my WATTAGE VOLTAGE OHMAGE TEMP CONTROL Vape Brat Tutorial</t>
+  </si>
+  <si>
+    <t>iQJ82npzQV4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iQJ82npzQV4</t>
+  </si>
+  <si>
+    <t>HookahTownUSA</t>
+  </si>
+  <si>
+    <t>New York’s flavored e-cigarette ban delayed by courts — October 3, 2019</t>
+  </si>
+  <si>
+    <t>xI_RMYzryJM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xI_RMYzryJM</t>
+  </si>
+  <si>
+    <t>News 8 WROC</t>
+  </si>
+  <si>
+    <t>Ryan Hall - Out Of Vape Juice</t>
+  </si>
+  <si>
+    <t>NPO5krSZfkU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NPO5krSZfkU</t>
+  </si>
+  <si>
+    <t>Ryan Hall</t>
+  </si>
+  <si>
+    <t>vape song</t>
+  </si>
+  <si>
+    <t>Stiiizy vs Plug Play: which weed vape pod is best?</t>
+  </si>
+  <si>
+    <t>DrttwWvLgSI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DrttwWvLgSI</t>
+  </si>
+  <si>
+    <t>Weeats Reviews</t>
+  </si>
+  <si>
+    <t>The Future Of Vaping - Mark Ten By Philip Morris Review</t>
+  </si>
+  <si>
+    <t>RvB2kKar_no</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RvB2kKar_no</t>
+  </si>
+  <si>
+    <t>Matt From SMM</t>
+  </si>
+  <si>
+    <t>ABC's of How to use Mechanical Vape Mods Safely / Mech Mod Safety Tips</t>
+  </si>
+  <si>
+    <t>KDYZzU2N9pw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KDYZzU2N9pw</t>
+  </si>
+  <si>
+    <t>ePuffer Magnum Review</t>
+  </si>
+  <si>
+    <t>PEn24R9hIQA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PEn24R9hIQA</t>
+  </si>
+  <si>
+    <t>Seven Report</t>
+  </si>
+  <si>
+    <t>The Aurora Play Vape Pod System By Vaporesso!</t>
+  </si>
+  <si>
+    <t>CMTmXodOfH4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CMTmXodOfH4</t>
+  </si>
+  <si>
+    <t>Bad Drip Labs e-Liquid Review</t>
+  </si>
+  <si>
+    <t>IVPhohfct5I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IVPhohfct5I</t>
+  </si>
+  <si>
+    <t>CageClouds</t>
+  </si>
+  <si>
+    <t>E-LVT Electronic Cigarette Review from Dovpoecig</t>
+  </si>
+  <si>
+    <t>lgEL7HihL60</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lgEL7HihL60</t>
+  </si>
+  <si>
+    <t>DansVapeReview</t>
+  </si>
+  <si>
+    <t>Naked 100 e-Juice - 6 Flavors! - Vape Don't Smoke Reviews</t>
+  </si>
+  <si>
+    <t>5aPPoFIBBVg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5aPPoFIBBVg</t>
+  </si>
+  <si>
+    <t>Vape Don't Smoke</t>
+  </si>
+  <si>
+    <t>Switching From Smoking To Vaping (Part 2) The Next Step</t>
+  </si>
+  <si>
+    <t>DZto2uiu0ow</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DZto2uiu0ow</t>
+  </si>
+  <si>
+    <t>Big Lou East Coast  Review</t>
+  </si>
+  <si>
+    <t>E-cigarettes do not help quit smoking</t>
+  </si>
+  <si>
+    <t>jQRj7s0rMwQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jQRj7s0rMwQ</t>
+  </si>
+  <si>
+    <t>The Hindu</t>
+  </si>
+  <si>
+    <t>Juul Vapor E-Cig Unboxing, Set Up &amp; First Impressions With Virginia Tobacco</t>
+  </si>
+  <si>
+    <t>vX9W7Vq-DBk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vX9W7Vq-DBk</t>
+  </si>
+  <si>
+    <t>Martin Lotsberg</t>
+  </si>
+  <si>
+    <t>How to use puff bars after they die (Easy)</t>
+  </si>
+  <si>
+    <t>WO4e9rtdK3I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WO4e9rtdK3I</t>
+  </si>
+  <si>
+    <t>dopekingcherry 888</t>
+  </si>
+  <si>
+    <t>How safe is vaping? | 7.30</t>
+  </si>
+  <si>
+    <t>BaTWfRoUjeU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BaTWfRoUjeU</t>
+  </si>
+  <si>
+    <t>ABC News (Australia)</t>
   </si>
   <si>
     <t>1 2</t>
-  </si>
-  <si>
-    <t>heat not burn tobacco</t>
-  </si>
-  <si>
-    <t>Metallica - Disposable Heroes | REACTION</t>
-  </si>
-  <si>
-    <t>kIty8wJ4HsE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kIty8wJ4HsE</t>
-  </si>
-  <si>
-    <t>Jamel_AKA_Jamal</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>The Future of Vaping - The Vivid E-Cig - Review</t>
-  </si>
-  <si>
-    <t>TdfUsId_7zs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TdfUsId_7zs</t>
-  </si>
-  <si>
-    <t>Richard Vick</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Bazooka Sour Straws eLiquid! | TiaVapes Review</t>
-  </si>
-  <si>
-    <t>CRCO0F9Y37w</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=CRCO0F9Y37w</t>
-  </si>
-  <si>
-    <t>TiaReviews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merch with images of her vaping </t>
-  </si>
-  <si>
-    <t>Another teen "hospitalized from vaping"</t>
-  </si>
-  <si>
-    <t>Hzd8Vz7Rvak</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Hzd8Vz7Rvak</t>
-  </si>
-  <si>
-    <t>Smoking vs Vaping</t>
-  </si>
-  <si>
-    <t>haqi4xvjvKo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=haqi4xvjvKo</t>
-  </si>
-  <si>
-    <t>AsapSCIENCE</t>
-  </si>
-  <si>
-    <t>Arsenal but if i lose the video ends, 1 HOUR | ROBLOX</t>
-  </si>
-  <si>
-    <t>oEbs-nS_BCQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oEbs-nS_BCQ</t>
-  </si>
-  <si>
-    <t>GDILIVES</t>
-  </si>
-  <si>
-    <t>VFIRE OIL VAPE PEN REVIEW!</t>
-  </si>
-  <si>
-    <t>65euwNrjDVs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=65euwNrjDVs</t>
-  </si>
-  <si>
-    <t>Deevaology</t>
-  </si>
-  <si>
-    <t>0 5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0 2</t>
-  </si>
-  <si>
-    <t>sells ash trays? and offers discount</t>
-  </si>
-  <si>
-    <t>ASSA Health E-cigarette Double Single Stem 10pcs Cartridges With USB Charger</t>
-  </si>
-  <si>
-    <t>vR84JANQkIU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vR84JANQkIU</t>
-  </si>
-  <si>
-    <t>chinabuye</t>
-  </si>
-  <si>
-    <t>some sort of non vaping online wholesale store</t>
-  </si>
-  <si>
-    <t>Juul Halts Sale Of Fruit-Flavored Vape Pens</t>
-  </si>
-  <si>
-    <t>4CP1T62-YeA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4CP1T62-YeA</t>
-  </si>
-  <si>
-    <t>CBS New York</t>
-  </si>
-  <si>
-    <t>Honest Review! Eclypse E Liquids (e juice | e liquid)</t>
-  </si>
-  <si>
-    <t>OfViQE2pp4g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OfViQE2pp4g</t>
-  </si>
-  <si>
-    <t>TNOTPR Vaping</t>
-  </si>
-  <si>
-    <t>vape related merch (phone cases_</t>
-  </si>
-  <si>
-    <t>HOW TO REFILL JUUL POD: 3 REASONS WHY TO REFILL JUUL VAPE FLAVOR PODS W/ NICOTINE SALTS</t>
-  </si>
-  <si>
-    <t>YW1_eL-L0GQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YW1_eL-L0GQ</t>
-  </si>
-  <si>
-    <t>HookahTownUSA</t>
-  </si>
-  <si>
-    <t>3 7</t>
-  </si>
-  <si>
-    <t>Joyetech AIO Review | The Best Beginners E-Cigarette Of 2016?</t>
-  </si>
-  <si>
-    <t>0UeMc9YCULk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0UeMc9YCULk</t>
-  </si>
-  <si>
-    <t>AVAndy</t>
-  </si>
-  <si>
-    <t>Nasty Juice Wicked Haze E-Juice (Taste Test / Review) | Tryout.</t>
-  </si>
-  <si>
-    <t>OLY0ONnrf44</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OLY0ONnrf44</t>
-  </si>
-  <si>
-    <t>TRYOUT</t>
-  </si>
-  <si>
-    <t>DIY Eliquid NADQ Why does my e-juice get cloudy?</t>
-  </si>
-  <si>
-    <t>vw2qGDF4hYM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vw2qGDF4hYM</t>
-  </si>
-  <si>
-    <t>DIY E-juice University</t>
-  </si>
-  <si>
-    <t>Can I Mix e-Liquid Brands, Flavors, and Strengths? Vape Tips and Tricks from Vapor Kings</t>
-  </si>
-  <si>
-    <t>K91rBgG8fDA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=K91rBgG8fDA</t>
-  </si>
-  <si>
-    <t>Vapor Kings</t>
-  </si>
-  <si>
-    <t>My Top 5 E-Liquids Of 2018 So Far! 200th Video!</t>
-  </si>
-  <si>
-    <t>wI_AcH_3__Y</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wI_AcH_3__Y</t>
-  </si>
-  <si>
-    <t>The Scots Review</t>
-  </si>
-  <si>
-    <t>How to refill and hack Vuse e-cig catridge</t>
-  </si>
-  <si>
-    <t>HAAwRPgvp3A</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HAAwRPgvp3A</t>
-  </si>
-  <si>
-    <t>deltaforcemusic</t>
-  </si>
-  <si>
-    <t>MOD TIPS #02: How to Drill Holes for Box Mods</t>
-  </si>
-  <si>
-    <t>EG3D6LtAm6s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EG3D6LtAm6s</t>
-  </si>
-  <si>
-    <t>Find My Vapes</t>
-  </si>
-  <si>
-    <t>vape blog website</t>
   </si>
 </sst>
 </file>
@@ -712,7 +901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,10 +955,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44168.84519353464</v>
+        <v>44169.92848857344</v>
       </c>
       <c r="D2" t="n">
-        <v>2389</v>
+        <v>2060</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -790,13 +979,13 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
         <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -807,38 +996,36 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44168.84709844571</v>
+        <v>44169.92884067706</v>
       </c>
       <c r="D3" t="n">
-        <v>103</v>
+        <v>973</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
       <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M3" t="s"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
@@ -848,34 +1035,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44168.84738588319</v>
+        <v>44169.929511699</v>
       </c>
       <c r="D4" t="n">
-        <v>3185</v>
+        <v>563</v>
       </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s"/>
     </row>
@@ -887,36 +1074,38 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44168.84860189934</v>
+        <v>44169.93076568717</v>
       </c>
       <c r="D5" t="n">
-        <v>3289</v>
+        <v>2777</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" t="s"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="n">
@@ -926,37 +1115,37 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44168.84912799662</v>
+        <v>44169.93173105679</v>
       </c>
       <c r="D6" t="n">
-        <v>3247</v>
+        <v>2488</v>
       </c>
       <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -967,34 +1156,34 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44168.85051164225</v>
+        <v>44169.93233740798</v>
       </c>
       <c r="D7" t="n">
-        <v>431</v>
+        <v>2668</v>
       </c>
       <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s"/>
     </row>
@@ -1006,10 +1195,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44168.85086028413</v>
+        <v>44169.93269275122</v>
       </c>
       <c r="D8" t="n">
-        <v>384</v>
+        <v>1212</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -1024,16 +1213,16 @@
         <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" t="s"/>
     </row>
@@ -1045,10 +1234,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44168.85102691739</v>
+        <v>44169.93323605775</v>
       </c>
       <c r="D9" t="n">
-        <v>1738</v>
+        <v>1038</v>
       </c>
       <c r="E9" t="s">
         <v>55</v>
@@ -1063,16 +1252,16 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -1084,10 +1273,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44168.85291602455</v>
+        <v>44169.93415968388</v>
       </c>
       <c r="D10" t="n">
-        <v>1161</v>
+        <v>2548</v>
       </c>
       <c r="E10" t="s">
         <v>59</v>
@@ -1105,16 +1294,16 @@
         <v>63</v>
       </c>
       <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
         <v>64</v>
-      </c>
-      <c r="K10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1125,38 +1314,36 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44168.85405052276</v>
+        <v>44169.93444166527</v>
       </c>
       <c r="D11" t="n">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
         <v>67</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>68</v>
       </c>
-      <c r="G11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" t="s">
-        <v>71</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M11" t="s"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
@@ -1166,36 +1353,38 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44168.85452173904</v>
+        <v>44169.93487350773</v>
       </c>
       <c r="D12" t="n">
-        <v>2679</v>
+        <v>3478</v>
       </c>
       <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
         <v>72</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>73</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
         <v>74</v>
       </c>
-      <c r="H12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" t="s"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
@@ -1205,38 +1394,36 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44168.85537818852</v>
+        <v>44169.93548943904</v>
       </c>
       <c r="D13" t="n">
-        <v>541</v>
+        <v>740</v>
       </c>
       <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
         <v>76</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>77</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>78</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>79</v>
       </c>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" t="s">
-        <v>80</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M13" t="s"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="n">
@@ -1246,34 +1433,34 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44168.85630682343</v>
+        <v>44169.93638340396</v>
       </c>
       <c r="D14" t="n">
-        <v>3260</v>
+        <v>470</v>
       </c>
       <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
         <v>81</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>82</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>83</v>
       </c>
-      <c r="H14" t="s">
-        <v>84</v>
-      </c>
       <c r="I14" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M14" t="s"/>
     </row>
@@ -1285,34 +1472,34 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44168.85672587973</v>
+        <v>44169.93725182753</v>
       </c>
       <c r="D15" t="n">
-        <v>993</v>
+        <v>408</v>
       </c>
       <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
         <v>86</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>87</v>
       </c>
-      <c r="G15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" t="s">
-        <v>89</v>
-      </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" t="s"/>
     </row>
@@ -1324,34 +1511,34 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44168.85724292058</v>
+        <v>44169.93812657143</v>
       </c>
       <c r="D16" t="n">
-        <v>2523</v>
+        <v>838</v>
       </c>
       <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
         <v>90</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>91</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>92</v>
       </c>
-      <c r="H16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" t="s">
-        <v>41</v>
-      </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M16" t="s"/>
     </row>
@@ -1363,34 +1550,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44168.85782369084</v>
+        <v>44169.93939457957</v>
       </c>
       <c r="D17" t="n">
-        <v>2819</v>
+        <v>542</v>
       </c>
       <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
         <v>94</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>95</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>96</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>97</v>
       </c>
-      <c r="I17" t="s">
-        <v>85</v>
-      </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="K17" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M17" t="s"/>
     </row>
@@ -1402,10 +1589,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44168.85904448689</v>
+        <v>44169.94007356559</v>
       </c>
       <c r="D18" t="n">
-        <v>521</v>
+        <v>1683</v>
       </c>
       <c r="E18" t="s">
         <v>98</v>
@@ -1420,16 +1607,16 @@
         <v>101</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="K18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M18" t="s"/>
     </row>
@@ -1441,10 +1628,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44168.8593358317</v>
+        <v>44169.94056243399</v>
       </c>
       <c r="D19" t="n">
-        <v>2533</v>
+        <v>2758</v>
       </c>
       <c r="E19" t="s">
         <v>102</v>
@@ -1459,16 +1646,16 @@
         <v>105</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M19" t="s"/>
     </row>
@@ -1480,10 +1667,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44168.85989986464</v>
+        <v>44169.9410196785</v>
       </c>
       <c r="D20" t="n">
-        <v>3620</v>
+        <v>751</v>
       </c>
       <c r="E20" t="s">
         <v>106</v>
@@ -1498,16 +1685,16 @@
         <v>109</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M20" t="s"/>
     </row>
@@ -1519,10 +1706,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44168.86075200704</v>
+        <v>44169.94170233732</v>
       </c>
       <c r="D21" t="n">
-        <v>1031</v>
+        <v>3481</v>
       </c>
       <c r="E21" t="s">
         <v>110</v>
@@ -1537,20 +1724,644 @@
         <v>113</v>
       </c>
       <c r="I21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>44169.94207244912</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1058</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" t="s"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>44169.94296498122</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2175</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" t="s"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>44169.94371910215</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>44169.94441088394</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3685</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
         <v>26</v>
       </c>
-      <c r="J21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" t="s">
-        <v>114</v>
-      </c>
+      <c r="K25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" t="s"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>44169.94476359502</v>
+      </c>
+      <c r="D26" t="n">
+        <v>923</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" t="s"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>44169.94538930175</v>
+      </c>
+      <c r="D27" t="n">
+        <v>811</v>
+      </c>
+      <c r="E27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" t="s"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>44169.94661038686</v>
+      </c>
+      <c r="D28" t="n">
+        <v>948</v>
+      </c>
+      <c r="E28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" t="s"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>44169.9469392001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>671</v>
+      </c>
+      <c r="E29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>44169.94725670037</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2504</v>
+      </c>
+      <c r="E30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" t="s">
+        <v>148</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" t="s"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>44169.94794881542</v>
+      </c>
+      <c r="D31" t="n">
+        <v>106</v>
+      </c>
+      <c r="E31" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" t="s">
+        <v>152</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" t="s"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>44169.94832494766</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2505</v>
+      </c>
+      <c r="E32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" t="s">
+        <v>154</v>
+      </c>
+      <c r="G32" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" t="s"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>44169.94859648577</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" t="s"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>44169.94934088209</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2905</v>
+      </c>
+      <c r="E34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" t="s">
+        <v>49</v>
+      </c>
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" t="s"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>44169.94963786686</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3105</v>
+      </c>
+      <c r="E35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" t="s">
+        <v>168</v>
+      </c>
+      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" t="s">
+        <v>50</v>
+      </c>
+      <c r="L35" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" t="s"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>44169.94986215354</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2738</v>
+      </c>
+      <c r="E36" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36" t="s">
+        <v>172</v>
+      </c>
+      <c r="I36" t="s">
+        <v>92</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" t="s">
+        <v>50</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" t="s"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>44169.95022319657</v>
+      </c>
+      <c r="D37" t="n">
+        <v>350</v>
+      </c>
+      <c r="E37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" t="s">
+        <v>175</v>
+      </c>
+      <c r="H37" t="s">
+        <v>176</v>
+      </c>
+      <c r="I37" t="s">
+        <v>177</v>
+      </c>
+      <c r="J37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" t="s">
+        <v>49</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -56,178 +56,355 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Vaping PSA</t>
-  </si>
-  <si>
-    <t>DdPqLGhdETc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DdPqLGhdETc</t>
-  </si>
-  <si>
-    <t>Rachelle Balili</t>
+    <t>EXPLODING VAPES - Why It Happens &amp; How To Prevent It</t>
+  </si>
+  <si>
+    <t>vi4CyVX7Zuk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vi4CyVX7Zuk</t>
+  </si>
+  <si>
+    <t>Ty Turner</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Disposable Vape Tanks?? Falcons One Kit.</t>
+  </si>
+  <si>
+    <t>UfDnt6KOeHI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UfDnt6KOeHI</t>
+  </si>
+  <si>
+    <t>Ryan Hall</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2 3</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>Weird Vape Mods! The most strange, bizarre e-cigarettes out there</t>
+  </si>
+  <si>
+    <t>VoRO3bhPyD4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VoRO3bhPyD4</t>
+  </si>
+  <si>
+    <t>ZampleBox</t>
+  </si>
+  <si>
+    <t>0 3</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Damn Vape Wotan Sub-ohm Tank Review (The best flavour I've ever vaped from a tank)</t>
-  </si>
-  <si>
-    <t>8fuzyyJ81tE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8fuzyyJ81tE</t>
-  </si>
-  <si>
-    <t>VapeCity Reviews</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>A PBusardo Video - Unsalted E-Liquid Launch Party @ Dash Vapes</t>
+  </si>
+  <si>
+    <t>qOkFook6kjo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qOkFook6kjo</t>
+  </si>
+  <si>
+    <t>pbusardo</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>He Vaped Nothing But Disposables For a Whole Week. Air Bars</t>
-  </si>
-  <si>
-    <t>onghfey7ACc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=onghfey7ACc</t>
-  </si>
-  <si>
-    <t>Ryan Hall</t>
+    <t>tour of vape juice factory</t>
+  </si>
+  <si>
+    <t>Almost Perfect - INNOKIN DV Pod Vape - Mike Vapes</t>
+  </si>
+  <si>
+    <t>fB8ZIeyVfQg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fB8ZIeyVfQg</t>
+  </si>
+  <si>
+    <t>Mike Vapes</t>
+  </si>
+  <si>
+    <t>10 Dangers of Vaping You Didn't Know</t>
+  </si>
+  <si>
+    <t>KbR1V_fjG-0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KbR1V_fjG-0</t>
+  </si>
+  <si>
+    <t>Matthew Santoro</t>
+  </si>
+  <si>
+    <t>3 5</t>
+  </si>
+  <si>
+    <t>DeMISTifying Electronic Nicotine Delivery Systems (ENDS) and Their Effects on Hormones</t>
+  </si>
+  <si>
+    <t>7GINA7YO_JM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7GINA7YO_JM</t>
+  </si>
+  <si>
+    <t>Deanna Doughty</t>
+  </si>
+  <si>
+    <t>Wismec R40 Pod Mod Review | Vape UK</t>
+  </si>
+  <si>
+    <t>FvBsT-sdTME</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FvBsT-sdTME</t>
+  </si>
+  <si>
+    <t>Totally Wicked E-Liquid UK</t>
+  </si>
+  <si>
+    <t>Vape Pong Menthol Edition - Vaping Gross E-Liquids and the Coldest Menthol Vape Juice</t>
+  </si>
+  <si>
+    <t>yBMYJJI2mTA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yBMYJJI2mTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vape pong </t>
+  </si>
+  <si>
+    <t>Analog Box Mod's own CNC Aluminium Enclosures</t>
+  </si>
+  <si>
+    <t>IwX54BWCjlU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IwX54BWCjlU</t>
+  </si>
+  <si>
+    <t>Analog Box Mods</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>The Most Popular Vape E Liquid Flavour Profiles</t>
+  </si>
+  <si>
+    <t>vyfPzq3SprA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vyfPzq3SprA</t>
+  </si>
+  <si>
+    <t>FlavourVapour</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>Unregulated Ecigs the truth</t>
-  </si>
-  <si>
-    <t>wxdAynYzp6g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wxdAynYzp6g</t>
-  </si>
-  <si>
-    <t>Ian Nicholson</t>
-  </si>
-  <si>
-    <t>This Cool Gadget On Amazon Can Save 6.6 Million Deaths!!</t>
-  </si>
-  <si>
-    <t>vrsxPJEqg9c</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vrsxPJEqg9c</t>
-  </si>
-  <si>
-    <t>sjDfreak</t>
-  </si>
-  <si>
-    <t>Do Vape Pens Trick Teens?</t>
-  </si>
-  <si>
-    <t>HnKwHWyHH4g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HnKwHWyHH4g</t>
-  </si>
-  <si>
-    <t>YR Media</t>
+    <t>This vape uses CIGARETTE FILTERS?!</t>
+  </si>
+  <si>
+    <t>OfkkiN8ew_E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OfkkiN8ew_E</t>
+  </si>
+  <si>
+    <t>DashVapes</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>vape cig hybrid</t>
+  </si>
+  <si>
+    <t>FIRST TIME HEARING Metallica- Disposable Heroes Live in Mexico City REACTION</t>
+  </si>
+  <si>
+    <t>it47alFbSas</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=it47alFbSas</t>
+  </si>
+  <si>
+    <t>ScribeCash</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>What is disposable income?</t>
+  </si>
+  <si>
+    <t>FYPVZo0twoI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FYPVZo0twoI</t>
+  </si>
+  <si>
+    <t>tutor2u</t>
+  </si>
+  <si>
+    <t>Funky Farms CBD Disposable Vape Pen Grandaddy Purple 200mg  3ml</t>
+  </si>
+  <si>
+    <t>MOgjbxujxho</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MOgjbxujxho</t>
+  </si>
+  <si>
+    <t>Sarkazz Here</t>
+  </si>
+  <si>
+    <t>0 5</t>
+  </si>
+  <si>
+    <t>6 Things NOT To Do When Vaping</t>
+  </si>
+  <si>
+    <t>e08GwLIhZ_w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=e08GwLIhZ_w</t>
+  </si>
+  <si>
+    <t>No.1 EJuice</t>
+  </si>
+  <si>
+    <t>TOP 7 BEST POD SYSTEM VAPES FROM NVE 2019 - VAPING INSIDER</t>
+  </si>
+  <si>
+    <t>aNdMoz_7Cbg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aNdMoz_7Cbg</t>
+  </si>
+  <si>
+    <t>Vaping Insider</t>
+  </si>
+  <si>
+    <t>Johnny Depp vaping an electronic cigarette in the movie The Tourist.</t>
+  </si>
+  <si>
+    <t>vD2R0ACPZl8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vD2R0ACPZl8</t>
+  </si>
+  <si>
+    <t>The Vapor Lair</t>
+  </si>
+  <si>
+    <t>HOW TO REFILL MYLE VAPE FLAVOR PODS W/ NICOTINE SALTS: TROPICAL MANGO, MINT, STRAWBERRY, CUBANO</t>
+  </si>
+  <si>
+    <t>hAPav7SIkfU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hAPav7SIkfU</t>
+  </si>
+  <si>
+    <t>HookahTownUSA</t>
+  </si>
+  <si>
+    <t>E-cig regulations: Helpful or harmful?</t>
+  </si>
+  <si>
+    <t>NnWCfdRkjgs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NnWCfdRkjgs</t>
+  </si>
+  <si>
+    <t>CNBC Television</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>vaping among teens documentryish like</t>
-  </si>
-  <si>
-    <t>Zaero Disposable Vape</t>
-  </si>
-  <si>
-    <t>Wrws13L8XFo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Wrws13L8XFo</t>
-  </si>
-  <si>
-    <t>Vapor4Life</t>
-  </si>
-  <si>
-    <t>Black Veil Brides - In The End (Official Video)</t>
-  </si>
-  <si>
-    <t>f0EQlIzPowM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f0EQlIzPowM</t>
-  </si>
-  <si>
-    <t>BVBArmyVEVO</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>VapeWild Releases Their Own Cigalike Product</t>
-  </si>
-  <si>
-    <t>ACDDISkW8SY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ACDDISkW8SY</t>
-  </si>
-  <si>
-    <t>VapePassion</t>
-  </si>
-  <si>
-    <t>barely product review. Not sure. Vape review website/channel</t>
-  </si>
-  <si>
-    <t>Lecrae - Deep End (Official Video)</t>
-  </si>
-  <si>
-    <t>s4EToyMHq2Y</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4EToyMHq2Y</t>
-  </si>
-  <si>
-    <t>LecraeVEVO</t>
-  </si>
-  <si>
-    <t>Anchor Box Mods Custom 3d Printed Mod &amp; Crunch Time Eliquid</t>
-  </si>
-  <si>
-    <t>C6ue4cHWJWk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C6ue4cHWJWk</t>
-  </si>
-  <si>
-    <t>Vapor Trail Channel</t>
-  </si>
-  <si>
-    <t>1 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merch has "vapor" on it </t>
+    <t>A Vaping-Related Illness Has Turned Deadly, Here’s What You Need to Know</t>
+  </si>
+  <si>
+    <t>-nLDcwtBSFA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-nLDcwtBSFA</t>
+  </si>
+  <si>
+    <t>Seeker</t>
+  </si>
+  <si>
+    <t>1 6</t>
+  </si>
+  <si>
+    <t>2015 Vape Pen Review: Top 5 Flower Vaporizers</t>
+  </si>
+  <si>
+    <t>c5XHDi7VBV8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=c5XHDi7VBV8</t>
+  </si>
+  <si>
+    <t>High Times</t>
+  </si>
+  <si>
+    <t>cannabis information website</t>
+  </si>
+  <si>
+    <t>How to use / setup vape pen, refillable rechargeable hookah stick first time use</t>
+  </si>
+  <si>
+    <t>g_Tv_-sX3pQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=g_Tv_-sX3pQ</t>
+  </si>
+  <si>
+    <t>Blu Disposable Menthol Electronic Cigarette Review   Bad Unit</t>
+  </si>
+  <si>
+    <t>gNm7IzqUHGg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gNm7IzqUHGg</t>
+  </si>
+  <si>
+    <t>DansVapeReview</t>
   </si>
 </sst>
 </file>
@@ -580,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,10 +811,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44174.01588459517</v>
+        <v>44174.94039271978</v>
       </c>
       <c r="D2" t="n">
-        <v>2896</v>
+        <v>823</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -673,10 +850,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44174.01647405818</v>
+        <v>44174.9407146364</v>
       </c>
       <c r="D3" t="n">
-        <v>338</v>
+        <v>1451</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -694,10 +871,10 @@
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -712,34 +889,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44174.01846577964</v>
+        <v>44174.94151115311</v>
       </c>
       <c r="D4" t="n">
-        <v>1354</v>
+        <v>831</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s"/>
     </row>
@@ -751,36 +928,38 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44174.01889026497</v>
+        <v>44174.94247096163</v>
       </c>
       <c r="D5" t="n">
-        <v>2876</v>
+        <v>594</v>
       </c>
       <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
       </c>
-      <c r="M5" t="s"/>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="n">
@@ -790,34 +969,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44174.01977162893</v>
+        <v>44174.94287011765</v>
       </c>
       <c r="D6" t="n">
-        <v>3225</v>
+        <v>3547</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
         <v>25</v>
       </c>
       <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
         <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
       </c>
       <c r="M6" t="s"/>
     </row>
@@ -829,38 +1008,36 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44174.02074127996</v>
+        <v>44174.94345456656</v>
       </c>
       <c r="D7" t="n">
-        <v>3709</v>
+        <v>2836</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
       </c>
-      <c r="M7" t="s">
-        <v>46</v>
-      </c>
+      <c r="M7" t="s"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="n">
@@ -870,34 +1047,34 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44174.02120693798</v>
+        <v>44174.94398881867</v>
       </c>
       <c r="D8" t="n">
-        <v>2752</v>
+        <v>2839</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s"/>
     </row>
@@ -909,34 +1086,34 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44174.02166271617</v>
+        <v>44174.9447787523</v>
       </c>
       <c r="D9" t="n">
-        <v>3778</v>
+        <v>3496</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -948,34 +1125,34 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44174.02245804715</v>
+        <v>44174.94512094564</v>
       </c>
       <c r="D10" t="n">
-        <v>941</v>
+        <v>640</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s">
         <v>60</v>
@@ -989,10 +1166,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44174.02263740366</v>
+        <v>44174.94564727972</v>
       </c>
       <c r="D11" t="n">
-        <v>1773</v>
+        <v>2999</v>
       </c>
       <c r="E11" t="s">
         <v>61</v>
@@ -1007,16 +1184,16 @@
         <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s"/>
     </row>
@@ -1028,38 +1205,547 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44174.0237189294</v>
+        <v>44174.94624939176</v>
       </c>
       <c r="D12" t="n">
-        <v>865</v>
+        <v>528</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44174.94687268187</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2497</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44174.94712863038</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2792</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44174.94725560373</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1625</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44174.94764358739</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3390</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" t="s">
         <v>70</v>
       </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>44174.94789631442</v>
+      </c>
+      <c r="D17" t="n">
+        <v>425</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" t="s"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>44174.948415786</v>
+      </c>
+      <c r="D18" t="n">
+        <v>769</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" t="s"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>44174.94920750071</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2152</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>44174.94947196489</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3270</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" t="s"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>44174.94985929059</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2401</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" t="s"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>44174.9503395479</v>
+      </c>
+      <c r="D22" t="n">
+        <v>383</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>44174.95120363282</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2701</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>44174.95164542129</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1206</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" t="s"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>44174.95205352169</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1482</v>
+      </c>
+      <c r="E25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -56,178 +56,337 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Vapouriz Fuse Review - best-ecig.co.uk</t>
-  </si>
-  <si>
-    <t>apcLgxLUsBw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=apcLgxLUsBw</t>
-  </si>
-  <si>
-    <t>best ecig</t>
+    <t>Vape Tutorial: How To Change Coils On Vape Tanks &amp; Clearomizers</t>
+  </si>
+  <si>
+    <t>5u0HexG0obs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5u0HexG0obs</t>
+  </si>
+  <si>
+    <t>MistHub</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>The Perfect Vape Juice?</t>
+  </si>
+  <si>
+    <t>b8X3unLR67I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=b8X3unLR67I</t>
+  </si>
+  <si>
+    <t>Ryan Hall</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2 4</t>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>Vaping / E-Cigarette Associated Lung Injury: CDC Update &amp; Vitamin E Acetate</t>
+  </si>
+  <si>
+    <t>Y8USqAzo2HA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y8USqAzo2HA</t>
+  </si>
+  <si>
+    <t>MedCram - Medical Lectures Explained CLEARLY</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Trying Teardrip Vape Juices! JUICE WEEK Episode #2</t>
+  </si>
+  <si>
+    <t>JAUAZm2C1xw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JAUAZm2C1xw</t>
+  </si>
+  <si>
+    <t>Watch out!!! Fake POP disposable.</t>
+  </si>
+  <si>
+    <t>xu3OYlft1gM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xu3OYlft1gM</t>
+  </si>
+  <si>
+    <t>KaleB ReviewS</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>What happened to the vape-related illnesses?..</t>
-  </si>
-  <si>
-    <t>HLd2L3eS2Bg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HLd2L3eS2Bg</t>
-  </si>
-  <si>
-    <t>DashVapes</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>0 1</t>
+    <t>How To Fill the Boulder Rock Vape Pod</t>
+  </si>
+  <si>
+    <t>lcl2miPpe7w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lcl2miPpe7w</t>
+  </si>
+  <si>
+    <t>Waterbeds 'n' Stuff</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>CNN's Dr. Sanjay Gupta: Are e-cigarettes safe?</t>
+  </si>
+  <si>
+    <t>7TqrdsNp-kM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7TqrdsNp-kM</t>
+  </si>
+  <si>
+    <t>CNN</t>
   </si>
   <si>
     <t>1 2</t>
   </si>
   <si>
-    <t>Trik vape skill tingkat dewa by Kylee Brehm</t>
-  </si>
-  <si>
-    <t>mnKuvh4DIIY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mnKuvh4DIIY</t>
-  </si>
-  <si>
-    <t>Vape Nation</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Why is everyone vaping these?!?</t>
-  </si>
-  <si>
-    <t>vO39SakiWv4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vO39SakiWv4</t>
-  </si>
-  <si>
-    <t>Ryan Hall</t>
-  </si>
-  <si>
-    <t>vape vlog</t>
-  </si>
-  <si>
-    <t>Top e-cigarette makers face questions from Congress over vaping risks – 2/5/2020</t>
-  </si>
-  <si>
-    <t>H8pLcDWnz_o</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=H8pLcDWnz_o</t>
-  </si>
-  <si>
-    <t>CNBC Television</t>
-  </si>
-  <si>
-    <t>Best Unregulated Squonk Box Mods of 2017</t>
-  </si>
-  <si>
-    <t>zyuooz4GDT4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zyuooz4GDT4</t>
-  </si>
-  <si>
-    <t>Jai Haze</t>
-  </si>
-  <si>
-    <t>Vapefly Jester REBUILDABLE + Mesh Coil Pod Kit | Coil Placement &amp; Vaping</t>
-  </si>
-  <si>
-    <t>80oIE4kgzcQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=80oIE4kgzcQ</t>
-  </si>
-  <si>
-    <t>HeavenGifts Official</t>
+    <t>Tobacco Use Treatment Section 1: Introduction - BAVLS</t>
+  </si>
+  <si>
+    <t>X5pW1sp8Ol4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X5pW1sp8Ol4</t>
+  </si>
+  <si>
+    <t>American Thoracic Society</t>
+  </si>
+  <si>
+    <t>The New Smok Stick M17! | Tiniest Vape Pen! | IndoorSmokers</t>
+  </si>
+  <si>
+    <t>-8QL9zEDoJc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-8QL9zEDoJc</t>
+  </si>
+  <si>
+    <t>IndoorSmokers</t>
+  </si>
+  <si>
+    <t>Cigma Vape eCigarettes - The Slimmest and Smallest e-Cigarette Vape Pen</t>
+  </si>
+  <si>
+    <t>KdWLIeEqVlk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KdWLIeEqVlk</t>
+  </si>
+  <si>
+    <t>Cigee Vape</t>
+  </si>
+  <si>
+    <t>e cig manufacturer</t>
+  </si>
+  <si>
+    <t>Best Vape Juice - 5 Dessert Eliquids you need to try | 2020 vision</t>
+  </si>
+  <si>
+    <t>qI5cBZY6vl8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qI5cBZY6vl8</t>
+  </si>
+  <si>
+    <t>Vape and Juice TV</t>
+  </si>
+  <si>
+    <t>E-Cigarettes: Why is Everyone Vaping?</t>
+  </si>
+  <si>
+    <t>NG-kqd36tXU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NG-kqd36tXU</t>
+  </si>
+  <si>
+    <t>Origin Of Everything</t>
+  </si>
+  <si>
+    <t>ZigZag Menthol Disposable E-Cig</t>
+  </si>
+  <si>
+    <t>imRsZXvw99k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=imRsZXvw99k</t>
+  </si>
+  <si>
+    <t>E-Cigarette Intelligence</t>
+  </si>
+  <si>
+    <t>links to discounts</t>
+  </si>
+  <si>
+    <t>podmod Mistic 2 vape mod</t>
+  </si>
+  <si>
+    <t>QwBj9lVDCoY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QwBj9lVDCoY</t>
+  </si>
+  <si>
+    <t>Professorvapes</t>
+  </si>
+  <si>
+    <t>Suorin Drop Vape Pod - How To Fill And Prime.</t>
+  </si>
+  <si>
+    <t>hb8SVwwo5fc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hb8SVwwo5fc</t>
+  </si>
+  <si>
+    <t>Vaporleaf - Online Vape Shop</t>
+  </si>
+  <si>
+    <t>Cigalectric,    Electronic cigarette ( gas station disposable e cig)</t>
+  </si>
+  <si>
+    <t>XXpwmm04oAI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XXpwmm04oAI</t>
+  </si>
+  <si>
+    <t>Lance Strever</t>
+  </si>
+  <si>
+    <t>The Best and Easiest Way to Refill JUUL Pods | Sherlock Hohms</t>
+  </si>
+  <si>
+    <t>9DzSjIWNjBA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9DzSjIWNjBA</t>
+  </si>
+  <si>
+    <t>Sherlock Hohms</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>The Risks of E-cigarettes and Vaping</t>
+  </si>
+  <si>
+    <t>QhsrukD0Vmo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QhsrukD0Vmo</t>
+  </si>
+  <si>
+    <t>Oregon Public Health Division</t>
+  </si>
+  <si>
+    <t>VEDFUN FEEL DISPOSABLE VAPE KIT</t>
+  </si>
+  <si>
+    <t>YqaXIjuZ4sE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YqaXIjuZ4sE</t>
+  </si>
+  <si>
+    <t>VEDFUN Official</t>
+  </si>
+  <si>
+    <t>product manufacturer</t>
+  </si>
+  <si>
+    <t>Fix for variable voltage vape pen Vertex 350VV or similar</t>
+  </si>
+  <si>
+    <t>GeU_aPMn480</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GeU_aPMn480</t>
+  </si>
+  <si>
+    <t>Alouicious Jackson</t>
+  </si>
+  <si>
+    <t>VFire Vape Review &amp; How To: Refillable Vape Pod Pen VFIRE vs XFIRE vs PULSE vs FEATHER</t>
+  </si>
+  <si>
+    <t>raq6ojX9Q7U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=raq6ojX9Q7U</t>
+  </si>
+  <si>
+    <t>HookahTownUSA</t>
   </si>
   <si>
     <t>0 7</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>The BEST Looking Vape Mod! iJoy Shogun Kit</t>
-  </si>
-  <si>
-    <t>Fs6QsBmpc70</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Fs6QsBmpc70</t>
-  </si>
-  <si>
-    <t>2 3</t>
-  </si>
-  <si>
-    <t>Vaping vs Smoking vs IQOS: Which is Least Harmful?  🚬</t>
-  </si>
-  <si>
-    <t>WJjkZOGOhjk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WJjkZOGOhjk</t>
-  </si>
-  <si>
-    <t>Joseph R Nemeth DDS &amp; Associates</t>
-  </si>
-  <si>
-    <t>JUUL: The enemy to vaping.</t>
-  </si>
-  <si>
-    <t>158VHvQlk2g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=158VHvQlk2g</t>
-  </si>
-  <si>
-    <t>Smokerstore Taifun Box Mod Review and Rundown | Precision Machining &amp; Craftsmanship</t>
-  </si>
-  <si>
-    <t>i9jwJFjtm24</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i9jwJFjtm24</t>
-  </si>
-  <si>
-    <t>The All-American Rejects - It Ends Tonight (Official Music Video)</t>
-  </si>
-  <si>
-    <t>yfdAGkjHGac</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yfdAGkjHGac</t>
-  </si>
-  <si>
-    <t>AllAmericanRjctsVEVO</t>
+    <t>Vaporcade &amp; 1963 Disposables Review</t>
+  </si>
+  <si>
+    <t>Gn__Vwuo_Tk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gn__Vwuo_Tk</t>
+  </si>
+  <si>
+    <t>Seven Report</t>
+  </si>
+  <si>
+    <t>Vaping 101: OHMs, Watts, and Voltage Explained for Beginners</t>
+  </si>
+  <si>
+    <t>LhW2_dncWl4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LhW2_dncWl4</t>
+  </si>
+  <si>
+    <t>TMG Productions</t>
+  </si>
+  <si>
+    <t>JP Saxe - If the World Was Ending (Official Video) ft. Julia Michaels</t>
+  </si>
+  <si>
+    <t>1jO2wSpAoxA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1jO2wSpAoxA</t>
+  </si>
+  <si>
+    <t>JPSaxeVEVO</t>
   </si>
   <si>
     <t>10</t>
@@ -583,7 +742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,10 +796,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44176.81870921919</v>
+        <v>44176.82774540384</v>
       </c>
       <c r="D2" t="n">
-        <v>3700</v>
+        <v>1963</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -664,7 +823,7 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s"/>
     </row>
@@ -676,34 +835,34 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44176.8200352345</v>
+        <v>44176.82808072714</v>
       </c>
       <c r="D3" t="n">
-        <v>2457</v>
+        <v>598</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
       <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s"/>
     </row>
@@ -715,34 +874,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44176.82075160724</v>
+        <v>44176.82830530156</v>
       </c>
       <c r="D4" t="n">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s"/>
     </row>
@@ -754,38 +913,36 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44176.82151491797</v>
+        <v>44176.82847868685</v>
       </c>
       <c r="D5" t="n">
-        <v>2251</v>
+        <v>2104</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
       <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M5" t="s"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="n">
@@ -795,34 +952,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44176.82189002255</v>
+        <v>44176.8292887084</v>
       </c>
       <c r="D6" t="n">
-        <v>186</v>
+        <v>1588</v>
       </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s"/>
     </row>
@@ -834,34 +991,34 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44176.8228854651</v>
+        <v>44176.82985638497</v>
       </c>
       <c r="D7" t="n">
-        <v>1956</v>
+        <v>1938</v>
       </c>
       <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
         <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
       </c>
       <c r="M7" t="s"/>
     </row>
@@ -873,34 +1030,34 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44176.82360836006</v>
+        <v>44176.83105292802</v>
       </c>
       <c r="D8" t="n">
-        <v>3682</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>49</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
         <v>50</v>
       </c>
-      <c r="I8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s"/>
     </row>
@@ -912,34 +1069,34 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44176.82384116631</v>
+        <v>44176.83127379017</v>
       </c>
       <c r="D9" t="n">
-        <v>889</v>
+        <v>2851</v>
       </c>
       <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>54</v>
       </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -951,34 +1108,34 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44176.82466400245</v>
+        <v>44176.83168617448</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1205</v>
       </c>
       <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>58</v>
       </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s"/>
     </row>
@@ -990,36 +1147,38 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44176.82514927807</v>
+        <v>44176.83256662735</v>
       </c>
       <c r="D11" t="n">
-        <v>432</v>
+        <v>3137</v>
       </c>
       <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
         <v>61</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>62</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
         <v>63</v>
       </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" t="s"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
@@ -1029,10 +1188,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44176.82530319346</v>
+        <v>44176.83294573323</v>
       </c>
       <c r="D12" t="n">
-        <v>2017</v>
+        <v>581</v>
       </c>
       <c r="E12" t="s">
         <v>64</v>
@@ -1044,19 +1203,19 @@
         <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
         <v>19</v>
-      </c>
-      <c r="L12" t="s">
-        <v>33</v>
       </c>
       <c r="M12" t="s"/>
     </row>
@@ -1068,36 +1227,508 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44176.82544887067</v>
+        <v>44176.83351643867</v>
       </c>
       <c r="D13" t="n">
-        <v>1793</v>
+        <v>226</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44176.8339416646</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1527</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44176.83420040247</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3357</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44176.83473966559</v>
+      </c>
+      <c r="D16" t="n">
+        <v>755</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" t="s"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>44176.83539514521</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1483</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>44176.8358949747</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2582</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" t="s"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>44176.83609449756</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2858</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" t="s"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>44176.8365219356</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3741</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>44176.83692706584</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3011</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" t="s"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>44176.83734538301</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3337</v>
+      </c>
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" t="s">
         <v>25</v>
       </c>
-      <c r="K13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" t="s"/>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>44176.83771002773</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2300</v>
+      </c>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" t="s"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>44176.838057154</v>
+      </c>
+      <c r="D24" t="n">
+        <v>828</v>
+      </c>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" t="s"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>44176.83824268608</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3772</v>
+      </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -56,340 +56,274 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Vape Tutorial: How To Change Coils On Vape Tanks &amp; Clearomizers</t>
-  </si>
-  <si>
-    <t>5u0HexG0obs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5u0HexG0obs</t>
-  </si>
-  <si>
-    <t>MistHub</t>
+    <t>Why adjunct professors are struggling to make ends meet</t>
+  </si>
+  <si>
+    <t>Bz4pK8UP4PM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Bz4pK8UP4PM</t>
+  </si>
+  <si>
+    <t>PBS NewsHour</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Steamcrave Titan PWM Quad 18650 Paraseries Box Mod Review and Rundown | Mini Refrigerator</t>
+  </si>
+  <si>
+    <t>QsZL8hCQ09g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QsZL8hCQ09g</t>
+  </si>
+  <si>
+    <t>Jai Haze</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Top 5 Best Pen Style Vape Devices of 2019</t>
+  </si>
+  <si>
+    <t>O7Vbvb5u6rQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O7Vbvb5u6rQ</t>
+  </si>
+  <si>
+    <t>FlavourVapour</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Trying Live Resin Vape Pens for the First Time</t>
+  </si>
+  <si>
+    <t>1gJ8GIgIjqM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1gJ8GIgIjqM</t>
+  </si>
+  <si>
+    <t>Channel 710</t>
+  </si>
+  <si>
+    <t>0 5</t>
+  </si>
+  <si>
+    <t>My disposable camera adventures (Part 1)</t>
+  </si>
+  <si>
+    <t>8AVJjJSfUtE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8AVJjJSfUtE</t>
+  </si>
+  <si>
+    <t>Jayna Valdez</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>A NEW Case of Vaping Lung Illness | First of the decade.</t>
+  </si>
+  <si>
+    <t>ik2wCHDMZ7I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ik2wCHDMZ7I</t>
+  </si>
+  <si>
+    <t>DashVapes</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>$5 30mls?!?! 5 Buck Chuck E-Liquid Review! VapingwithTwisted420</t>
+  </si>
+  <si>
+    <t>jZHQY0Uhnuk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jZHQY0Uhnuk</t>
+  </si>
+  <si>
+    <t>VapingwithTwisted420</t>
+  </si>
+  <si>
+    <t>Electronic Cigarette 101 - 2017 - Making your own e-liquid Part 1</t>
+  </si>
+  <si>
+    <t>TGdKtmtnCNs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TGdKtmtnCNs</t>
+  </si>
+  <si>
+    <t>Vaping With Vic</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>My homemade mechanical box mods</t>
+  </si>
+  <si>
+    <t>BI93T0b8uHc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BI93T0b8uHc</t>
+  </si>
+  <si>
+    <t>Jose Ilagan</t>
+  </si>
+  <si>
+    <t>Disposable Heroes Of Hiphoprisy, the - Television, The Drug Of The Nation [full official video]</t>
+  </si>
+  <si>
+    <t>hD9pJzZ1XGI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hD9pJzZ1XGI</t>
+  </si>
+  <si>
+    <t>Sonny Beech</t>
+  </si>
+  <si>
+    <t>SigECig Disposable E-Cigarette vs Rechargeable Starter Kit</t>
+  </si>
+  <si>
+    <t>Bo4PKvKsERc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Bo4PKvKsERc</t>
+  </si>
+  <si>
+    <t>SigECig</t>
+  </si>
+  <si>
+    <t>2 4 6</t>
+  </si>
+  <si>
+    <t>Mike's Vapebox January 2018!</t>
+  </si>
+  <si>
+    <t>MIYaBsG_SS0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MIYaBsG_SS0</t>
+  </si>
+  <si>
+    <t>Offbeat Otto</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>The Perfect Vape Juice?</t>
-  </si>
-  <si>
-    <t>b8X3unLR67I</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=b8X3unLR67I</t>
-  </si>
-  <si>
-    <t>Ryan Hall</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>Vaping / E-Cigarette Associated Lung Injury: CDC Update &amp; Vitamin E Acetate</t>
-  </si>
-  <si>
-    <t>Y8USqAzo2HA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y8USqAzo2HA</t>
-  </si>
-  <si>
-    <t>MedCram - Medical Lectures Explained CLEARLY</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Trying Teardrip Vape Juices! JUICE WEEK Episode #2</t>
-  </si>
-  <si>
-    <t>JAUAZm2C1xw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JAUAZm2C1xw</t>
-  </si>
-  <si>
-    <t>Watch out!!! Fake POP disposable.</t>
-  </si>
-  <si>
-    <t>xu3OYlft1gM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xu3OYlft1gM</t>
-  </si>
-  <si>
-    <t>KaleB ReviewS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>How To Fill the Boulder Rock Vape Pod</t>
-  </si>
-  <si>
-    <t>lcl2miPpe7w</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lcl2miPpe7w</t>
-  </si>
-  <si>
-    <t>Waterbeds 'n' Stuff</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>CNN's Dr. Sanjay Gupta: Are e-cigarettes safe?</t>
-  </si>
-  <si>
-    <t>7TqrdsNp-kM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7TqrdsNp-kM</t>
-  </si>
-  <si>
-    <t>CNN</t>
-  </si>
-  <si>
-    <t>1 2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Tobacco Use Treatment Section 1: Introduction - BAVLS</t>
-  </si>
-  <si>
-    <t>X5pW1sp8Ol4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=X5pW1sp8Ol4</t>
-  </si>
-  <si>
-    <t>American Thoracic Society</t>
-  </si>
-  <si>
-    <t>The New Smok Stick M17! | Tiniest Vape Pen! | IndoorSmokers</t>
-  </si>
-  <si>
-    <t>-8QL9zEDoJc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-8QL9zEDoJc</t>
-  </si>
-  <si>
-    <t>IndoorSmokers</t>
-  </si>
-  <si>
-    <t>Cigma Vape eCigarettes - The Slimmest and Smallest e-Cigarette Vape Pen</t>
-  </si>
-  <si>
-    <t>KdWLIeEqVlk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KdWLIeEqVlk</t>
-  </si>
-  <si>
-    <t>Cigee Vape</t>
-  </si>
-  <si>
-    <t>e cig manufacturer</t>
-  </si>
-  <si>
-    <t>Best Vape Juice - 5 Dessert Eliquids you need to try | 2020 vision</t>
-  </si>
-  <si>
-    <t>qI5cBZY6vl8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qI5cBZY6vl8</t>
-  </si>
-  <si>
-    <t>Vape and Juice TV</t>
-  </si>
-  <si>
-    <t>E-Cigarettes: Why is Everyone Vaping?</t>
-  </si>
-  <si>
-    <t>NG-kqd36tXU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NG-kqd36tXU</t>
-  </si>
-  <si>
-    <t>Origin Of Everything</t>
-  </si>
-  <si>
-    <t>ZigZag Menthol Disposable E-Cig</t>
-  </si>
-  <si>
-    <t>imRsZXvw99k</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=imRsZXvw99k</t>
-  </si>
-  <si>
-    <t>E-Cigarette Intelligence</t>
-  </si>
-  <si>
-    <t>links to discounts</t>
-  </si>
-  <si>
-    <t>podmod Mistic 2 vape mod</t>
-  </si>
-  <si>
-    <t>QwBj9lVDCoY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QwBj9lVDCoY</t>
-  </si>
-  <si>
-    <t>Professorvapes</t>
-  </si>
-  <si>
-    <t>Suorin Drop Vape Pod - How To Fill And Prime.</t>
-  </si>
-  <si>
-    <t>hb8SVwwo5fc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hb8SVwwo5fc</t>
-  </si>
-  <si>
-    <t>Vaporleaf - Online Vape Shop</t>
-  </si>
-  <si>
-    <t>Cigalectric,    Electronic cigarette ( gas station disposable e cig)</t>
-  </si>
-  <si>
-    <t>XXpwmm04oAI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XXpwmm04oAI</t>
-  </si>
-  <si>
-    <t>Lance Strever</t>
-  </si>
-  <si>
-    <t>The Best and Easiest Way to Refill JUUL Pods | Sherlock Hohms</t>
-  </si>
-  <si>
-    <t>9DzSjIWNjBA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9DzSjIWNjBA</t>
-  </si>
-  <si>
-    <t>Sherlock Hohms</t>
-  </si>
-  <si>
-    <t>3 7</t>
-  </si>
-  <si>
-    <t>The Risks of E-cigarettes and Vaping</t>
-  </si>
-  <si>
-    <t>QhsrukD0Vmo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QhsrukD0Vmo</t>
-  </si>
-  <si>
-    <t>Oregon Public Health Division</t>
-  </si>
-  <si>
-    <t>VEDFUN FEEL DISPOSABLE VAPE KIT</t>
-  </si>
-  <si>
-    <t>YqaXIjuZ4sE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YqaXIjuZ4sE</t>
-  </si>
-  <si>
-    <t>VEDFUN Official</t>
-  </si>
-  <si>
-    <t>product manufacturer</t>
-  </si>
-  <si>
-    <t>Fix for variable voltage vape pen Vertex 350VV or similar</t>
-  </si>
-  <si>
-    <t>GeU_aPMn480</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GeU_aPMn480</t>
-  </si>
-  <si>
-    <t>Alouicious Jackson</t>
-  </si>
-  <si>
-    <t>VFire Vape Review &amp; How To: Refillable Vape Pod Pen VFIRE vs XFIRE vs PULSE vs FEATHER</t>
-  </si>
-  <si>
-    <t>raq6ojX9Q7U</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=raq6ojX9Q7U</t>
-  </si>
-  <si>
-    <t>HookahTownUSA</t>
-  </si>
-  <si>
-    <t>0 7</t>
-  </si>
-  <si>
-    <t>Vaporcade &amp; 1963 Disposables Review</t>
-  </si>
-  <si>
-    <t>Gn__Vwuo_Tk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Gn__Vwuo_Tk</t>
-  </si>
-  <si>
-    <t>Seven Report</t>
-  </si>
-  <si>
-    <t>Vaping 101: OHMs, Watts, and Voltage Explained for Beginners</t>
-  </si>
-  <si>
-    <t>LhW2_dncWl4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LhW2_dncWl4</t>
-  </si>
-  <si>
-    <t>TMG Productions</t>
-  </si>
-  <si>
-    <t>JP Saxe - If the World Was Ending (Official Video) ft. Julia Michaels</t>
-  </si>
-  <si>
-    <t>1jO2wSpAoxA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1jO2wSpAoxA</t>
-  </si>
-  <si>
-    <t>JPSaxeVEVO</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>Waiting For The End (Official Video) - Linkin Park</t>
+  </si>
+  <si>
+    <t>5qF_qbaWt3Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5qF_qbaWt3Q</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>Cannabis 101: How to Use A Vape Pen - HelloMD</t>
+  </si>
+  <si>
+    <t>I3vM64Ga7sc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=I3vM64Ga7sc</t>
+  </si>
+  <si>
+    <t>HelloMD</t>
+  </si>
+  <si>
+    <t>5 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> largest online community of health and wellness-oriented cannabis consumers</t>
+  </si>
+  <si>
+    <t>TouchScreen Pod Vape! The Touch Pod From Asvape!</t>
+  </si>
+  <si>
+    <t>BhoY69KGvKw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BhoY69KGvKw</t>
+  </si>
+  <si>
+    <t>RiP Trippers</t>
+  </si>
+  <si>
+    <t>JUUL vs Puff Bar Disposable Pod Device Review Pt. 3</t>
+  </si>
+  <si>
+    <t>vPIoDstegxo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vPIoDstegxo</t>
+  </si>
+  <si>
+    <t>Fumb Duck</t>
+  </si>
+  <si>
+    <t>5 6</t>
+  </si>
+  <si>
+    <t>Brisket Burnt Ends | Smoked Beef Brisket and Burnt Ends on Ole Hickory</t>
+  </si>
+  <si>
+    <t>FVOh8430oCs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FVOh8430oCs</t>
+  </si>
+  <si>
+    <t>HowToBBQRight</t>
+  </si>
+  <si>
+    <t>POP XTRA DISPOSABLE | REVIEW | YD BOYS</t>
+  </si>
+  <si>
+    <t>xmTvcqlDUHc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xmTvcqlDUHc</t>
+  </si>
+  <si>
+    <t>YD BOYS *</t>
   </si>
 </sst>
 </file>
@@ -742,7 +676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -796,10 +730,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44176.82774540384</v>
+        <v>44181.74007556099</v>
       </c>
       <c r="D2" t="n">
-        <v>1963</v>
+        <v>3441</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -823,7 +757,7 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s"/>
     </row>
@@ -835,34 +769,34 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44176.82808072714</v>
+        <v>44181.74177550286</v>
       </c>
       <c r="D3" t="n">
-        <v>598</v>
+        <v>2009</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s"/>
     </row>
@@ -874,34 +808,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44176.82830530156</v>
+        <v>44181.74340033543</v>
       </c>
       <c r="D4" t="n">
-        <v>132</v>
+        <v>1106</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s"/>
     </row>
@@ -913,34 +847,34 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44176.82847868685</v>
+        <v>44181.74448375906</v>
       </c>
       <c r="D5" t="n">
-        <v>2104</v>
+        <v>1196</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -952,34 +886,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44176.8292887084</v>
+        <v>44181.74466294274</v>
       </c>
       <c r="D6" t="n">
-        <v>1588</v>
+        <v>2207</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s"/>
     </row>
@@ -991,34 +925,34 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44176.82985638497</v>
+        <v>44181.76023816737</v>
       </c>
       <c r="D7" t="n">
-        <v>1938</v>
+        <v>373</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="M7" t="s"/>
     </row>
@@ -1030,34 +964,34 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44176.83105292802</v>
+        <v>44181.76058897462</v>
       </c>
       <c r="D8" t="n">
-        <v>152</v>
+        <v>2255</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
         <v>46</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s"/>
     </row>
@@ -1069,34 +1003,34 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44176.83127379017</v>
+        <v>44181.76133095071</v>
       </c>
       <c r="D9" t="n">
-        <v>2851</v>
+        <v>488</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -1108,34 +1042,34 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44176.83168617448</v>
+        <v>44181.76176137507</v>
       </c>
       <c r="D10" t="n">
-        <v>1205</v>
+        <v>3704</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s"/>
     </row>
@@ -1147,38 +1081,36 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44176.83256662735</v>
+        <v>44181.76231916821</v>
       </c>
       <c r="D11" t="n">
-        <v>3137</v>
+        <v>2326</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M11" t="s"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
@@ -1188,34 +1120,34 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44176.83294573323</v>
+        <v>44181.7634648847</v>
       </c>
       <c r="D12" t="n">
-        <v>581</v>
+        <v>2785</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M12" t="s"/>
     </row>
@@ -1227,34 +1159,34 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44176.83351643867</v>
+        <v>44181.76415953491</v>
       </c>
       <c r="D13" t="n">
-        <v>226</v>
+        <v>2915</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s"/>
     </row>
@@ -1266,38 +1198,36 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44176.8339416646</v>
+        <v>44181.76602576539</v>
       </c>
       <c r="D14" t="n">
-        <v>1527</v>
+        <v>3205</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M14" t="s"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="n">
@@ -1307,36 +1237,38 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44176.83420040247</v>
+        <v>44181.76661404209</v>
       </c>
       <c r="D15" t="n">
-        <v>3357</v>
+        <v>2694</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="n">
@@ -1346,34 +1278,34 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44176.83473966559</v>
+        <v>44181.76706499694</v>
       </c>
       <c r="D16" t="n">
-        <v>755</v>
+        <v>2190</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s"/>
     </row>
@@ -1385,34 +1317,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44176.83539514521</v>
+        <v>44181.76727205115</v>
       </c>
       <c r="D17" t="n">
-        <v>1483</v>
+        <v>3441</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M17" t="s"/>
     </row>
@@ -1424,34 +1356,34 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44176.8358949747</v>
+        <v>44181.76785345126</v>
       </c>
       <c r="D18" t="n">
-        <v>2582</v>
+        <v>1399</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s"/>
     </row>
@@ -1463,34 +1395,34 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44176.83609449756</v>
+        <v>44181.76804358997</v>
       </c>
       <c r="D19" t="n">
-        <v>2858</v>
+        <v>1750</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M19" t="s"/>
     </row>
@@ -1502,233 +1434,36 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44176.8365219356</v>
+        <v>44181.76870071993</v>
       </c>
       <c r="D20" t="n">
-        <v>3741</v>
+        <v>1632</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L20" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>44176.83692706584</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3011</v>
-      </c>
-      <c r="E21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" t="s"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>44176.83734538301</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3337</v>
-      </c>
-      <c r="E22" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" t="s"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>44176.83771002773</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2300</v>
-      </c>
-      <c r="E23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" t="s"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>44176.838057154</v>
-      </c>
-      <c r="D24" t="n">
-        <v>828</v>
-      </c>
-      <c r="E24" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" t="s"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>44176.83824268608</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3772</v>
-      </c>
-      <c r="E25" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" t="s">
-        <v>122</v>
-      </c>
-      <c r="H25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="M20" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -56,274 +56,283 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Why adjunct professors are struggling to make ends meet</t>
-  </si>
-  <si>
-    <t>Bz4pK8UP4PM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Bz4pK8UP4PM</t>
-  </si>
-  <si>
-    <t>PBS NewsHour</t>
+    <t>Best New Vape Juices at 2019 National Vape Expo - New E-Liquid</t>
+  </si>
+  <si>
+    <t>VQVP0af4o-E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VQVP0af4o-E</t>
+  </si>
+  <si>
+    <t>ZampleBox</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>How to build a flashlight e cig mod</t>
+  </si>
+  <si>
+    <t>-PGYuulptz8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-PGYuulptz8</t>
+  </si>
+  <si>
+    <t>tek413</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>$4 Vape Tank / Innokin GoMax Disposable Subohm Tank</t>
+  </si>
+  <si>
+    <t>IvwQsEpvveo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IvwQsEpvveo</t>
+  </si>
+  <si>
+    <t>Zophie Reviews</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Insane Desert Rally Racing Ends In Epic Crashes! - BeamNG Multiplayer Mod Gameplay</t>
+  </si>
+  <si>
+    <t>6nhptKj-pIk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6nhptKj-pIk</t>
+  </si>
+  <si>
+    <t>Camodo Gaming</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>9</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Black Walnut - Applying Waterlox Finish</t>
+  </si>
+  <si>
+    <t>eVaFh6T7TT8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eVaFh6T7TT8</t>
+  </si>
+  <si>
+    <t>Knock On Wood Custom</t>
+  </si>
+  <si>
+    <t>My Top 4 Favorite E-Juices of 2019 (So Far)</t>
+  </si>
+  <si>
+    <t>eY5uLjTnPis</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eY5uLjTnPis</t>
+  </si>
+  <si>
+    <t>Sherlock Hohms</t>
+  </si>
+  <si>
+    <t>BLOW DISPOSABLE REVIEW! SNOW (BETTER THAN PUFF BARS!)</t>
+  </si>
+  <si>
+    <t>z1DafEpzBOE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z1DafEpzBOE</t>
+  </si>
+  <si>
+    <t>RawComet</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>The End of Tik Tok Hospital</t>
+  </si>
+  <si>
+    <t>t8DLdsgVJYk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t8DLdsgVJYk</t>
+  </si>
+  <si>
+    <t>penguinz0</t>
+  </si>
+  <si>
+    <t>Smok RPM 40 VS Voopoo Vinci - Which POD MOD Wins? ✌️🚭</t>
+  </si>
+  <si>
+    <t>ZsDIWsCjLag</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZsDIWsCjLag</t>
+  </si>
+  <si>
+    <t>Vaping Insider</t>
+  </si>
+  <si>
+    <t>PHARMAC seminar: Smokefree 2025, 6 of 6. Hands on guide to vaping devices</t>
+  </si>
+  <si>
+    <t>sm1alXpNAXA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sm1alXpNAXA</t>
+  </si>
+  <si>
+    <t>PHARMACgovtnz</t>
+  </si>
+  <si>
+    <t>Geekvape Bident Pod 950mAh 3.5ml juice capacity / micro AS chipset</t>
+  </si>
+  <si>
+    <t>y91F3iQmN9U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y91F3iQmN9U</t>
+  </si>
+  <si>
+    <t>Adrian Lo Dejavu</t>
+  </si>
+  <si>
+    <t>UpClose: Vaping, 3-27-20</t>
+  </si>
+  <si>
+    <t>dX_M2TgcbBg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dX_M2TgcbBg</t>
+  </si>
+  <si>
+    <t>Marshfield Media Access</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Steamcrave Titan PWM Quad 18650 Paraseries Box Mod Review and Rundown | Mini Refrigerator</t>
-  </si>
-  <si>
-    <t>QsZL8hCQ09g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QsZL8hCQ09g</t>
-  </si>
-  <si>
-    <t>Jai Haze</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Top 5 Best Pen Style Vape Devices of 2019</t>
-  </si>
-  <si>
-    <t>O7Vbvb5u6rQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=O7Vbvb5u6rQ</t>
-  </si>
-  <si>
-    <t>FlavourVapour</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Trying Live Resin Vape Pens for the First Time</t>
-  </si>
-  <si>
-    <t>1gJ8GIgIjqM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1gJ8GIgIjqM</t>
-  </si>
-  <si>
-    <t>Channel 710</t>
+    <t>Utillian 5 vs Yocan Evolve Plus Wax Pen Comparison Review</t>
+  </si>
+  <si>
+    <t>GfZgHmD8M3k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GfZgHmD8M3k</t>
+  </si>
+  <si>
+    <t>TVAPE</t>
   </si>
   <si>
     <t>0 5</t>
   </si>
   <si>
-    <t>My disposable camera adventures (Part 1)</t>
-  </si>
-  <si>
-    <t>8AVJjJSfUtE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8AVJjJSfUtE</t>
-  </si>
-  <si>
-    <t>Jayna Valdez</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>A NEW Case of Vaping Lung Illness | First of the decade.</t>
-  </si>
-  <si>
-    <t>ik2wCHDMZ7I</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ik2wCHDMZ7I</t>
-  </si>
-  <si>
-    <t>DashVapes</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>0 1</t>
   </si>
   <si>
-    <t>1 2</t>
-  </si>
-  <si>
-    <t>$5 30mls?!?! 5 Buck Chuck E-Liquid Review! VapingwithTwisted420</t>
-  </si>
-  <si>
-    <t>jZHQY0Uhnuk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jZHQY0Uhnuk</t>
-  </si>
-  <si>
-    <t>VapingwithTwisted420</t>
-  </si>
-  <si>
-    <t>Electronic Cigarette 101 - 2017 - Making your own e-liquid Part 1</t>
-  </si>
-  <si>
-    <t>TGdKtmtnCNs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TGdKtmtnCNs</t>
-  </si>
-  <si>
-    <t>Vaping With Vic</t>
-  </si>
-  <si>
-    <t>3 7</t>
-  </si>
-  <si>
-    <t>My homemade mechanical box mods</t>
-  </si>
-  <si>
-    <t>BI93T0b8uHc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BI93T0b8uHc</t>
-  </si>
-  <si>
-    <t>Jose Ilagan</t>
-  </si>
-  <si>
-    <t>Disposable Heroes Of Hiphoprisy, the - Television, The Drug Of The Nation [full official video]</t>
-  </si>
-  <si>
-    <t>hD9pJzZ1XGI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hD9pJzZ1XGI</t>
-  </si>
-  <si>
-    <t>Sonny Beech</t>
-  </si>
-  <si>
-    <t>SigECig Disposable E-Cigarette vs Rechargeable Starter Kit</t>
-  </si>
-  <si>
-    <t>Bo4PKvKsERc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Bo4PKvKsERc</t>
-  </si>
-  <si>
-    <t>SigECig</t>
-  </si>
-  <si>
-    <t>2 4 6</t>
-  </si>
-  <si>
-    <t>Mike's Vapebox January 2018!</t>
-  </si>
-  <si>
-    <t>MIYaBsG_SS0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MIYaBsG_SS0</t>
-  </si>
-  <si>
-    <t>Offbeat Otto</t>
+    <t>CBD DISPOSABLE VAPE BY Rolled Green!</t>
+  </si>
+  <si>
+    <t>ittixnkPsAA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ittixnkPsAA</t>
+  </si>
+  <si>
+    <t>The CBD Professor</t>
+  </si>
+  <si>
+    <t>Quest for 2000 HP Street Cummins ends with Catastrophic Failure | Power Driven Diesel</t>
+  </si>
+  <si>
+    <t>OU-Nt0xC2gY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OU-Nt0xC2gY</t>
+  </si>
+  <si>
+    <t>Power Driven Diesel</t>
+  </si>
+  <si>
+    <t>Sceptre MTL/RDL Pod Mod by INNOKIN  (an unboxing)</t>
+  </si>
+  <si>
+    <t>-Wumo2dTdA0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-Wumo2dTdA0</t>
+  </si>
+  <si>
+    <t>Todds Reviews</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>Waiting For The End (Official Video) - Linkin Park</t>
-  </si>
-  <si>
-    <t>5qF_qbaWt3Q</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5qF_qbaWt3Q</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
-  </si>
-  <si>
-    <t>Cannabis 101: How to Use A Vape Pen - HelloMD</t>
-  </si>
-  <si>
-    <t>I3vM64Ga7sc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=I3vM64Ga7sc</t>
-  </si>
-  <si>
-    <t>HelloMD</t>
-  </si>
-  <si>
-    <t>5 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> largest online community of health and wellness-oriented cannabis consumers</t>
-  </si>
-  <si>
-    <t>TouchScreen Pod Vape! The Touch Pod From Asvape!</t>
-  </si>
-  <si>
-    <t>BhoY69KGvKw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BhoY69KGvKw</t>
-  </si>
-  <si>
-    <t>RiP Trippers</t>
-  </si>
-  <si>
-    <t>JUUL vs Puff Bar Disposable Pod Device Review Pt. 3</t>
-  </si>
-  <si>
-    <t>vPIoDstegxo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vPIoDstegxo</t>
-  </si>
-  <si>
-    <t>Fumb Duck</t>
-  </si>
-  <si>
-    <t>5 6</t>
-  </si>
-  <si>
-    <t>Brisket Burnt Ends | Smoked Beef Brisket and Burnt Ends on Ole Hickory</t>
-  </si>
-  <si>
-    <t>FVOh8430oCs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=FVOh8430oCs</t>
-  </si>
-  <si>
-    <t>HowToBBQRight</t>
-  </si>
-  <si>
-    <t>POP XTRA DISPOSABLE | REVIEW | YD BOYS</t>
-  </si>
-  <si>
-    <t>xmTvcqlDUHc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xmTvcqlDUHc</t>
-  </si>
-  <si>
-    <t>YD BOYS *</t>
+    <t>How to Refill your JUUL Vape Pods [Closed Caption]</t>
+  </si>
+  <si>
+    <t>gmAnGQ43NLc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gmAnGQ43NLc</t>
+  </si>
+  <si>
+    <t>Hewn from the Mountain</t>
+  </si>
+  <si>
+    <t>Ciga like go ecig review</t>
+  </si>
+  <si>
+    <t>0lMlR-IyhQU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0lMlR-IyhQU</t>
+  </si>
+  <si>
+    <t>Matthew Virani</t>
+  </si>
+  <si>
+    <t>Metallica: Disposable Heroes (Hämeenlinna, Finland - July 16, 2019)</t>
+  </si>
+  <si>
+    <t>TC-kqiIc5iQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TC-kqiIc5iQ</t>
+  </si>
+  <si>
+    <t>Metallica</t>
+  </si>
+  <si>
+    <t>Beginners Guide to Vaping With RDAs - Build | Wick | Vape</t>
+  </si>
+  <si>
+    <t>vx_YLLcmUPk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vx_YLLcmUPk</t>
+  </si>
+  <si>
+    <t>White Whisker Vapes</t>
   </si>
 </sst>
 </file>
@@ -676,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,10 +739,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44181.74007556099</v>
+        <v>44181.77458506934</v>
       </c>
       <c r="D2" t="n">
-        <v>3441</v>
+        <v>608</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -754,10 +763,10 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s"/>
     </row>
@@ -769,34 +778,34 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44181.74177550286</v>
+        <v>44181.77527645638</v>
       </c>
       <c r="D3" t="n">
-        <v>2009</v>
+        <v>2416</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s"/>
     </row>
@@ -808,34 +817,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44181.74340033543</v>
+        <v>44181.77562830015</v>
       </c>
       <c r="D4" t="n">
-        <v>1106</v>
+        <v>3743</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s"/>
     </row>
@@ -847,34 +856,34 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44181.74448375906</v>
+        <v>44181.77583135629</v>
       </c>
       <c r="D5" t="n">
-        <v>1196</v>
+        <v>3486</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
         <v>36</v>
       </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -886,10 +895,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44181.74466294274</v>
+        <v>44181.77594813007</v>
       </c>
       <c r="D6" t="n">
-        <v>2207</v>
+        <v>2335</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
@@ -904,16 +913,16 @@
         <v>40</v>
       </c>
       <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s"/>
     </row>
@@ -925,34 +934,34 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44181.76023816737</v>
+        <v>44181.77660383513</v>
       </c>
       <c r="D7" t="n">
-        <v>373</v>
+        <v>603</v>
       </c>
       <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s"/>
     </row>
@@ -964,34 +973,34 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44181.76058897462</v>
+        <v>44181.77747411677</v>
       </c>
       <c r="D8" t="n">
-        <v>2255</v>
+        <v>2731</v>
       </c>
       <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>25</v>
       </c>
-      <c r="J8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s"/>
     </row>
@@ -1003,34 +1012,34 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44181.76133095071</v>
+        <v>44181.77759342648</v>
       </c>
       <c r="D9" t="n">
-        <v>488</v>
+        <v>1732</v>
       </c>
       <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
         <v>53</v>
       </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
-      </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -1042,34 +1051,34 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44181.76176137507</v>
+        <v>44181.77895461154</v>
       </c>
       <c r="D10" t="n">
-        <v>3704</v>
+        <v>1284</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s"/>
     </row>
@@ -1081,34 +1090,34 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44181.76231916821</v>
+        <v>44181.78055921967</v>
       </c>
       <c r="D11" t="n">
-        <v>2326</v>
+        <v>3135</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s"/>
     </row>
@@ -1120,34 +1129,34 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44181.7634648847</v>
+        <v>44181.78110220457</v>
       </c>
       <c r="D12" t="n">
-        <v>2785</v>
+        <v>2592</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
         <v>25</v>
       </c>
-      <c r="J12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" t="s">
-        <v>31</v>
-      </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s"/>
     </row>
@@ -1159,34 +1168,34 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44181.76415953491</v>
+        <v>44181.78149634668</v>
       </c>
       <c r="D13" t="n">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
         <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M13" t="s"/>
     </row>
@@ -1198,34 +1207,34 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44181.76602576539</v>
+        <v>44181.7829797868</v>
       </c>
       <c r="D14" t="n">
-        <v>3205</v>
+        <v>1192</v>
       </c>
       <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" t="s">
         <v>76</v>
       </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
       </c>
       <c r="M14" t="s"/>
     </row>
@@ -1237,38 +1246,36 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44181.76661404209</v>
+        <v>44181.78318409005</v>
       </c>
       <c r="D15" t="n">
-        <v>2694</v>
+        <v>1413</v>
       </c>
       <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
         <v>80</v>
       </c>
-      <c r="F15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" t="s">
-        <v>83</v>
-      </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" t="s">
-        <v>85</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M15" t="s"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="n">
@@ -1278,34 +1285,34 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44181.76706499694</v>
+        <v>44181.783398085</v>
       </c>
       <c r="D16" t="n">
-        <v>2190</v>
+        <v>3603</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M16" t="s"/>
     </row>
@@ -1317,34 +1324,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44181.76727205115</v>
+        <v>44181.78427401982</v>
       </c>
       <c r="D17" t="n">
-        <v>3441</v>
+        <v>3083</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s"/>
     </row>
@@ -1356,10 +1363,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44181.76785345126</v>
+        <v>44181.78487963398</v>
       </c>
       <c r="D18" t="n">
-        <v>1399</v>
+        <v>706</v>
       </c>
       <c r="E18" t="s">
         <v>90</v>
@@ -1374,16 +1381,16 @@
         <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M18" t="s"/>
     </row>
@@ -1395,34 +1402,34 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44181.76804358997</v>
+        <v>44181.78515327759</v>
       </c>
       <c r="D19" t="n">
-        <v>1750</v>
+        <v>1011</v>
       </c>
       <c r="E19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" t="s">
         <v>95</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>96</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>97</v>
       </c>
-      <c r="H19" t="s">
-        <v>98</v>
-      </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="L19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M19" t="s"/>
     </row>
@@ -1434,36 +1441,75 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44181.76870071993</v>
+        <v>44181.78526304974</v>
       </c>
       <c r="D20" t="n">
-        <v>1632</v>
+        <v>3184</v>
       </c>
       <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
         <v>99</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>100</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>101</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" t="s"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>44181.78588500648</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3451</v>
+      </c>
+      <c r="E21" t="s">
         <v>102</v>
       </c>
-      <c r="I20" t="s">
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
         <v>25</v>
       </c>
-      <c r="J20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M20" t="s"/>
+      <c r="L21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -56,283 +56,355 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Best New Vape Juices at 2019 National Vape Expo - New E-Liquid</t>
-  </si>
-  <si>
-    <t>VQVP0af4o-E</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VQVP0af4o-E</t>
-  </si>
-  <si>
-    <t>ZampleBox</t>
+    <t>Centaurus DNA 250C by Lost Vape!</t>
+  </si>
+  <si>
+    <t>tmk2orpFJYk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tmk2orpFJYk</t>
+  </si>
+  <si>
+    <t>Matt From SMM</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Testing 2 thc vape pens by alpine</t>
+  </si>
+  <si>
+    <t>ECBnKrgfdPE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ECBnKrgfdPE</t>
+  </si>
+  <si>
+    <t>420 gamer</t>
+  </si>
+  <si>
+    <t>0 5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2020 LG NanoCell TV l What is NanoCell Technology?</t>
+  </si>
+  <si>
+    <t>UG4dRlIsxe0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UG4dRlIsxe0</t>
+  </si>
+  <si>
+    <t>LG Global</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Cigreen Tank Crossing Box Mod Review | Blackhat Vapor - Jacksonville E Cigarette Shop</t>
+  </si>
+  <si>
+    <t>V4ffTYRcz2g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V4ffTYRcz2g</t>
+  </si>
+  <si>
+    <t>Blackhat Vapor</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>Xiaomi Taki Disposable E-Cig Review | Vaping On Peas?</t>
+  </si>
+  <si>
+    <t>0_XHqLvK6Xk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0_XHqLvK6Xk</t>
+  </si>
+  <si>
+    <t>FlatCap Vaper</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>TGO Pod Mod By VAPEFLY ~Vape Pod Kit Review~</t>
+  </si>
+  <si>
+    <t>elhDGa48zcU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=elhDGa48zcU</t>
+  </si>
+  <si>
+    <t>MyFreedomSmokes</t>
+  </si>
+  <si>
+    <t>2 3</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>How to build a flashlight e cig mod</t>
-  </si>
-  <si>
-    <t>-PGYuulptz8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-PGYuulptz8</t>
-  </si>
-  <si>
-    <t>tek413</t>
+    <t>【明日方舟/Arknights】[AF-6] - Low End Squad - Arknights Strategy</t>
+  </si>
+  <si>
+    <t>x3G442PIlYA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x3G442PIlYA</t>
+  </si>
+  <si>
+    <t>KyoStinV</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>Bad A** Color Vape Pods! The Mino Pod Kit By Coilart!</t>
+  </si>
+  <si>
+    <t>34hURii9vzE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=34hURii9vzE</t>
+  </si>
+  <si>
+    <t>RiP Trippers</t>
+  </si>
+  <si>
+    <t>2 5</t>
+  </si>
+  <si>
+    <t>Mimic Ecig Pod System</t>
+  </si>
+  <si>
+    <t>XiL680n7cb4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XiL680n7cb4</t>
+  </si>
+  <si>
+    <t>Timmerz</t>
+  </si>
+  <si>
+    <t>MUNGO CHERRY VAPE JUICE - MUNGO JERRY</t>
+  </si>
+  <si>
+    <t>OyBfufMDES8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OyBfufMDES8</t>
+  </si>
+  <si>
+    <t>Mungo Jerry</t>
+  </si>
+  <si>
+    <t>VAPING IN SCHOOL!</t>
+  </si>
+  <si>
+    <t>ApVNTDUYCvA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ApVNTDUYCvA</t>
+  </si>
+  <si>
+    <t>Nick Howard Vlogs</t>
+  </si>
+  <si>
+    <t>Kodaline - In The End - One Day At A Time Sessions</t>
+  </si>
+  <si>
+    <t>YljzNCE5n8U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YljzNCE5n8U</t>
+  </si>
+  <si>
+    <t>Kodaline</t>
+  </si>
+  <si>
+    <t>The VooPoo TOO Vape Mod!</t>
+  </si>
+  <si>
+    <t>LSm21nD6HFI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LSm21nD6HFI</t>
+  </si>
+  <si>
+    <t>Vinci Air Mod Pod by Voopoo!</t>
+  </si>
+  <si>
+    <t>67vkMMw2lXc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=67vkMMw2lXc</t>
+  </si>
+  <si>
+    <t>AEGIS Solo NEW Waterproof VAPE Mod Unboxing from GeekVape</t>
+  </si>
+  <si>
+    <t>7Oraexcon3M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7Oraexcon3M</t>
+  </si>
+  <si>
+    <t>J LumbS</t>
+  </si>
+  <si>
+    <t>70 Watts Of AiO POWER!! The iJOY Jupiter Vape Pod Kit! A Single 18650 Battery Vape!</t>
+  </si>
+  <si>
+    <t>Gep65R5pfao</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gep65R5pfao</t>
+  </si>
+  <si>
+    <t>How to refill your JUUL Pods with vape juice 🥤</t>
+  </si>
+  <si>
+    <t>fUaMjfqz5Ak</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fUaMjfqz5Ak</t>
+  </si>
+  <si>
+    <t>rapidtronics</t>
   </si>
   <si>
     <t>3 7</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>$4 Vape Tank / Innokin GoMax Disposable Subohm Tank</t>
-  </si>
-  <si>
-    <t>IvwQsEpvveo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IvwQsEpvveo</t>
-  </si>
-  <si>
-    <t>Zophie Reviews</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Insane Desert Rally Racing Ends In Epic Crashes! - BeamNG Multiplayer Mod Gameplay</t>
-  </si>
-  <si>
-    <t>6nhptKj-pIk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6nhptKj-pIk</t>
-  </si>
-  <si>
-    <t>Camodo Gaming</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Black Walnut - Applying Waterlox Finish</t>
-  </si>
-  <si>
-    <t>eVaFh6T7TT8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eVaFh6T7TT8</t>
-  </si>
-  <si>
-    <t>Knock On Wood Custom</t>
-  </si>
-  <si>
-    <t>My Top 4 Favorite E-Juices of 2019 (So Far)</t>
-  </si>
-  <si>
-    <t>eY5uLjTnPis</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eY5uLjTnPis</t>
-  </si>
-  <si>
-    <t>Sherlock Hohms</t>
-  </si>
-  <si>
-    <t>BLOW DISPOSABLE REVIEW! SNOW (BETTER THAN PUFF BARS!)</t>
-  </si>
-  <si>
-    <t>z1DafEpzBOE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=z1DafEpzBOE</t>
-  </si>
-  <si>
-    <t>RawComet</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>The End of Tik Tok Hospital</t>
-  </si>
-  <si>
-    <t>t8DLdsgVJYk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t8DLdsgVJYk</t>
-  </si>
-  <si>
-    <t>penguinz0</t>
-  </si>
-  <si>
-    <t>Smok RPM 40 VS Voopoo Vinci - Which POD MOD Wins? ✌️🚭</t>
-  </si>
-  <si>
-    <t>ZsDIWsCjLag</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZsDIWsCjLag</t>
-  </si>
-  <si>
-    <t>Vaping Insider</t>
-  </si>
-  <si>
-    <t>PHARMAC seminar: Smokefree 2025, 6 of 6. Hands on guide to vaping devices</t>
-  </si>
-  <si>
-    <t>sm1alXpNAXA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sm1alXpNAXA</t>
-  </si>
-  <si>
-    <t>PHARMACgovtnz</t>
-  </si>
-  <si>
-    <t>Geekvape Bident Pod 950mAh 3.5ml juice capacity / micro AS chipset</t>
-  </si>
-  <si>
-    <t>y91F3iQmN9U</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y91F3iQmN9U</t>
-  </si>
-  <si>
-    <t>Adrian Lo Dejavu</t>
-  </si>
-  <si>
-    <t>UpClose: Vaping, 3-27-20</t>
-  </si>
-  <si>
-    <t>dX_M2TgcbBg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dX_M2TgcbBg</t>
-  </si>
-  <si>
-    <t>Marshfield Media Access</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Utillian 5 vs Yocan Evolve Plus Wax Pen Comparison Review</t>
-  </si>
-  <si>
-    <t>GfZgHmD8M3k</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GfZgHmD8M3k</t>
-  </si>
-  <si>
-    <t>TVAPE</t>
-  </si>
-  <si>
-    <t>0 5</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>CBD DISPOSABLE VAPE BY Rolled Green!</t>
-  </si>
-  <si>
-    <t>ittixnkPsAA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ittixnkPsAA</t>
-  </si>
-  <si>
-    <t>The CBD Professor</t>
-  </si>
-  <si>
-    <t>Quest for 2000 HP Street Cummins ends with Catastrophic Failure | Power Driven Diesel</t>
-  </si>
-  <si>
-    <t>OU-Nt0xC2gY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OU-Nt0xC2gY</t>
-  </si>
-  <si>
-    <t>Power Driven Diesel</t>
-  </si>
-  <si>
-    <t>Sceptre MTL/RDL Pod Mod by INNOKIN  (an unboxing)</t>
-  </si>
-  <si>
-    <t>-Wumo2dTdA0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-Wumo2dTdA0</t>
-  </si>
-  <si>
-    <t>Todds Reviews</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>How to Refill your JUUL Vape Pods [Closed Caption]</t>
-  </si>
-  <si>
-    <t>gmAnGQ43NLc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gmAnGQ43NLc</t>
-  </si>
-  <si>
-    <t>Hewn from the Mountain</t>
-  </si>
-  <si>
-    <t>Ciga like go ecig review</t>
-  </si>
-  <si>
-    <t>0lMlR-IyhQU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0lMlR-IyhQU</t>
-  </si>
-  <si>
-    <t>Matthew Virani</t>
-  </si>
-  <si>
-    <t>Metallica: Disposable Heroes (Hämeenlinna, Finland - July 16, 2019)</t>
-  </si>
-  <si>
-    <t>TC-kqiIc5iQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TC-kqiIc5iQ</t>
-  </si>
-  <si>
-    <t>Metallica</t>
-  </si>
-  <si>
-    <t>Beginners Guide to Vaping With RDAs - Build | Wick | Vape</t>
-  </si>
-  <si>
-    <t>vx_YLLcmUPk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vx_YLLcmUPk</t>
-  </si>
-  <si>
-    <t>White Whisker Vapes</t>
+    <t>Youth e-cigarette epidemic: Unintended consequences or strategic marketing?</t>
+  </si>
+  <si>
+    <t>1cznQJeARGU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1cznQJeARGU</t>
+  </si>
+  <si>
+    <t>Truth Initiative</t>
+  </si>
+  <si>
+    <t>Vaping safety and health risks - the basics</t>
+  </si>
+  <si>
+    <t>mToznqKD5Ac</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mToznqKD5Ac</t>
+  </si>
+  <si>
+    <t>Risk Bites</t>
+  </si>
+  <si>
+    <t>STIG vs SEA Disposable Pods vs JUUL</t>
+  </si>
+  <si>
+    <t>y2enHSYAZVk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y2enHSYAZVk</t>
+  </si>
+  <si>
+    <t>Vape Reviews</t>
+  </si>
+  <si>
+    <t>5 6</t>
+  </si>
+  <si>
+    <t>TAKI mini disposable e-cigarette Nicotine</t>
+  </si>
+  <si>
+    <t>3xi740bn7Hc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3xi740bn7Hc</t>
+  </si>
+  <si>
+    <t>China Gadgets Reviews</t>
+  </si>
+  <si>
+    <t>BEST IN CLASS VAPE MODS 2019! | IndoorSmokers</t>
+  </si>
+  <si>
+    <t>Adqk4DauKlo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Adqk4DauKlo</t>
+  </si>
+  <si>
+    <t>IndoorSmokers</t>
+  </si>
+  <si>
+    <t>THE WEED JUUL POD REVIEW</t>
+  </si>
+  <si>
+    <t>giTvSaMRgs4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=giTvSaMRgs4</t>
+  </si>
+  <si>
+    <t>Cottonmouth Media</t>
+  </si>
+  <si>
+    <t>Millions face homelessness as eviction moratorium ends</t>
+  </si>
+  <si>
+    <t>ldP-_KoLHw0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ldP-_KoLHw0</t>
+  </si>
+  <si>
+    <t>CBS Evening News</t>
+  </si>
+  <si>
+    <t>RECHARGEABLE DISPOSABLE VAPE?!! Better than puff bar flow ?</t>
+  </si>
+  <si>
+    <t>bK8_t6Na53o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bK8_t6Na53o</t>
+  </si>
+  <si>
+    <t>The smoke don</t>
+  </si>
+  <si>
+    <t>The Top 3 Most Hardcore Indestructible Vape Mods</t>
+  </si>
+  <si>
+    <t>XTBDSOaQrro</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XTBDSOaQrro</t>
+  </si>
+  <si>
+    <t>FlavourVapour</t>
   </si>
 </sst>
 </file>
@@ -685,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,10 +811,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44181.77458506934</v>
+        <v>44182.75121203355</v>
       </c>
       <c r="D2" t="n">
-        <v>608</v>
+        <v>3062</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -763,7 +835,7 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
@@ -778,34 +850,34 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44181.77527645638</v>
+        <v>44182.75208890531</v>
       </c>
       <c r="D3" t="n">
-        <v>2416</v>
+        <v>3725</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s"/>
     </row>
@@ -817,10 +889,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44181.77562830015</v>
+        <v>44182.75233980066</v>
       </c>
       <c r="D4" t="n">
-        <v>3743</v>
+        <v>3400</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -838,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s"/>
     </row>
@@ -856,34 +928,34 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44181.77583135629</v>
+        <v>44182.75299667178</v>
       </c>
       <c r="D5" t="n">
-        <v>3486</v>
+        <v>3005</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -895,34 +967,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44181.77594813007</v>
+        <v>44182.75357969354</v>
       </c>
       <c r="D6" t="n">
-        <v>2335</v>
+        <v>1467</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s"/>
     </row>
@@ -934,34 +1006,34 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44181.77660383513</v>
+        <v>44182.75418525535</v>
       </c>
       <c r="D7" t="n">
-        <v>603</v>
+        <v>2706</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s"/>
     </row>
@@ -973,36 +1045,38 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44181.77747411677</v>
+        <v>44182.75471894031</v>
       </c>
       <c r="D8" t="n">
-        <v>2731</v>
+        <v>3598</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
         <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
@@ -1012,34 +1086,34 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44181.77759342648</v>
+        <v>44182.75512260694</v>
       </c>
       <c r="D9" t="n">
-        <v>1732</v>
+        <v>2558</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -1051,34 +1125,34 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44181.77895461154</v>
+        <v>44182.75551174274</v>
       </c>
       <c r="D10" t="n">
-        <v>1284</v>
+        <v>3316</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s"/>
     </row>
@@ -1090,34 +1164,34 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44181.78055921967</v>
+        <v>44182.75602166238</v>
       </c>
       <c r="D11" t="n">
-        <v>3135</v>
+        <v>2823</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M11" t="s"/>
     </row>
@@ -1129,34 +1203,34 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44181.78110220457</v>
+        <v>44182.75659630428</v>
       </c>
       <c r="D12" t="n">
-        <v>2592</v>
+        <v>416</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s"/>
     </row>
@@ -1168,34 +1242,34 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44181.78149634668</v>
+        <v>44182.75688775449</v>
       </c>
       <c r="D13" t="n">
-        <v>2912</v>
+        <v>3219</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s"/>
     </row>
@@ -1207,31 +1281,31 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44181.7829797868</v>
+        <v>44182.7587264016</v>
       </c>
       <c r="D14" t="n">
-        <v>1192</v>
+        <v>3553</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -1246,34 +1320,34 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44181.78318409005</v>
+        <v>44182.75891321492</v>
       </c>
       <c r="D15" t="n">
-        <v>1413</v>
+        <v>1259</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M15" t="s"/>
     </row>
@@ -1285,10 +1359,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44181.783398085</v>
+        <v>44182.75979259201</v>
       </c>
       <c r="D16" t="n">
-        <v>3603</v>
+        <v>3699</v>
       </c>
       <c r="E16" t="s">
         <v>81</v>
@@ -1303,16 +1377,16 @@
         <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M16" t="s"/>
     </row>
@@ -1324,10 +1398,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44181.78427401982</v>
+        <v>44182.76067571092</v>
       </c>
       <c r="D17" t="n">
-        <v>3083</v>
+        <v>2049</v>
       </c>
       <c r="E17" t="s">
         <v>85</v>
@@ -1339,19 +1413,19 @@
         <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M17" t="s"/>
     </row>
@@ -1363,34 +1437,34 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44181.78487963398</v>
+        <v>44182.76121735674</v>
       </c>
       <c r="D18" t="n">
-        <v>706</v>
+        <v>3680</v>
       </c>
       <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
         <v>90</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>91</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>92</v>
       </c>
-      <c r="H18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" t="s">
-        <v>23</v>
-      </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M18" t="s"/>
     </row>
@@ -1402,34 +1476,34 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44181.78515327759</v>
+        <v>44182.76226356337</v>
       </c>
       <c r="D19" t="n">
-        <v>1011</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
         <v>94</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>95</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>96</v>
       </c>
-      <c r="H19" t="s">
-        <v>97</v>
-      </c>
       <c r="I19" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s"/>
     </row>
@@ -1441,34 +1515,34 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44181.78526304974</v>
+        <v>44182.76248345567</v>
       </c>
       <c r="D20" t="n">
-        <v>3184</v>
+        <v>2495</v>
       </c>
       <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" t="s">
         <v>98</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>99</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>100</v>
       </c>
-      <c r="H20" t="s">
-        <v>101</v>
-      </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M20" t="s"/>
     </row>
@@ -1480,36 +1554,270 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44181.78588500648</v>
+        <v>44182.76484897835</v>
       </c>
       <c r="D21" t="n">
-        <v>3451</v>
+        <v>724</v>
       </c>
       <c r="E21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" t="s">
         <v>102</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>103</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>104</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
         <v>105</v>
       </c>
-      <c r="I21" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" t="s"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>44182.76505983363</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2778</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" t="s"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>44182.76543757306</v>
+      </c>
+      <c r="D23" t="n">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" t="s"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>44182.7659793201</v>
+      </c>
+      <c r="D24" t="n">
+        <v>674</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" t="s">
         <v>24</v>
       </c>
-      <c r="K21" t="s">
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" t="s"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>44182.76710105572</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2338</v>
+      </c>
+      <c r="E25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" t="s">
         <v>25</v>
       </c>
-      <c r="L21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" t="s"/>
+      <c r="L25" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" t="s"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>44182.76757594207</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1415</v>
+      </c>
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" t="s"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>44182.76819496128</v>
+      </c>
+      <c r="D27" t="n">
+        <v>777</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>Name</t>
   </si>
@@ -56,355 +56,514 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Centaurus DNA 250C by Lost Vape!</t>
-  </si>
-  <si>
-    <t>tmk2orpFJYk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tmk2orpFJYk</t>
-  </si>
-  <si>
-    <t>Matt From SMM</t>
+    <t>New study reveals increase in teenagers vaping</t>
+  </si>
+  <si>
+    <t>xBvlU5qk71g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xBvlU5qk71g</t>
+  </si>
+  <si>
+    <t>CityNews Toronto</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Vape liquid producers to reveal ingredients with new FDA requirement</t>
+  </si>
+  <si>
+    <t>ojT2yYDkkTU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ojT2yYDkkTU</t>
+  </si>
+  <si>
+    <t>KTNV Channel 13 Las Vegas</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>beginners guide to vaping. (E Liquid)</t>
+  </si>
+  <si>
+    <t>Cpt2hiQKfXY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Cpt2hiQKfXY</t>
+  </si>
+  <si>
+    <t>BlindViews</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>My Favorite Vape Mod &amp; Tank Set Up - SMOK Alien 220W and TFV8 Cloud Beast Tank</t>
+  </si>
+  <si>
+    <t>DlU5bcIUC5o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DlU5bcIUC5o</t>
+  </si>
+  <si>
+    <t>Martin Lotsberg</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Testing 2 thc vape pens by alpine</t>
-  </si>
-  <si>
-    <t>ECBnKrgfdPE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ECBnKrgfdPE</t>
-  </si>
-  <si>
-    <t>420 gamer</t>
+    <t>ProSmoke Disposable E-Cig Review for Newbies</t>
+  </si>
+  <si>
+    <t>bFQtsxipjsc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bFQtsxipjsc</t>
+  </si>
+  <si>
+    <t>Vapelaxin'</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>HOW TO GET AROUND THE JUUL FLAVOR BAN</t>
+  </si>
+  <si>
+    <t>8gkDlW8NoSQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8gkDlW8NoSQ</t>
+  </si>
+  <si>
+    <t>Blake Godwin</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>STEEPING your E-Juice! - Why you need to be doing this.</t>
+  </si>
+  <si>
+    <t>fP5YKiawHU8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fP5YKiawHU8</t>
+  </si>
+  <si>
+    <t>DashVapes</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>BEST Cotton For Wicking imo! Vaping! RDA! RTA! RDTA!</t>
+  </si>
+  <si>
+    <t>DOzioNdiT7Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DOzioNdiT7Q</t>
+  </si>
+  <si>
+    <t>RiP Trippers</t>
+  </si>
+  <si>
+    <t>MetallicA - Disposable Heroes (The Bridge School 2007)</t>
+  </si>
+  <si>
+    <t>jHv0zo9hPuQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jHv0zo9hPuQ</t>
+  </si>
+  <si>
+    <t>metallivideo</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>SMOK S Priv Box Mod Kit Review &amp; Giveaway</t>
+  </si>
+  <si>
+    <t>q-rS31bDUHE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=q-rS31bDUHE</t>
+  </si>
+  <si>
+    <t>AmbitionZ VapeR</t>
+  </si>
+  <si>
+    <t>2 3</t>
+  </si>
+  <si>
+    <t>giveaway</t>
+  </si>
+  <si>
+    <t>M vapes Walnut box mods and squonkers quick look and list info!</t>
+  </si>
+  <si>
+    <t>S7VjBn-Wl-w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S7VjBn-Wl-w</t>
+  </si>
+  <si>
+    <t>M Vapes</t>
+  </si>
+  <si>
+    <t>product overview by vape manufacturer</t>
+  </si>
+  <si>
+    <t>Using A CBD Vape Pen For Anxiety</t>
+  </si>
+  <si>
+    <t>9-kXhCNlApI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9-kXhCNlApI</t>
+  </si>
+  <si>
+    <t>Israel Soliz</t>
+  </si>
+  <si>
+    <t>5 7</t>
+  </si>
+  <si>
+    <t>Delta 9/ 1puff sleep review</t>
+  </si>
+  <si>
+    <t>kUg2SScazn0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kUg2SScazn0</t>
+  </si>
+  <si>
+    <t>adventures with Angelina C</t>
   </si>
   <si>
     <t>0 5</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2020 LG NanoCell TV l What is NanoCell Technology?</t>
-  </si>
-  <si>
-    <t>UG4dRlIsxe0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UG4dRlIsxe0</t>
-  </si>
-  <si>
-    <t>LG Global</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Cigreen Tank Crossing Box Mod Review | Blackhat Vapor - Jacksonville E Cigarette Shop</t>
-  </si>
-  <si>
-    <t>V4ffTYRcz2g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=V4ffTYRcz2g</t>
-  </si>
-  <si>
-    <t>Blackhat Vapor</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>Xiaomi Taki Disposable E-Cig Review | Vaping On Peas?</t>
-  </si>
-  <si>
-    <t>0_XHqLvK6Xk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0_XHqLvK6Xk</t>
-  </si>
-  <si>
-    <t>FlatCap Vaper</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>TGO Pod Mod By VAPEFLY ~Vape Pod Kit Review~</t>
-  </si>
-  <si>
-    <t>elhDGa48zcU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=elhDGa48zcU</t>
-  </si>
-  <si>
-    <t>MyFreedomSmokes</t>
-  </si>
-  <si>
-    <t>2 3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>【明日方舟/Arknights】[AF-6] - Low End Squad - Arknights Strategy</t>
-  </si>
-  <si>
-    <t>x3G442PIlYA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x3G442PIlYA</t>
-  </si>
-  <si>
-    <t>KyoStinV</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>Bad A** Color Vape Pods! The Mino Pod Kit By Coilart!</t>
-  </si>
-  <si>
-    <t>34hURii9vzE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=34hURii9vzE</t>
-  </si>
-  <si>
-    <t>RiP Trippers</t>
-  </si>
-  <si>
-    <t>2 5</t>
-  </si>
-  <si>
-    <t>Mimic Ecig Pod System</t>
-  </si>
-  <si>
-    <t>XiL680n7cb4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XiL680n7cb4</t>
-  </si>
-  <si>
-    <t>Timmerz</t>
-  </si>
-  <si>
-    <t>MUNGO CHERRY VAPE JUICE - MUNGO JERRY</t>
-  </si>
-  <si>
-    <t>OyBfufMDES8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OyBfufMDES8</t>
-  </si>
-  <si>
-    <t>Mungo Jerry</t>
-  </si>
-  <si>
-    <t>VAPING IN SCHOOL!</t>
-  </si>
-  <si>
-    <t>ApVNTDUYCvA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ApVNTDUYCvA</t>
-  </si>
-  <si>
-    <t>Nick Howard Vlogs</t>
-  </si>
-  <si>
-    <t>Kodaline - In The End - One Day At A Time Sessions</t>
-  </si>
-  <si>
-    <t>YljzNCE5n8U</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YljzNCE5n8U</t>
-  </si>
-  <si>
-    <t>Kodaline</t>
-  </si>
-  <si>
-    <t>The VooPoo TOO Vape Mod!</t>
-  </si>
-  <si>
-    <t>LSm21nD6HFI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LSm21nD6HFI</t>
-  </si>
-  <si>
-    <t>Vinci Air Mod Pod by Voopoo!</t>
-  </si>
-  <si>
-    <t>67vkMMw2lXc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=67vkMMw2lXc</t>
-  </si>
-  <si>
-    <t>AEGIS Solo NEW Waterproof VAPE Mod Unboxing from GeekVape</t>
-  </si>
-  <si>
-    <t>7Oraexcon3M</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7Oraexcon3M</t>
-  </si>
-  <si>
-    <t>J LumbS</t>
-  </si>
-  <si>
-    <t>70 Watts Of AiO POWER!! The iJOY Jupiter Vape Pod Kit! A Single 18650 Battery Vape!</t>
-  </si>
-  <si>
-    <t>Gep65R5pfao</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Gep65R5pfao</t>
-  </si>
-  <si>
-    <t>How to refill your JUUL Pods with vape juice 🥤</t>
-  </si>
-  <si>
-    <t>fUaMjfqz5Ak</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fUaMjfqz5Ak</t>
-  </si>
-  <si>
-    <t>rapidtronics</t>
-  </si>
-  <si>
-    <t>3 7</t>
-  </si>
-  <si>
-    <t>Youth e-cigarette epidemic: Unintended consequences or strategic marketing?</t>
-  </si>
-  <si>
-    <t>1cznQJeARGU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1cznQJeARGU</t>
-  </si>
-  <si>
-    <t>Truth Initiative</t>
-  </si>
-  <si>
-    <t>Vaping safety and health risks - the basics</t>
-  </si>
-  <si>
-    <t>mToznqKD5Ac</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mToznqKD5Ac</t>
-  </si>
-  <si>
-    <t>Risk Bites</t>
-  </si>
-  <si>
-    <t>STIG vs SEA Disposable Pods vs JUUL</t>
-  </si>
-  <si>
-    <t>y2enHSYAZVk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y2enHSYAZVk</t>
-  </si>
-  <si>
-    <t>Vape Reviews</t>
-  </si>
-  <si>
-    <t>5 6</t>
-  </si>
-  <si>
-    <t>TAKI mini disposable e-cigarette Nicotine</t>
-  </si>
-  <si>
-    <t>3xi740bn7Hc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3xi740bn7Hc</t>
-  </si>
-  <si>
-    <t>China Gadgets Reviews</t>
-  </si>
-  <si>
-    <t>BEST IN CLASS VAPE MODS 2019! | IndoorSmokers</t>
-  </si>
-  <si>
-    <t>Adqk4DauKlo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Adqk4DauKlo</t>
-  </si>
-  <si>
-    <t>IndoorSmokers</t>
-  </si>
-  <si>
-    <t>THE WEED JUUL POD REVIEW</t>
-  </si>
-  <si>
-    <t>giTvSaMRgs4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=giTvSaMRgs4</t>
-  </si>
-  <si>
-    <t>Cottonmouth Media</t>
-  </si>
-  <si>
-    <t>Millions face homelessness as eviction moratorium ends</t>
-  </si>
-  <si>
-    <t>ldP-_KoLHw0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ldP-_KoLHw0</t>
-  </si>
-  <si>
-    <t>CBS Evening News</t>
-  </si>
-  <si>
-    <t>RECHARGEABLE DISPOSABLE VAPE?!! Better than puff bar flow ?</t>
-  </si>
-  <si>
-    <t>bK8_t6Na53o</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bK8_t6Na53o</t>
-  </si>
-  <si>
-    <t>The smoke don</t>
-  </si>
-  <si>
-    <t>The Top 3 Most Hardcore Indestructible Vape Mods</t>
-  </si>
-  <si>
-    <t>XTBDSOaQrro</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XTBDSOaQrro</t>
-  </si>
-  <si>
-    <t>FlavourVapour</t>
+    <t>E-cigarette's teen epidemic</t>
+  </si>
+  <si>
+    <t>jX68PdFoEGE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jX68PdFoEGE</t>
+  </si>
+  <si>
+    <t>CNBC Television</t>
+  </si>
+  <si>
+    <t>DR DABBER GHOST VAPE PEN - UNBOXING AND FIRST IMPRESSIONS - NICE ONE ROD ATOMIZER VAPE PEN - ENJOY!!</t>
+  </si>
+  <si>
+    <t>stSCIzaYDBk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=stSCIzaYDBk</t>
+  </si>
+  <si>
+    <t>Senior Stoner</t>
+  </si>
+  <si>
+    <t>S2000 Air Box mod</t>
+  </si>
+  <si>
+    <t>rJmCg61MOFE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rJmCg61MOFE</t>
+  </si>
+  <si>
+    <t>LHTPerformance</t>
+  </si>
+  <si>
+    <t>Nicotine Salt (Nic Salt) Vape Juice? Regular nicotine? What's the difference?</t>
+  </si>
+  <si>
+    <t>65WY6hvgIR0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=65WY6hvgIR0</t>
+  </si>
+  <si>
+    <t>ZampleBox</t>
+  </si>
+  <si>
+    <t>Vape Pen Troubleshooting</t>
+  </si>
+  <si>
+    <t>ftLiV-F7g-E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ftLiV-F7g-E</t>
+  </si>
+  <si>
+    <t>Sespe Creek Collective</t>
+  </si>
+  <si>
+    <t>Marijuana E Liquid ADVANCED Tutorial HOW TO MAKE Cannabis E Juice from weed or keif</t>
+  </si>
+  <si>
+    <t>IYrD-YAD_Xw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IYrD-YAD_Xw</t>
+  </si>
+  <si>
+    <t>760 Glass</t>
+  </si>
+  <si>
+    <t>3 5 7</t>
+  </si>
+  <si>
+    <t>How to refill JUUL vape stick pods with Salt Nicotine Juice</t>
+  </si>
+  <si>
+    <t>vO1M-yPzcvg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vO1M-yPzcvg</t>
+  </si>
+  <si>
+    <t>wheredidiputthatremote</t>
+  </si>
+  <si>
+    <t>Vape Pen Ecig USB Charger: Red Light Green Light &amp; What They Mean? VapeBrat Tutorial</t>
+  </si>
+  <si>
+    <t>APAW6ULS2VE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=APAW6ULS2VE</t>
+  </si>
+  <si>
+    <t>HookahTownUSA</t>
+  </si>
+  <si>
+    <t>VAPE NATION ~ Funny Vape Memes, We Get It You Vape,  Vaping is gay</t>
+  </si>
+  <si>
+    <t>wStR3uTbnWY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wStR3uTbnWY</t>
+  </si>
+  <si>
+    <t>GameNut321</t>
+  </si>
+  <si>
+    <t>What Is CBD E-Liquid &amp; How to Vape it</t>
+  </si>
+  <si>
+    <t>WonzWlgPwJA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WonzWlgPwJA</t>
+  </si>
+  <si>
+    <t>MIST</t>
+  </si>
+  <si>
+    <t>Capella Silverline Taste Test | DIY ejuice</t>
+  </si>
+  <si>
+    <t>rbqyr5i0CwQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rbqyr5i0CwQ</t>
+  </si>
+  <si>
+    <t>DIY Vapor</t>
+  </si>
+  <si>
+    <t>$1000 Film Camera VS $5 Disposable</t>
+  </si>
+  <si>
+    <t>d4gD0AfukYs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d4gD0AfukYs</t>
+  </si>
+  <si>
+    <t>KingJvpes</t>
+  </si>
+  <si>
+    <t>$1 Vape?? Tobacco Industry Did Something Good |myblu™ e-cig|</t>
+  </si>
+  <si>
+    <t>1NDCi6WVnrk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1NDCi6WVnrk</t>
+  </si>
+  <si>
+    <t>What's in the box</t>
+  </si>
+  <si>
+    <t>Aspire AVP Pod Vape Review</t>
+  </si>
+  <si>
+    <t>gD_AKjpo67c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gD_AKjpo67c</t>
+  </si>
+  <si>
+    <t>Mike Vapes</t>
+  </si>
+  <si>
+    <t>Disposable Camera Effect - Spark AR Studio - [ Tutorial ]</t>
+  </si>
+  <si>
+    <t>dlVWv7XyRLU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dlVWv7XyRLU</t>
+  </si>
+  <si>
+    <t>Rudy Anwar</t>
+  </si>
+  <si>
+    <t>CBD vaporizer disposable vape pen with factory price from China supplier</t>
+  </si>
+  <si>
+    <t>JFb0Tf5ZnDk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JFb0Tf5ZnDk</t>
+  </si>
+  <si>
+    <t>Hadara Trison</t>
+  </si>
+  <si>
+    <t>8 VAPE TIPS in 90 SECONDS!</t>
+  </si>
+  <si>
+    <t>8KWTSWMg9RM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8KWTSWMg9RM</t>
+  </si>
+  <si>
+    <t>LG's Future Display Technology Will Blow You Away</t>
+  </si>
+  <si>
+    <t>qIRjytgNuhM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qIRjytgNuhM</t>
+  </si>
+  <si>
+    <t>Techno Source</t>
+  </si>
+  <si>
+    <t>25.3V 6SERIES PWM by BJ BOX MODS  -  This is absolutely like nothing you vaped before</t>
+  </si>
+  <si>
+    <t>QNEGCBp5nxQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QNEGCBp5nxQ</t>
+  </si>
+  <si>
+    <t>FOWTB</t>
+  </si>
+  <si>
+    <t>Disposable Hash Oil E Cigs - Bumblebee Vape Pens - Smokers Guide TV California</t>
+  </si>
+  <si>
+    <t>jeMIrQUXBsI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jeMIrQUXBsI</t>
+  </si>
+  <si>
+    <t>Smokers Guide</t>
+  </si>
+  <si>
+    <t>West End LIVE 2019: Six performance (Sunday)</t>
+  </si>
+  <si>
+    <t>bk5rCUQTZDM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bk5rCUQTZDM</t>
+  </si>
+  <si>
+    <t>OfficialLondonTheatre</t>
+  </si>
+  <si>
+    <t>What Happened When Prisoners Started Vaping (HBO)</t>
+  </si>
+  <si>
+    <t>RBpsFKdqaHw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RBpsFKdqaHw</t>
+  </si>
+  <si>
+    <t>VICE News</t>
+  </si>
+  <si>
+    <t>About the California Department of Public Health</t>
+  </si>
+  <si>
+    <t>6MxEHxJwPvg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6MxEHxJwPvg</t>
+  </si>
+  <si>
+    <t>CA Public Health</t>
+  </si>
+  <si>
+    <t>Are e-cigarettes dangerous?</t>
+  </si>
+  <si>
+    <t>PtofIJ6V-ZA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PtofIJ6V-ZA</t>
+  </si>
+  <si>
+    <t>CBS This Morning</t>
+  </si>
+  <si>
+    <t>Adam Curry on the Great Vape Scare</t>
+  </si>
+  <si>
+    <t>ELmdFELWwNc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ELmdFELWwNc</t>
+  </si>
+  <si>
+    <t>JRE Clips</t>
   </si>
 </sst>
 </file>
@@ -757,7 +916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,10 +970,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44182.75121203355</v>
+        <v>44187.87847142612</v>
       </c>
       <c r="D2" t="n">
-        <v>3062</v>
+        <v>3109</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -838,7 +997,7 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s"/>
     </row>
@@ -850,34 +1009,34 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44182.75208890531</v>
+        <v>44187.87934840219</v>
       </c>
       <c r="D3" t="n">
-        <v>3725</v>
+        <v>529</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s"/>
     </row>
@@ -889,34 +1048,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44182.75233980066</v>
+        <v>44187.8798256976</v>
       </c>
       <c r="D4" t="n">
-        <v>3400</v>
+        <v>2117</v>
       </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
       </c>
       <c r="K4" t="s">
         <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s"/>
     </row>
@@ -928,10 +1087,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44182.75299667178</v>
+        <v>44187.88020895299</v>
       </c>
       <c r="D5" t="n">
-        <v>3005</v>
+        <v>835</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -946,16 +1105,16 @@
         <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -967,10 +1126,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44182.75357969354</v>
+        <v>44187.88052016415</v>
       </c>
       <c r="D6" t="n">
-        <v>1467</v>
+        <v>1489</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -985,16 +1144,16 @@
         <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
         <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s"/>
     </row>
@@ -1006,10 +1165,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44182.75418525535</v>
+        <v>44187.8813443946</v>
       </c>
       <c r="D7" t="n">
-        <v>2706</v>
+        <v>2739</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -1024,16 +1183,16 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s"/>
     </row>
@@ -1045,38 +1204,36 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44182.75471894031</v>
+        <v>44187.88254734155</v>
       </c>
       <c r="D8" t="n">
-        <v>3598</v>
+        <v>515</v>
       </c>
       <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>51</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
         <v>52</v>
       </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
       <c r="L8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" t="s">
-        <v>53</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="M8" t="s"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
@@ -1086,34 +1243,34 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44182.75512260694</v>
+        <v>44187.88290222472</v>
       </c>
       <c r="D9" t="n">
-        <v>2558</v>
+        <v>2462</v>
       </c>
       <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>55</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>56</v>
       </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -1125,34 +1282,34 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44182.75551174274</v>
+        <v>44187.88304586256</v>
       </c>
       <c r="D10" t="n">
-        <v>3316</v>
+        <v>2804</v>
       </c>
       <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
         <v>59</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>60</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>61</v>
       </c>
-      <c r="H10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
       <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
         <v>32</v>
       </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s"/>
     </row>
@@ -1164,36 +1321,38 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44182.75602166238</v>
+        <v>44187.88358870006</v>
       </c>
       <c r="D11" t="n">
-        <v>2823</v>
+        <v>1087</v>
       </c>
       <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>64</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>65</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
         <v>66</v>
       </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>48</v>
-      </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
@@ -1203,36 +1362,38 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44182.75659630428</v>
+        <v>44187.88447100958</v>
       </c>
       <c r="D12" t="n">
-        <v>416</v>
+        <v>2997</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
@@ -1242,34 +1403,34 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44182.75688775449</v>
+        <v>44187.88530655966</v>
       </c>
       <c r="D13" t="n">
-        <v>3219</v>
+        <v>1223</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
         <v>32</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M13" t="s"/>
     </row>
@@ -1281,34 +1442,34 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44182.7587264016</v>
+        <v>44187.88638169638</v>
       </c>
       <c r="D14" t="n">
-        <v>3553</v>
+        <v>3310</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M14" t="s"/>
     </row>
@@ -1320,34 +1481,34 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44182.75891321492</v>
+        <v>44187.8867804748</v>
       </c>
       <c r="D15" t="n">
-        <v>1259</v>
+        <v>2380</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
         <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s"/>
     </row>
@@ -1359,34 +1520,34 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44182.75979259201</v>
+        <v>44187.88751162943</v>
       </c>
       <c r="D16" t="n">
-        <v>3699</v>
+        <v>2696</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" t="s">
         <v>82</v>
       </c>
-      <c r="G16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s"/>
     </row>
@@ -1398,34 +1559,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44182.76067571092</v>
+        <v>44187.88774256461</v>
       </c>
       <c r="D17" t="n">
-        <v>2049</v>
+        <v>1992</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
         <v>32</v>
       </c>
-      <c r="K17" t="s">
-        <v>19</v>
-      </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M17" t="s"/>
     </row>
@@ -1437,34 +1598,34 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44182.76121735674</v>
+        <v>44187.88807944057</v>
       </c>
       <c r="D18" t="n">
-        <v>3680</v>
+        <v>3659</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M18" t="s"/>
     </row>
@@ -1476,34 +1637,34 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44182.76226356337</v>
+        <v>44187.89001811665</v>
       </c>
       <c r="D19" t="n">
-        <v>43</v>
+        <v>3346</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M19" t="s"/>
     </row>
@@ -1515,34 +1676,34 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44182.76248345567</v>
+        <v>44187.89042160955</v>
       </c>
       <c r="D20" t="n">
-        <v>2495</v>
+        <v>600</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="J20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M20" t="s"/>
     </row>
@@ -1554,34 +1715,34 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44182.76484897835</v>
+        <v>44187.89121704907</v>
       </c>
       <c r="D21" t="n">
-        <v>724</v>
+        <v>2584</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H21" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L21" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M21" t="s"/>
     </row>
@@ -1593,34 +1754,34 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>44182.76505983363</v>
+        <v>44187.89184200229</v>
       </c>
       <c r="D22" t="n">
-        <v>2778</v>
+        <v>1166</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="L22" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M22" t="s"/>
     </row>
@@ -1632,34 +1793,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>44182.76543757306</v>
+        <v>44187.8927347022</v>
       </c>
       <c r="D23" t="n">
-        <v>34</v>
+        <v>3066</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H23" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
         <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M23" t="s"/>
     </row>
@@ -1671,34 +1832,34 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>44182.7659793201</v>
+        <v>44187.8935541502</v>
       </c>
       <c r="D24" t="n">
-        <v>674</v>
+        <v>459</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K24" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M24" t="s"/>
     </row>
@@ -1710,34 +1871,34 @@
         <v>12</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>44182.76710105572</v>
+        <v>44187.89447569867</v>
       </c>
       <c r="D25" t="n">
-        <v>2338</v>
+        <v>1923</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G25" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="J25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K25" t="s">
         <v>25</v>
       </c>
       <c r="L25" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M25" t="s"/>
     </row>
@@ -1749,34 +1910,34 @@
         <v>12</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>44182.76757594207</v>
+        <v>44187.8945879745</v>
       </c>
       <c r="D26" t="n">
-        <v>1415</v>
+        <v>1571</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H26" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M26" t="s"/>
     </row>
@@ -1788,36 +1949,504 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>44182.76819496128</v>
+        <v>44187.8951931592</v>
       </c>
       <c r="D27" t="n">
-        <v>777</v>
+        <v>244</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H27" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" t="s"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>44187.89549147474</v>
+      </c>
+      <c r="D28" t="n">
+        <v>760</v>
+      </c>
+      <c r="E28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>44187.89572278027</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2808</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" t="s"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>44187.89817071862</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2745</v>
+      </c>
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" t="s"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>44187.89874472348</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2951</v>
+      </c>
+      <c r="E31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" t="s"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>44187.89887098026</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2336</v>
+      </c>
+      <c r="E32" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" t="s">
+        <v>153</v>
+      </c>
+      <c r="H32" t="s">
+        <v>154</v>
+      </c>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" t="s"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>44187.89934900912</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3277</v>
+      </c>
+      <c r="E33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" t="s">
+        <v>158</v>
+      </c>
+      <c r="I33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" t="s"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>44187.9008239843</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2078</v>
+      </c>
+      <c r="E34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" t="s">
+        <v>162</v>
+      </c>
+      <c r="I34" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" t="s">
         <v>17</v>
       </c>
-      <c r="J27" t="s">
+      <c r="M34" t="s"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>44187.90101199545</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3221</v>
+      </c>
+      <c r="E35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" t="s">
         <v>18</v>
       </c>
-      <c r="K27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="K35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" t="s"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>44187.90133931889</v>
+      </c>
+      <c r="D36" t="n">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" t="s">
+        <v>169</v>
+      </c>
+      <c r="H36" t="s">
+        <v>170</v>
+      </c>
+      <c r="I36" t="s">
         <v>18</v>
       </c>
-      <c r="M27" t="s"/>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" t="s"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>44187.9017641481</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2918</v>
+      </c>
+      <c r="E37" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" t="s">
+        <v>173</v>
+      </c>
+      <c r="H37" t="s">
+        <v>174</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" t="s"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>44187.90199787819</v>
+      </c>
+      <c r="D38" t="n">
+        <v>203</v>
+      </c>
+      <c r="E38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" t="s">
+        <v>177</v>
+      </c>
+      <c r="H38" t="s">
+        <v>178</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" t="s"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>44187.90251700367</v>
+      </c>
+      <c r="D39" t="n">
+        <v>395</v>
+      </c>
+      <c r="E39" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" t="s">
+        <v>182</v>
+      </c>
+      <c r="I39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -56,262 +56,235 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Vaping without nicotine | Should you do it?</t>
-  </si>
-  <si>
-    <t>lBFO579guqk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lBFO579guqk</t>
-  </si>
-  <si>
-    <t>DashVapes</t>
-  </si>
-  <si>
-    <t>1 7</t>
+    <t>Is Vaping Bad? - The Dangers of Vape Pens (19+ to view)</t>
+  </si>
+  <si>
+    <t>vHaovwA1cAY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vHaovwA1cAY</t>
+  </si>
+  <si>
+    <t>The Busy Budtender</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Tesla WYE 200W Box Mod Review and Rundown | One of the Best Box Mods of 2017</t>
+  </si>
+  <si>
+    <t>dFUecXStLHM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dFUecXStLHM</t>
+  </si>
+  <si>
+    <t>Jai Haze</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Are electronic cigarettes safe? BBC News</t>
+  </si>
+  <si>
+    <t>_cqgbdfZk20</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_cqgbdfZk20</t>
+  </si>
+  <si>
+    <t>BBC News</t>
+  </si>
+  <si>
+    <t>1 2</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>Are e-cigarettes and vapes dangerous? Here’s what a UC Riverside lab found</t>
+  </si>
+  <si>
+    <t>d8VHlW-XLzo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d8VHlW-XLzo</t>
+  </si>
+  <si>
+    <t>Univ. of California, Riverside</t>
+  </si>
+  <si>
+    <t>Asmodus Plaque Box Mod</t>
+  </si>
+  <si>
+    <t>Orqxv9M0Rtw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Orqxv9M0Rtw</t>
+  </si>
+  <si>
+    <t>Cloudscape Vape</t>
+  </si>
+  <si>
+    <t>How to Spot a Bootleg Cannabis Vape Cartridge | RS News 8/30/19</t>
+  </si>
+  <si>
+    <t>PxmvhTdxnO0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PxmvhTdxnO0</t>
+  </si>
+  <si>
+    <t>Rolling Stone</t>
+  </si>
+  <si>
+    <t>5 7</t>
+  </si>
+  <si>
+    <t>SINUOUS V80 -- An Economical and Cost-effective E-cig</t>
+  </si>
+  <si>
+    <t>cXX86EoIE78</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cXX86EoIE78</t>
+  </si>
+  <si>
+    <t>Wismec</t>
+  </si>
+  <si>
+    <t>John Prine - Summer's End Official Video</t>
+  </si>
+  <si>
+    <t>nXbEFTv9zr0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nXbEFTv9zr0</t>
+  </si>
+  <si>
+    <t>John Prine</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Episode 22: V is for Vaping - Kids A to Z with the PNPs</t>
+  </si>
+  <si>
+    <t>0wjLGYG_1u4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0wjLGYG_1u4</t>
+  </si>
+  <si>
+    <t>ChildrensDMC</t>
+  </si>
+  <si>
+    <t>What Are PG and VG?</t>
+  </si>
+  <si>
+    <t>QJ--FU0T7xo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QJ--FU0T7xo</t>
+  </si>
+  <si>
+    <t>Vapable</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>IS VAPING BAD FOR YOU? DEBUNKING POPULAR MYTHS</t>
+  </si>
+  <si>
+    <t>ChtmOPFU2GI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ChtmOPFU2GI</t>
+  </si>
+  <si>
+    <t>Vaping Insider</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Dr. Michael Siegel on Why Electronic Cigarettes Work</t>
+  </si>
+  <si>
+    <t>9ARSDOs6Ngg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9ARSDOs6Ngg</t>
+  </si>
+  <si>
+    <t>ecigadvanced</t>
+  </si>
+  <si>
+    <t>Vaping Tips - Breathing and Steeping eJuice!</t>
+  </si>
+  <si>
+    <t>mvwPJ23Ohsk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mvwPJ23Ohsk</t>
+  </si>
+  <si>
+    <t>Abby Vapes</t>
+  </si>
+  <si>
+    <t>VAPE SPITBACK TRICK: GARGLING POPPING HISSING SOUND? HOT VAPE JUICE ON UR TONGUE? THIS TRICK IS 4 U</t>
+  </si>
+  <si>
+    <t>BfojJAbePus</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BfojJAbePus</t>
+  </si>
+  <si>
+    <t>HookahTownUSA</t>
+  </si>
+  <si>
     <t>0 1</t>
   </si>
   <si>
-    <t>1 2</t>
-  </si>
-  <si>
-    <t>One e-cigarette with nicotine leads to adrenaline changes in nonsmokers' hearts | UCLA Health</t>
-  </si>
-  <si>
-    <t>vbGGEbcr2hI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vbGGEbcr2hI</t>
-  </si>
-  <si>
-    <t>UCLA Health</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Disposable Vape Fixes - Airflow and Getting More From Dying Battery</t>
-  </si>
-  <si>
-    <t>Gh2PiDeC6-8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Gh2PiDeC6-8</t>
-  </si>
-  <si>
-    <t>DabConnection</t>
-  </si>
-  <si>
-    <t>3 7</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Xsmoke cigalike Review</t>
-  </si>
-  <si>
-    <t>wlztOblWOQE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wlztOblWOQE</t>
-  </si>
-  <si>
-    <t>Keven Natho</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>How to refill a mark ten e cig</t>
-  </si>
-  <si>
-    <t>BYxcXans-V8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BYxcXans-V8</t>
-  </si>
-  <si>
-    <t>Dakota Oneill</t>
-  </si>
-  <si>
-    <t>Nasty Juice Bad Blood E-Juice (Taste Test / Review) | Tryout.</t>
-  </si>
-  <si>
-    <t>JL3VrXyydKQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JL3VrXyydKQ</t>
-  </si>
-  <si>
-    <t>TRYOUT</t>
-  </si>
-  <si>
-    <t>blu eCigs® presents Freedom of The DJ - Episode 4 'Live Streaming'</t>
-  </si>
-  <si>
-    <t>4XfcyOlMxAQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4XfcyOlMxAQ</t>
-  </si>
-  <si>
-    <t>Mixmag</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>no vaping in video or vaping content but sponsored by blu ecigs</t>
-  </si>
-  <si>
-    <t>Disposable E-Cigarette Pre-Filled with Premium Vape Dinner Lady E-Liquid</t>
-  </si>
-  <si>
-    <t>o09WJfwtjtM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=o09WJfwtjtM</t>
-  </si>
-  <si>
-    <t>Vape Dinner Lady</t>
-  </si>
-  <si>
-    <t>Vaping Pure Menthol - The coldest menthol e-liquid</t>
-  </si>
-  <si>
-    <t>_Mjtla0ZD8s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_Mjtla0ZD8s</t>
-  </si>
-  <si>
-    <t>ZampleBox</t>
-  </si>
-  <si>
-    <t>REVIEW: 4 Vape Pens in One (HeavyHitters Quattro)</t>
-  </si>
-  <si>
-    <t>FBhaaJmjCn0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=FBhaaJmjCn0</t>
-  </si>
-  <si>
-    <t>Trippy.Treez</t>
-  </si>
-  <si>
-    <t>0 5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Our Preferable Liquids</t>
-  </si>
-  <si>
-    <t>wW3cuXI_5u4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wW3cuXI_5u4</t>
-  </si>
-  <si>
-    <t>Ryan Hall</t>
-  </si>
-  <si>
-    <t>Ends 2</t>
-  </si>
-  <si>
-    <t>gyc86NFT0Sw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gyc86NFT0Sw</t>
-  </si>
-  <si>
-    <t>TheCatsters</t>
-  </si>
-  <si>
-    <t>math</t>
-  </si>
-  <si>
-    <t>Koi 250mg CBD Blue Raspberry Dragonfruit Vape Juice Review</t>
-  </si>
-  <si>
-    <t>HeGJvch8vVo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HeGJvch8vVo</t>
-  </si>
-  <si>
-    <t>BaconMoney420</t>
-  </si>
-  <si>
-    <t>How to replace/clean a vape pen 22 coil</t>
-  </si>
-  <si>
-    <t>3ZK9Wgq-e8I</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3ZK9Wgq-e8I</t>
-  </si>
-  <si>
-    <t>TheSilverFox</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>First time trying Hempbase CBD disposable vape pen!!</t>
-  </si>
-  <si>
-    <t>yyMlciZZTA4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yyMlciZZTA4</t>
-  </si>
-  <si>
-    <t>Katelyn Ann</t>
-  </si>
-  <si>
-    <t>TF2: Max Box's Mods (and downloads)</t>
-  </si>
-  <si>
-    <t>wCWcjVEch-0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wCWcjVEch-0</t>
-  </si>
-  <si>
-    <t>Max Box</t>
-  </si>
-  <si>
-    <t>How to Pack a Wax Vape Pen - Quick Instructions &amp; Tips</t>
-  </si>
-  <si>
-    <t>g3GTQ0nXMOo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=g3GTQ0nXMOo</t>
-  </si>
-  <si>
-    <t>NY Vape Shop</t>
-  </si>
-  <si>
-    <t>5 7</t>
+    <t>ProColor 225W TC by SMOK!</t>
+  </si>
+  <si>
+    <t>0QAl0PbQpxs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0QAl0PbQpxs</t>
+  </si>
+  <si>
+    <t>Matt From SMM</t>
+  </si>
+  <si>
+    <t>Gas Mods MARS Pod System with Adjustable Power</t>
+  </si>
+  <si>
+    <t>WkO7Xb7kKPI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WkO7Xb7kKPI</t>
+  </si>
+  <si>
+    <t>Zophie Reviews</t>
   </si>
 </sst>
 </file>
@@ -664,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,10 +691,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44193.76680385766</v>
+        <v>44193.96593634341</v>
       </c>
       <c r="D2" t="n">
-        <v>285</v>
+        <v>1220</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -757,10 +730,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44193.76720470763</v>
+        <v>44193.96674162689</v>
       </c>
       <c r="D3" t="n">
-        <v>1861</v>
+        <v>1089</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -778,13 +751,13 @@
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s"/>
     </row>
@@ -796,34 +769,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44193.76798766044</v>
+        <v>44193.96753902934</v>
       </c>
       <c r="D4" t="n">
-        <v>1383</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s"/>
     </row>
@@ -835,34 +808,34 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44193.76842103212</v>
+        <v>44193.96927430764</v>
       </c>
       <c r="D5" t="n">
-        <v>944</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -874,34 +847,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44193.76921935873</v>
+        <v>44193.97306094442</v>
       </c>
       <c r="D6" t="n">
-        <v>3627</v>
+        <v>3473</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s"/>
     </row>
@@ -913,34 +886,34 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44193.76967187959</v>
+        <v>44193.97347198144</v>
       </c>
       <c r="D7" t="n">
-        <v>1928</v>
+        <v>3333</v>
       </c>
       <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s"/>
     </row>
@@ -952,38 +925,36 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44193.77116753249</v>
+        <v>44193.97422375232</v>
       </c>
       <c r="D8" t="n">
-        <v>998</v>
+        <v>2413</v>
       </c>
       <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>51</v>
-      </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" t="s">
-        <v>53</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="M8" t="s"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
@@ -993,34 +964,34 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44193.77185366126</v>
+        <v>44193.97435496234</v>
       </c>
       <c r="D9" t="n">
-        <v>1474</v>
+        <v>3201</v>
       </c>
       <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -1032,34 +1003,34 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44193.77235027922</v>
+        <v>44193.97715702245</v>
       </c>
       <c r="D10" t="n">
-        <v>593</v>
+        <v>2871</v>
       </c>
       <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" t="s">
-        <v>61</v>
-      </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s"/>
     </row>
@@ -1071,34 +1042,34 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44193.77322472581</v>
+        <v>44193.97783036566</v>
       </c>
       <c r="D11" t="n">
-        <v>2669</v>
+        <v>546</v>
       </c>
       <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M11" t="s"/>
     </row>
@@ -1110,34 +1081,34 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44193.77375541819</v>
+        <v>44193.97825573463</v>
       </c>
       <c r="D12" t="n">
-        <v>453</v>
+        <v>1899</v>
       </c>
       <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
         <v>68</v>
       </c>
-      <c r="F12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" t="s">
-        <v>19</v>
-      </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s"/>
     </row>
@@ -1149,38 +1120,36 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44193.77408776132</v>
+        <v>44193.97881508004</v>
       </c>
       <c r="D13" t="n">
-        <v>3422</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
         <v>72</v>
       </c>
-      <c r="F13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s">
-        <v>75</v>
-      </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M13" t="s"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="n">
@@ -1190,34 +1159,34 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44193.77459177958</v>
+        <v>44193.97923834831</v>
       </c>
       <c r="D14" t="n">
-        <v>1678</v>
+        <v>2529</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M14" t="s"/>
     </row>
@@ -1229,34 +1198,34 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44193.77533628433</v>
+        <v>44193.98011370483</v>
       </c>
       <c r="D15" t="n">
-        <v>1157</v>
+        <v>2826</v>
       </c>
       <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
         <v>81</v>
       </c>
-      <c r="F15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" t="s">
-        <v>39</v>
-      </c>
       <c r="L15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M15" t="s"/>
     </row>
@@ -1268,34 +1237,34 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44193.77590578661</v>
+        <v>44193.9802684959</v>
       </c>
       <c r="D16" t="n">
-        <v>1409</v>
+        <v>827</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s"/>
     </row>
@@ -1307,75 +1276,36 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44193.77605018968</v>
+        <v>44193.98056816583</v>
       </c>
       <c r="D17" t="n">
-        <v>3331</v>
+        <v>3573</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M17" t="s"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>44193.77685483854</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2026</v>
-      </c>
-      <c r="E18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -56,235 +56,154 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Is Vaping Bad? - The Dangers of Vape Pens (19+ to view)</t>
-  </si>
-  <si>
-    <t>vHaovwA1cAY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vHaovwA1cAY</t>
-  </si>
-  <si>
-    <t>The Busy Budtender</t>
+    <t>General Instructions for Disposable Respirators</t>
+  </si>
+  <si>
+    <t>0d_RaKdqeck</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0d_RaKdqeck</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention (CDC)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Vaping industry is booming</t>
+  </si>
+  <si>
+    <t>Jmf945iBP14</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Jmf945iBP14</t>
+  </si>
+  <si>
+    <t>AP Archive</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Unlock3: Curfew Ends, No Schools Till End-August, Gyms Can Reopen</t>
+  </si>
+  <si>
+    <t>ncLOuCCVFis</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ncLOuCCVFis</t>
+  </si>
+  <si>
+    <t>NDTV</t>
+  </si>
+  <si>
+    <t>HOW TO USE E CIG - ELECTRONIC CIGARETTE - FLAVOURS</t>
+  </si>
+  <si>
+    <t>ud5ugKDvkHw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ud5ugKDvkHw</t>
+  </si>
+  <si>
+    <t>Absolute Nails</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>How It Works: FlySense Vaping Detection Solution</t>
+  </si>
+  <si>
+    <t>AEmZvdkgm6M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AEmZvdkgm6M</t>
+  </si>
+  <si>
+    <t>Soter Technologies</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>smoke detector</t>
+  </si>
+  <si>
+    <t>FOGG Disposable Pod!</t>
+  </si>
+  <si>
+    <t>_khExFs0ai0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_khExFs0ai0</t>
+  </si>
+  <si>
+    <t>Matt From SMM</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Is this "disposable" ecig battery rechargeable?</t>
+  </si>
+  <si>
+    <t>BOYkOPRPap4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BOYkOPRPap4</t>
+  </si>
+  <si>
+    <t>bigclivedotcom</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>Water in lungs from VAPING?!</t>
+  </si>
+  <si>
+    <t>tnQe3T4vpoM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tnQe3T4vpoM</t>
+  </si>
+  <si>
+    <t>DashVapes</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Tesla WYE 200W Box Mod Review and Rundown | One of the Best Box Mods of 2017</t>
-  </si>
-  <si>
-    <t>dFUecXStLHM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dFUecXStLHM</t>
-  </si>
-  <si>
-    <t>Jai Haze</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Are electronic cigarettes safe? BBC News</t>
-  </si>
-  <si>
-    <t>_cqgbdfZk20</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_cqgbdfZk20</t>
-  </si>
-  <si>
-    <t>BBC News</t>
+    <t>0 1</t>
   </si>
   <si>
     <t>1 2</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Are e-cigarettes and vapes dangerous? Here’s what a UC Riverside lab found</t>
-  </si>
-  <si>
-    <t>d8VHlW-XLzo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d8VHlW-XLzo</t>
-  </si>
-  <si>
-    <t>Univ. of California, Riverside</t>
-  </si>
-  <si>
-    <t>Asmodus Plaque Box Mod</t>
-  </si>
-  <si>
-    <t>Orqxv9M0Rtw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Orqxv9M0Rtw</t>
-  </si>
-  <si>
-    <t>Cloudscape Vape</t>
-  </si>
-  <si>
-    <t>How to Spot a Bootleg Cannabis Vape Cartridge | RS News 8/30/19</t>
-  </si>
-  <si>
-    <t>PxmvhTdxnO0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PxmvhTdxnO0</t>
-  </si>
-  <si>
-    <t>Rolling Stone</t>
-  </si>
-  <si>
-    <t>5 7</t>
-  </si>
-  <si>
-    <t>SINUOUS V80 -- An Economical and Cost-effective E-cig</t>
-  </si>
-  <si>
-    <t>cXX86EoIE78</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cXX86EoIE78</t>
-  </si>
-  <si>
-    <t>Wismec</t>
-  </si>
-  <si>
-    <t>John Prine - Summer's End Official Video</t>
-  </si>
-  <si>
-    <t>nXbEFTv9zr0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nXbEFTv9zr0</t>
-  </si>
-  <si>
-    <t>John Prine</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Episode 22: V is for Vaping - Kids A to Z with the PNPs</t>
-  </si>
-  <si>
-    <t>0wjLGYG_1u4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0wjLGYG_1u4</t>
-  </si>
-  <si>
-    <t>ChildrensDMC</t>
-  </si>
-  <si>
-    <t>What Are PG and VG?</t>
-  </si>
-  <si>
-    <t>QJ--FU0T7xo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QJ--FU0T7xo</t>
-  </si>
-  <si>
-    <t>Vapable</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>IS VAPING BAD FOR YOU? DEBUNKING POPULAR MYTHS</t>
-  </si>
-  <si>
-    <t>ChtmOPFU2GI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ChtmOPFU2GI</t>
-  </si>
-  <si>
-    <t>Vaping Insider</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Dr. Michael Siegel on Why Electronic Cigarettes Work</t>
-  </si>
-  <si>
-    <t>9ARSDOs6Ngg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9ARSDOs6Ngg</t>
-  </si>
-  <si>
-    <t>ecigadvanced</t>
-  </si>
-  <si>
-    <t>Vaping Tips - Breathing and Steeping eJuice!</t>
-  </si>
-  <si>
-    <t>mvwPJ23Ohsk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mvwPJ23Ohsk</t>
-  </si>
-  <si>
-    <t>Abby Vapes</t>
-  </si>
-  <si>
-    <t>VAPE SPITBACK TRICK: GARGLING POPPING HISSING SOUND? HOT VAPE JUICE ON UR TONGUE? THIS TRICK IS 4 U</t>
-  </si>
-  <si>
-    <t>BfojJAbePus</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BfojJAbePus</t>
-  </si>
-  <si>
-    <t>HookahTownUSA</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>ProColor 225W TC by SMOK!</t>
-  </si>
-  <si>
-    <t>0QAl0PbQpxs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0QAl0PbQpxs</t>
-  </si>
-  <si>
-    <t>Matt From SMM</t>
-  </si>
-  <si>
-    <t>Gas Mods MARS Pod System with Adjustable Power</t>
-  </si>
-  <si>
-    <t>WkO7Xb7kKPI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WkO7Xb7kKPI</t>
-  </si>
-  <si>
-    <t>Zophie Reviews</t>
+    <t>Leading Voices in Public Health - Judith Groner</t>
+  </si>
+  <si>
+    <t>Z3-s6LjFUew</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z3-s6LjFUew</t>
+  </si>
+  <si>
+    <t>ETSU College of Public Health</t>
   </si>
 </sst>
 </file>
@@ -637,7 +556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,10 +610,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44193.96593634341</v>
+        <v>44197.86930822772</v>
       </c>
       <c r="D2" t="n">
-        <v>1220</v>
+        <v>3384</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -718,7 +637,7 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s"/>
     </row>
@@ -730,34 +649,34 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44193.96674162689</v>
+        <v>44197.86979796014</v>
       </c>
       <c r="D3" t="n">
-        <v>1089</v>
+        <v>2477</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
       </c>
       <c r="M3" t="s"/>
     </row>
@@ -769,10 +688,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44193.96753902934</v>
+        <v>44197.87002732405</v>
       </c>
       <c r="D4" t="n">
-        <v>61</v>
+        <v>2132</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -787,16 +706,16 @@
         <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s"/>
     </row>
@@ -808,34 +727,34 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44193.96927430764</v>
+        <v>44197.8712957871</v>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>2375</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -847,10 +766,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44193.97306094442</v>
+        <v>44197.87222253538</v>
       </c>
       <c r="D6" t="n">
-        <v>3473</v>
+        <v>435</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -865,18 +784,20 @@
         <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="n">
@@ -886,34 +807,34 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44193.97347198144</v>
+        <v>44197.87319787603</v>
       </c>
       <c r="D7" t="n">
-        <v>3333</v>
+        <v>1372</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s"/>
     </row>
@@ -925,34 +846,34 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44193.97422375232</v>
+        <v>44197.87370529651</v>
       </c>
       <c r="D8" t="n">
-        <v>2413</v>
+        <v>245</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M8" t="s"/>
     </row>
@@ -964,34 +885,34 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44193.97435496234</v>
+        <v>44197.87450070126</v>
       </c>
       <c r="D9" t="n">
-        <v>3201</v>
+        <v>579</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -1003,309 +924,36 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44193.97715702245</v>
+        <v>44197.87468991613</v>
       </c>
       <c r="D10" t="n">
-        <v>2871</v>
+        <v>2920</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
         <v>56</v>
       </c>
-      <c r="G10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M10" t="s"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44193.97783036566</v>
-      </c>
-      <c r="D11" t="n">
-        <v>546</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" t="s"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>44193.97825573463</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1899</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" t="s"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>44193.97881508004</v>
-      </c>
-      <c r="D13" t="n">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" t="s"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>44193.97923834831</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2529</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" t="s"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>44193.98011370483</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2826</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" t="s"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>44193.9802684959</v>
-      </c>
-      <c r="D16" t="n">
-        <v>827</v>
-      </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" t="s"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>44193.98056816583</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3573</v>
-      </c>
-      <c r="E17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -56,154 +56,364 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>General Instructions for Disposable Respirators</t>
-  </si>
-  <si>
-    <t>0d_RaKdqeck</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0d_RaKdqeck</t>
-  </si>
-  <si>
-    <t>Centers for Disease Control and Prevention (CDC)</t>
+    <t>TOP 10 BEST SINGLE BATTERY MODS FOR 2019 - VAPING INSIDER</t>
+  </si>
+  <si>
+    <t>N7l-nLu9o94</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N7l-nLu9o94</t>
+  </si>
+  <si>
+    <t>Vaping Insider</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>LiQuid E-liquids</t>
+  </si>
+  <si>
+    <t>SwvrRa6sAKQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SwvrRa6sAKQ</t>
+  </si>
+  <si>
+    <t>EcigsUK</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>givewayas</t>
+  </si>
+  <si>
+    <t>Electronic Cigarettes: the Facts and the Myths</t>
+  </si>
+  <si>
+    <t>dJBq0WFHqF8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dJBq0WFHqF8</t>
+  </si>
+  <si>
+    <t>UChicago Medicine</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>What is an Atomizer? | Vape Questions Answered</t>
+  </si>
+  <si>
+    <t>LHiPevLVpmI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LHiPevLVpmI</t>
+  </si>
+  <si>
+    <t>VapeWild</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Exploding Vape Pen Compilation | Vape Explodes | 18650 Battery Explosion</t>
+  </si>
+  <si>
+    <t>n96BT9FLVyI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n96BT9FLVyI</t>
+  </si>
+  <si>
+    <t>ShadyVapes</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Is Vaping Marijuana Safe? Death And Lung Disease Linked To E-Cigs Call That Into Questione | TIME</t>
+  </si>
+  <si>
+    <t>SaziKW5CV7w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SaziKW5CV7w</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>1 5</t>
+  </si>
+  <si>
+    <t>Smok RPM40 Full In-Depth Precise Review [Nic Salt &amp; Free Base Pod]</t>
+  </si>
+  <si>
+    <t>m6k-AbI5JxY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m6k-AbI5JxY</t>
+  </si>
+  <si>
+    <t>BCE</t>
+  </si>
+  <si>
+    <t>WE JUST RUINED ALL VAPE PENS! (Vessel Commercial)</t>
+  </si>
+  <si>
+    <t>I3AjCkb6nMw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=I3AjCkb6nMw</t>
+  </si>
+  <si>
+    <t>Puff Puff Pass It TV</t>
+  </si>
+  <si>
+    <t>Custom made parallel unregulated 26650 box mod</t>
+  </si>
+  <si>
+    <t>2ge66y_O8Mc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2ge66y_O8Mc</t>
+  </si>
+  <si>
+    <t>Al USAF</t>
+  </si>
+  <si>
+    <t>New GoMax Disposable Tank by Innokin! | &amp; $5 for 100ml at Spicy Vape! | IndoorSmokers</t>
+  </si>
+  <si>
+    <t>yfKO7mDXmE0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yfKO7mDXmE0</t>
+  </si>
+  <si>
+    <t>IndoorSmokers</t>
+  </si>
+  <si>
+    <t>BOX MODS VS CYLINDER MODS?!?!</t>
+  </si>
+  <si>
+    <t>De21TSmyhSg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=De21TSmyhSg</t>
+  </si>
+  <si>
+    <t>Vape Central</t>
+  </si>
+  <si>
+    <t>How to Refill JUUL Pods &amp; Save Money</t>
+  </si>
+  <si>
+    <t>eMcQXZqUZl4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eMcQXZqUZl4</t>
+  </si>
+  <si>
+    <t>Vaping411</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>RPM LITE Pod Mod by SMOK!</t>
+  </si>
+  <si>
+    <t>oSlg-579fCI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oSlg-579fCI</t>
+  </si>
+  <si>
+    <t>Matt From SMM</t>
+  </si>
+  <si>
+    <t>Shooting Fuji Disposable Camera (First Time!!!)</t>
+  </si>
+  <si>
+    <t>T4dr9y2BvXU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=T4dr9y2BvXU</t>
+  </si>
+  <si>
+    <t>erwnalejo</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Vaping industry is booming</t>
-  </si>
-  <si>
-    <t>Jmf945iBP14</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Jmf945iBP14</t>
-  </si>
-  <si>
-    <t>AP Archive</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Unlock3: Curfew Ends, No Schools Till End-August, Gyms Can Reopen</t>
-  </si>
-  <si>
-    <t>ncLOuCCVFis</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ncLOuCCVFis</t>
-  </si>
-  <si>
-    <t>NDTV</t>
-  </si>
-  <si>
-    <t>HOW TO USE E CIG - ELECTRONIC CIGARETTE - FLAVOURS</t>
-  </si>
-  <si>
-    <t>ud5ugKDvkHw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ud5ugKDvkHw</t>
-  </si>
-  <si>
-    <t>Absolute Nails</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>How It Works: FlySense Vaping Detection Solution</t>
-  </si>
-  <si>
-    <t>AEmZvdkgm6M</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AEmZvdkgm6M</t>
-  </si>
-  <si>
-    <t>Soter Technologies</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>smoke detector</t>
-  </si>
-  <si>
-    <t>FOGG Disposable Pod!</t>
-  </si>
-  <si>
-    <t>_khExFs0ai0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_khExFs0ai0</t>
-  </si>
-  <si>
-    <t>Matt From SMM</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Is this "disposable" ecig battery rechargeable?</t>
-  </si>
-  <si>
-    <t>BOYkOPRPap4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BOYkOPRPap4</t>
-  </si>
-  <si>
-    <t>bigclivedotcom</t>
-  </si>
-  <si>
-    <t>3 7</t>
-  </si>
-  <si>
-    <t>Water in lungs from VAPING?!</t>
-  </si>
-  <si>
-    <t>tnQe3T4vpoM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tnQe3T4vpoM</t>
-  </si>
-  <si>
-    <t>DashVapes</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>1 2</t>
-  </si>
-  <si>
-    <t>Leading Voices in Public Health - Judith Groner</t>
-  </si>
-  <si>
-    <t>Z3-s6LjFUew</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Z3-s6LjFUew</t>
-  </si>
-  <si>
-    <t>ETSU College of Public Health</t>
+    <t>WAX PEN HOTBOX w/ ERICK KHAN!!!!!</t>
+  </si>
+  <si>
+    <t>qXRkcCe7lBA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qXRkcCe7lBA</t>
+  </si>
+  <si>
+    <t>Donny Vapes</t>
+  </si>
+  <si>
+    <t>5 9</t>
+  </si>
+  <si>
+    <t>Battle of the Sub Ohm Tanks, Top 4 (Who wins?) - E Cig City Reviews &amp; Tutorials</t>
+  </si>
+  <si>
+    <t>PP3En0SgaZc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PP3En0SgaZc</t>
+  </si>
+  <si>
+    <t>E Cig City UK</t>
+  </si>
+  <si>
+    <t>BANNERS - Where The Shadow Ends (Acoustic)</t>
+  </si>
+  <si>
+    <t>DVTAdaXl3QU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DVTAdaXl3QU</t>
+  </si>
+  <si>
+    <t>BannersVEVO</t>
+  </si>
+  <si>
+    <t>TIKTOKS TO WATCH BEFORE WORLD ENDS!</t>
+  </si>
+  <si>
+    <t>L1RYl_cxiLs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L1RYl_cxiLs</t>
+  </si>
+  <si>
+    <t>DAILY TIKTOK</t>
+  </si>
+  <si>
+    <t>Vaping Risks - What Vaping Can Do to Your Mouth</t>
+  </si>
+  <si>
+    <t>btzUK1-TmrA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=btzUK1-TmrA</t>
+  </si>
+  <si>
+    <t>Joseph R Nemeth DDS &amp; Associates</t>
+  </si>
+  <si>
+    <t>TOP 5 BEST VAPE MODS FOR 2020 - VAPING INSIDER</t>
+  </si>
+  <si>
+    <t>0ADj1PLUy4Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0ADj1PLUy4Y</t>
+  </si>
+  <si>
+    <t>Best Product Aliexpress</t>
+  </si>
+  <si>
+    <t>News 4 at 5:30 p.m.</t>
+  </si>
+  <si>
+    <t>w9cO31jgsDU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w9cO31jgsDU</t>
+  </si>
+  <si>
+    <t>WIVBTV</t>
+  </si>
+  <si>
+    <t>BEST POD SYSTEM/POD VAPES for MTL Vaping in 2019 | 100+ Vape Pod Tested</t>
+  </si>
+  <si>
+    <t>SUQg_eng_qk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SUQg_eng_qk</t>
+  </si>
+  <si>
+    <t>HeavenGifts Official</t>
+  </si>
+  <si>
+    <t>Metallica - Disposable Heroes (Studio Version)</t>
+  </si>
+  <si>
+    <t>tRqCOIsTx8M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tRqCOIsTx8M</t>
+  </si>
+  <si>
+    <t>Kikuku94</t>
+  </si>
+  <si>
+    <t>CHILL BILL! E-JUICE REVIEW | Strawberry Assassin by SilvisWorks | #5</t>
+  </si>
+  <si>
+    <t>ozdx_kfESFE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ozdx_kfESFE</t>
+  </si>
+  <si>
+    <t>Justin Ross</t>
+  </si>
+  <si>
+    <t>Vape Mods VS Vape Pod Systems: the basic pros and cons</t>
+  </si>
+  <si>
+    <t>QeXgbSEhZeo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QeXgbSEhZeo</t>
+  </si>
+  <si>
+    <t>ZampleBox</t>
+  </si>
+  <si>
+    <t>3 5</t>
+  </si>
+  <si>
+    <t>Auro 60w Box Mod Vape kit on Amazon Prime</t>
+  </si>
+  <si>
+    <t>ajqiE6P_2zA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ajqiE6P_2zA</t>
+  </si>
+  <si>
+    <t>PHANTOM-FX</t>
+  </si>
+  <si>
+    <t>0 7</t>
   </si>
 </sst>
 </file>
@@ -556,7 +766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,10 +820,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44197.86930822772</v>
+        <v>44197.87556533638</v>
       </c>
       <c r="D2" t="n">
-        <v>3384</v>
+        <v>781</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -637,7 +847,7 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s"/>
     </row>
@@ -649,10 +859,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44197.86979796014</v>
+        <v>44197.87626482838</v>
       </c>
       <c r="D3" t="n">
-        <v>2477</v>
+        <v>494</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -667,18 +877,20 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
@@ -688,34 +900,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44197.87002732405</v>
+        <v>44197.87657933356</v>
       </c>
       <c r="D4" t="n">
-        <v>2132</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s"/>
     </row>
@@ -727,34 +939,34 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44197.8712957871</v>
+        <v>44197.87716741776</v>
       </c>
       <c r="D5" t="n">
-        <v>2375</v>
+        <v>2452</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -766,38 +978,36 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44197.87222253538</v>
+        <v>44197.87775031925</v>
       </c>
       <c r="D6" t="n">
-        <v>435</v>
+        <v>2663</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M6" t="s"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="n">
@@ -807,10 +1017,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44197.87319787603</v>
+        <v>44197.87799630695</v>
       </c>
       <c r="D7" t="n">
-        <v>1372</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
@@ -828,13 +1038,13 @@
         <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s"/>
     </row>
@@ -846,10 +1056,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44197.87370529651</v>
+        <v>44197.87852162902</v>
       </c>
       <c r="D8" t="n">
-        <v>245</v>
+        <v>3046</v>
       </c>
       <c r="E8" t="s">
         <v>47</v>
@@ -864,16 +1074,16 @@
         <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s"/>
     </row>
@@ -885,34 +1095,34 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44197.87450070126</v>
+        <v>44197.87956747614</v>
       </c>
       <c r="D9" t="n">
-        <v>579</v>
+        <v>1185</v>
       </c>
       <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>54</v>
       </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -924,36 +1134,699 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44197.87468991613</v>
+        <v>44197.88006211218</v>
       </c>
       <c r="D10" t="n">
-        <v>2920</v>
+        <v>2649</v>
       </c>
       <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44197.88053451673</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3749</v>
+      </c>
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>60</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>61</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>62</v>
       </c>
-      <c r="I10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s"/>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44197.88082312547</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1955</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44197.88145337632</v>
+      </c>
+      <c r="D13" t="n">
+        <v>765</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" t="s"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44197.88166709148</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2041</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" t="s"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44197.88176346765</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3189</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44197.88228535252</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" t="s"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>44197.88302589221</v>
+      </c>
+      <c r="D17" t="n">
+        <v>248</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>44197.88314671063</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1746</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" t="s"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>44197.88329794328</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1787</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" t="s"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>44197.88365659757</v>
+      </c>
+      <c r="D20" t="n">
+        <v>371</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" t="s"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>44197.88401053219</v>
+      </c>
+      <c r="D21" t="n">
+        <v>829</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" t="s"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>44197.88441373809</v>
+      </c>
+      <c r="D22" t="n">
+        <v>979</v>
+      </c>
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" t="s"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>44197.88504862277</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3261</v>
+      </c>
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" t="s"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>44197.8851890569</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" t="s"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>44197.88560614029</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2165</v>
+      </c>
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" t="s"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>44197.88590213381</v>
+      </c>
+      <c r="D26" t="n">
+        <v>646</v>
+      </c>
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" t="s"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>44197.88717576699</v>
+      </c>
+      <c r="D27" t="n">
+        <v>871</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models.xlsx
+++ b/classification-record/session-all-models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -56,364 +56,325 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>TOP 10 BEST SINGLE BATTERY MODS FOR 2019 - VAPING INSIDER</t>
-  </si>
-  <si>
-    <t>N7l-nLu9o94</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=N7l-nLu9o94</t>
-  </si>
-  <si>
-    <t>Vaping Insider</t>
+    <t>Room Filling Clouds on the New Smok Vape Pen Nord 19 Kit! | &amp; Zamplebox! | IndoorSmokers</t>
+  </si>
+  <si>
+    <t>5Ry0Y_5skdU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5Ry0Y_5skdU</t>
+  </si>
+  <si>
+    <t>IndoorSmokers</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>2 4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>I Vaped Belle Delphine's Bathwater</t>
+  </si>
+  <si>
+    <t>s-S-GZU2cYY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s-S-GZU2cYY</t>
+  </si>
+  <si>
+    <t>Vito</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>REVIEW OF THE LR 510 BOTTOM COIL CARTOMISERS FOR ELECTRONIC CIGARETTES</t>
+  </si>
+  <si>
+    <t>MG4Xr4VkUU0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MG4Xr4VkUU0</t>
+  </si>
+  <si>
+    <t>igetcha69</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>Period. End of Sentence. | FULL FEATURE | Netflix</t>
+  </si>
+  <si>
+    <t>Lrm2pD0qofM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lrm2pD0qofM</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>LiQuid E-liquids</t>
-  </si>
-  <si>
-    <t>SwvrRa6sAKQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=SwvrRa6sAKQ</t>
-  </si>
-  <si>
-    <t>EcigsUK</t>
+    <t>Hillsborough Sheriff's office: Rap video shoot ends in real murder</t>
+  </si>
+  <si>
+    <t>HwqRJw7GvZw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HwqRJw7GvZw</t>
+  </si>
+  <si>
+    <t>WFLA News Channel 8</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Some of the Best E Cigarettes on the Market</t>
+  </si>
+  <si>
+    <t>tGz_p_LR1Bo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tGz_p_LR1Bo</t>
+  </si>
+  <si>
+    <t>Martin Lotsberg</t>
+  </si>
+  <si>
+    <t>Millions Of Americans Face Uncertainty As $600 Unemployment Benefit Ends | TODAY</t>
+  </si>
+  <si>
+    <t>mg3cYl-cPMQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mg3cYl-cPMQ</t>
+  </si>
+  <si>
+    <t>TODAY</t>
+  </si>
+  <si>
+    <t>Lost Vape Centauras, Learning To Spell on QC is Optional | Herpie Leather</t>
+  </si>
+  <si>
+    <t>EXCNbUDYP_Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EXCNbUDYP_Y</t>
+  </si>
+  <si>
+    <t>Jai Haze</t>
+  </si>
+  <si>
+    <t>How to fill disposable cbd vape pen correctly</t>
+  </si>
+  <si>
+    <t>e9i2PCK4AXw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=e9i2PCK4AXw</t>
+  </si>
+  <si>
+    <t>C Janice</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>Juice Review - Amazon Best Seller 😬</t>
+  </si>
+  <si>
+    <t>LkopKj04piU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LkopKj04piU</t>
+  </si>
+  <si>
+    <t>Green Winch</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>givewayas</t>
-  </si>
-  <si>
-    <t>Electronic Cigarettes: the Facts and the Myths</t>
-  </si>
-  <si>
-    <t>dJBq0WFHqF8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dJBq0WFHqF8</t>
-  </si>
-  <si>
-    <t>UChicago Medicine</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>What is an Atomizer? | Vape Questions Answered</t>
-  </si>
-  <si>
-    <t>LHiPevLVpmI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LHiPevLVpmI</t>
+    <t>Disposable Vape Pen</t>
+  </si>
+  <si>
+    <t>0cHKPUP-pU0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0cHKPUP-pU0</t>
+  </si>
+  <si>
+    <t>electronic cigarettes</t>
+  </si>
+  <si>
+    <t>Ezzy Oval Disposable Review |Worst vape reviewed yet|</t>
+  </si>
+  <si>
+    <t>VE6lHJCxk3w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VE6lHJCxk3w</t>
+  </si>
+  <si>
+    <t>DB Smoke reviews</t>
+  </si>
+  <si>
+    <t>E-cigarette Use among Teens</t>
+  </si>
+  <si>
+    <t>DdCgkxHfZ_I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DdCgkxHfZ_I</t>
+  </si>
+  <si>
+    <t>The Doctors</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>KSP Mods - REKT Escape Pod</t>
+  </si>
+  <si>
+    <t>ra0ZhcMYOPE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ra0ZhcMYOPE</t>
+  </si>
+  <si>
+    <t>KottabosGames</t>
+  </si>
+  <si>
+    <t>Vaping for the First Time - Vape tips for beginners</t>
+  </si>
+  <si>
+    <t>395GZVI099Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=395GZVI099Q</t>
+  </si>
+  <si>
+    <t>ZampleBox</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>MOD TIPS #04 - Custom Enclosures for Box mods</t>
+  </si>
+  <si>
+    <t>8lXqqeqRrgQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8lXqqeqRrgQ</t>
+  </si>
+  <si>
+    <t>Find My Vapes</t>
+  </si>
+  <si>
+    <t>BATTLBOX : Mission 65 (July 2020)  Unique Flashlight, Axe Or Hatchet? &amp; Disposable BBQ Grill???</t>
+  </si>
+  <si>
+    <t>drNl0xRmjyI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=drNl0xRmjyI</t>
+  </si>
+  <si>
+    <t>cutlerylover</t>
+  </si>
+  <si>
+    <t>Milkman E-Liquid | Classics | Flavor Tasting</t>
+  </si>
+  <si>
+    <t>MVkHeYR7D8Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MVkHeYR7D8Y</t>
   </si>
   <si>
     <t>VapeWild</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Exploding Vape Pen Compilation | Vape Explodes | 18650 Battery Explosion</t>
-  </si>
-  <si>
-    <t>n96BT9FLVyI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n96BT9FLVyI</t>
-  </si>
-  <si>
-    <t>ShadyVapes</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Is Vaping Marijuana Safe? Death And Lung Disease Linked To E-Cigs Call That Into Questione | TIME</t>
-  </si>
-  <si>
-    <t>SaziKW5CV7w</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=SaziKW5CV7w</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>1 5</t>
-  </si>
-  <si>
-    <t>Smok RPM40 Full In-Depth Precise Review [Nic Salt &amp; Free Base Pod]</t>
-  </si>
-  <si>
-    <t>m6k-AbI5JxY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m6k-AbI5JxY</t>
-  </si>
-  <si>
-    <t>BCE</t>
-  </si>
-  <si>
-    <t>WE JUST RUINED ALL VAPE PENS! (Vessel Commercial)</t>
-  </si>
-  <si>
-    <t>I3AjCkb6nMw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=I3AjCkb6nMw</t>
-  </si>
-  <si>
-    <t>Puff Puff Pass It TV</t>
-  </si>
-  <si>
-    <t>Custom made parallel unregulated 26650 box mod</t>
-  </si>
-  <si>
-    <t>2ge66y_O8Mc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2ge66y_O8Mc</t>
-  </si>
-  <si>
-    <t>Al USAF</t>
-  </si>
-  <si>
-    <t>New GoMax Disposable Tank by Innokin! | &amp; $5 for 100ml at Spicy Vape! | IndoorSmokers</t>
-  </si>
-  <si>
-    <t>yfKO7mDXmE0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yfKO7mDXmE0</t>
-  </si>
-  <si>
-    <t>IndoorSmokers</t>
-  </si>
-  <si>
-    <t>BOX MODS VS CYLINDER MODS?!?!</t>
-  </si>
-  <si>
-    <t>De21TSmyhSg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=De21TSmyhSg</t>
-  </si>
-  <si>
-    <t>Vape Central</t>
-  </si>
-  <si>
-    <t>How to Refill JUUL Pods &amp; Save Money</t>
-  </si>
-  <si>
-    <t>eMcQXZqUZl4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eMcQXZqUZl4</t>
-  </si>
-  <si>
-    <t>Vaping411</t>
-  </si>
-  <si>
-    <t>3 7</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>RPM LITE Pod Mod by SMOK!</t>
-  </si>
-  <si>
-    <t>oSlg-579fCI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oSlg-579fCI</t>
-  </si>
-  <si>
-    <t>Matt From SMM</t>
-  </si>
-  <si>
-    <t>Shooting Fuji Disposable Camera (First Time!!!)</t>
-  </si>
-  <si>
-    <t>T4dr9y2BvXU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=T4dr9y2BvXU</t>
-  </si>
-  <si>
-    <t>erwnalejo</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>WAX PEN HOTBOX w/ ERICK KHAN!!!!!</t>
-  </si>
-  <si>
-    <t>qXRkcCe7lBA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qXRkcCe7lBA</t>
-  </si>
-  <si>
-    <t>Donny Vapes</t>
-  </si>
-  <si>
-    <t>5 9</t>
-  </si>
-  <si>
-    <t>Battle of the Sub Ohm Tanks, Top 4 (Who wins?) - E Cig City Reviews &amp; Tutorials</t>
-  </si>
-  <si>
-    <t>PP3En0SgaZc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PP3En0SgaZc</t>
-  </si>
-  <si>
-    <t>E Cig City UK</t>
-  </si>
-  <si>
-    <t>BANNERS - Where The Shadow Ends (Acoustic)</t>
-  </si>
-  <si>
-    <t>DVTAdaXl3QU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DVTAdaXl3QU</t>
-  </si>
-  <si>
-    <t>BannersVEVO</t>
-  </si>
-  <si>
-    <t>TIKTOKS TO WATCH BEFORE WORLD ENDS!</t>
-  </si>
-  <si>
-    <t>L1RYl_cxiLs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=L1RYl_cxiLs</t>
-  </si>
-  <si>
-    <t>DAILY TIKTOK</t>
-  </si>
-  <si>
-    <t>Vaping Risks - What Vaping Can Do to Your Mouth</t>
-  </si>
-  <si>
-    <t>btzUK1-TmrA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=btzUK1-TmrA</t>
-  </si>
-  <si>
-    <t>Joseph R Nemeth DDS &amp; Associates</t>
-  </si>
-  <si>
-    <t>TOP 5 BEST VAPE MODS FOR 2020 - VAPING INSIDER</t>
-  </si>
-  <si>
-    <t>0ADj1PLUy4Y</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0ADj1PLUy4Y</t>
-  </si>
-  <si>
-    <t>Best Product Aliexpress</t>
-  </si>
-  <si>
-    <t>News 4 at 5:30 p.m.</t>
-  </si>
-  <si>
-    <t>w9cO31jgsDU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w9cO31jgsDU</t>
-  </si>
-  <si>
-    <t>WIVBTV</t>
-  </si>
-  <si>
-    <t>BEST POD SYSTEM/POD VAPES for MTL Vaping in 2019 | 100+ Vape Pod Tested</t>
-  </si>
-  <si>
-    <t>SUQg_eng_qk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=SUQg_eng_qk</t>
-  </si>
-  <si>
-    <t>HeavenGifts Official</t>
-  </si>
-  <si>
-    <t>Metallica - Disposable Heroes (Studio Version)</t>
-  </si>
-  <si>
-    <t>tRqCOIsTx8M</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tRqCOIsTx8M</t>
-  </si>
-  <si>
-    <t>Kikuku94</t>
-  </si>
-  <si>
-    <t>CHILL BILL! E-JUICE REVIEW | Strawberry Assassin by SilvisWorks | #5</t>
-  </si>
-  <si>
-    <t>ozdx_kfESFE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ozdx_kfESFE</t>
-  </si>
-  <si>
-    <t>Justin Ross</t>
-  </si>
-  <si>
-    <t>Vape Mods VS Vape Pod Systems: the basic pros and cons</t>
-  </si>
-  <si>
-    <t>QeXgbSEhZeo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QeXgbSEhZeo</t>
-  </si>
-  <si>
-    <t>ZampleBox</t>
-  </si>
-  <si>
-    <t>3 5</t>
-  </si>
-  <si>
-    <t>Auro 60w Box Mod Vape kit on Amazon Prime</t>
-  </si>
-  <si>
-    <t>ajqiE6P_2zA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ajqiE6P_2zA</t>
-  </si>
-  <si>
-    <t>PHANTOM-FX</t>
-  </si>
-  <si>
-    <t>0 7</t>
+    <t>Mojo Vape | My Personal Favorite Disposable Pod | Happy Thanksgiving!!</t>
+  </si>
+  <si>
+    <t>Bec0DIFr9tI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Bec0DIFr9tI</t>
+  </si>
+  <si>
+    <t>VapingWithThesis</t>
+  </si>
+  <si>
+    <t>Left, Right &amp; Centre | India Bans E-Cigarettes: Cigarettes Next?</t>
+  </si>
+  <si>
+    <t>hnI19aM8CFE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hnI19aM8CFE</t>
+  </si>
+  <si>
+    <t>NDTV</t>
+  </si>
+  <si>
+    <t>MALBORO E-JUICE REVIEW</t>
+  </si>
+  <si>
+    <t>DAFRQE2M3PI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DAFRQE2M3PI</t>
+  </si>
+  <si>
+    <t>Bill Jumalon</t>
+  </si>
+  <si>
+    <t>How Hemp-CBD Products are Made: CBD Vape Pens</t>
+  </si>
+  <si>
+    <t>YgTFVwqBobs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YgTFVwqBobs</t>
+  </si>
+  <si>
+    <t>Leafly</t>
+  </si>
+  <si>
+    <t>5 7</t>
+  </si>
+  <si>
+    <t>I got a New VAPE to Blow BIGGER Clouds...</t>
+  </si>
+  <si>
+    <t>Rgr9ko9o8MQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Rgr9ko9o8MQ</t>
+  </si>
+  <si>
+    <t>Outlaw</t>
   </si>
 </sst>
 </file>
@@ -766,7 +727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,10 +781,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44197.87556533638</v>
+        <v>44201.06514647081</v>
       </c>
       <c r="D2" t="n">
-        <v>781</v>
+        <v>1216</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -847,7 +808,7 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s"/>
     </row>
@@ -859,38 +820,36 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44197.87626482838</v>
+        <v>44201.06573870192</v>
       </c>
       <c r="D3" t="n">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M3" t="s"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
@@ -900,10 +859,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44197.87657933356</v>
+        <v>44201.06653184166</v>
       </c>
       <c r="D4" t="n">
-        <v>122</v>
+        <v>3305</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -918,16 +877,16 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
         <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
       </c>
       <c r="M4" t="s"/>
     </row>
@@ -939,10 +898,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44197.87716741776</v>
+        <v>44201.06666193817</v>
       </c>
       <c r="D5" t="n">
-        <v>2452</v>
+        <v>1780</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -960,13 +919,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s"/>
     </row>
@@ -978,34 +937,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44197.87775031925</v>
+        <v>44201.06696524937</v>
       </c>
       <c r="D6" t="n">
-        <v>2663</v>
+        <v>1728</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s"/>
     </row>
@@ -1017,34 +976,34 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44197.87799630695</v>
+        <v>44201.06747954559</v>
       </c>
       <c r="D7" t="n">
-        <v>154</v>
+        <v>3297</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s"/>
     </row>
@@ -1056,10 +1015,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44197.87852162902</v>
+        <v>44201.06770357092</v>
       </c>
       <c r="D8" t="n">
-        <v>3046</v>
+        <v>1807</v>
       </c>
       <c r="E8" t="s">
         <v>47</v>
@@ -1074,16 +1033,16 @@
         <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s"/>
     </row>
@@ -1095,10 +1054,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44197.87956747614</v>
+        <v>44201.06830316986</v>
       </c>
       <c r="D9" t="n">
-        <v>1185</v>
+        <v>349</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -1113,16 +1072,16 @@
         <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s"/>
     </row>
@@ -1134,10 +1093,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44197.88006211218</v>
+        <v>44201.06867691431</v>
       </c>
       <c r="D10" t="n">
-        <v>2649</v>
+        <v>2761</v>
       </c>
       <c r="E10" t="s">
         <v>55</v>
@@ -1152,16 +1111,16 @@
         <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s"/>
     </row>
@@ -1173,34 +1132,34 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44197.88053451673</v>
+        <v>44201.06925660765</v>
       </c>
       <c r="D11" t="n">
-        <v>3749</v>
+        <v>3026</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s"/>
     </row>
@@ -1212,34 +1171,34 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44197.88082312547</v>
+        <v>44201.07031661013</v>
       </c>
       <c r="D12" t="n">
-        <v>1955</v>
+        <v>3169</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s"/>
     </row>
@@ -1251,34 +1210,34 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44197.88145337632</v>
+        <v>44201.07081205372</v>
       </c>
       <c r="D13" t="n">
-        <v>765</v>
+        <v>1455</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s"/>
     </row>
@@ -1290,10 +1249,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44197.88166709148</v>
+        <v>44201.07125241796</v>
       </c>
       <c r="D14" t="n">
-        <v>2041</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>73</v>
@@ -1308,16 +1267,16 @@
         <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M14" t="s"/>
     </row>
@@ -1329,34 +1288,34 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44197.88176346765</v>
+        <v>44201.07139287239</v>
       </c>
       <c r="D15" t="n">
-        <v>3189</v>
+        <v>3360</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s"/>
     </row>
@@ -1368,10 +1327,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44197.88228535252</v>
+        <v>44201.07196025066</v>
       </c>
       <c r="D16" t="n">
-        <v>1121</v>
+        <v>1883</v>
       </c>
       <c r="E16" t="s">
         <v>82</v>
@@ -1389,13 +1348,13 @@
         <v>86</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="M16" t="s"/>
     </row>
@@ -1407,10 +1366,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44197.88302589221</v>
+        <v>44201.07311136346</v>
       </c>
       <c r="D17" t="n">
-        <v>248</v>
+        <v>1037</v>
       </c>
       <c r="E17" t="s">
         <v>87</v>
@@ -1425,16 +1384,16 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="M17" t="s"/>
     </row>
@@ -1446,10 +1405,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44197.88314671063</v>
+        <v>44201.07328088334</v>
       </c>
       <c r="D18" t="n">
-        <v>1746</v>
+        <v>2203</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -1464,16 +1423,16 @@
         <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K18" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s"/>
     </row>
@@ -1485,10 +1444,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44197.88329794328</v>
+        <v>44201.07369784638</v>
       </c>
       <c r="D19" t="n">
-        <v>1787</v>
+        <v>478</v>
       </c>
       <c r="E19" t="s">
         <v>95</v>
@@ -1503,16 +1462,16 @@
         <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="M19" t="s"/>
     </row>
@@ -1524,10 +1483,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44197.88365659757</v>
+        <v>44201.0740745182</v>
       </c>
       <c r="D20" t="n">
-        <v>371</v>
+        <v>1374</v>
       </c>
       <c r="E20" t="s">
         <v>99</v>
@@ -1542,16 +1501,16 @@
         <v>102</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M20" t="s"/>
     </row>
@@ -1563,10 +1522,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44197.88401053219</v>
+        <v>44201.07444570694</v>
       </c>
       <c r="D21" t="n">
-        <v>829</v>
+        <v>2425</v>
       </c>
       <c r="E21" t="s">
         <v>103</v>
@@ -1581,16 +1540,16 @@
         <v>106</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K21" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M21" t="s"/>
     </row>
@@ -1602,10 +1561,10 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>44197.88441373809</v>
+        <v>44201.07477557792</v>
       </c>
       <c r="D22" t="n">
-        <v>979</v>
+        <v>2107</v>
       </c>
       <c r="E22" t="s">
         <v>107</v>
@@ -1620,16 +1579,16 @@
         <v>110</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="L22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M22" t="s"/>
     </row>
@@ -1641,10 +1600,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>44197.88504862277</v>
+        <v>44201.07636021965</v>
       </c>
       <c r="D23" t="n">
-        <v>3261</v>
+        <v>1203</v>
       </c>
       <c r="E23" t="s">
         <v>111</v>
@@ -1659,16 +1618,16 @@
         <v>114</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="J23" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M23" t="s"/>
     </row>
@@ -1680,153 +1639,36 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>44197.8851890569</v>
+        <v>44201.07690692656</v>
       </c>
       <c r="D24" t="n">
-        <v>1596</v>
+        <v>313</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="L24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M24" t="s"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>44197.88560614029</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2165</v>
-      </c>
-      <c r="E25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" t="s">
-        <v>122</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" t="s"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>44197.88590213381</v>
-      </c>
-      <c r="D26" t="n">
-        <v>646</v>
-      </c>
-      <c r="E26" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" t="s">
-        <v>126</v>
-      </c>
-      <c r="I26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" t="s">
-        <v>127</v>
-      </c>
-      <c r="K26" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" t="s"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>44197.88717576699</v>
-      </c>
-      <c r="D27" t="n">
-        <v>871</v>
-      </c>
-      <c r="E27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I27" t="s">
-        <v>132</v>
-      </c>
-      <c r="J27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" t="s">
-        <v>72</v>
-      </c>
-      <c r="L27" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
